--- a/interface_atuo_cases0508/test_data/interface_cases.xlsx
+++ b/interface_atuo_cases0508/test_data/interface_cases.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="7245" windowWidth="18855"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="715" visibility="visible" windowHeight="9555" windowWidth="20640"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="365">
   <si>
     <t>id</t>
   </si>
@@ -110,6 +110,9 @@
     <t>{"staffId":"s_819aee8ed8554b9f82e8d6302c8d2411", "skillGroupId":"dc14c144-a9bb-4beb-ad0a-2df4be155623"}</t>
   </si>
   <si>
+    <t>{'count': 0}</t>
+  </si>
+  <si>
     <t>话术-新增公有话术与私有化术-0表示公有</t>
   </si>
   <si>
@@ -146,6 +149,18 @@
     <t>{"professionalWords": "测试标识私有接口","staffId": "s_819aee8ed8554b9f82e8d6302c8d2411","state": 1}</t>
   </si>
   <si>
+    <t>话术-获取公有话术与私有化术列表-0表示公有</t>
+  </si>
+  <si>
+    <t>/v1/tenants/_1NTMWLA/queryProfessionalWords</t>
+  </si>
+  <si>
+    <t>{ "professionalWords":"完","state":0, "staffId":"s_819aee8ed8554b9f82e8d6302c8d2411","page":1,"pageSize":10}</t>
+  </si>
+  <si>
+    <t>{'baseMessage': '获取话术成功', 'baseSuccess': True, 'httpStatusCode': 0, 'professionalWordsEntities': {'list': [{'id': 764, 'professionalWords': '已完成的', 'state': 0, 'tenantId': '_1NTMWLA', 'updateTime': '2019-07-18 18:54:27.0'}], 'page': 1, 'pageSize': 10, 'totalCount': 1}}</t>
+  </si>
+  <si>
     <t>话术-修改话术-1标识私有</t>
   </si>
   <si>
@@ -155,18 +170,6 @@
     <t>{"my_sql": "select * from professional_words where professional_words=%s", "condition": "测试标识私有接口", "result": "1", "code": 0}</t>
   </si>
   <si>
-    <t>话术-获取公有话术与私有化术列表-0表示公有</t>
-  </si>
-  <si>
-    <t>/v1/tenants/_1NTMWLA/queryProfessionalWords</t>
-  </si>
-  <si>
-    <t>{ "professionalWords":"完","state":0, "staffId":"s_819aee8ed8554b9f82e8d6302c8d2411","page":1,"pageSize":10}</t>
-  </si>
-  <si>
-    <t>{'baseMessage': '获取话术成功', 'baseSuccess': True, 'httpStatusCode': 0, 'professionalWordsEntities': {'list': [{'id': 764, 'professionalWords': '已完成的', 'state': 0, 'tenantId': '_1NTMWLA', 'updateTime': '2019-07-18 18:54:27.0'}], 'page': 1, 'pageSize': 10, 'totalCount': 1}}</t>
-  </si>
-  <si>
     <t>话术-获取公有话术与私有化术列表-1表示私有</t>
   </si>
   <si>
@@ -242,7 +245,7 @@
     <t>/v1/tenants/_1NTMWLA/get-staff/dc14c144-a9bb-4beb-ad0a-2df4be155623</t>
   </si>
   <si>
-    <t>{'baseSuccess': True, 'httpStatusCode': 0, 'staffInfoList': [{'avatar': '/static/media/line_icon_photo01.646c3740.svg', 'displayName': '章', 'gmtCreate': 1561534243000, 'gmtModified': 1563867116000, 'id': 32, 'isDeleted': 0, 'isEnable': 1, 'isModifyPassword': 1, 'jobNumber': '001', 'level': 100, 'organization': 33, 'password': '30:5b2d33342c2035372c202d37322c202d39302c203130372c202d3130342c2038322c2034392c202d37392c203132352c202d35392c2039322c2036352c203132302c202d34312c202d39375d:45d3f2302966a60843a21fc65287fe195451a216ef70a420eb0734836732f0f1', 'phone': '13622222222', 'staffId': 's_819aee8ed8554b9f82e8d6302c8d2411', 'staffName': '章广华', 'tenantId': '_1NTMWLA', 'username': 'zhang001'}, {'avatar': '', 'displayName': '章2', 'gmtCreate': 1561534283000, 'gmtModified': 1564048288000, 'id': 33, 'isDeleted': 0, 'isEnable': 0, 'isModifyPassword': 0, 'jobNumber': '002', 'level': 5, 'organization': 0, 'password': '30:5b3130302c203130392c2031302c2037372c2035312c2037362c203131312c2034312c203131312c2032312c202d39362c202d3131392c202d3132302c202d36382c202d35392c202d345d:f93580ab8627059009a23bc49acc0ab7cd07b8dc55da4206b32129f0411de56d', 'phone': '13622222222', 'staffId': 's_b17fc5b87921489788024c30229f0528', 'staffName': '章广华2', 'tenantId': '_1NTMWLA', 'username': 'zhang002'}, {'avatar': '', 'displayName': '章3', 'gmtCreate': 1561539262000, 'gmtModified': 1563789768000, 'id': 34, 'isDeleted': 0, 'isEnable': 1, 'isModifyPassword': 0, 'jobNumber': '003', 'level': 5, 'organization': 0, 'password': '30:5b2d38362c2032362c202d3131302c2036302c202d36322c202d39342c2031392c2034332c202d352c2036362c20302c2037302c202d32372c202d3132382c202d39332c2031305d:4a64d86df231ce01ba98737ba059732a24134a6ab712846263c7e1628d6ec0b9', 'phone': '13622222222', 'staffId': 's_27dc197e2b184befa8dc863f7b429bd2', 'staffName': '章广华3', 'tenantId': '_1NTMWLA', 'username': 'zhang003'}]}</t>
+    <t>{'baseSuccess': True, 'httpStatusCode': 0, 'staffInfoList': [{'avatar': '/static/media/line_icon_photo01.646c3740.svg', 'displayName': '章', 'gmtCreate': 1561534243000, 'gmtModified': 1563867116000, 'id': 32, 'isDeleted': 0, 'isEnable': 1, 'isModifyPassword': 1, 'jobNumber': '001', 'level': 100, 'organization': 33, 'password': '30:5b2d33342c2035372c202d37322c202d39302c203130372c202d3130342c2038322c2034392c202d37392c203132352c202d35392c2039322c2036352c203132302c202d34312c202d39375d:45d3f2302966a60843a21fc65287fe195451a216ef70a420eb0734836732f0f1', 'phone': '13622222222', 'staffId': 's_819aee8ed8554b9f82e8d6302c8d2411', 'staffName': '章广华', 'tenantId': '_1NTMWLA', 'username': 'zhang001'}, {'avatar': '', 'displayName': '章2', 'gmtCreate': 1561534283000, 'gmtModified': 1564754427000, 'id': 33, 'isDeleted': 0, 'isEnable': 0, 'isModifyPassword': 0, 'jobNumber': '002', 'level': 5, 'organization': 0, 'password': '30:5b3130302c203130392c2031302c2037372c2035312c2037362c203131312c2034312c203131312c2032312c202d39362c202d3131392c202d3132302c202d36382c202d35392c202d345d:f93580ab8627059009a23bc49acc0ab7cd07b8dc55da4206b32129f0411de56d', 'phone': '13622222222', 'staffId': 's_b17fc5b87921489788024c30229f0528', 'staffName': '章广华2', 'tenantId': '_1NTMWLA', 'username': 'zhang002'}, {'avatar': '', 'displayName': '章3', 'gmtCreate': 1561539262000, 'gmtModified': 1563789768000, 'id': 34, 'isDeleted': 0, 'isEnable': 1, 'isModifyPassword': 0, 'jobNumber': '003', 'level': 5, 'organization': 0, 'password': '30:5b2d38362c2032362c202d3131302c2036302c202d36322c202d39342c2031392c2034332c202d352c2036362c20302c2037302c202d32372c202d3132382c202d39332c2031305d:4a64d86df231ce01ba98737ba059732a24134a6ab712846263c7e1628d6ec0b9', 'phone': '13622222222', 'staffId': 's_27dc197e2b184befa8dc863f7b429bd2', 'staffName': '章广华3', 'tenantId': '_1NTMWLA', 'username': 'zhang003'}]}</t>
   </si>
   <si>
     <t>基础设置-查询询问前表单</t>
@@ -254,7 +257,7 @@
     <t>{"configType":5}</t>
   </si>
   <si>
-    <t>{'baseSuccess': True, 'globalConfigEntity': [{'configCode': 'FORM_INQUIRY', 'configDescription': '', 'configName': 'formInquiry', 'configState': True, 'configType': 5, 'configValue': '{"reminder":true,"words":"123456789012345678901234567890","check":false,"validateStatus":"success","help":""}', 'tenantId': '_1NTMWLA'}], 'globalConfigFormEntity': [{'configType': 5, 'formDescribe': '1234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890', 'formId': 'f_1ca8d902-e91d-42c0-a89d-0a8da0a9694b', 'formTitle': '123456789012345', 'formType': '1234234', 'gmtCreate': 1561615753000, 'gmtModified': 1561615753000, 'id': 7, 'isEnable': True, 'staffId': 's_819aee8ed8554b9f82e8d6302c8d2411', 'tenantId': '_1NTMWLA'}], 'httpStatusCode': 0}</t>
+    <t>{'baseSuccess': True, 'globalConfigEntity': [{'configCode': 'FORM_INQUIRY', 'configDescription': '', 'configName': 'formInquiry', 'configState': True, 'configType': 5, 'configValue': '{"reminder":true,"words":"123456789012345678901234567890","check":false,"validateStatus":"success","help":""}', 'tenantId': '_1NTMWLA'}], 'globalConfigFormEntity': [{'configType': 5, 'formDescribe': '1234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890', 'formId': 'f_1ca8d902-e91d-42c0-a89d-0a8da0a9694b', 'formTitle': '123456789012345', 'formType': '1234234', 'gmtCreate': 1561615753000, 'gmtModified': 1561615753000, 'id': 7, 'isEnable': True, 'staffId': 's_819aee8ed8554b9f82e8d6302c8d2411', 'tenantId': '_1NTMWLA'}, {'configType': 5, 'formDescribe': '3', 'formId': 'f_b9f3cbe6-21fd-481f-b682-7850b7148a83', 'formTitle': '姓名', 'formType': 'string', 'gmtCreate': 1564638819000, 'gmtModified': 1564638819000, 'id': 8, 'isEnable': True, 'staffId': 's_819aee8ed8554b9f82e8d6302c8d2411', 'tenantId': '_1NTMWLA'}], 'httpStatusCode': 0}</t>
   </si>
   <si>
     <t>基础设置-查询技能组工作时间</t>
@@ -308,7 +311,7 @@
     <t>{"name": "测试新增机构2","responsible": "责任人","parent": "0"}</t>
   </si>
   <si>
-    <t>{'baseSuccess': True, 'httpStatusCode': 0, 'organizationId': 130}</t>
+    <t>{'baseSuccess': True, 'httpStatusCode': 0, 'organizationId': 142}</t>
   </si>
   <si>
     <t>组织机构-修改负责人</t>
@@ -374,7 +377,7 @@
     <t>{"staffIds":"s_819aee8ed8554b9f82e8d6302c8d2411"}</t>
   </si>
   <si>
-    <t>organzation_staff_1564048749623.xlsx</t>
+    <t>organzation_staff_1564993387772.xlsx</t>
   </si>
   <si>
     <t>组织机构-导出</t>
@@ -386,7 +389,7 @@
     <t>{"organizationIds":[22,23,24]}</t>
   </si>
   <si>
-    <t>organzation_1564048750593.xlsx</t>
+    <t>organzation_1564993389397.xlsx</t>
   </si>
   <si>
     <t>DELETE</t>
@@ -440,7 +443,7 @@
     <t>{"description":"备注内容","roleName":"测试客服1","menuList":[{"menuCode":"switch_staff_online_status","menuSource":0},{"menuCode":"session_evaluate","menuSource":0},{"menuCode":"fetch_message","menuSource":0}]}</t>
   </si>
   <si>
-    <t>{'roleId': 'd3ed1866-e8cb-4361-bc7c-8ab2c9c4f8ba'}</t>
+    <t>{'roleId': 'e08149fc-3278-402c-97f7-61171ea0bb79'}</t>
   </si>
   <si>
     <t>角色权限-创建角色-1表示关闭</t>
@@ -449,7 +452,7 @@
     <t>{"description":"备注内容","roleName":"测试客服2","menuList":[{"menuCode":"switch_staff_online_status","menuSource":1},{"menuCode":"session_evaluate","menuSource":0},{"menuCode":"fetch_message","menuSource":0}]}</t>
   </si>
   <si>
-    <t>{'roleId': '35af39e5-8e3a-4f32-bdf6-06783445f9fd'}</t>
+    <t>{'roleId': '9fb28242-9e51-4c5c-87e1-f3bbca93d22a'}</t>
   </si>
   <si>
     <t>角色权限-停用角色状态</t>
@@ -497,7 +500,7 @@
     <t>角色权限-获取角色信息</t>
   </si>
   <si>
-    <t>{'roles': [{'description': '1', 'gmtCreate': 1563526414000, 'gmtModified': 1564048758000, 'isDefault': 0, 'offStatus': 0, 'roleId': '67ed99dc-3645-4215-90df-25945f1da49b', 'roleName': '1', 'tenantId': '_1NTMWLA'}, {'description': '1', 'gmtCreate': 1561635662000, 'gmtModified': 1561637163000, 'isDefault': 0, 'offStatus': 0, 'roleId': '27acc809-03ab-4050-92d5-5f092678b8ed', 'roleName': 'zgh', 'tenantId': '_1NTMWLA'}, {'description': '系统默认角色', 'gmtCreate': 1561533973000, 'gmtModified': 1561533973000, 'isDefault': 0, 'offStatus': 0, 'roleId': '8ddc45a6-b7b5-477e-9431-eee41fe31b23', 'roleName': '客服', 'tenantId': '_1NTMWLA'}, {'description': '系统默认角色', 'gmtCreate': 1561533973000, 'gmtModified': 1561533973000, 'isDefault': 0, 'offStatus': 0, 'roleId': '1e56829e-83a0-48ec-86ca-6530a0b673bd', 'roleName': '管理员', 'tenantId': '_1NTMWLA'}], 'rowCount': 0}</t>
+    <t>{'roles': [{'description': '1', 'gmtCreate': 1563526414000, 'gmtModified': 1564993398000, 'isDefault': 0, 'offStatus': 0, 'roleId': '67ed99dc-3645-4215-90df-25945f1da49b', 'roleName': '1', 'tenantId': '_1NTMWLA'}, {'description': '1', 'gmtCreate': 1561635662000, 'gmtModified': 1561637163000, 'isDefault': 0, 'offStatus': 0, 'roleId': '27acc809-03ab-4050-92d5-5f092678b8ed', 'roleName': 'zgh', 'tenantId': '_1NTMWLA'}, {'description': '系统默认角色', 'gmtCreate': 1561533973000, 'gmtModified': 1561533973000, 'isDefault': 0, 'offStatus': 0, 'roleId': '8ddc45a6-b7b5-477e-9431-eee41fe31b23', 'roleName': '客服', 'tenantId': '_1NTMWLA'}, {'description': '系统默认角色', 'gmtCreate': 1561533973000, 'gmtModified': 1561533973000, 'isDefault': 0, 'offStatus': 0, 'roleId': '1e56829e-83a0-48ec-86ca-6530a0b673bd', 'roleName': '管理员', 'tenantId': '_1NTMWLA'}], 'rowCount': 0}</t>
   </si>
   <si>
     <t>角色权限-角色名称是否存在</t>
@@ -521,7 +524,7 @@
     <t>{"roleIds":["67ed99dc-3645-4215-90df-25945f1da49b","27acc809-03ab-4050-92d5-5f092678b8ed","8ddc45a6-b7b5-477e-9431-eee41fe31b23","1e56829e-83a0-48ec-86ca-6530a0b673bd"]}</t>
   </si>
   <si>
-    <t>{'fileName': 'role_1564048764160.xlsx'}</t>
+    <t>{'fileName': 'role_1564993404574.xlsx'}</t>
   </si>
   <si>
     <t>客服列表-滚动角色</t>
@@ -530,7 +533,7 @@
     <t>/v1/tenants/_1NTMWLA/roles-list</t>
   </si>
   <si>
-    <t>{'roles': [{'description': '系统默认角色', 'gmtCreate': 1561533972000, 'gmtModified': 1561533972000, 'id': 31, 'isDefault': 1, 'offStatus': 0, 'roleId': '515e555c-f319-4989-8457-c89a4b286218', 'roleName': '超级管理员', 'tenantId': '_1NTMWLA'}, {'description': '系统默认角色', 'gmtCreate': 1561533973000, 'gmtModified': 1561533973000, 'id': 32, 'isDefault': 0, 'offStatus': 0, 'roleId': '1e56829e-83a0-48ec-86ca-6530a0b673bd', 'roleName': '管理员', 'tenantId': '_1NTMWLA'}, {'description': '系统默认角色', 'gmtCreate': 1561533973000, 'gmtModified': 1561533973000, 'id': 33, 'isDefault': 0, 'offStatus': 0, 'roleId': '8ddc45a6-b7b5-477e-9431-eee41fe31b23', 'roleName': '客服', 'tenantId': '_1NTMWLA'}, {'description': '系统默认', 'gmtCreate': 1561533973000, 'gmtModified': 1561533973000, 'id': 34, 'isDefault': 1, 'offStatus': 0, 'roleId': '551f4e96-6d42-47a1-b1cf-51735ae45615', 'roleName': '访客', 'tenantId': '_1NTMWLA'}, {'description': '1', 'gmtCreate': 1561635662000, 'gmtModified': 1561637163000, 'id': 35, 'isDefault': 0, 'offStatus': 0, 'roleId': '27acc809-03ab-4050-92d5-5f092678b8ed', 'roleName': 'zgh', 'tenantId': '_1NTMWLA'}, {'description': '1', 'gmtCreate': 1563526414000, 'gmtModified': 1564048758000, 'id': 37, 'isDefault': 0, 'offStatus': 0, 'roleId': '67ed99dc-3645-4215-90df-25945f1da49b', 'roleName': '1', 'tenantId': '_1NTMWLA'}]}</t>
+    <t>{'roles': [{'description': '系统默认角色', 'gmtCreate': 1561533972000, 'gmtModified': 1561533972000, 'id': 31, 'isDefault': 1, 'offStatus': 0, 'roleId': '515e555c-f319-4989-8457-c89a4b286218', 'roleName': '超级管理员', 'tenantId': '_1NTMWLA'}, {'description': '系统默认角色', 'gmtCreate': 1561533973000, 'gmtModified': 1561533973000, 'id': 32, 'isDefault': 0, 'offStatus': 0, 'roleId': '1e56829e-83a0-48ec-86ca-6530a0b673bd', 'roleName': '管理员', 'tenantId': '_1NTMWLA'}, {'description': '系统默认角色', 'gmtCreate': 1561533973000, 'gmtModified': 1561533973000, 'id': 33, 'isDefault': 0, 'offStatus': 0, 'roleId': '8ddc45a6-b7b5-477e-9431-eee41fe31b23', 'roleName': '客服', 'tenantId': '_1NTMWLA'}, {'description': '系统默认', 'gmtCreate': 1561533973000, 'gmtModified': 1561533973000, 'id': 34, 'isDefault': 1, 'offStatus': 0, 'roleId': '551f4e96-6d42-47a1-b1cf-51735ae45615', 'roleName': '访客', 'tenantId': '_1NTMWLA'}, {'description': '1', 'gmtCreate': 1561635662000, 'gmtModified': 1561637163000, 'id': 35, 'isDefault': 0, 'offStatus': 0, 'roleId': '27acc809-03ab-4050-92d5-5f092678b8ed', 'roleName': 'zgh', 'tenantId': '_1NTMWLA'}, {'description': '1', 'gmtCreate': 1563526414000, 'gmtModified': 1564993398000, 'id': 37, 'isDefault': 0, 'offStatus': 0, 'roleId': '67ed99dc-3645-4215-90df-25945f1da49b', 'roleName': '1', 'tenantId': '_1NTMWLA'}]}</t>
   </si>
   <si>
     <t>敏感词-展示敏感词-0表示客服</t>
@@ -581,7 +584,7 @@
     <t>{"belong": 0,"ids": [3, 4, 5]}</t>
   </si>
   <si>
-    <t>excel_1564048769821.xlsx</t>
+    <t>excel_1564993411391.xlsx</t>
   </si>
   <si>
     <t>敏感词-导出敏感词-1表示客户</t>
@@ -590,7 +593,7 @@
     <t>{"belong": 1,"ids": [2, 6, 8]}</t>
   </si>
   <si>
-    <t>excel_1564048770761.xlsx</t>
+    <t>excel_1564993412468.xlsx</t>
   </si>
   <si>
     <t>敏感词-更新敏感词-0表示客服</t>
@@ -758,7 +761,7 @@
     <t>{"name": "uploadFile", "filename": "2018070420479.gif"}</t>
   </si>
   <si>
-    <t>{'url': 'files/_1NTMWLA/116faeb5f6e84fcea8c15bf77ce1c31d/s_819aee8ed8554b9f82e8d6302c8d2411/116faeb5f6e84fcea8c15bf77ce1c31d_8fd53daa897649989e904e175df08d6d.gif', 'baseMessage': '上传成功'}</t>
+    <t>{'url': 'files/_1NTMWLA/116faeb5f6e84fcea8c15bf77ce1c31d/s_819aee8ed8554b9f82e8d6302c8d2411/116faeb5f6e84fcea8c15bf77ce1c31d_166818c8fb814a99b966c4362f4d71fe.gif', 'baseMessage': '上传成功'}</t>
   </si>
   <si>
     <t>客服列表-修改客服信息2-个人信息</t>
@@ -803,7 +806,7 @@
     <t>/v1/tenants/_1NTMWLA/staffs-list</t>
   </si>
   <si>
-    <t>[{'avatar': 'http://47.97.152.55:8008/customer_service.svg', 'displayName': '', 'email': 'comvip@163.com', 'gmtCreate': 1561533973000, 'gmtModified': 1561533973000, 'id': 31, 'isDeleted': 0, 'isEnable': 1, 'level': 0, 'organization': 0, 'phone': '', 'staffId': 's_d5aee8db4c8b4a33a8028f89be8c0fcf', 'staffName': 'Super Admin', 'tenantId': '_1NTMWLA', 'username': 'admin'}, {'avatar': '/static/media/line_icon_photo01.646c3740.svg', 'displayName': '章', 'gmtCreate': 1561534243000, 'gmtModified': 1563867116000, 'id': 32, 'isDeleted': 0, 'isEnable': 1, 'jobNumber': '001', 'level': 100, 'organization': 33, 'phone': '13622222222', 'staffId': 's_819aee8ed8554b9f82e8d6302c8d2411', 'staffName': '章广华', 'tenantId': '_1NTMWLA', 'username': 'zhang001'}, {'avatar': '', 'displayName': '章2', 'gmtCreate': 1561534283000, 'gmtModified': 1564048745000, 'id': 33, 'isDeleted': 0, 'isEnable': 0, 'jobNumber': '002', 'level': 5, 'organization': 0, 'phone': '13622222222', 'staffId': 's_b17fc5b87921489788024c30229f0528', 'staffName': '章广华2', 'tenantId': '_1NTMWLA', 'username': 'zhang002'}, {'avatar': '', 'displayName': '章3', 'gmtCreate': 1561539262000, 'gmtModified': 1563789768000, 'id': 34, 'isDeleted': 0, 'isEnable': 1, 'jobNumber': '003', 'level': 5, 'organization': 0, 'phone': '13622222222', 'staffId': 's_27dc197e2b184befa8dc863f7b429bd2', 'staffName': '章广华3', 'tenantId': '_1NTMWLA', 'username': 'zhang003'}, {'avatar': 'http://47.97.152.55:8008/customer_service.svg', 'displayName': 'yangnk2', 'entryTime': 1561602497000, 'gmtCreate': 1561602497000, 'gmtModified': 1561602497000, 'id': 35, 'isDeleted': 0, 'isEnable': 1, 'jobNumber': 'yangnk2', 'level': 5, 'organization': 0, 'phone': '13888888888', 'staffId': 's_4d3464d78a374af18b85a2fe80a7874a', 'staffName': 'yangnk2', 'tenantId': '_1NTMWLA', 'username': 'yangnk2'}, {'avatar': 'http://47.97.152.55:8008/customer_service.svg', 'displayName': 'yangnk3', 'entryTime': 1561604334000, 'gmtCreate': 1561604335000, 'gmtModified': 1561604335000, 'id': 36, 'isDeleted': 0, 'isEnable': 1, 'jobNumber': 'yangnk3', 'level': 5, 'organization': 0, 'phone': '13888888888', 'staffId': 's_eebb9de18d2e4d37bcecd64778b88601', 'staffName': 'yangnk3', 'tenantId': '_1NTMWLA', 'username': 'yangnk3'}, {'avatar': 'http://47.97.152.55:8008/customer_service.svg', 'displayName': 'yangnk4', 'entryTime': 1561614657000, 'gmtCreate': 1561614658000, 'gmtModified': 1561630938000, 'id': 37, 'isDeleted': 0, 'isEnable': 1, 'jobNumber': 'yangnk4', 'level': 5, 'organization': 34, 'phone': '13888888888', 'staffId': 's_22d9469d2d56464b84320fbf0c4a237c', 'staffName': 'yangnk4', 'tenantId': '_1NTMWLA', 'username': 'yangnk4'}, {'avatar': 'http://47.97.152.55:8008/customer_service.svg', 'displayName': 'yangnk5', 'entryTime': 1561622878000, 'gmtCreate': 1561622879000, 'gmtModified': 1561622879000, 'id': 38, 'isDeleted': 0, 'isEnable': 1, 'jobNumber': 'yangnk5', 'level': 5, 'organization': 0, 'phone': '13888888888', 'staffId': 's_2fe3875c390040b489b644cc5c1ae0e2', 'staffName': 'yangnk5', 'tenantId': '_1NTMWLA', 'username': 'yangnk5'}]</t>
+    <t>[{'avatar': 'http://47.97.152.55:8008/customer_service.svg', 'displayName': '', 'email': 'comvip@163.com', 'gmtCreate': 1561533973000, 'gmtModified': 1561533973000, 'id': 31, 'isDeleted': 0, 'isEnable': 1, 'level': 0, 'organization': 0, 'phone': '', 'staffId': 's_d5aee8db4c8b4a33a8028f89be8c0fcf', 'staffName': 'Super Admin', 'tenantId': '_1NTMWLA', 'username': 'admin'}, {'avatar': '/static/media/line_icon_photo01.646c3740.svg', 'displayName': '章', 'gmtCreate': 1561534243000, 'gmtModified': 1563867116000, 'id': 32, 'isDeleted': 0, 'isEnable': 1, 'jobNumber': '001', 'level': 100, 'organization': 33, 'phone': '13622222222', 'staffId': 's_819aee8ed8554b9f82e8d6302c8d2411', 'staffName': '章广华', 'tenantId': '_1NTMWLA', 'username': 'zhang001'}, {'avatar': '', 'displayName': '章2', 'gmtCreate': 1561534283000, 'gmtModified': 1564993383000, 'id': 33, 'isDeleted': 0, 'isEnable': 0, 'jobNumber': '002', 'level': 5, 'organization': 0, 'phone': '13622222222', 'staffId': 's_b17fc5b87921489788024c30229f0528', 'staffName': '章广华2', 'tenantId': '_1NTMWLA', 'username': 'zhang002'}, {'avatar': '', 'displayName': '章3', 'gmtCreate': 1561539262000, 'gmtModified': 1563789768000, 'id': 34, 'isDeleted': 0, 'isEnable': 1, 'jobNumber': '003', 'level': 5, 'organization': 0, 'phone': '13622222222', 'staffId': 's_27dc197e2b184befa8dc863f7b429bd2', 'staffName': '章广华3', 'tenantId': '_1NTMWLA', 'username': 'zhang003'}, {'avatar': 'http://47.97.152.55:8008/customer_service.svg', 'displayName': 'yangnk2', 'entryTime': 1561602497000, 'gmtCreate': 1561602497000, 'gmtModified': 1561602497000, 'id': 35, 'isDeleted': 0, 'isEnable': 1, 'jobNumber': 'yangnk2', 'level': 5, 'organization': 0, 'phone': '13888888888', 'staffId': 's_4d3464d78a374af18b85a2fe80a7874a', 'staffName': 'yangnk2', 'tenantId': '_1NTMWLA', 'username': 'yangnk2'}, {'avatar': 'http://47.97.152.55:8008/customer_service.svg', 'displayName': 'yangnk3', 'entryTime': 1561604334000, 'gmtCreate': 1561604335000, 'gmtModified': 1561604335000, 'id': 36, 'isDeleted': 0, 'isEnable': 1, 'jobNumber': 'yangnk3', 'level': 5, 'organization': 0, 'phone': '13888888888', 'staffId': 's_eebb9de18d2e4d37bcecd64778b88601', 'staffName': 'yangnk3', 'tenantId': '_1NTMWLA', 'username': 'yangnk3'}, {'avatar': 'http://47.97.152.55:8008/customer_service.svg', 'displayName': 'yangnk4', 'entryTime': 1561614657000, 'gmtCreate': 1561614658000, 'gmtModified': 1561630938000, 'id': 37, 'isDeleted': 0, 'isEnable': 1, 'jobNumber': 'yangnk4', 'level': 5, 'organization': 34, 'phone': '13888888888', 'staffId': 's_22d9469d2d56464b84320fbf0c4a237c', 'staffName': 'yangnk4', 'tenantId': '_1NTMWLA', 'username': 'yangnk4'}, {'avatar': 'http://47.97.152.55:8008/customer_service.svg', 'displayName': 'yangnk5', 'entryTime': 1561622878000, 'gmtCreate': 1561622879000, 'gmtModified': 1561622879000, 'id': 38, 'isDeleted': 0, 'isEnable': 1, 'jobNumber': 'yangnk5', 'level': 5, 'organization': 0, 'phone': '13888888888', 'staffId': 's_2fe3875c390040b489b644cc5c1ae0e2', 'staffName': 'yangnk5', 'tenantId': '_1NTMWLA', 'username': 'yangnk5'}]</t>
   </si>
   <si>
     <t>在线-会话重排-按照等待时长重排</t>
@@ -851,7 +854,7 @@
     <t>{"status":"online"}</t>
   </si>
   <si>
-    <t>{'baseSuccess': True, 'httpStatusCode': 0, 'status': 'online', 'token': {'tokenCreateTime': 1564048799655, 'value': 'a42b39dd21454f8aade20f30e97245f8'}}</t>
+    <t>{'baseSuccess': True, 'httpStatusCode': 0, 'status': 'online', 'token': {'tokenCreateTime': 1564993445532, 'value': '44d5fd02a2e243179ef4f64cf2a45008'}}</t>
   </si>
   <si>
     <t>客服列表-修改客服会话上限</t>
@@ -899,7 +902,7 @@
     <t>/v1/tenants/_1NTMWLA/staffs</t>
   </si>
   <si>
-    <t>{'baseSuccess': True, 'httpStatusCode': 0, 'rowCount': 8, 'staffInfoList': [{'avatar': 'http://47.97.152.55:8008/customer_service.svg', 'displayName': 'yangnk5', 'entryTime': 1561622878000, 'id': 38, 'isDeleted': 0, 'isEnable': 1, 'jobNumber': 'yangnk5', 'level': 5, 'organization': 0, 'password': 'yangnk5', 'phone': '13888888888', 'roleIds': ['1e56829e-83a0-48ec-86ca-6530a0b673bd'], 'roleList': [{'description': '系统默认角色', 'gmtCreate': 1561533973000, 'gmtModified': 1561533973000, 'isDefault': 0, 'offStatus': 0, 'roleId': '1e56829e-83a0-48ec-86ca-6530a0b673bd', 'roleName': '管理员', 'tenantId': '_1NTMWLA'}], 'skillGroupIds': ['713b4b4f-97bb-49c5-847b-e2fb67a637ee'], 'skillGroupList': [{'description': 'yangnk5', 'disableEnable': True, 'gmtCreate': 1561622859000, 'gmtModified': 1561622859000, 'id': 38, 'name': 'yangnk5', 'skillGroupId': '713b4b4f-97bb-49c5-847b-e2fb67a637ee', 'tenantId': '_1NTMWLA', 'type': 1}], 'staffId': 's_2fe3875c390040b489b644cc5c1ae0e2', 'staffName': 'yangnk5', 'tenantId': '_1NTMWLA', 'username': 'yangnk5'}, {'avatar': 'http://47.97.152.55:8008/customer_service.svg', 'displayName': 'yangnk4', 'entryTime': 1561614657000, 'id': 37, 'isDeleted': 0, 'isEnable': 1, 'jobNumber': 'yangnk4', 'level': 5, 'organization': 34, 'password': 'yangnk4', 'phone': '13888888888', 'roleIds': ['1e56829e-83a0-48ec-86ca-6530a0b673bd'], 'roleList': [{'description': '系统默认角色', 'gmtCreate': 1561533973000, 'gmtModified': 1561533973000, 'isDefault': 0, 'offStatus': 0, 'roleId': '1e56829e-83a0-48ec-86ca-6530a0b673bd', 'roleName': '管理员', 'tenantId': '_1NTMWLA'}], 'skillGroupIds': ['66c6822a-5b07-484f-ae4a-720523ba8962', '713b4b4f-97bb-49c5-847b-e2fb67a637ee'], 'skillGroupList': [{'description': 'yangnk4', 'disableEnable': True, 'gmtCreate': 1561614625000, 'gmtModified': 1561614625000, 'id': 37, 'name': 'yangnk4', 'skillGroupId': '66c6822a-5b07-484f-ae4a-720523ba8962', 'tenantId': '_1NTMWLA', 'type': 1}, {'description': 'yangnk5', 'disableEnable': True, 'gmtCreate': 1561622859000, 'gmtModified': 1561622859000, 'id': 38, 'name': 'yangnk5', 'skillGroupId': '713b4b4f-97bb-49c5-847b-e2fb67a637ee', 'tenantId': '_1NTMWLA', 'type': 1}], 'staffId': 's_22d9469d2d56464b84320fbf0c4a237c', 'staffName': 'yangnk4', 'tenantId': '_1NTMWLA', 'username': 'yangnk4'}, {'avatar': 'http://47.97.152.55:8008/customer_service.svg', 'displayName': 'yangnk3', 'entryTime': 1561604334000, 'id': 36, 'isDeleted': 0, 'isEnable': 1, 'jobNumber': 'yangnk3', 'level': 5, 'organization': 0, 'password': 'yangnk3', 'phone': '13888888888', 'roleIds': ['1e56829e-83a0-48ec-86ca-6530a0b673bd'], 'roleList': [{'description': '系统默认角色', 'gmtCreate': 1561533973000, 'gmtModified': 1561533973000, 'isDefault': 0, 'offStatus': 0, 'roleId': '1e56829e-83a0-48ec-86ca-6530a0b673bd', 'roleName': '管理员', 'tenantId': '_1NTMWLA'}], 'skillGroupIds': ['1d7868eb-ea22-4c63-9728-6caea8e5ca50', '713b4b4f-97bb-49c5-847b-e2fb67a637ee'], 'skillGroupList': [{'description': 'yangnk3', 'disableEnable': True, 'gmtCreate': 1561604312000, 'gmtModified': 1561604312000, 'id': 36, 'name': 'yangnk3', 'skillGroupId': '1d7868eb-ea22-4c63-9728-6caea8e5ca50', 'tenantId': '_1NTMWLA', 'type': 1}, {'description': 'yangnk5', 'disableEnable': True, 'gmtCreate': 1561622859000, 'gmtModified': 1561622859000, 'id': 38, 'name': 'yangnk5', 'skillGroupId': '713b4b4f-97bb-49c5-847b-e2fb67a637ee', 'tenantId': '_1NTMWLA', 'type': 1}], 'staffId': 's_eebb9de18d2e4d37bcecd64778b88601', 'staffName': 'yangnk3', 'tenantId': '_1NTMWLA', 'username': 'yangnk3'}, {'avatar': 'http://47.97.152.55:8008/customer_service.svg', 'displayName': 'yangnk2', 'entryTime': 1561602497000, 'id': 35, 'isDeleted': 0, 'isEnable': 1, 'jobNumber': 'yangnk2', 'level': 5, 'organization': 0, 'password': 'yangnk2', 'phone': '13888888888', 'roleIds': ['1e56829e-83a0-48ec-86ca-6530a0b673bd'], 'roleList': [{'description': '系统默认角色', 'gmtCreate': 1561533973000, 'gmtModified': 1561533973000, 'isDefault': 0, 'offStatus': 0, 'roleId': '1e56829e-83a0-48ec-86ca-6530a0b673bd', 'roleName': '管理员', 'tenantId': '_1NTMWLA'}], 'skillGroupIds': ['162babff-74c6-4cc5-b40b-3344de43b7c6', '713b4b4f-97bb-49c5-847b-e2fb67a637ee'], 'skillGroupList': [{'description': 'yangnk2', 'disableEnable': True, 'gmtCreate': 1561602477000, 'gmtModified': 1561602477000, 'id': 35, 'name': 'yangnk2', 'skillGroupId': '162babff-74c6-4cc5-b40b-3344de43b7c6', 'tenantId': '_1NTMWLA', 'type': 1}, {'description': 'yangnk5', 'disableEnable': True, 'gmtCreate': 1561622859000, 'gmtModified': 1561622859000, 'id': 38, 'name': 'yangnk5', 'skillGroupId': '713b4b4f-97bb-49c5-847b-e2fb67a637ee', 'tenantId': '_1NTMWLA', 'type': 1}], 'staffId': 's_4d3464d78a374af18b85a2fe80a7874a', 'staffName': 'yangnk2', 'tenantId': '_1NTMWLA', 'username': 'yangnk2'}, {'avatar': '', 'displayName': '章3', 'id': 34, 'isDeleted': 0, 'isEnable': 1, 'jobNumber': '003', 'level': 5, 'organization': 0, 'password': '003', 'phone': '13622222222', 'roleIds': ['1e56829e-83a0-48ec-86ca-6530a0b673bd', '515e555c-f319-4989-8457-c89a4b286218', '8ddc45a6-b7b5-477e-9431-eee41fe31b23'], 'roleList': [{'description': '系统默认角色', 'gmtCreate': 1561533973000, 'gmtModified': 1561533973000, 'isDefault': 0, 'offStatus': 0, 'roleId': '1e56829e-83a0-48ec-86ca-6530a0b673bd', 'roleName': '管理员', 'tenantId': '_1NTMWLA'}, {'description': '系统默认角色', 'gmtCreate': 1561533972000, 'gmtModified': 1561533972000, 'isDefault': 1, 'offStatus': 0, 'roleId': '515e555c-f319-4989-8457-c89a4b286218', 'roleName': '超级管理员', 'tenantId': '_1NTMWLA'}, {'description': '系统默认角色', 'gmtCreate': 1561533973000, 'gmtModified': 1561533973000, 'isDefault': 0, 'offStatus': 0, 'roleId': '8ddc45a6-b7b5-477e-9431-eee41fe31b23', 'roleName': '客服', 'tenantId': '_1NTMWLA'}], 'skillGroupIds': ['1fa50dc4-5520-4b58-8990-acad3baa5a89', 'dc14c144-a9bb-4beb-ad0a-2df4be155623', 'e37d7488-7a6b-4863-8d8b-0115b21ca0f8'], 'skillGroupList': [{'description': 'zhang', 'disableEnable': True, 'name': 'zhang003'}, {'description': 'zhang', 'disableEnable': True, 'gmtCreate': 1561534179000, 'gmtModified': 1561636728000, 'id': 32, 'name': 'zhang001', 'skillGroupId': 'dc14c144-a9bb-4beb-ad0a-2df4be155623', 'tenantId': '_1NTMWLA', 'type': 1}, {'description': 'zhang', 'disableEnable': True, 'gmtCreate': 1561534192000, 'gmtModified': 1561534192000, 'id': 33, 'name': 'zhang002', 'skillGroupId': 'e37d7488-7a6b-4863-8d8b-0115b21ca0f8', 'tenantId': '_1NTMWLA', 'type': 1}], 'staffId': 's_27dc197e2b184befa8dc863f7b429bd2', 'staffName': '章广华3', 'tenantId': '_1NTMWLA', 'username': 'zhang003'}, {'avatar': '', 'displayName': '章2', 'id': 33, 'isDeleted': 0, 'isEnable': 0, 'jobNumber': '002', 'level': 5, 'organization': 0, 'password': '002', 'phone': '13622222222', 'roleIds': ['1e56829e-83a0-48ec-86ca-6530a0b673bd', '515e555c-f319-4989-8457-c89a4b286218', '8ddc45a6-b7b5-477e-9431-eee41fe31b23'], 'roleList': [{'description': '系统默认角色', 'gmtCreate': 1561533973000, 'gmtModified': 1561533973000, 'isDefault': 0, 'offStatus': 0, 'roleId': '1e56829e-83a0-48ec-86ca-6530a0b673bd', 'roleName': '管理员', 'tenantId': '_1NTMWLA'}, {'description': '系统默认角色', 'gmtCreate': 1561533972000, 'gmtModified': 1561533972000, 'isDefault': 1, 'offStatus': 0, 'roleId': '515e555c-f319-4989-8457-c89a4b286218', 'roleName': '超级管理员', 'tenantId': '_1NTMWLA'}, {'description': '系统默认角色', 'gmtCreate': 1561533973000, 'gmtModified': 1561533973000, 'isDefault': 0, 'offStatus': 0, 'roleId': '8ddc45a6-b7b5-477e-9431-eee41fe31b23', 'roleName': '客服', 'tenantId': '_1NTMWLA'}], 'skillGroupIds': ['dc14c144-a9bb-4beb-ad0a-2df4be155623', 'e37d7488-7a6b-4863-8d8b-0115b21ca0f8'], 'skillGroupList': [{'description': 'zhang', 'disableEnable': True, 'gmtCreate': 1561534179000, 'gmtModified': 1561636728000, 'id': 32, 'name': 'zhang001', 'skillGroupId': 'dc14c144-a9bb-4beb-ad0a-2df4be155623', 'tenantId': '_1NTMWLA', 'type': 1}, {'description': 'zhang', 'disableEnable': True, 'gmtCreate': 1561534192000, 'gmtModified': 1561534192000, 'id': 33, 'name': 'zhang002', 'skillGroupId': 'e37d7488-7a6b-4863-8d8b-0115b21ca0f8', 'tenantId': '_1NTMWLA', 'type': 1}], 'staffId': 's_b17fc5b87921489788024c30229f0528', 'staffName': '章广华2', 'tenantId': '_1NTMWLA', 'username': 'zhang002'}, {'avatar': '/static/media/line_icon_photo01.646c3740.svg', 'displayName': '章', 'id': 32, 'isDeleted': 0, 'isEnable': 1, 'jobNumber': '001', 'level': 100, 'organization': 33, 'password': '001', 'phone': '13622222222', 'roleIds': ['1e56829e-83a0-48ec-86ca-6530a0b673bd', '27acc809-03ab-4050-92d5-5f092678b8ed', '515e555c-f319-4989-8457-c89a4b286218', '8ddc45a6-b7b5-477e-9431-eee41fe31b23'], 'roleList': [{'description': '系统默认角色', 'gmtCreate': 1561533973000, 'gmtModified': 1561533973000, 'isDefault': 0, 'offStatus': 0, 'roleId': '1e56829e-83a0-48ec-86ca-6530a0b673bd', 'roleName': '管理员', 'tenantId': '_1NTMWLA'}, {'description': '1', 'gmtCreate': 1561635662000, 'gmtModified': 1561637163000, 'isDefault': 0, 'offStatus': 0, 'roleId': '27acc809-03ab-4050-92d5-5f092678b8ed', 'roleName': 'zgh', 'tenantId': '_1NTMWLA'}, {'description': '系统默认角色', 'gmtCreate': 1561533972000, 'gmtModified': 1561533972000, 'isDefault': 1, 'offStatus': 0, 'roleId': '515e555c-f319-4989-8457-c89a4b286218', 'roleName': '超级管理员', 'tenantId': '_1NTMWLA'}, {'description': '系统默认角色', 'gmtCreate': 1561533973000, 'gmtModified': 1561533973000, 'isDefault': 0, 'offStatus': 0, 'roleId': '8ddc45a6-b7b5-477e-9431-eee41fe31b23', 'roleName': '客服', 'tenantId': '_1NTMWLA'}], 'skillGroupIds': ['dc14c144-a9bb-4beb-ad0a-2df4be155623', 'e37d7488-7a6b-4863-8d8b-0115b21ca0f8'], 'skillGroupList': [{'description': 'zhang', 'disableEnable': True, 'gmtCreate': 1561534179000, 'gmtModified': 1561636728000, 'id': 32, 'name': 'zhang001', 'skillGroupId': 'dc14c144-a9bb-4beb-ad0a-2df4be155623', 'tenantId': '_1NTMWLA', 'type': 1}, {'description': 'zhang', 'disableEnable': True, 'gmtCreate': 1561534192000, 'gmtModified': 1561534192000, 'id': 33, 'name': 'zhang002', 'skillGroupId': 'e37d7488-7a6b-4863-8d8b-0115b21ca0f8', 'tenantId': '_1NTMWLA', 'type': 1}], 'staffId': 's_819aee8ed8554b9f82e8d6302c8d2411', 'staffName': '章广华', 'tenantId': '_1NTMWLA', 'username': 'zhang001'}, {'avatar': 'http://47.97.152.55:8008/customer_service.svg', 'displayName': '', 'email': 'comvip@163.com', 'id': 31, 'isDeleted': 0, 'isEnable': 1, 'level': 0, 'organization': 0, 'phone': '', 'roleIds': ['515e555c-f319-4989-8457-c89a4b286218'], 'roleList': [{'description': '系统默认角色', 'gmtCreate': 1561533972000, 'gmtModified': 1561533972000, 'isDefault': 1, 'offStatus': 0, 'roleId': '515e555c-f319-4989-8457-c89a4b286218', 'roleName': '超级管理员', 'tenantId': '_1NTMWLA'}], 'skillGroupIds': [], 'staffId': 's_d5aee8db4c8b4a33a8028f89be8c0fcf', 'staffName': 'Super Admin', 'tenantId': '_1NTMWLA', 'username': 'admin'}]}</t>
+    <t>{'baseSuccess': True, 'httpStatusCode': 0, 'rowCount': 8, 'staffInfoList': [{'avatar': 'http://47.97.152.55:8008/customer_service.svg', 'displayName': 'yangnk5', 'entryTime': 1561622878000, 'id': 38, 'isDeleted': 0, 'isEnable': 1, 'jobNumber': 'yangnk5', 'level': 5, 'organization': 0, 'password': 'yangnk5', 'phone': '13888888888', 'roleIds': ['1e56829e-83a0-48ec-86ca-6530a0b673bd'], 'roleList': [{'description': '系统默认角色', 'gmtCreate': 1561533973000, 'gmtModified': 1561533973000, 'isDefault': 0, 'offStatus': 0, 'roleId': '1e56829e-83a0-48ec-86ca-6530a0b673bd', 'roleName': '管理员', 'tenantId': '_1NTMWLA'}], 'skillGroupIds': ['713b4b4f-97bb-49c5-847b-e2fb67a637ee'], 'skillGroupList': [{'description': 'yangnk5', 'disableEnable': True, 'gmtCreate': 1561622859000, 'gmtModified': 1561622859000, 'id': 38, 'name': 'yangnk5', 'skillGroupId': '713b4b4f-97bb-49c5-847b-e2fb67a637ee', 'tenantId': '_1NTMWLA', 'type': 1}], 'staffId': 's_2fe3875c390040b489b644cc5c1ae0e2', 'staffName': 'yangnk5', 'tenantId': '_1NTMWLA', 'username': 'yangnk5'}, {'avatar': 'http://47.97.152.55:8008/customer_service.svg', 'displayName': 'yangnk4', 'entryTime': 1561614657000, 'id': 37, 'isDeleted': 0, 'isEnable': 1, 'jobNumber': 'yangnk4', 'level': 5, 'organization': 34, 'password': 'yangnk4', 'phone': '13888888888', 'roleIds': ['1e56829e-83a0-48ec-86ca-6530a0b673bd'], 'roleList': [{'description': '系统默认角色', 'gmtCreate': 1561533973000, 'gmtModified': 1561533973000, 'isDefault': 0, 'offStatus': 0, 'roleId': '1e56829e-83a0-48ec-86ca-6530a0b673bd', 'roleName': '管理员', 'tenantId': '_1NTMWLA'}], 'skillGroupIds': ['66c6822a-5b07-484f-ae4a-720523ba8962', '713b4b4f-97bb-49c5-847b-e2fb67a637ee'], 'skillGroupList': [{'description': 'yangnk4', 'disableEnable': True, 'gmtCreate': 1561614625000, 'gmtModified': 1561614625000, 'id': 37, 'name': 'yangnk4', 'skillGroupId': '66c6822a-5b07-484f-ae4a-720523ba8962', 'tenantId': '_1NTMWLA', 'type': 1}, {'description': 'yangnk5', 'disableEnable': True, 'gmtCreate': 1561622859000, 'gmtModified': 1561622859000, 'id': 38, 'name': 'yangnk5', 'skillGroupId': '713b4b4f-97bb-49c5-847b-e2fb67a637ee', 'tenantId': '_1NTMWLA', 'type': 1}], 'staffId': 's_22d9469d2d56464b84320fbf0c4a237c', 'staffName': 'yangnk4', 'tenantId': '_1NTMWLA', 'username': 'yangnk4'}, {'avatar': 'http://47.97.152.55:8008/customer_service.svg', 'displayName': 'yangnk3', 'entryTime': 1561604334000, 'id': 36, 'isDeleted': 0, 'isEnable': 1, 'jobNumber': 'yangnk3', 'level': 5, 'organization': 0, 'password': 'yangnk3', 'phone': '13888888888', 'roleIds': ['1e56829e-83a0-48ec-86ca-6530a0b673bd'], 'roleList': [{'description': '系统默认角色', 'gmtCreate': 1561533973000, 'gmtModified': 1561533973000, 'isDefault': 0, 'offStatus': 0, 'roleId': '1e56829e-83a0-48ec-86ca-6530a0b673bd', 'roleName': '管理员', 'tenantId': '_1NTMWLA'}], 'skillGroupIds': ['1d7868eb-ea22-4c63-9728-6caea8e5ca50', '713b4b4f-97bb-49c5-847b-e2fb67a637ee'], 'skillGroupList': [{'description': 'yangnk3', 'disableEnable': True, 'gmtCreate': 1561604312000, 'gmtModified': 1561604312000, 'id': 36, 'name': 'yangnk3', 'skillGroupId': '1d7868eb-ea22-4c63-9728-6caea8e5ca50', 'tenantId': '_1NTMWLA', 'type': 1}, {'description': 'yangnk5', 'disableEnable': True, 'gmtCreate': 1561622859000, 'gmtModified': 1561622859000, 'id': 38, 'name': 'yangnk5', 'skillGroupId': '713b4b4f-97bb-49c5-847b-e2fb67a637ee', 'tenantId': '_1NTMWLA', 'type': 1}], 'staffId': 's_eebb9de18d2e4d37bcecd64778b88601', 'staffName': 'yangnk3', 'tenantId': '_1NTMWLA', 'username': 'yangnk3'}, {'avatar': 'http://47.97.152.55:8008/customer_service.svg', 'displayName': 'yangnk2', 'entryTime': 1561602497000, 'id': 35, 'isDeleted': 0, 'isEnable': 1, 'jobNumber': 'yangnk2', 'level': 5, 'organization': 0, 'password': 'yangnk2', 'phone': '13888888888', 'roleIds': ['1e56829e-83a0-48ec-86ca-6530a0b673bd'], 'roleList': [{'description': '系统默认角色', 'gmtCreate': 1561533973000, 'gmtModified': 1561533973000, 'isDefault': 0, 'offStatus': 0, 'roleId': '1e56829e-83a0-48ec-86ca-6530a0b673bd', 'roleName': '管理员', 'tenantId': '_1NTMWLA'}], 'skillGroupIds': ['162babff-74c6-4cc5-b40b-3344de43b7c6', '713b4b4f-97bb-49c5-847b-e2fb67a637ee'], 'skillGroupList': [{'description': 'yangnk2', 'disableEnable': True, 'gmtCreate': 1561602477000, 'gmtModified': 1561602477000, 'id': 35, 'name': 'yangnk2', 'skillGroupId': '162babff-74c6-4cc5-b40b-3344de43b7c6', 'tenantId': '_1NTMWLA', 'type': 1}, {'description': 'yangnk5', 'disableEnable': True, 'gmtCreate': 1561622859000, 'gmtModified': 1561622859000, 'id': 38, 'name': 'yangnk5', 'skillGroupId': '713b4b4f-97bb-49c5-847b-e2fb67a637ee', 'tenantId': '_1NTMWLA', 'type': 1}], 'staffId': 's_4d3464d78a374af18b85a2fe80a7874a', 'staffName': 'yangnk2', 'tenantId': '_1NTMWLA', 'username': 'yangnk2'}, {'avatar': '', 'displayName': '章3', 'id': 34, 'isDeleted': 0, 'isEnable': 1, 'jobNumber': '003', 'level': 5, 'organization': 0, 'password': '003', 'phone': '13622222222', 'roleIds': ['1e56829e-83a0-48ec-86ca-6530a0b673bd', '515e555c-f319-4989-8457-c89a4b286218', '8ddc45a6-b7b5-477e-9431-eee41fe31b23'], 'roleList': [{'description': '系统默认角色', 'gmtCreate': 1561533973000, 'gmtModified': 1561533973000, 'isDefault': 0, 'offStatus': 0, 'roleId': '1e56829e-83a0-48ec-86ca-6530a0b673bd', 'roleName': '管理员', 'tenantId': '_1NTMWLA'}, {'description': '系统默认角色', 'gmtCreate': 1561533972000, 'gmtModified': 1561533972000, 'isDefault': 1, 'offStatus': 0, 'roleId': '515e555c-f319-4989-8457-c89a4b286218', 'roleName': '超级管理员', 'tenantId': '_1NTMWLA'}, {'description': '系统默认角色', 'gmtCreate': 1561533973000, 'gmtModified': 1561533973000, 'isDefault': 0, 'offStatus': 0, 'roleId': '8ddc45a6-b7b5-477e-9431-eee41fe31b23', 'roleName': '客服', 'tenantId': '_1NTMWLA'}], 'skillGroupIds': ['1fa50dc4-5520-4b58-8990-acad3baa5a89', 'dc14c144-a9bb-4beb-ad0a-2df4be155623', 'e37d7488-7a6b-4863-8d8b-0115b21ca0f8'], 'skillGroupList': [{'description': 'zhang', 'disableEnable': True, 'gmtCreate': 1561539202000, 'gmtModified': 1561539210000, 'id': 34, 'name': 'zhang003', 'skillGroupId': '1fa50dc4-5520-4b58-8990-acad3baa5a89', 'tenantId': '_1NTMWLA', 'type': 1}, {'description': 'zhang', 'disableEnable': True, 'gmtCreate': 1561534179000, 'gmtModified': 1561636728000, 'id': 32, 'name': 'zhang001', 'skillGroupId': 'dc14c144-a9bb-4beb-ad0a-2df4be155623', 'tenantId': '_1NTMWLA', 'type': 1}, {'description': 'zhang', 'disableEnable': True, 'gmtCreate': 1561534192000, 'gmtModified': 1561534192000, 'id': 33, 'name': 'zhang002', 'skillGroupId': 'e37d7488-7a6b-4863-8d8b-0115b21ca0f8', 'tenantId': '_1NTMWLA', 'type': 1}], 'staffId': 's_27dc197e2b184befa8dc863f7b429bd2', 'staffName': '章广华3', 'tenantId': '_1NTMWLA', 'username': 'zhang003'}, {'avatar': '', 'displayName': '章2', 'id': 33, 'isDeleted': 0, 'isEnable': 0, 'jobNumber': '002', 'level': 5, 'organization': 0, 'password': '002', 'phone': '13622222222', 'roleIds': ['1e56829e-83a0-48ec-86ca-6530a0b673bd', '515e555c-f319-4989-8457-c89a4b286218', '8ddc45a6-b7b5-477e-9431-eee41fe31b23'], 'roleList': [{'description': '系统默认角色', 'gmtCreate': 1561533973000, 'gmtModified': 1561533973000, 'isDefault': 0, 'offStatus': 0, 'roleId': '1e56829e-83a0-48ec-86ca-6530a0b673bd', 'roleName': '管理员', 'tenantId': '_1NTMWLA'}, {'description': '系统默认角色', 'gmtCreate': 1561533972000, 'gmtModified': 1561533972000, 'isDefault': 1, 'offStatus': 0, 'roleId': '515e555c-f319-4989-8457-c89a4b286218', 'roleName': '超级管理员', 'tenantId': '_1NTMWLA'}, {'description': '系统默认角色', 'gmtCreate': 1561533973000, 'gmtModified': 1561533973000, 'isDefault': 0, 'offStatus': 0, 'roleId': '8ddc45a6-b7b5-477e-9431-eee41fe31b23', 'roleName': '客服', 'tenantId': '_1NTMWLA'}], 'skillGroupIds': ['dc14c144-a9bb-4beb-ad0a-2df4be155623', 'e37d7488-7a6b-4863-8d8b-0115b21ca0f8'], 'skillGroupList': [{'description': 'zhang', 'disableEnable': True, 'gmtCreate': 1561534179000, 'gmtModified': 1561636728000, 'id': 32, 'name': 'zhang001', 'skillGroupId': 'dc14c144-a9bb-4beb-ad0a-2df4be155623', 'tenantId': '_1NTMWLA', 'type': 1}, {'description': 'zhang', 'disableEnable': True, 'gmtCreate': 1561534192000, 'gmtModified': 1561534192000, 'id': 33, 'name': 'zhang002', 'skillGroupId': 'e37d7488-7a6b-4863-8d8b-0115b21ca0f8', 'tenantId': '_1NTMWLA', 'type': 1}], 'staffId': 's_b17fc5b87921489788024c30229f0528', 'staffName': '章广华2', 'tenantId': '_1NTMWLA', 'username': 'zhang002'}, {'avatar': '/static/media/line_icon_photo01.646c3740.svg', 'displayName': '章', 'id': 32, 'isDeleted': 0, 'isEnable': 1, 'jobNumber': '001', 'level': 100, 'organization': 33, 'password': '001', 'phone': '13622222222', 'roleIds': ['1e56829e-83a0-48ec-86ca-6530a0b673bd', '27acc809-03ab-4050-92d5-5f092678b8ed', '515e555c-f319-4989-8457-c89a4b286218', '8ddc45a6-b7b5-477e-9431-eee41fe31b23'], 'roleList': [{'description': '系统默认角色', 'gmtCreate': 1561533973000, 'gmtModified': 1561533973000, 'isDefault': 0, 'offStatus': 0, 'roleId': '1e56829e-83a0-48ec-86ca-6530a0b673bd', 'roleName': '管理员', 'tenantId': '_1NTMWLA'}, {'description': '1', 'gmtCreate': 1561635662000, 'gmtModified': 1561637163000, 'isDefault': 0, 'offStatus': 0, 'roleId': '27acc809-03ab-4050-92d5-5f092678b8ed', 'roleName': 'zgh', 'tenantId': '_1NTMWLA'}, {'description': '系统默认角色', 'gmtCreate': 1561533972000, 'gmtModified': 1561533972000, 'isDefault': 1, 'offStatus': 0, 'roleId': '515e555c-f319-4989-8457-c89a4b286218', 'roleName': '超级管理员', 'tenantId': '_1NTMWLA'}, {'description': '系统默认角色', 'gmtCreate': 1561533973000, 'gmtModified': 1561533973000, 'isDefault': 0, 'offStatus': 0, 'roleId': '8ddc45a6-b7b5-477e-9431-eee41fe31b23', 'roleName': '客服', 'tenantId': '_1NTMWLA'}], 'skillGroupIds': ['dc14c144-a9bb-4beb-ad0a-2df4be155623', 'e37d7488-7a6b-4863-8d8b-0115b21ca0f8'], 'skillGroupList': [{'description': 'zhang', 'disableEnable': True, 'gmtCreate': 1561534179000, 'gmtModified': 1561636728000, 'id': 32, 'name': 'zhang001', 'skillGroupId': 'dc14c144-a9bb-4beb-ad0a-2df4be155623', 'tenantId': '_1NTMWLA', 'type': 1}, {'description': 'zhang', 'disableEnable': True, 'gmtCreate': 1561534192000, 'gmtModified': 1561534192000, 'id': 33, 'name': 'zhang002', 'skillGroupId': 'e37d7488-7a6b-4863-8d8b-0115b21ca0f8', 'tenantId': '_1NTMWLA', 'type': 1}], 'staffId': 's_819aee8ed8554b9f82e8d6302c8d2411', 'staffName': '章广华', 'tenantId': '_1NTMWLA', 'username': 'zhang001'}, {'avatar': 'http://47.97.152.55:8008/customer_service.svg', 'displayName': '', 'email': 'comvip@163.com', 'id': 31, 'isDeleted': 0, 'isEnable': 1, 'level': 0, 'organization': 0, 'phone': '', 'roleIds': ['515e555c-f319-4989-8457-c89a4b286218'], 'roleList': [{'description': '系统默认角色', 'gmtCreate': 1561533972000, 'gmtModified': 1561533972000, 'isDefault': 1, 'offStatus': 0, 'roleId': '515e555c-f319-4989-8457-c89a4b286218', 'roleName': '超级管理员', 'tenantId': '_1NTMWLA'}], 'skillGroupIds': [], 'staffId': 's_d5aee8db4c8b4a33a8028f89be8c0fcf', 'staffName': 'Super Admin', 'tenantId': '_1NTMWLA', 'username': 'admin'}]}</t>
   </si>
   <si>
     <t>客服列表-选择数据导出Excel</t>
@@ -911,7 +914,7 @@
     <t>{'staffIds':'s_2fe3875c390040b489b644cc5c1ae0e2'}</t>
   </si>
   <si>
-    <t>{'baseSuccess': True, 'fileName': 'staff_1564048806996.xlsx', 'httpStatusCode': 0}</t>
+    <t>{'baseSuccess': True, 'fileName': 'staff_1564993454002.xlsx', 'httpStatusCode': 0}</t>
   </si>
   <si>
     <t>功能管理-客户分流-修改客户分流接口-客户技能优先级true开启</t>
@@ -947,7 +950,7 @@
     <t>/v1/tenants/_1NTMWLA/visitorId/undefined/addPersionas</t>
   </si>
   <si>
-    <t>{"personasLabel":"满意"}</t>
+    <t>{"personasLabel":"满意","userName": "zgh", "userId": "v_89ded1d2e37e4a8486058d4920f8277d"}</t>
   </si>
   <si>
     <t>在线-查询用户信息</t>
@@ -965,6 +968,135 @@
     <t>/v1/tenants/_1NTMWLA/logout</t>
   </si>
   <si>
+    <t>客服状态-上线-客户端接入前置条件</t>
+  </si>
+  <si>
+    <t>{'baseSuccess': True, 'httpStatusCode': 0, 'status': 'online', 'token': {'tokenCreateTime': 1564993461556, 'value': 'fba08023a8434c28af45af57ae0a76a0'}}</t>
+  </si>
+  <si>
+    <t>客户端-客户端创建聊天会话</t>
+  </si>
+  <si>
+    <t>/v1/tenants/_1NTMWLA/sessions</t>
+  </si>
+  <si>
+    <t>{"windowId":"WIN00000001","os":'null',"device":'null',"channel":"pc"}</t>
+  </si>
+  <si>
+    <t>{'baseSuccess': True, 'groupSessionId': 'f8922b66c8d04a28bcbf23c98ff63c8f', 'httpStatusCode': 0, 'isNewSession': True, 'uid': 'v_a_5248f722d13b4e29a800cc9de80e96e9'}</t>
+  </si>
+  <si>
+    <t>GET_kh</t>
+  </si>
+  <si>
+    <t>客户端-提交询前表单</t>
+  </si>
+  <si>
+    <t>/v1/tenants/_1NTMWLA/askForm</t>
+  </si>
+  <si>
+    <t>客户端-获取访客信息</t>
+  </si>
+  <si>
+    <t>/v1/tenants/_1NTMWLA/users/%s/visitor</t>
+  </si>
+  <si>
+    <t>{"1":8}</t>
+  </si>
+  <si>
+    <t>{"my_sql": "select * from chat where tenant_id=%s ORDER BY id DESC LIMIT 1 ", "condition": "_1NTMWLA","result": "1", "code": 0}</t>
+  </si>
+  <si>
+    <t>{'baseSuccess': True, 'chats': [], 'httpStatusCode': 0, 'openId': 'v_a_6b3f5b6d1ca84f0cafbe713b5133f023', 'personasLabel': '', 'userName': 'anonymous'}</t>
+  </si>
+  <si>
+    <t>客户端-获取系统配置信息</t>
+  </si>
+  <si>
+    <t>/v1/tenants/_1NTMWLA/window-to-visitor/WIN00000001</t>
+  </si>
+  <si>
+    <t>{'baseSuccess': True, 'globalConfigList': [{'configCode': 'MAX_HISTORY_MESSAGE_NUMBER', 'configDescription': '', 'configName': 'maxHistoryMessageNumber', 'configState': False, 'configType': 0, 'configValue': '30', 'tenantId': '_1NTMWLA'}, {'configCode': 'CRM_URL', 'configDescription': '', 'configName': 'crmUrl', 'configState': False, 'configType': 0, 'configValue': '2', 'tenantId': '_1NTMWLA'}, {'configCode': 'REPORT_URL', 'configDescription': '', 'configName': 'ReportUrl', 'configState': False, 'configType': 0, 'configValue': '114', 'tenantId': '_1NTMWLA'}, {'configCode': 'MQ_URL', 'configDescription': '', 'configName': 'maxHistoryMessageNumber', 'configState': False, 'configType': 0, 'configValue': '30', 'tenantId': '_1NTMWLA'}, {'configCode': 'TRANSFER_CONFIRMATION', 'configDescription': '', 'configName': 'transferConfirmation', 'configState': True, 'configType': 0, 'configValue': 'true', 'tenantId': '_1NTMWLA'}, {'configCode': 'INPUT_INSTRUCTIONS', 'configDescription': '', 'configName': 'inputInstructions', 'configState': False, 'configType': 0, 'configValue': 'false', 'tenantId': '_1NTMWLA'}, {'configCode': 'REPEATED_CONSULTATION', 'configDescription': '', 'configName': 'repeatedConsultation', 'configState': False, 'configType': 0, 'configValue': 'false', 'tenantId': '_1NTMWLA'}, {'configCode': 'DISPLAY_AVATAR', 'configDescription': '', 'configName': 'displayAvatar', 'configState': False, 'configType': 1, 'configValue': 'staff', 'tenantId': '_1NTMWLA'}, {'configCode': 'CORPORATION_LOGO', 'configDescription': '', 'configName': 'corporationLogo', 'configState': False, 'configType': 1, 'configValue': '', 'tenantId': '_1NTMWLA'}, {'configCode': 'UNFINISHED_SERVICE_CLASS_REMINDER', 'configDescription': '', 'configName': 'unfinishedServiceClassReminder', 'configState': False, 'configType': 1, 'configValue': 'true', 'tenantId': '_1NTMWLA'}, {'configCode': 'STAFF_TIMEOUT_REMINDER', 'configDescription': '', 'configName': 'staffTimeoutReminder', 'configState': False, 'configType': 1, 'configValue': '{"reminder":false,"words":"客服人员正在努力查询中，请稍候","time":0}', 'tenantId': '_1NTMWLA'}, {'configCode': 'VISITOR_TIMEOUT_REMINDER', 'configDescription': '', 'configName': 'visitorTimeoutReminder', 'configState': False, 'configType': 1, 'configValue': '{"reminder":false,"words":"123456789012345678901234567890","time":0}', 'tenantId': '_1NTMWLA'}, {'configCode': 'SESSION_TIMEOUT_REMINDER', 'configDescription': '', 'configName': 'sessionTimeoutReminder', 'configState': False, 'configType': 1, 'configValue': '{"reminder":true,"words":"您好，我们长时间没有收到回复，系统将结束此次会话","time":240}', 'tenantId': '_1NTMWLA'}, {'configCode': 'WELCOME_WORDS', 'configDescription': '', 'configName': 'welcomeWords', 'configState': False, 'configType': 1, 'configValue': '您好，请问有什么可以帮您', 'tenantId': '_1NTMWLA'}, {'configCode': 'CONNECTED_SESSION_WORDS', 'configDescription': '', 'configName': 'connectedSessionWords', 'configState': True, 'configType': 1, 'configValue': '运算符通过组合其他两个结果表并消去表中任何重复行而派生出一个', 'tenantId': '_1NTMWLA'}, {'configCode': 'START_SESSION_WORDS', 'configDescription': '', 'configName': 'startSessionWords', 'configState': False, 'configType': 1, 'configValue': '正在为您转接人工服务，请稍候', 'tenantId': '_1NTMWLA'}, {'configCode': 'CLOSE_SESSION_WORDS', 'configDescription': '', 'configName': 'closeSessionWords', 'configState': True, 'configType': 1, 'configValue': '运算符通过组合其他两个结果表并消去表中任何重复行而派生出一个', 'tenantId': '_1NTMWLA'}, {'configCode': 'EVALUATION_WORDS', 'configDescription': '', 'configName': 'evaluationWords', 'configState': False, 'configType': 1, 'configValue': '感谢您的咨询，请对我们的服务做出评价，谢谢', 'tenantId': '_1NTMWLA'}, {'configCode': 'WAITING_QUEUE_WORDS', 'configDescription': '', 'configName': 'waitingQueueWords', 'configState': True, 'configType': 1, 'configValue': '运算符通过组合其他两个结果表并消去表中任何重复行而派生出一个', 'tenantId': '_1NTMWLA'}, {'configCode': 'ROBOT_ICON', 'configDescription': '', 'configName': 'robotIcon', 'configState': False, 'configType': 1, 'configValue': 'https://img.alicdn.com/tfs/TB1mvwxjvDH8KJjy1XcXXcpdXXa-160-160.png', 'tenantId': '_1NTMWLA'}, {'configCode': 'WAITING_CLOSE_WORDS', 'configDescription': '', 'configName': 'waitingCloseWords', 'configState': True, 'configType': 1, 'configValue': '运算符通过组合其他两个结果表并消去表中任何重复行而派生出一个', 'tenantId': '_1NTMWLA'}, {'configCode': 'MESSAGE_TO_CUSTOMER', 'configDescription': '', 'configName': 'messageToCustomer', 'configState': True, 'configType': 1, 'configValue': '"{\\"words\\":\\"运算符通过组合其他两个结果表并消去表中任何重复行而派生出一个\\",\\"tocustomer\\":true}"', 'tenantId': '_1NTMWLA'}, {'configCode': 'EVALUATION_CONTEXT', 'configDescription': '', 'configName': 'evaluationContext', 'configState': True, 'configType': 1, 'configValue': '[{"guidanceDocument":"123456789012345678901234567890","declare":"123456789012345","selectedLabel":["没解决问题"],"rate":5,"labelRequired":1,"guideLanguage":"欢迎给我们服务提建议〜","guideLanguageRequired":1,"label":["没解决问题","不礼貌","服务态度差","回答不及时"],"switch":0},{"guidanceDocument":"非常满意，完美","declare":"3","selectedLabel":["没解决问题","回答不及时","服务态度差","不礼貌"],"rate":4,"labelRequired":1,"guideLanguage":"123456789012345678901234567890","guideLanguageRequired":1,"label":["没解决问题","不礼貌","服务态度差","回答不及时","皎月飞光","科幻"],"switch":0},{"guidanceDocument":"非常满意，完美","declare":"123456789012345","selectedLabel":["没解决问题"],"rate":3,"labelRequired":1,"guideLanguage":"123456789012345678901234567890","guideLanguageRequired":1,"label":["没解决问题","不礼貌","服务态度差","回答不及时","皎月飞光","皎月飞光"],"switch":0},{"guidanceDocument":"非常满意，完美","declare":"123456789012345","selectedLabel":["没解决问题"],"rate":2,"labelRequired":1,"guideLanguage":"123456789012345678901234567890","guideLanguageRequired":1,"label":["没解决问题","不礼貌","服务态度差","回答不及时","皎月飞光","科幻"],"switch":0},{"guidanceDocument":"非常满意，完美","declare":"123456789012345","selectedLabel":["没解决问题"],"rate":1,"labelRequired":1,"guideLanguage":"123456789012345678901234567890","guideLanguageRequired":1,"label":["没解决问题","不礼貌","服务态度差","回答不及时","皎月飞光","魔幻"],"switch":0}]', 'tenantId': '_1NTMWLA'}, {'configCode': 'CUSTOMER_SESSION_TIPS', 'configDescription': '', 'configName': 'customerSessionTips', 'configState': False, 'configType': 1, 'configValue': 'false', 'tenantId': '_1NTMWLA'}, {'configCode': 'DISABLE_TIMEOUT_SET', 'configDescription': '', 'configName': 'disableTimeoutSet', 'configState': False, 'configType': 1, 'configValue': '{"reminder":true,"time":"1"}', 'tenantId': '_1NTMWLA'}], 'httpStatusCode': 0, 'noticeList': [], 'skillGroupList': [{'description': 'zhang', 'disableEnable': True, 'gmtCreate': 1561539202000, 'gmtModified': 1561539210000, 'id': 34, 'name': 'zhang003', 'skillGroupId': '1fa50dc4-5520-4b58-8990-acad3baa5a89', 'tenantId': '_1NTMWLA', 'type': 1}, {'description': 'zhang', 'disableEnable': True, 'gmtCreate': 1561534179000, 'gmtModified': 1561636728000, 'id': 32, 'name': 'zhang001', 'skillGroupId': 'dc14c144-a9bb-4beb-ad0a-2df4be155623', 'tenantId': '_1NTMWLA', 'type': 1}, {'description': 'zhang', 'disableEnable': True, 'gmtCreate': 1561534192000, 'gmtModified': 1561534192000, 'id': 33, 'name': 'zhang002', 'skillGroupId': 'e37d7488-7a6b-4863-8d8b-0115b21ca0f8', 'tenantId': '_1NTMWLA', 'type': 1}], 'windowConfig': {'artificialEntryCount': 1, 'artificialKeywords': '', 'createDate': 1561534812000, 'gmtCreate': 1561534812000, 'gmtModified': 1561534812000, 'inputDefault': '', 'robotCode': '', 'robotFlag': 0, 'skillGroupFlag': 1, 'sorryText': '', 'tenantId': '_1NTMWLA', 'title': 'zhang', 'updateDate': 1561534812000, 'voiceFlag': 0, 'windowId': 'WIN00000001'}}</t>
+  </si>
+  <si>
+    <t>客户端-获取用户的历史消息，最多返回数量可配置</t>
+  </si>
+  <si>
+    <t>/v1/tenants/_1NTMWLA/users/%s/history-messages</t>
+  </si>
+  <si>
+    <t>[{'from': 'SYSTEM', 'groupSessionId': '0054ad74cf0745d19298cfe154c3f43f', 'messageId': '6564058357987016707', 'messageType': 'event/sessionCreated', 'sentTime': 1564993466850, 'sessionId': 'f7f926eb4c7d4c3cb6a9ddb297d7a81d', 'tenantId': '_1NTMWLA', 'to': 'SYSTEM'}]</t>
+  </si>
+  <si>
+    <t>客户端-访客获取随机获取在线客服的技能组</t>
+  </si>
+  <si>
+    <t>/v3/tenants/_1NTMWLA/visitor/getOneSkillGroup</t>
+  </si>
+  <si>
+    <t>{'baseSuccess': True, 'httpStatusCode': 0, 'skillGroupId': 'dc14c144-a9bb-4beb-ad0a-2df4be155623'}</t>
+  </si>
+  <si>
+    <t>POST_kh</t>
+  </si>
+  <si>
+    <t>客户端-访客发送聊天消息（转人工请求）-event/switchToStaff</t>
+  </si>
+  <si>
+    <t>/v1/tenants/_1NTMWLA/sessions/cf8ccbbb575c4df7bd8de0c4eac9bb7d/messages/visitor</t>
+  </si>
+  <si>
+    <t>{"from":"v_a_a3a3faee9aa7442daf7f423251b35480","sentTime":1563873893952,"messageType":"event/switchToStaff","messageBody":{"skillGroupId":"dc14c144-a9bb-4beb-ad0a-2df4be155623","reason":"unknown"},"requestId":"babae400-ad2b-11e9-8277-a7ffccc9e79a","sendingStatus":"sending"}</t>
+  </si>
+  <si>
+    <t>会话已关闭</t>
+  </si>
+  <si>
+    <t>{'code': 'SessionNotExist', 'message': '会话已关闭'}</t>
+  </si>
+  <si>
+    <t>客户端-访客发送聊天消息（转人工请求）-text/plain</t>
+  </si>
+  <si>
+    <t>{"from":"v_a_a3a3faee9aa7442daf7f423251b35480","groupSessionId":"cf8ccbbb575c4df7bd8de0c4eac9bb7d","messageBody":{"inputMethod":"keyboard","message":"11111111111"},"messageId":"6556368879541551107","messageType":"text/plain","requestId":"babae400-ad2b-11e9-8277-a7ffccc9e79a","sentTime":1563160151077,"sessionId":"99b916bda54b498db1caf34367a69af0","tenantId":"_1LWHJ9M","to":"s_a75213d858f245598a1beebe2e4f3239"}</t>
+  </si>
+  <si>
+    <t>客户端-访客发送聊天消息（转人工请求）-text/html</t>
+  </si>
+  <si>
+    <t>{"from":"v_a_a3a3faee9aa7442daf7f423251b35480","sentTime":1563873893952,"messageType":"text/html","messageBody":{"skillGroupId":"dc14c144-a9bb-4beb-ad0a-2df4be155623","reason":"unknown"},"requestId":"babae400-ad2b-11e9-8277-a7ffccc9e79a","sendingStatus":"sending"}</t>
+  </si>
+  <si>
+    <t>客户端-访客发送聊天消息（转人工请求）-image/jpeg</t>
+  </si>
+  <si>
+    <t>{"from":"v_a_a3a3faee9aa7442daf7f423251b35480","sentTime":1563873893952,"messageType":"image/jpeg","messageBody":{"skillGroupId":"dc14c144-a9bb-4beb-ad0a-2df4be155623","reason":"unknown"},"requestId":"babae400-ad2b-11e9-8277-a7ffccc9e79a","sendingStatus":"sending"}</t>
+  </si>
+  <si>
+    <t>客户端-访客获取客服信息</t>
+  </si>
+  <si>
+    <t>/v1/tenants/_1NTMWLA/staff-to-visitor/s_819aee8ed8554b9f82e8d6302c8d2411</t>
+  </si>
+  <si>
+    <t>{'baseSuccess': True, 'httpStatusCode': 0, 'staffInfo': {'avatar': '/static/media/line_icon_photo01.646c3740.svg', 'displayName': '章', 'id': 32, 'isDeleted': 0, 'jobNumber': '001', 'organization': 0, 'staffId': 's_819aee8ed8554b9f82e8d6302c8d2411', 'tenantId': '_1NTMWLA', 'username': 'zhang001'}}</t>
+  </si>
+  <si>
+    <t>客户端-访客进行关闭会话，{UUID}是随机数</t>
+  </si>
+  <si>
+    <t>/v1/tenants/_1NTMWLA/sessions/{}/visitor?userId={}</t>
+  </si>
+  <si>
+    <t>{'baseSuccess': True, 'groupSessionId': 'a08ccf9875ca495ca500dc1e69194b7a', 'httpStatusCode': 0}</t>
+  </si>
+  <si>
+    <t>客服状态-小休-客户端接入前置条件</t>
+  </si>
+  <si>
+    <t>客服状态-离线-客户端接入前置条件</t>
+  </si>
+  <si>
     <t>restult</t>
   </si>
   <si>
@@ -977,7 +1109,7 @@
     <t>error_1</t>
   </si>
   <si>
-    <t>{'testname': '质量保障部—章广华', 'time': '2019-07-25 17:58:42', 'sumtime': '0:01:31.494341', 'testresult': '共 90 条接口用例，通过 90 条', 'tonggl': '100.00%'}</t>
+    <t>{'testname': '质量保障部—章广华', 'time': '2019-08-05 16:22:34', 'sumtime': '0:02:03.037916', 'testresult': '共 105 条接口用例，通过 105 条', 'tonggl': '100.00%'}</t>
   </si>
 </sst>
 </file>
@@ -1007,8 +1139,16 @@
     </font>
     <font>
       <name val="等线"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
       <charset val="0"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -1025,35 +1165,6 @@
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -1070,38 +1181,7 @@
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
+      <sz val="13"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1117,6 +1197,36 @@
       <b val="1"/>
       <color rgb="FF3F3F3F"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1138,7 +1248,29 @@
     <font>
       <name val="等线"/>
       <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
       <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -1152,19 +1284,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1176,7 +1314,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1206,7 +1416,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1218,31 +1446,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1254,85 +1464,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1343,6 +1475,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1361,26 +1502,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1391,6 +1512,21 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1429,17 +1565,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1447,59 +1579,56 @@
   <cellStyleXfs count="49">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="164"/>
-    <xf borderId="0" fillId="24" fontId="6" numFmtId="0"/>
-    <xf borderId="1" fillId="22" fontId="15" numFmtId="0"/>
+    <xf borderId="0" fillId="16" fontId="3" numFmtId="0"/>
+    <xf borderId="2" fillId="13" fontId="8" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="165"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="166"/>
-    <xf borderId="0" fillId="15" fontId="6" numFmtId="0"/>
-    <xf borderId="0" fillId="10" fontId="8" numFmtId="0"/>
+    <xf borderId="0" fillId="4" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="23" fontId="12" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="167"/>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0"/>
+    <xf borderId="5" fillId="19" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="22" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="13" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="18" numFmtId="0"/>
-    <xf borderId="5" fillId="14" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0"/>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="1" fillId="0" fontId="7" numFmtId="0"/>
+    <xf borderId="0" fillId="8" fontId="1" numFmtId="0"/>
+    <xf borderId="6" fillId="0" fontId="5" numFmtId="0"/>
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="0"/>
+    <xf borderId="4" fillId="6" fontId="9" numFmtId="0"/>
+    <xf borderId="2" fillId="6" fontId="4" numFmtId="0"/>
+    <xf borderId="3" fillId="12" fontId="6" numFmtId="0"/>
+    <xf borderId="0" fillId="21" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="26" fontId="1" numFmtId="0"/>
+    <xf borderId="7" fillId="0" fontId="17" numFmtId="0"/>
+    <xf borderId="8" fillId="0" fontId="19" numFmtId="0"/>
+    <xf borderId="0" fillId="29" fontId="16" numFmtId="0"/>
+    <xf borderId="0" fillId="30" fontId="18" numFmtId="0"/>
+    <xf borderId="0" fillId="28" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="31" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="32" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="25" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="11" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="15" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="27" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="20" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="18" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="17" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="24" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="10" fontId="1" numFmtId="0"/>
     <xf borderId="0" fillId="9" fontId="1" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="0"/>
-    <xf borderId="2" fillId="0" fontId="10" numFmtId="0"/>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="0"/>
-    <xf borderId="0" fillId="28" fontId="1" numFmtId="0"/>
-    <xf borderId="6" fillId="0" fontId="11" numFmtId="0"/>
-    <xf borderId="0" fillId="19" fontId="1" numFmtId="0"/>
-    <xf borderId="8" fillId="5" fontId="16" numFmtId="0"/>
-    <xf borderId="1" fillId="5" fontId="3" numFmtId="0"/>
-    <xf borderId="4" fillId="13" fontId="9" numFmtId="0"/>
-    <xf borderId="0" fillId="8" fontId="6" numFmtId="0"/>
-    <xf borderId="0" fillId="23" fontId="1" numFmtId="0"/>
-    <xf borderId="7" fillId="0" fontId="14" numFmtId="0"/>
-    <xf borderId="3" fillId="0" fontId="7" numFmtId="0"/>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="32" fontId="19" numFmtId="0"/>
-    <xf borderId="0" fillId="12" fontId="6" numFmtId="0"/>
-    <xf borderId="0" fillId="18" fontId="1" numFmtId="0"/>
-    <xf borderId="0" fillId="27" fontId="6" numFmtId="0"/>
-    <xf borderId="0" fillId="21" fontId="6" numFmtId="0"/>
-    <xf borderId="0" fillId="31" fontId="6" numFmtId="0"/>
-    <xf borderId="0" fillId="26" fontId="6" numFmtId="0"/>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0"/>
-    <xf borderId="0" fillId="20" fontId="1" numFmtId="0"/>
-    <xf borderId="0" fillId="7" fontId="6" numFmtId="0"/>
-    <xf borderId="0" fillId="30" fontId="6" numFmtId="0"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0"/>
-    <xf borderId="0" fillId="17" fontId="6" numFmtId="0"/>
-    <xf borderId="0" fillId="25" fontId="1" numFmtId="0"/>
-    <xf borderId="0" fillId="11" fontId="1" numFmtId="0"/>
-    <xf borderId="0" fillId="29" fontId="6" numFmtId="0"/>
-    <xf borderId="0" fillId="16" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="5" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="14" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle builtinId="0" name="常规" xfId="0"/>
@@ -1817,21 +1946,21 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K91"/>
+  <dimension ref="A1:K106"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A57" ySplit="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A87" ySplit="1"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="D95" pane="bottomLeft" sqref="D95"/>
+      <selection activeCell="C110" pane="bottomLeft" sqref="C110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="2.88333333333333"/>
+    <col customWidth="1" max="1" min="1" width="4.375"/>
     <col customWidth="1" max="2" min="2" width="9"/>
-    <col customWidth="1" max="3" min="3" width="39.1333333333333"/>
-    <col customWidth="1" max="4" min="4" width="72.75"/>
-    <col customWidth="1" max="5" min="5" width="46.5"/>
+    <col customWidth="1" max="3" min="3" width="54.25"/>
+    <col customWidth="1" max="4" min="4" width="76.25"/>
+    <col customWidth="1" max="5" min="5" width="56"/>
     <col customWidth="1" max="6" min="6" width="37.5"/>
     <col customWidth="1" max="7" min="7" width="14"/>
     <col customWidth="1" max="8" min="8" width="8.775"/>
@@ -1998,7 +2127,7 @@
         <v>17</v>
       </c>
       <c r="K5" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -2009,13 +2138,13 @@
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F6" t="s">
         <v>15</v>
@@ -2030,7 +2159,7 @@
         <v>17</v>
       </c>
       <c r="K6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -2038,19 +2167,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G7" t="s">
         <v>16</v>
@@ -2062,7 +2191,7 @@
         <v>17</v>
       </c>
       <c r="K7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -2073,13 +2202,13 @@
         <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
         <v>15</v>
@@ -2094,7 +2223,7 @@
         <v>17</v>
       </c>
       <c r="K8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -2102,19 +2231,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F9" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="G9" t="s">
         <v>16</v>
@@ -2126,7 +2255,7 @@
         <v>17</v>
       </c>
       <c r="K9" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -2134,19 +2263,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F10" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="G10" t="s">
         <v>16</v>
@@ -2158,7 +2287,7 @@
         <v>17</v>
       </c>
       <c r="K10" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -2169,13 +2298,13 @@
         <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F11" t="s">
         <v>15</v>
@@ -2190,7 +2319,7 @@
         <v>17</v>
       </c>
       <c r="K11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -2198,19 +2327,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G12" t="s">
         <v>16</v>
@@ -2222,7 +2351,7 @@
         <v>17</v>
       </c>
       <c r="K12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -2230,31 +2359,31 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" t="s">
         <v>58</v>
-      </c>
-      <c r="D13" t="s">
-        <v>54</v>
-      </c>
-      <c r="E13" t="s">
-        <v>55</v>
-      </c>
-      <c r="F13" t="s">
-        <v>59</v>
-      </c>
-      <c r="G13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J13" t="s">
-        <v>17</v>
-      </c>
-      <c r="K13" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -2265,13 +2394,13 @@
         <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F14" t="s">
         <v>15</v>
@@ -2286,7 +2415,7 @@
         <v>17</v>
       </c>
       <c r="K14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -2294,19 +2423,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D15" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G15" t="s">
         <v>16</v>
@@ -2329,14 +2458,14 @@
         <v>23</v>
       </c>
       <c r="C16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" t="s">
         <v>69</v>
       </c>
-      <c r="D16" t="s">
-        <v>70</v>
-      </c>
-      <c r="E16" t="s">
-        <v>68</v>
-      </c>
       <c r="F16" t="s">
         <v>15</v>
       </c>
@@ -2350,7 +2479,7 @@
         <v>17</v>
       </c>
       <c r="K16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -2361,28 +2490,28 @@
         <v>23</v>
       </c>
       <c r="C17" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" t="s">
         <v>72</v>
-      </c>
-      <c r="D17" t="s">
-        <v>70</v>
-      </c>
-      <c r="E17" t="s">
-        <v>68</v>
-      </c>
-      <c r="F17" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" t="s">
-        <v>16</v>
-      </c>
-      <c r="J17" t="s">
-        <v>17</v>
-      </c>
-      <c r="K17" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -2393,13 +2522,13 @@
         <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D18" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E18" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F18" t="s">
         <v>15</v>
@@ -2414,7 +2543,7 @@
         <v>17</v>
       </c>
       <c r="K18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -2425,13 +2554,13 @@
         <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D19" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E19" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F19" t="s">
         <v>15</v>
@@ -2446,7 +2575,7 @@
         <v>17</v>
       </c>
       <c r="K19" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -2457,13 +2586,13 @@
         <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F20" t="s">
         <v>15</v>
@@ -2478,7 +2607,7 @@
         <v>17</v>
       </c>
       <c r="K20" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -2489,13 +2618,13 @@
         <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D21" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E21" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F21" t="s">
         <v>15</v>
@@ -2510,7 +2639,7 @@
         <v>17</v>
       </c>
       <c r="K21" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -2518,19 +2647,19 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C22" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D22" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E22" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F22" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G22" t="s">
         <v>16</v>
@@ -2542,7 +2671,7 @@
         <v>17</v>
       </c>
       <c r="K22" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -2553,13 +2682,13 @@
         <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D23" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E23" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F23" t="s">
         <v>15</v>
@@ -2574,7 +2703,7 @@
         <v>17</v>
       </c>
       <c r="K23" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -2585,13 +2714,13 @@
         <v>18</v>
       </c>
       <c r="C24" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D24" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E24" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F24" t="s">
         <v>15</v>
@@ -2606,7 +2735,7 @@
         <v>17</v>
       </c>
       <c r="K24" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -2617,13 +2746,13 @@
         <v>18</v>
       </c>
       <c r="C25" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D25" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E25" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F25" t="s">
         <v>15</v>
@@ -2638,7 +2767,7 @@
         <v>17</v>
       </c>
       <c r="K25" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -2646,19 +2775,19 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D26" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E26" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F26" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G26" t="s">
         <v>16</v>
@@ -2678,19 +2807,19 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C27" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D27" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E27" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F27" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G27" t="s">
         <v>16</v>
@@ -2713,13 +2842,13 @@
         <v>23</v>
       </c>
       <c r="C28" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D28" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E28" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F28" t="s">
         <v>15</v>
@@ -2734,7 +2863,7 @@
         <v>17</v>
       </c>
       <c r="K28" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -2745,13 +2874,13 @@
         <v>23</v>
       </c>
       <c r="C29" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D29" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E29" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F29" t="s">
         <v>15</v>
@@ -2766,7 +2895,7 @@
         <v>17</v>
       </c>
       <c r="K29" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -2777,13 +2906,13 @@
         <v>23</v>
       </c>
       <c r="C30" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D30" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E30" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F30" t="s">
         <v>15</v>
@@ -2798,7 +2927,7 @@
         <v>17</v>
       </c>
       <c r="K30" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -2809,13 +2938,13 @@
         <v>23</v>
       </c>
       <c r="C31" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D31" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E31" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F31" t="s">
         <v>15</v>
@@ -2830,7 +2959,7 @@
         <v>17</v>
       </c>
       <c r="K31" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -2841,13 +2970,13 @@
         <v>23</v>
       </c>
       <c r="C32" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D32" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E32" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F32" t="s">
         <v>15</v>
@@ -2862,7 +2991,7 @@
         <v>17</v>
       </c>
       <c r="K32" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -2870,19 +2999,19 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C33" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D33" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E33" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F33" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G33" t="s">
         <v>16</v>
@@ -2894,7 +3023,7 @@
         <v>17</v>
       </c>
       <c r="K33" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -2902,31 +3031,31 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C34" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D34" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E34" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F34" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G34" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H34" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J34" t="s">
         <v>17</v>
       </c>
       <c r="K34" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -2937,13 +3066,13 @@
         <v>18</v>
       </c>
       <c r="C35" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D35" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E35" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F35" t="s">
         <v>15</v>
@@ -2958,7 +3087,7 @@
         <v>17</v>
       </c>
       <c r="K35" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -2969,13 +3098,13 @@
         <v>23</v>
       </c>
       <c r="C36" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D36" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E36" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F36" t="s">
         <v>15</v>
@@ -2990,7 +3119,7 @@
         <v>17</v>
       </c>
       <c r="K36" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -3001,13 +3130,13 @@
         <v>18</v>
       </c>
       <c r="C37" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D37" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E37" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F37" t="s">
         <v>15</v>
@@ -3022,7 +3151,7 @@
         <v>17</v>
       </c>
       <c r="K37" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -3033,13 +3162,13 @@
         <v>18</v>
       </c>
       <c r="C38" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D38" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E38" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F38" t="s">
         <v>15</v>
@@ -3054,7 +3183,7 @@
         <v>17</v>
       </c>
       <c r="K38" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -3062,19 +3191,19 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C39" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D39" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E39" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F39" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G39" t="s">
         <v>16</v>
@@ -3086,7 +3215,7 @@
         <v>17</v>
       </c>
       <c r="K39" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -3094,19 +3223,19 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C40" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D40" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E40" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F40" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G40" t="s">
         <v>16</v>
@@ -3118,7 +3247,7 @@
         <v>17</v>
       </c>
       <c r="K40" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -3126,19 +3255,19 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C41" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D41" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E41" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F41" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G41" t="s">
         <v>16</v>
@@ -3150,7 +3279,7 @@
         <v>17</v>
       </c>
       <c r="K41" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -3158,19 +3287,19 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C42" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D42" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E42" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F42" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G42" t="s">
         <v>16</v>
@@ -3182,7 +3311,7 @@
         <v>17</v>
       </c>
       <c r="K42" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -3190,19 +3319,19 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C43" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D43" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E43" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F43" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G43" t="s">
         <v>16</v>
@@ -3214,7 +3343,7 @@
         <v>17</v>
       </c>
       <c r="K43" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -3225,16 +3354,16 @@
         <v>23</v>
       </c>
       <c r="C44" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D44" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E44" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F44" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G44" t="s">
         <v>16</v>
@@ -3246,7 +3375,7 @@
         <v>17</v>
       </c>
       <c r="K44" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -3257,13 +3386,13 @@
         <v>23</v>
       </c>
       <c r="C45" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D45" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E45" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F45" t="s">
         <v>15</v>
@@ -3278,7 +3407,7 @@
         <v>17</v>
       </c>
       <c r="K45" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -3289,13 +3418,13 @@
         <v>18</v>
       </c>
       <c r="C46" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D46" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E46" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F46" t="s">
         <v>15</v>
@@ -3310,7 +3439,7 @@
         <v>17</v>
       </c>
       <c r="K46" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -3321,13 +3450,13 @@
         <v>23</v>
       </c>
       <c r="C47" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D47" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E47" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F47" t="s">
         <v>15</v>
@@ -3342,7 +3471,7 @@
         <v>17</v>
       </c>
       <c r="K47" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -3353,13 +3482,13 @@
         <v>18</v>
       </c>
       <c r="C48" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D48" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E48" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F48" t="s">
         <v>15</v>
@@ -3374,7 +3503,7 @@
         <v>17</v>
       </c>
       <c r="K48" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -3385,13 +3514,13 @@
         <v>18</v>
       </c>
       <c r="C49" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D49" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E49" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F49" t="s">
         <v>15</v>
@@ -3406,7 +3535,7 @@
         <v>17</v>
       </c>
       <c r="K49" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -3417,13 +3546,13 @@
         <v>18</v>
       </c>
       <c r="C50" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D50" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E50" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F50" t="s">
         <v>15</v>
@@ -3438,7 +3567,7 @@
         <v>17</v>
       </c>
       <c r="K50" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -3449,28 +3578,28 @@
         <v>18</v>
       </c>
       <c r="C51" t="s">
+        <v>184</v>
+      </c>
+      <c r="D51" t="s">
+        <v>181</v>
+      </c>
+      <c r="E51" t="s">
+        <v>185</v>
+      </c>
+      <c r="F51" t="s">
+        <v>15</v>
+      </c>
+      <c r="G51" t="s">
+        <v>16</v>
+      </c>
+      <c r="H51" t="s">
+        <v>16</v>
+      </c>
+      <c r="J51" t="s">
+        <v>17</v>
+      </c>
+      <c r="K51" t="s">
         <v>183</v>
-      </c>
-      <c r="D51" t="s">
-        <v>180</v>
-      </c>
-      <c r="E51" t="s">
-        <v>184</v>
-      </c>
-      <c r="F51" t="s">
-        <v>15</v>
-      </c>
-      <c r="G51" t="s">
-        <v>16</v>
-      </c>
-      <c r="H51" t="s">
-        <v>16</v>
-      </c>
-      <c r="J51" t="s">
-        <v>17</v>
-      </c>
-      <c r="K51" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -3481,13 +3610,13 @@
         <v>18</v>
       </c>
       <c r="C52" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D52" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E52" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F52" t="s">
         <v>15</v>
@@ -3502,7 +3631,7 @@
         <v>17</v>
       </c>
       <c r="K52" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -3513,13 +3642,13 @@
         <v>18</v>
       </c>
       <c r="C53" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D53" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E53" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F53" t="s">
         <v>15</v>
@@ -3534,7 +3663,7 @@
         <v>17</v>
       </c>
       <c r="K53" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -3545,13 +3674,13 @@
         <v>18</v>
       </c>
       <c r="C54" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D54" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E54" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F54" t="s">
         <v>15</v>
@@ -3566,7 +3695,7 @@
         <v>17</v>
       </c>
       <c r="K54" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -3577,28 +3706,28 @@
         <v>18</v>
       </c>
       <c r="C55" t="s">
+        <v>197</v>
+      </c>
+      <c r="D55" t="s">
+        <v>194</v>
+      </c>
+      <c r="E55" t="s">
+        <v>198</v>
+      </c>
+      <c r="F55" t="s">
+        <v>15</v>
+      </c>
+      <c r="G55" t="s">
+        <v>16</v>
+      </c>
+      <c r="H55" t="s">
+        <v>16</v>
+      </c>
+      <c r="J55" t="s">
+        <v>17</v>
+      </c>
+      <c r="K55" t="s">
         <v>196</v>
-      </c>
-      <c r="D55" t="s">
-        <v>193</v>
-      </c>
-      <c r="E55" t="s">
-        <v>197</v>
-      </c>
-      <c r="F55" t="s">
-        <v>15</v>
-      </c>
-      <c r="G55" t="s">
-        <v>16</v>
-      </c>
-      <c r="H55" t="s">
-        <v>16</v>
-      </c>
-      <c r="J55" t="s">
-        <v>17</v>
-      </c>
-      <c r="K55" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -3606,19 +3735,19 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C56" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D56" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E56" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F56" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G56" t="n">
         <v>1000</v>
@@ -3630,7 +3759,7 @@
         <v>17</v>
       </c>
       <c r="K56" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -3638,19 +3767,19 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C57" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D57" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E57" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F57" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G57" t="n">
         <v>1000</v>
@@ -3662,7 +3791,7 @@
         <v>17</v>
       </c>
       <c r="K57" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -3670,19 +3799,19 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C58" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D58" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E58" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F58" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G58" t="s">
         <v>16</v>
@@ -3694,7 +3823,7 @@
         <v>17</v>
       </c>
       <c r="K58" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -3702,31 +3831,31 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C59" t="s">
+        <v>211</v>
+      </c>
+      <c r="D59" t="s">
+        <v>208</v>
+      </c>
+      <c r="E59" t="s">
+        <v>69</v>
+      </c>
+      <c r="F59" t="s">
+        <v>212</v>
+      </c>
+      <c r="G59" t="s">
+        <v>16</v>
+      </c>
+      <c r="H59" t="s">
+        <v>16</v>
+      </c>
+      <c r="J59" t="s">
+        <v>17</v>
+      </c>
+      <c r="K59" t="s">
         <v>210</v>
-      </c>
-      <c r="D59" t="s">
-        <v>207</v>
-      </c>
-      <c r="E59" t="s">
-        <v>68</v>
-      </c>
-      <c r="F59" t="s">
-        <v>211</v>
-      </c>
-      <c r="G59" t="s">
-        <v>16</v>
-      </c>
-      <c r="H59" t="s">
-        <v>16</v>
-      </c>
-      <c r="J59" t="s">
-        <v>17</v>
-      </c>
-      <c r="K59" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -3734,25 +3863,25 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C60" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D60" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E60" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F60" t="s">
         <v>15</v>
       </c>
       <c r="G60" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H60" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="J60" t="s">
         <v>17</v>
@@ -3763,25 +3892,25 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C61" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D61" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E61" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F61" t="s">
         <v>15</v>
       </c>
       <c r="G61" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H61" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J61" t="s">
         <v>17</v>
@@ -3795,28 +3924,28 @@
         <v>18</v>
       </c>
       <c r="C62" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D62" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E62" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F62" t="s">
         <v>15</v>
       </c>
       <c r="G62" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H62" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J62" t="s">
         <v>17</v>
       </c>
       <c r="K62" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -3824,19 +3953,19 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C63" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D63" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E63" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F63" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G63" t="s">
         <v>16</v>
@@ -3848,7 +3977,7 @@
         <v>17</v>
       </c>
       <c r="K63" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -3859,13 +3988,13 @@
         <v>23</v>
       </c>
       <c r="C64" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D64" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E64" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F64" t="s">
         <v>15</v>
@@ -3880,7 +4009,7 @@
         <v>17</v>
       </c>
       <c r="K64" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -3888,13 +4017,13 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C65" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D65" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E65" t="s">
         <v>15</v>
@@ -3923,13 +4052,13 @@
         <v>23</v>
       </c>
       <c r="C66" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D66" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E66" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F66" t="s">
         <v>15</v>
@@ -3944,7 +4073,7 @@
         <v>17</v>
       </c>
       <c r="K66" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -3955,13 +4084,13 @@
         <v>23</v>
       </c>
       <c r="C67" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D67" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E67" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F67" t="s">
         <v>15</v>
@@ -3976,7 +4105,7 @@
         <v>17</v>
       </c>
       <c r="K67" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -3984,19 +4113,19 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C68" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D68" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E68" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F68" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G68" t="s">
         <v>16</v>
@@ -4008,7 +4137,7 @@
         <v>17</v>
       </c>
       <c r="K68" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -4019,13 +4148,13 @@
         <v>18</v>
       </c>
       <c r="C69" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D69" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E69" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F69" t="s">
         <v>15</v>
@@ -4048,19 +4177,19 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C70" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D70" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E70" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F70" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G70" t="s">
         <v>16</v>
@@ -4080,13 +4209,13 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C71" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D71" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E71" t="s">
         <v>15</v>
@@ -4104,7 +4233,7 @@
         <v>17</v>
       </c>
       <c r="K71" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -4115,10 +4244,10 @@
         <v>23</v>
       </c>
       <c r="C72" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D72" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E72" t="s">
         <v>15</v>
@@ -4136,7 +4265,7 @@
         <v>17</v>
       </c>
       <c r="K72" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -4147,10 +4276,10 @@
         <v>23</v>
       </c>
       <c r="C73" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D73" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E73" t="s">
         <v>15</v>
@@ -4168,7 +4297,7 @@
         <v>17</v>
       </c>
       <c r="K73" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -4179,10 +4308,10 @@
         <v>23</v>
       </c>
       <c r="C74" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D74" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E74" t="s">
         <v>15</v>
@@ -4200,7 +4329,7 @@
         <v>17</v>
       </c>
       <c r="K74" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -4211,10 +4340,10 @@
         <v>23</v>
       </c>
       <c r="C75" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D75" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E75" t="s">
         <v>15</v>
@@ -4232,7 +4361,7 @@
         <v>17</v>
       </c>
       <c r="K75" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -4243,28 +4372,28 @@
         <v>23</v>
       </c>
       <c r="C76" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D76" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E76" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F76" t="s">
         <v>15</v>
       </c>
       <c r="G76" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H76" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J76" t="s">
         <v>17</v>
       </c>
       <c r="K76" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -4275,14 +4404,14 @@
         <v>23</v>
       </c>
       <c r="C77" t="s">
+        <v>273</v>
+      </c>
+      <c r="D77" t="s">
+        <v>274</v>
+      </c>
+      <c r="E77" t="s">
         <v>272</v>
       </c>
-      <c r="D77" t="s">
-        <v>273</v>
-      </c>
-      <c r="E77" t="s">
-        <v>271</v>
-      </c>
       <c r="F77" t="s">
         <v>15</v>
       </c>
@@ -4296,7 +4425,7 @@
         <v>17</v>
       </c>
       <c r="K77" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -4304,19 +4433,19 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>64</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>275</v>
+        <v>65</v>
+      </c>
+      <c r="C78" t="s">
+        <v>276</v>
       </c>
       <c r="D78" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E78" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F78" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G78" t="s">
         <v>16</v>
@@ -4328,7 +4457,7 @@
         <v>17</v>
       </c>
       <c r="K78" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -4339,13 +4468,13 @@
         <v>18</v>
       </c>
       <c r="C79" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D79" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E79" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F79" t="s">
         <v>15</v>
@@ -4368,19 +4497,19 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>64</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>282</v>
+        <v>65</v>
+      </c>
+      <c r="C80" t="s">
+        <v>283</v>
       </c>
       <c r="D80" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E80" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F80" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G80" t="s">
         <v>16</v>
@@ -4392,7 +4521,7 @@
         <v>17</v>
       </c>
       <c r="K80" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -4400,19 +4529,19 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>64</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>285</v>
+        <v>65</v>
+      </c>
+      <c r="C81" t="s">
+        <v>286</v>
       </c>
       <c r="D81" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E81" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F81" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G81" t="s">
         <v>16</v>
@@ -4424,7 +4553,7 @@
         <v>17</v>
       </c>
       <c r="K81" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -4435,10 +4564,10 @@
         <v>23</v>
       </c>
       <c r="C82" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D82" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E82" t="s">
         <v>15</v>
@@ -4456,7 +4585,7 @@
         <v>17</v>
       </c>
       <c r="K82" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -4467,10 +4596,10 @@
         <v>23</v>
       </c>
       <c r="C83" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D83" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E83" t="s">
         <v>15</v>
@@ -4488,7 +4617,7 @@
         <v>17</v>
       </c>
       <c r="K83" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -4499,10 +4628,10 @@
         <v>23</v>
       </c>
       <c r="C84" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D84" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E84" t="s">
         <v>15</v>
@@ -4520,7 +4649,7 @@
         <v>17</v>
       </c>
       <c r="K84" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -4531,13 +4660,13 @@
         <v>23</v>
       </c>
       <c r="C85" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D85" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E85" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F85" t="s">
         <v>15</v>
@@ -4552,7 +4681,7 @@
         <v>17</v>
       </c>
       <c r="K85" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -4560,19 +4689,19 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C86" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D86" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E86" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F86" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G86" t="s">
         <v>16</v>
@@ -4584,7 +4713,7 @@
         <v>17</v>
       </c>
       <c r="K86" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -4592,31 +4721,31 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C87" t="s">
+        <v>304</v>
+      </c>
+      <c r="D87" t="s">
+        <v>301</v>
+      </c>
+      <c r="E87" t="s">
+        <v>305</v>
+      </c>
+      <c r="F87" t="s">
+        <v>69</v>
+      </c>
+      <c r="G87" t="s">
+        <v>16</v>
+      </c>
+      <c r="H87" t="s">
+        <v>16</v>
+      </c>
+      <c r="J87" t="s">
+        <v>17</v>
+      </c>
+      <c r="K87" t="s">
         <v>303</v>
-      </c>
-      <c r="D87" t="s">
-        <v>300</v>
-      </c>
-      <c r="E87" t="s">
-        <v>304</v>
-      </c>
-      <c r="F87" t="s">
-        <v>68</v>
-      </c>
-      <c r="G87" t="s">
-        <v>16</v>
-      </c>
-      <c r="H87" t="s">
-        <v>16</v>
-      </c>
-      <c r="J87" t="s">
-        <v>17</v>
-      </c>
-      <c r="K87" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -4627,10 +4756,10 @@
         <v>23</v>
       </c>
       <c r="C88" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D88" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E88" t="s">
         <v>15</v>
@@ -4648,7 +4777,7 @@
         <v>17</v>
       </c>
       <c r="K88" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -4659,13 +4788,13 @@
         <v>18</v>
       </c>
       <c r="C89" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D89" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E89" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F89" t="s">
         <v>15</v>
@@ -4688,10 +4817,10 @@
         <v>23</v>
       </c>
       <c r="C90" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D90" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E90" t="s">
         <v>15</v>
@@ -4709,7 +4838,7 @@
         <v>17</v>
       </c>
       <c r="K90" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -4720,10 +4849,10 @@
         <v>18</v>
       </c>
       <c r="C91" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D91" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E91" t="s">
         <v>15</v>
@@ -4739,6 +4868,486 @@
       </c>
       <c r="J91" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>65</v>
+      </c>
+      <c r="C92" t="s">
+        <v>317</v>
+      </c>
+      <c r="D92" t="s">
+        <v>277</v>
+      </c>
+      <c r="E92" t="s">
+        <v>278</v>
+      </c>
+      <c r="F92" t="s">
+        <v>69</v>
+      </c>
+      <c r="G92" t="s">
+        <v>16</v>
+      </c>
+      <c r="H92" t="s">
+        <v>16</v>
+      </c>
+      <c r="J92" t="s">
+        <v>17</v>
+      </c>
+      <c r="K92" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>18</v>
+      </c>
+      <c r="C93" t="s">
+        <v>319</v>
+      </c>
+      <c r="D93" t="s">
+        <v>320</v>
+      </c>
+      <c r="E93" t="s">
+        <v>321</v>
+      </c>
+      <c r="F93" t="s">
+        <v>15</v>
+      </c>
+      <c r="G93" t="s">
+        <v>16</v>
+      </c>
+      <c r="H93" t="s">
+        <v>16</v>
+      </c>
+      <c r="J93" t="s">
+        <v>17</v>
+      </c>
+      <c r="K93" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>323</v>
+      </c>
+      <c r="C94" t="s">
+        <v>324</v>
+      </c>
+      <c r="D94" t="s">
+        <v>325</v>
+      </c>
+      <c r="E94" t="s">
+        <v>227</v>
+      </c>
+      <c r="F94" t="s">
+        <v>15</v>
+      </c>
+      <c r="G94" t="s">
+        <v>16</v>
+      </c>
+      <c r="H94" t="s">
+        <v>16</v>
+      </c>
+      <c r="J94" t="s">
+        <v>17</v>
+      </c>
+      <c r="K94" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>323</v>
+      </c>
+      <c r="C95" t="s">
+        <v>326</v>
+      </c>
+      <c r="D95" t="s">
+        <v>327</v>
+      </c>
+      <c r="E95" t="s">
+        <v>328</v>
+      </c>
+      <c r="F95" t="s">
+        <v>329</v>
+      </c>
+      <c r="G95" t="s">
+        <v>16</v>
+      </c>
+      <c r="H95" t="s">
+        <v>16</v>
+      </c>
+      <c r="J95" t="s">
+        <v>17</v>
+      </c>
+      <c r="K95" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>323</v>
+      </c>
+      <c r="C96" t="s">
+        <v>331</v>
+      </c>
+      <c r="D96" t="s">
+        <v>332</v>
+      </c>
+      <c r="E96" t="s">
+        <v>227</v>
+      </c>
+      <c r="F96" t="s">
+        <v>15</v>
+      </c>
+      <c r="G96" t="s">
+        <v>16</v>
+      </c>
+      <c r="H96" t="s">
+        <v>16</v>
+      </c>
+      <c r="J96" t="s">
+        <v>17</v>
+      </c>
+      <c r="K96" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
+      <c r="A97" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>323</v>
+      </c>
+      <c r="C97" t="s">
+        <v>334</v>
+      </c>
+      <c r="D97" t="s">
+        <v>335</v>
+      </c>
+      <c r="E97" t="s">
+        <v>328</v>
+      </c>
+      <c r="F97" t="s">
+        <v>329</v>
+      </c>
+      <c r="G97" t="s">
+        <v>16</v>
+      </c>
+      <c r="H97" t="s">
+        <v>16</v>
+      </c>
+      <c r="J97" t="s">
+        <v>17</v>
+      </c>
+      <c r="K97" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>323</v>
+      </c>
+      <c r="C98" t="s">
+        <v>337</v>
+      </c>
+      <c r="D98" t="s">
+        <v>338</v>
+      </c>
+      <c r="E98" t="s">
+        <v>227</v>
+      </c>
+      <c r="F98" t="s">
+        <v>15</v>
+      </c>
+      <c r="G98" t="s">
+        <v>16</v>
+      </c>
+      <c r="H98" t="s">
+        <v>16</v>
+      </c>
+      <c r="J98" t="s">
+        <v>17</v>
+      </c>
+      <c r="K98" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
+      <c r="A99" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>340</v>
+      </c>
+      <c r="C99" t="s">
+        <v>341</v>
+      </c>
+      <c r="D99" t="s">
+        <v>342</v>
+      </c>
+      <c r="E99" t="s">
+        <v>343</v>
+      </c>
+      <c r="F99" t="s">
+        <v>15</v>
+      </c>
+      <c r="G99" t="s">
+        <v>344</v>
+      </c>
+      <c r="H99" t="s">
+        <v>344</v>
+      </c>
+      <c r="J99" t="s">
+        <v>17</v>
+      </c>
+      <c r="K99" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
+      <c r="A100" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>340</v>
+      </c>
+      <c r="C100" t="s">
+        <v>346</v>
+      </c>
+      <c r="D100" t="s">
+        <v>342</v>
+      </c>
+      <c r="E100" t="s">
+        <v>347</v>
+      </c>
+      <c r="F100" t="s">
+        <v>15</v>
+      </c>
+      <c r="G100" t="s">
+        <v>344</v>
+      </c>
+      <c r="H100" t="s">
+        <v>344</v>
+      </c>
+      <c r="J100" t="s">
+        <v>17</v>
+      </c>
+      <c r="K100" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
+      <c r="A101" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>340</v>
+      </c>
+      <c r="C101" t="s">
+        <v>348</v>
+      </c>
+      <c r="D101" t="s">
+        <v>342</v>
+      </c>
+      <c r="E101" t="s">
+        <v>349</v>
+      </c>
+      <c r="F101" t="s">
+        <v>15</v>
+      </c>
+      <c r="G101" t="s">
+        <v>344</v>
+      </c>
+      <c r="H101" t="s">
+        <v>344</v>
+      </c>
+      <c r="J101" t="s">
+        <v>17</v>
+      </c>
+      <c r="K101" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
+      <c r="A102" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>340</v>
+      </c>
+      <c r="C102" t="s">
+        <v>350</v>
+      </c>
+      <c r="D102" t="s">
+        <v>342</v>
+      </c>
+      <c r="E102" t="s">
+        <v>351</v>
+      </c>
+      <c r="F102" t="s">
+        <v>15</v>
+      </c>
+      <c r="G102" t="s">
+        <v>344</v>
+      </c>
+      <c r="H102" t="s">
+        <v>344</v>
+      </c>
+      <c r="J102" t="s">
+        <v>17</v>
+      </c>
+      <c r="K102" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
+      <c r="A103" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>323</v>
+      </c>
+      <c r="C103" t="s">
+        <v>352</v>
+      </c>
+      <c r="D103" t="s">
+        <v>353</v>
+      </c>
+      <c r="E103" t="s">
+        <v>227</v>
+      </c>
+      <c r="F103" t="s">
+        <v>15</v>
+      </c>
+      <c r="G103" t="s">
+        <v>16</v>
+      </c>
+      <c r="H103" t="s">
+        <v>16</v>
+      </c>
+      <c r="J103" t="s">
+        <v>17</v>
+      </c>
+      <c r="K103" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
+      <c r="A104" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>125</v>
+      </c>
+      <c r="C104" t="s">
+        <v>355</v>
+      </c>
+      <c r="D104" t="s">
+        <v>356</v>
+      </c>
+      <c r="E104" t="s">
+        <v>227</v>
+      </c>
+      <c r="F104" t="s">
+        <v>329</v>
+      </c>
+      <c r="G104" t="s">
+        <v>16</v>
+      </c>
+      <c r="H104" t="s">
+        <v>16</v>
+      </c>
+      <c r="J104" t="s">
+        <v>17</v>
+      </c>
+      <c r="K104" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
+      <c r="A105" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>65</v>
+      </c>
+      <c r="C105" t="s">
+        <v>358</v>
+      </c>
+      <c r="D105" t="s">
+        <v>277</v>
+      </c>
+      <c r="E105" t="s">
+        <v>284</v>
+      </c>
+      <c r="F105" t="s">
+        <v>227</v>
+      </c>
+      <c r="G105" t="s">
+        <v>16</v>
+      </c>
+      <c r="H105" t="s">
+        <v>16</v>
+      </c>
+      <c r="J105" t="s">
+        <v>17</v>
+      </c>
+      <c r="K105" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
+      <c r="A106" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>65</v>
+      </c>
+      <c r="C106" t="s">
+        <v>359</v>
+      </c>
+      <c r="D106" t="s">
+        <v>277</v>
+      </c>
+      <c r="E106" t="s">
+        <v>287</v>
+      </c>
+      <c r="F106" t="s">
+        <v>227</v>
+      </c>
+      <c r="G106" t="s">
+        <v>16</v>
+      </c>
+      <c r="H106" t="s">
+        <v>16</v>
+      </c>
+      <c r="J106" t="s">
+        <v>17</v>
+      </c>
+      <c r="K106" t="s">
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -4752,10 +5361,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="0"/>
@@ -4765,27 +5374,27 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>316</v>
+        <v>360</v>
       </c>
       <c r="B1" t="s">
-        <v>317</v>
+        <v>361</v>
       </c>
       <c r="C1" t="s">
         <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>318</v>
+        <v>362</v>
       </c>
       <c r="E1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F1" t="s">
-        <v>319</v>
+        <v>363</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>320</v>
+        <v>364</v>
       </c>
       <c r="B2" t="n">
         <v>90</v>
@@ -4820,7 +5429,75 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="19" r="20" spans="1:6"/>
+    <row r="4" spans="1:6">
+      <c r="B4" t="n">
+        <v>90</v>
+      </c>
+      <c r="C4" t="n">
+        <v>89</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="B5" t="n">
+        <v>90</v>
+      </c>
+      <c r="C5" t="n">
+        <v>90</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="B6" t="n">
+        <v>90</v>
+      </c>
+      <c r="C6" t="n">
+        <v>89</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="B7" t="n">
+        <v>105</v>
+      </c>
+      <c r="C7" t="n">
+        <v>105</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="19" r="14" spans="1:6"/>
   </sheetData>
   <pageMargins bottom="1" footer="0.511805555555556" header="0.511805555555556" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/interface_atuo_cases0508/test_data/interface_cases.xlsx
+++ b/interface_atuo_cases0508/test_data/interface_cases.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="715" visibility="visible" windowHeight="9555" windowWidth="20640"/>
+    <workbookView windowWidth="18390" windowHeight="12630" tabRatio="715"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="144525" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699">
   <si>
     <t>id</t>
   </si>
@@ -104,13 +104,13 @@
     <t>转接-统计新转入数量-显示状态值-jar包</t>
   </si>
   <si>
-    <t>:8081/v1/tenants/_1NTMWLA/count</t>
+    <t>/v1/tenants/_1NTMWLA/count</t>
   </si>
   <si>
     <t>{"staffId":"s_819aee8ed8554b9f82e8d6302c8d2411", "skillGroupId":"dc14c144-a9bb-4beb-ad0a-2df4be155623"}</t>
   </si>
   <si>
-    <t>{'count': 0}</t>
+    <t>{'existenceMessage': False}</t>
   </si>
   <si>
     <t>话术-新增公有话术与私有化术-0表示公有</t>
@@ -209,7 +209,7 @@
     <t>{"configType ":0}</t>
   </si>
   <si>
-    <t>{'baseSuccess': True, 'globalConfig': {'configCode': 'EVALUATION_CONTEXT', 'configDescription': '', 'configName': 'evaluationContext', 'configState': True, 'configType': 1, 'configValue': '[{"guidanceDocument":"123456789012345678901234567890","declare":"123456789012345","selectedLabel":["没解决问题"],"rate":5,"labelRequired":1,"guideLanguage":"欢迎给我们服务提建议〜","guideLanguageRequired":1,"label":["没解决问题","不礼貌","服务态度差","回答不及时"],"switch":0},{"guidanceDocument":"非常满意，完美","declare":"3","selectedLabel":["没解决问题","回答不及时","服务态度差","不礼貌"],"rate":4,"labelRequired":1,"guideLanguage":"123456789012345678901234567890","guideLanguageRequired":1,"label":["没解决问题","不礼貌","服务态度差","回答不及时","皎月飞光","科幻"],"switch":0},{"guidanceDocument":"非常满意，完美","declare":"123456789012345","selectedLabel":["没解决问题"],"rate":3,"labelRequired":1,"guideLanguage":"123456789012345678901234567890","guideLanguageRequired":1,"label":["没解决问题","不礼貌","服务态度差","回答不及时","皎月飞光","皎月飞光"],"switch":0},{"guidanceDocument":"非常满意，完美","declare":"123456789012345","selectedLabel":["没解决问题"],"rate":2,"labelRequired":1,"guideLanguage":"123456789012345678901234567890","guideLanguageRequired":1,"label":["没解决问题","不礼貌","服务态度差","回答不及时","皎月飞光","科幻"],"switch":0},{"guidanceDocument":"非常满意，完美","declare":"123456789012345","selectedLabel":["没解决问题"],"rate":1,"labelRequired":1,"guideLanguage":"123456789012345678901234567890","guideLanguageRequired":1,"label":["没解决问题","不礼貌","服务态度差","回答不及时","皎月飞光","魔幻"],"switch":0}]', 'tenantId': '_1NTMWLA'}, 'httpStatusCode': 0}</t>
+    <t>{'baseSuccess': True, 'globalConfig': {'configCode': 'EVALUATION_CONTEXT', 'configDescription': '', 'configName': 'evaluationContext', 'configState': True, 'configType': 1, 'configValue': '[{"guidanceDocument":"请对我们的服务进行评价！","declare":"非常满意，完美！","selectedLabel":[],"rate":5,"labelRequired":0,"guideLanguage":"欢迎给我们服务提建议〜","guideLanguageRequired":1,"label":["没解决问题","不礼貌","服务态度差","回答不及时"],"switch":0},{"guidanceDocument":"非常满意，完美","declare":"满意，仍可改善！","selectedLabel":["没解决问题","回答不及时","服务态度差","不礼貌"],"rate":4,"labelRequired":0,"guideLanguage":"欢迎给我们提建议！","guideLanguageRequired":0,"label":["没解决问题","不礼貌","服务态度差","回答不及时","皎月飞光","科幻"],"switch":0},{"guidanceDocument":"非常满意，完美","declare":"较满意，仍需改善！","selectedLabel":["没解决问题"],"rate":3,"labelRequired":1,"guideLanguage":"欢迎给我们提建议！","guideLanguageRequired":1,"label":["没解决问题","不礼貌","服务态度差","回答不及时","皎月飞光","皎月飞光"],"switch":0},{"guidanceDocument":"非常满意，完美","declare":"不满意，有点失望！","selectedLabel":["没解决问题","不礼貌","服务态度差","回答不及时","科幻"],"rate":2,"labelRequired":1,"guideLanguage":"欢迎给我们提建议！","guideLanguageRequired":1,"label":["没解决问题","不礼貌","服务态度差","回答不及时","皎月飞光","科幻"],"switch":0},{"guidanceDocument":"非常满意，完美","declare":"非常不满意，特别失望！","selectedLabel":["没解决问题","不礼貌","服务态度差","回答不及时"],"rate":1,"labelRequired":1,"guideLanguage":"欢迎给我们提建议！","guideLanguageRequired":1,"label":["没解决问题","不礼貌","服务态度差","回答不及时","皎月飞光","魔幻"],"switch":0}]', 'tenantId': '_1NTMWLA'}, 'httpStatusCode': 0}</t>
   </si>
   <si>
     <t>PUT</t>
@@ -233,7 +233,7 @@
     <t>/v1/tenants/_1NTMWLA/get-skill-groups</t>
   </si>
   <si>
-    <t>[{'description': 'yangnk5', 'disableEnable': True, 'gmtCreate': 1561622859000, 'gmtModified': 1561622859000, 'id': 38, 'name': 'yangnk5', 'skillGroupId': '713b4b4f-97bb-49c5-847b-e2fb67a637ee', 'tenantId': '_1NTMWLA', 'type': 1}, {'description': 'yangnk4', 'disableEnable': True, 'gmtCreate': 1561614625000, 'gmtModified': 1561614625000, 'id': 37, 'name': 'yangnk4', 'skillGroupId': '66c6822a-5b07-484f-ae4a-720523ba8962', 'tenantId': '_1NTMWLA', 'type': 1}, {'description': 'yangnk3', 'disableEnable': True, 'gmtCreate': 1561604312000, 'gmtModified': 1561604312000, 'id': 36, 'name': 'yangnk3', 'skillGroupId': '1d7868eb-ea22-4c63-9728-6caea8e5ca50', 'tenantId': '_1NTMWLA', 'type': 1}, {'description': 'yangnk2', 'disableEnable': True, 'gmtCreate': 1561602477000, 'gmtModified': 1561602477000, 'id': 35, 'name': 'yangnk2', 'skillGroupId': '162babff-74c6-4cc5-b40b-3344de43b7c6', 'tenantId': '_1NTMWLA', 'type': 1}, {'description': 'zhang', 'disableEnable': True, 'gmtCreate': 1561539202000, 'gmtModified': 1561539210000, 'id': 34, 'name': 'zhang003', 'skillGroupId': '1fa50dc4-5520-4b58-8990-acad3baa5a89', 'tenantId': '_1NTMWLA', 'type': 1}, {'description': 'zhang', 'disableEnable': True, 'gmtCreate': 1561534192000, 'gmtModified': 1561534192000, 'id': 33, 'name': 'zhang002', 'skillGroupId': 'e37d7488-7a6b-4863-8d8b-0115b21ca0f8', 'tenantId': '_1NTMWLA', 'type': 1}, {'description': 'zhang', 'disableEnable': True, 'gmtCreate': 1561534179000, 'gmtModified': 1561636728000, 'id': 32, 'name': 'zhang001', 'skillGroupId': 'dc14c144-a9bb-4beb-ad0a-2df4be155623', 'tenantId': '_1NTMWLA', 'type': 1}]</t>
+    <t>[{'description': 'zhang', 'disableEnable': True, 'gmtCreate': 1561534179000, 'gmtModified': 1561636728000, 'id': 32, 'name': 'zhang001', 'skillGroupId': 'dc14c144-a9bb-4beb-ad0a-2df4be155623', 'tenantId': '_1NTMWLA', 'type': 1}, {'description': 'zhang', 'disableEnable': True, 'gmtCreate': 1561534192000, 'gmtModified': 1561534192000, 'id': 33, 'name': 'zhang002', 'skillGroupId': 'e37d7488-7a6b-4863-8d8b-0115b21ca0f8', 'tenantId': '_1NTMWLA', 'type': 1}, {'description': 'zhang', 'disableEnable': True, 'gmtCreate': 1561539202000, 'gmtModified': 1561539210000, 'id': 34, 'name': 'zhang003', 'skillGroupId': '1fa50dc4-5520-4b58-8990-acad3baa5a89', 'tenantId': '_1NTMWLA', 'type': 1}, {'description': 'yangnk2', 'disableEnable': True, 'gmtCreate': 1561602477000, 'gmtModified': 1561602477000, 'id': 35, 'name': 'yangnk2', 'skillGroupId': '162babff-74c6-4cc5-b40b-3344de43b7c6', 'tenantId': '_1NTMWLA', 'type': 1}, {'description': 'yangnk3', 'disableEnable': True, 'gmtCreate': 1561604312000, 'gmtModified': 1561604312000, 'id': 36, 'name': 'yangnk3', 'skillGroupId': '1d7868eb-ea22-4c63-9728-6caea8e5ca50', 'tenantId': '_1NTMWLA', 'type': 1}, {'description': 'yangnk4', 'disableEnable': True, 'gmtCreate': 1561614625000, 'gmtModified': 1561614625000, 'id': 37, 'name': 'yangnk4', 'skillGroupId': '66c6822a-5b07-484f-ae4a-720523ba8962', 'tenantId': '_1NTMWLA', 'type': 1}, {'description': 'yangnk5', 'disableEnable': True, 'gmtCreate': 1561622859000, 'gmtModified': 1561622859000, 'id': 38, 'name': 'yangnk5', 'skillGroupId': '713b4b4f-97bb-49c5-847b-e2fb67a637ee', 'tenantId': '_1NTMWLA', 'type': 1}, {'description': '大额信贷咨询', 'disableEnable': True, 'gmtCreate': 1571300957000, 'gmtModified': 1572858927000, 'id': 39, 'name': '大额信贷', 'skillGroupId': '06d786f7-d7ef-4585-adfa-49b0ca23c974', 'tenantId': '_1NTMWLA', 'type': 1}, {'description': '其他业务咨询', 'disableEnable': True, 'gmtCreate': 1571301229000, 'gmtModified': 1572858762000, 'id': 41, 'name': '其他业务', 'skillGroupId': 'f0842721-3229-4470-bddd-d47d6c00e8cb', 'tenantId': '_1NTMWLA', 'type': 1}, {'description': '外汇咨询', 'disableEnable': True, 'gmtCreate': 1571916315000, 'gmtModified': 1572858877000, 'id': 42, 'name': '外汇', 'skillGroupId': 'a3df8ba4-bd01-4e83-bfdc-b4cf0b662886', 'tenantId': '_1NTMWLA', 'type': 1}, {'description': '信用卡咨询', 'disableEnable': True, 'gmtCreate': 1572858599000, 'gmtModified': 1572858649000, 'id': 43, 'name': '信用卡', 'skillGroupId': '1421cd8c-a6b2-4838-a698-c76ca0a31576', 'tenantId': '_1NTMWLA', 'type': 1}, {'description': '借记卡咨询', 'disableEnable': True, 'gmtCreate': 1572858636000, 'gmtModified': 1572858636000, 'id': 44, 'name': '借记卡', 'skillGroupId': '1a36c5c8-8d45-4dc0-a406-5b2ceda3776c', 'tenantId': '_1NTMWLA', 'type': 1}, {'description': '贷记卡咨询', 'disableEnable': True, 'gmtCreate': 1572858665000, 'gmtModified': 1572917653000, 'id': 45, 'name': '贷记卡', 'skillGroupId': 'd575c931-8334-42d3-b22e-c5e8bca3c825', 'tenantId': '_1NTMWLA', 'type': 1}, {'description': '杭州客户技能组1', 'disableEnable': True, 'gmtCreate': 1573794909000, 'gmtModified': 1573794909000, 'id': 46, 'name': '杭州客户技能组', 'skillGroupId': '2709bd02-284b-4f9f-a61f-1b8362a4b84d', 'tenantId': '_1NTMWLA', 'type': 1}]</t>
   </si>
   <si>
     <t>客服列表-滚动技能组</t>
@@ -245,7 +245,7 @@
     <t>/v1/tenants/_1NTMWLA/get-staff/dc14c144-a9bb-4beb-ad0a-2df4be155623</t>
   </si>
   <si>
-    <t>{'baseSuccess': True, 'httpStatusCode': 0, 'staffInfoList': [{'avatar': '/static/media/line_icon_photo01.646c3740.svg', 'displayName': '章', 'gmtCreate': 1561534243000, 'gmtModified': 1563867116000, 'id': 32, 'isDeleted': 0, 'isEnable': 1, 'isModifyPassword': 1, 'jobNumber': '001', 'level': 100, 'organization': 33, 'password': '30:5b2d33342c2035372c202d37322c202d39302c203130372c202d3130342c2038322c2034392c202d37392c203132352c202d35392c2039322c2036352c203132302c202d34312c202d39375d:45d3f2302966a60843a21fc65287fe195451a216ef70a420eb0734836732f0f1', 'phone': '13622222222', 'staffId': 's_819aee8ed8554b9f82e8d6302c8d2411', 'staffName': '章广华', 'tenantId': '_1NTMWLA', 'username': 'zhang001'}, {'avatar': '', 'displayName': '章2', 'gmtCreate': 1561534283000, 'gmtModified': 1564754427000, 'id': 33, 'isDeleted': 0, 'isEnable': 0, 'isModifyPassword': 0, 'jobNumber': '002', 'level': 5, 'organization': 0, 'password': '30:5b3130302c203130392c2031302c2037372c2035312c2037362c203131312c2034312c203131312c2032312c202d39362c202d3131392c202d3132302c202d36382c202d35392c202d345d:f93580ab8627059009a23bc49acc0ab7cd07b8dc55da4206b32129f0411de56d', 'phone': '13622222222', 'staffId': 's_b17fc5b87921489788024c30229f0528', 'staffName': '章广华2', 'tenantId': '_1NTMWLA', 'username': 'zhang002'}, {'avatar': '', 'displayName': '章3', 'gmtCreate': 1561539262000, 'gmtModified': 1563789768000, 'id': 34, 'isDeleted': 0, 'isEnable': 1, 'isModifyPassword': 0, 'jobNumber': '003', 'level': 5, 'organization': 0, 'password': '30:5b2d38362c2032362c202d3131302c2036302c202d36322c202d39342c2031392c2034332c202d352c2036362c20302c2037302c202d32372c202d3132382c202d39332c2031305d:4a64d86df231ce01ba98737ba059732a24134a6ab712846263c7e1628d6ec0b9', 'phone': '13622222222', 'staffId': 's_27dc197e2b184befa8dc863f7b429bd2', 'staffName': '章广华3', 'tenantId': '_1NTMWLA', 'username': 'zhang003'}]}</t>
+    <t>{'baseSuccess': True, 'httpStatusCode': 0, 'staffInfoList': [{'avatar': '/static/media/line_icon_photo01.646c3740.svg', 'displayName': '章', 'gmtCreate': 1561534243000, 'gmtModified': 1571407294000, 'id': 32, 'isDeleted': 0, 'isEnable': 1, 'isModifyPassword': 1, 'jobNumber': '001', 'level': 100, 'organization': 33, 'password': '30:5b2d33342c2035372c202d37322c202d39302c203130372c202d3130342c2038322c2034392c202d37392c203132352c202d35392c2039322c2036352c203132302c202d34312c202d39375d:45d3f2302966a60843a21fc65287fe195451a216ef70a420eb0734836732f0f1', 'phone': '13622222222', 'staffId': 's_819aee8ed8554b9f82e8d6302c8d2411', 'staffName': '章广华', 'tenantId': '_1NTMWLA', 'username': 'zhang001'}, {'avatar': '', 'displayName': '章3', 'gmtCreate': 1561539262000, 'gmtModified': 1566183504000, 'id': 34, 'isDeleted': 0, 'isEnable': 1, 'isModifyPassword': 0, 'jobNumber': '003', 'level': 5, 'organization': 0, 'password': '30:5b2d38362c2032362c202d3131302c2036302c202d36322c202d39342c2031392c2034332c202d352c2036362c20302c2037302c202d32372c202d3132382c202d39332c2031305d:4a64d86df231ce01ba98737ba059732a24134a6ab712846263c7e1628d6ec0b9', 'phone': '13622222222', 'staffId': 's_27dc197e2b184befa8dc863f7b429bd2', 'staffName': '章广华3', 'tenantId': '_1NTMWLA', 'username': 'zhang003'}, {'avatar': '', 'displayName': 'zgh', 'gmtCreate': 1567064493000, 'gmtModified': 1571968395000, 'id': 43, 'isDeleted': 0, 'isEnable': 1, 'isModifyPassword': 0, 'jobNumber': '007', 'level': 5, 'organization': 0, 'password': '30:5b2d37372c2035352c2031362c203132312c203132372c2035342c202d3132382c202d33372c2035392c2038392c202d32342c202d36362c202d3132362c202d39382c202d36312c202d37355d:34aabc5ae947cba8abd0e44674d9883c495323465f5dbde9734e1b6d8711590c', 'phone': '13122222222', 'staffId': 's_5218ea681e1e436cb03a3151b97bdf9f', 'staffName': '章广华', 'tenantId': '_1NTMWLA', 'username': 'zgh'}, {'avatar': 'http://47.110.131.231:8008/customer_service.svg', 'displayName': 'cc', 'entryTime': 1571390158000, 'gmtCreate': 1571390158000, 'gmtModified': 1571390158000, 'id': 46, 'isDeleted': 0, 'isEnable': 1, 'isModifyPassword': 0, 'jobNumber': '001', 'level': 5, 'organization': 0, 'password': '30:5b2d31372c2035332c2037372c202d39392c202d37342c202d3130322c203131302c202d36382c202d39342c202d39322c202d32302c202d3130392c202d3131352c203131342c203131382c202d35325d:2630d01e3a3e0d86cfd46b00c8a43fe29d4e20c5d89eeb478725eb69149c4647', 'phone': '18758882514', 'staffId': 's_85755b2aad654b59bda7865ee8cd5caf', 'staffName': 'cyq', 'tenantId': '_1NTMWLA', 'username': 'cyq123'}, {'avatar': 'http://47.110.131.231:8008/customer_service.svg', 'displayName': 'xujm', 'entryTime': 1571390972000, 'gmtCreate': 1571390982000, 'gmtModified': 1571390982000, 'id': 47, 'isDeleted': 0, 'isEnable': 1, 'isModifyPassword': 0, 'jobNumber': '0138', 'level': 10, 'organization': 0, 'password': '30:5b2d35392c2032372c202d31352c202d3131302c203131302c202d31382c2033342c2039322c2037392c2036332c2033382c202d39382c202d3132382c2039342c2034372c202d33335d:aa458c6fff0fc64beb7f5672a10eabe9a12bb002a64c0f0550e2df1d810026dc', 'phone': '15925649020', 'staffId': 's_ede14430991843dc8eca411432a2cb79', 'staffName': 'xujm', 'tenantId': '_1NTMWLA', 'username': 'xujm'}, {'avatar': 'http://47.110.131.231:8008/customer_service.svg', 'displayName': 'y', 'entryTime': 1571715693000, 'gmtCreate': 1571715694000, 'gmtModified': 1571715694000, 'id': 50, 'isDeleted': 0, 'isEnable': 1, 'isModifyPassword': 0, 'jobNumber': '121', 'level': 5, 'organization': 0, 'password': '30:5b2d34312c2038312c202d31372c202d35312c2038392c202d33342c2036352c2037342c202d34392c202d39322c202d38332c2039332c202d35392c202d35352c202d31342c202d37335d:166a666cff4e1fa32ee9895bb4a64bd42893cade3f25a240bb4df2d202727b05', 'phone': '18758882514', 'staffId': 's_91999a546be64f6b81990735bc717910', 'staffName': 'yu', 'tenantId': '_1NTMWLA', 'username': 'caoyu'}, {'avatar': '', 'displayName': 'aq', 'gmtCreate': 1571794175000, 'gmtModified': 1572859898000, 'id': 52, 'isDeleted': 0, 'isEnable': 1, 'isModifyPassword': 0, 'jobNumber': '1234', 'level': 35, 'organization': 0, 'password': '30:5b36362c2036312c202d37352c2039392c202d38352c202d3132372c202d3130352c202d32302c2037392c2032352c2037352c203132352c202d38342c202d32332c2033302c2037335d:c8b4563a7dd15c60a038eb8c6f9e1aed777e5b726139e22239e8167e6b3c25b3', 'phone': '18758882514', 'staffId': 's_279d441459b74627ae288bf9b3837f26', 'staffName': '王五', 'tenantId': '_1NTMWLA', 'username': 'xsz'}]}</t>
   </si>
   <si>
     <t>基础设置-查询询问前表单</t>
@@ -257,7 +257,7 @@
     <t>{"configType":5}</t>
   </si>
   <si>
-    <t>{'baseSuccess': True, 'globalConfigEntity': [{'configCode': 'FORM_INQUIRY', 'configDescription': '', 'configName': 'formInquiry', 'configState': True, 'configType': 5, 'configValue': '{"reminder":true,"words":"123456789012345678901234567890","check":false,"validateStatus":"success","help":""}', 'tenantId': '_1NTMWLA'}], 'globalConfigFormEntity': [{'configType': 5, 'formDescribe': '1234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890', 'formId': 'f_1ca8d902-e91d-42c0-a89d-0a8da0a9694b', 'formTitle': '123456789012345', 'formType': '1234234', 'gmtCreate': 1561615753000, 'gmtModified': 1561615753000, 'id': 7, 'isEnable': True, 'staffId': 's_819aee8ed8554b9f82e8d6302c8d2411', 'tenantId': '_1NTMWLA'}, {'configType': 5, 'formDescribe': '3', 'formId': 'f_b9f3cbe6-21fd-481f-b682-7850b7148a83', 'formTitle': '姓名', 'formType': 'string', 'gmtCreate': 1564638819000, 'gmtModified': 1564638819000, 'id': 8, 'isEnable': True, 'staffId': 's_819aee8ed8554b9f82e8d6302c8d2411', 'tenantId': '_1NTMWLA'}], 'httpStatusCode': 0}</t>
+    <t>{'baseSuccess': True, 'globalConfigEntity': [{'configCode': 'FORM_INQUIRY', 'configDescription': '', 'configName': 'formInquiry', 'configState': True, 'configType': 5, 'configValue': '{"reminder":false,"words":"客服小锦为您服务","check":false,"validateStatus":"success","help":""}', 'tenantId': '_1NTMWLA'}], 'globalConfigFormEntity': [{'configType': 5, 'formDescribe': '', 'formId': 'f_8ffa791e-caee-4fa1-9345-00efd1fa9f40', 'formTitle': '真实姓名', 'formType': '', 'gmtCreate': 1566198044000, 'gmtModified': 1566198044000, 'id': 15, 'isEnable': True, 'staffId': 's_819aee8ed8554b9f82e8d6302c8d2411', 'tenantId': '_1NTMWLA'}, {'configType': 5, 'formDescribe': '', 'formId': 'f_9bc81a89-ee98-4a82-8edb-1727e4a786c0', 'formTitle': '电话', 'formType': '', 'gmtCreate': 1565948012000, 'gmtModified': 1565948012000, 'id': 16, 'isEnable': False, 'staffId': 's_819aee8ed8554b9f82e8d6302c8d2411', 'tenantId': '_1NTMWLA'}, {'configType': 5, 'formDescribe': '', 'formId': 'f_054111d8-bf53-4d70-982d-e6a8f94d29ec', 'formTitle': '问题描述', 'formType': '', 'gmtCreate': 1565948012000, 'gmtModified': 1565948012000, 'id': 17, 'isEnable': False, 'staffId': 's_819aee8ed8554b9f82e8d6302c8d2411', 'tenantId': '_1NTMWLA'}], 'httpStatusCode': 0}</t>
   </si>
   <si>
     <t>基础设置-查询技能组工作时间</t>
@@ -269,7 +269,7 @@
     <t>{"configType":4}</t>
   </si>
   <si>
-    <t>{'baseSuccess': True, 'globalConfigEntity': [{'configCode': 'SKILLSGROUP_DOWNTIME', 'configDescription': '', 'configName': 'skillsGroupDowntime', 'configState': True, 'configType': 4, 'configValue': 'true', 'tenantId': '_1NTMWLA'}], 'globalConfigHours': [{'configCode': 'WORK_HOURS', 'configName': 'workHours', 'configState': True, 'configType': 4, 'configValueOne': '[{"weekCN":"周一","week":"Mon","isChecked":true,"workTime":[{"startTime":"00:00","endTime":"00:00"}]},{"weekCN":"周二","week":"Tue","isChecked":true,"workTime":[{"startTime":"00:00","endTime":"00:00"}]},{"weekCN":"周三","week":"Wed","isChecked":true,"workTime":[{"startTime":"00:00","endTime":"00:00"}]},{"weekCN":"周四","week":"Thu","isChecked":true,"workTime":[{"startTime":"00:00","endTime":"00:00"}]},{"weekCN":"周五","week":"Fri","isChecked":true,"workTime":[{"startTime":"00:00","endTime":"00:00"}]},{"weekCN":"周六","week":"Sat","isChecked":true,"workTime":[{"startTime":"00:00","endTime":"00:00"}]},{"weekCN":"周日","week":"Sun","isChecked":true,"workTime":[{"startTime":"00:00","endTime":"00:00"}]}]', 'configValueThree': '{"startTime":"00:00","endTime":"00:00","startDate":"2019-06-28","endDate":"2019-06-28"}', 'configValueTwo': '{"startTime":"00:00","endTime":"00:00"}', 'gmtCreate': 1563773072000, 'gmtModified': 1563773072000, 'id': 15, 'skillGroupCount': 3, 'skillGroupId': 'dc14c144-a9bb-4beb-ad0a-2df4be155623', 'skillGroupName': 'zhang001', 'staffGroupId': 'dc14c144-a9bb-4beb-ad0a-2df4be155623', 'staffId': 's_819aee8ed8554b9f82e8d6302c8d2411', 'staffName': '章广华', 'tenantId': '_1NTMWLA'}], 'httpStatusCode': 0}</t>
+    <t>{'baseSuccess': True, 'globalConfigEntity': [{'configCode': 'SKILLSGROUP_DOWNTIME', 'configDescription': '', 'configName': 'skillsGroupDowntime', 'configState': True, 'configType': 4, 'configValue': 'true', 'tenantId': '_1NTMWLA'}], 'globalConfigHours': [{'configCode': 'WORK_HOURS', 'configName': 'workHours', 'configState': True, 'configType': 4, 'configValueOne': '[{"weekCN":"周一","week":"Mon","isChecked":true,"workTime":[{"startTime":"00:00","endTime":"00:00"}]},{"weekCN":"周二","week":"Tue","isChecked":true,"workTime":[{"startTime":"00:00","endTime":"00:00"}]},{"weekCN":"周三","week":"Wed","isChecked":true,"workTime":[{"startTime":"00:00","endTime":"00:00"}]},{"weekCN":"周四","week":"Thu","isChecked":true,"workTime":[{"startTime":"00:00","endTime":"00:00"}]},{"weekCN":"周五","week":"Fri","isChecked":true,"workTime":[{"startTime":"00:00","endTime":"00:00"}]},{"weekCN":"周六","week":"Sat","isChecked":true,"workTime":[{"startTime":"00:00","endTime":"00:00"}]},{"weekCN":"周日","week":"Sun","isChecked":true,"workTime":[{"startTime":"00:00","endTime":"00:00"}]}]', 'configValueThree': '{"startTime":"00:00","endTime":"00:00","startDate":"2019-06-28","endDate":"2019-06-28"}', 'configValueTwo': '{"startTime":"00:00","endTime":"00:00"}', 'gmtCreate': 1566461148000, 'gmtModified': 1566461148000, 'id': 15, 'skillGroupCount': 7, 'skillGroupId': 'dc14c144-a9bb-4beb-ad0a-2df4be155623', 'skillGroupName': 'zhang001', 'staffGroupId': 'dc14c144-a9bb-4beb-ad0a-2df4be155623', 'staffId': 's_819aee8ed8554b9f82e8d6302c8d2411', 'staffName': '章广华', 'tenantId': '_1NTMWLA'}], 'httpStatusCode': 0}</t>
   </si>
   <si>
     <t>基础设置-查询整体工作时间</t>
@@ -278,7 +278,7 @@
     <t>{"configType":3}</t>
   </si>
   <si>
-    <t>{'baseSuccess': True, 'globalConfigEntity': [{'configCode': 'MAINTENANCE_DOWNTIME', 'configDescription': '', 'configName': 'maintenanceDowntime', 'configState': True, 'configType': 3, 'configValue': 'true', 'tenantId': '_1NTMWLA'}], 'globalConfigHours': [{'configCode': 'WORK_HOURS', 'configDescription': '', 'configName': 'workHours', 'configState': False, 'configType': 3, 'configValueOne': '[{"weekCN":"周一","week":"Mon","isChecked":true,"workTime":[{"startTime":"00:00","endTime":"00:00"}]},{"weekCN":"周二","week":"Tue","isChecked":true,"workTime":[{"startTime":"00:00","endTime":"00:00"}]},{"weekCN":"周三","week":"Wed","isChecked":true,"workTime":[{"startTime":"00:00","endTime":"00:00"}]},{"weekCN":"周四","week":"Thu","isChecked":true,"workTime":[{"startTime":"00:00","endTime":"00:00"}]},{"weekCN":"周五","week":"Fri","isChecked":true,"workTime":[{"startTime":"00:00","endTime":"00:00"}]},{"weekCN":"周六","week":"Sat","isChecked":true,"workTime":[{"startTime":"00:00","endTime":"00:00"}]},{"weekCN":"周日","week":"Sun","isChecked":true,"workTime":[{"startTime":"00:00","endTime":"00:00"}]}]', 'configValueThree': '{"startTime":"00:00","endTime":"00:00","startDate":"2019-01-01","endDate":"2019-06-30"}', 'configValueTwo': '{"startTime":"00:00","endTime":"00:00"}', 'gmtCreate': 1561622421000, 'gmtModified': 1561622421000, 'id': 12, 'skillGroupName': '所有客服', 'staffName': '所有角色', 'tenantId': '_1NTMWLA'}], 'httpStatusCode': 0}</t>
+    <t>{'baseSuccess': True, 'globalConfigEntity': [{'configCode': 'MAINTENANCE_DOWNTIME', 'configDescription': '', 'configName': 'maintenanceDowntime', 'configState': True, 'configType': 3, 'configValue': 'true', 'tenantId': '_1NTMWLA'}], 'globalConfigHours': [{'configCode': 'WORK_HOURS', 'configDescription': '', 'configName': 'workHours', 'configState': False, 'configType': 3, 'configValueOne': '[{"weekCN":"周一","week":"Mon","isChecked":true,"workTime":[{"startTime":"00:00","endTime":"00:00"}]},{"weekCN":"周二","week":"Tue","isChecked":true,"workTime":[{"startTime":"00:00","endTime":"00:00"}]},{"weekCN":"周三","week":"Wed","isChecked":true,"workTime":[{"startTime":"00:00","endTime":"00:00"}]},{"weekCN":"周四","week":"Thu","isChecked":true,"workTime":[{"startTime":"00:00","endTime":"00:00"}]},{"weekCN":"周五","week":"Fri","isChecked":true,"workTime":[{"startTime":"00:00","endTime":"00:00"}]},{"weekCN":"周六","week":"Sat","isChecked":true,"workTime":[{"startTime":"00:00","endTime":"00:00"}]},{"weekCN":"周日","week":"Sun","isChecked":true,"workTime":[{"startTime":"00:00","endTime":"00:00"}]}]', 'configValueThree': '{"startTime":"00:00","endTime":"00:00","startDate":"2019-01-01","endDate":"2019-06-30"}', 'configValueTwo': '{"startTime":"00:00","endTime":"00:00"}', 'gmtCreate': 1566453162000, 'gmtModified': 1566453162000, 'id': 12, 'skillGroupName': '所有客服', 'staffName': '所有角色', 'tenantId': '_1NTMWLA'}], 'httpStatusCode': 0}</t>
   </si>
   <si>
     <t>功能管理—提示语—修改提示语</t>
@@ -299,7 +299,7 @@
     <t>/v1/tenants/_1NTMWLA/menu</t>
   </si>
   <si>
-    <t>{'baseSuccess': True, 'httpStatusCode': 0, 'menuList': [{'clickAction': 'global_config:list', 'code': 'global_config_list', 'menuSource': 0, 'name': '查询全局配置', 'parentCode': 'global_config_manage', 'payload': '', 'showOrder': 0, 'type': 1}, {'clickAction': 'system/skillgroupconfig', 'code': 'online_skill_group_manage', 'menuSource': 0, 'name': '在线技能组管理', 'parentCode': 'online_manage', 'payload': '', 'showOrder': 2, 'type': 0}, {'clickAction': 'chat:switch_staff_online_status', 'code': 'switch_staff_online_status', 'menuSource': 0, 'name': '修改客服上线状态', 'parentCode': 'online_workbench', 'payload': '', 'showOrder': 0, 'type': 1}, {'clickAction': 'online_skill_group:edit', 'code': 'online_skill_group_edit', 'menuSource': 0, 'name': '编辑在线技能组', 'parentCode': 'online_skill_group_manage', 'payload': '', 'showOrder': 0, 'type': 1}, {'clickAction': 'system/serviceclassmng', 'code': 'service_class_manage', 'menuSource': 0, 'name': '服务记录类目管理', 'parentCode': 'system_config_manage', 'payload': '', 'showOrder': 4, 'type': 0}, {'clickAction': 'staff:edit', 'code': 'staff_edit', 'menuSource': 0, 'name': '编辑客服', 'parentCode': 'person_manage', 'payload': '', 'showOrder': 0, 'type': 1}, {'clickAction': 'config', 'code': 'system_config_manage', 'menuSource': 0, 'name': '系统设置', 'parentCode': 'system_manage', 'payload': '', 'showOrder': 3, 'type': 0}, {'clickAction': 'window:list', 'code': 'window_list', 'menuSource': 0, 'name': '查询聊天窗', 'parentCode': 'window_manage', 'payload': '', 'showOrder': 0, 'type': 1}, {'clickAction': 'global_config:edit', 'code': 'global_config_edit', 'menuSource': 0, 'name': '编辑全局配置', 'parentCode': 'global_config_manage', 'payload': '', 'showOrder': 0, 'type': 1}, {'clickAction': 'quick_reply:delete', 'code': 'quick_reply_delete', 'menuSource': 0, 'name': '快捷回复删除', 'parentCode': 'quick_response_manage', 'showOrder': 3, 'type': 1}, {'clickAction': 'buservice/rolesMng', 'code': 'role_manage', 'menuSource': 0, 'name': '角色管理', 'parentCode': 'system_manage', 'payload': '', 'showOrder': 1, 'type': 0}, {'clickAction': 'chat:session_evaluate', 'code': 'session_evaluate', 'menuSource': 0, 'name': '用户评价', 'parentCode': 'online_workbench', 'payload': '', 'showOrder': 0, 'type': 1}, {'clickAction': 'system/chatparamconfig', 'code': 'online_config_manage', 'menuSource': 0, 'name': '在线参数配置', 'parentCode': 'online_manage', 'payload': '', 'showOrder': 1, 'type': 0}, {'clickAction': 'staff:list', 'code': 'staff_list', 'menuSource': 0, 'name': '查询客服', 'parentCode': 'person_manage', 'payload': '', 'showOrder': 0, 'type': 1}, {'clickAction': 'chat:fetch_message', 'code': 'fetch_message', 'menuSource': 0, 'name': '访客拉取消息', 'parentCode': 'online_workbench', 'payload': '', 'showOrder': 0, 'type': 1}, {'clickAction': 'system/chatmng', 'code': 'window_manage', 'menuSource': 0, 'name': '聊天窗管理', 'parentCode': 'online_manage', 'payload': '', 'showOrder': 0, 'type': 0}, {'clickAction': 'platform/onlineworkbench', 'code': 'online_workbench', 'menuSource': 0, 'name': '在线聊天工作台', 'parentCode': 'staff_workbench', 'payload': '', 'showOrder': 0, 'type': 0}, {'clickAction': 'chat:send_message', 'code': 'send_message', 'menuSource': 0, 'name': '发送消息', 'parentCode': 'online_workbench', 'payload': '', 'showOrder': 0, 'type': 1}, {'clickAction': 'online_skill_group:delete', 'code': 'online_skill_group_delete', 'menuSource': 0, 'name': '删除在线技能组', 'parentCode': 'online_skill_group_manage', 'payload': '', 'showOrder': 0, 'type': 1}, {'clickAction': 'online_skill_group:list', 'code': 'online_skill_group_list', 'menuSource': 0, 'name': '查询在线技能组', 'parentCode': 'online_skill_group_manage', 'payload': '', 'showOrder': 0, 'type': 1}, {'clickAction': 'servicerecord:list', 'code': 'service_record_list', 'menuSource': 0, 'name': '服务记录列表展示', 'parentCode': 'chat_history', 'showOrder': 1, 'type': 1}, {'clickAction': 'platform', 'code': 'staff_workbench', 'menuSource': 0, 'name': '客服工作台', 'parentCode': 'root', 'payload': '{"icon":"https://img.alicdn.com/tfs/TB1_QJUob_I8KJjy1XaXXbsxpXa-1024-1024.svg"}', 'showOrder': 0, 'type': 0}, {'clickAction': 'catalog:list', 'code': 'service_class_list', 'menuSource': 0, 'name': '列表展示服务记录类目', 'parentCode': 'service_class_manage', 'showOrder': 1, 'type': 1}, {'clickAction': 'catalog:delete', 'code': 'service_class_delete', 'menuSource': 0, 'name': '删除服务记录类目', 'parentCode': 'service_class_manage', 'showOrder': 3, 'type': 1}, {'clickAction': 'system', 'code': 'online_manage', 'menuSource': 0, 'name': '在线聊天管理', 'parentCode': 'system_manage', 'payload': '', 'showOrder': 2, 'type': 0}, {'clickAction': 'buservice/usermng', 'code': 'person_manage', 'menuSource': 0, 'name': '员工管理', 'parentCode': 'system_manage', 'payload': '', 'showOrder': 0, 'type': 0}, {'clickAction': 'chat:fetch_history_messages', 'code': 'fetch_history_messages', 'menuSource': 0, 'name': '获取访客历史消息', 'parentCode': 'online_workbench', 'payload': '', 'showOrder': 0, 'type': 1}, {'clickAction': 'system/quickresponsemng', 'code': 'quick_response_manage', 'menuSource': 0, 'name': '快捷回复管理', 'parentCode': 'system_config_manage', 'payload': '', 'showOrder': 3, 'type': 0}, {'clickAction': 'role:delete', 'code': 'role_delete', 'menuSource': 0, 'name': '删除角色', 'parentCode': 'role_manage', 'payload': '', 'showOrder': 0, 'type': 1}, {'clickAction': 'window:delete', 'code': 'window_delete', 'menuSource': 0, 'name': '删除聊天窗', 'parentCode': 'window_manage', 'payload': '', 'showOrder': 0, 'type': 1}, {'clickAction': 'role:edit', 'code': 'role_edit', 'menuSource': 0, 'name': '编辑角色', 'parentCode': 'role_manage', 'payload': '', 'showOrder': 0, 'type': 1}, {'clickAction': 'system/workTimeMng', 'code': 'work_hours_config_manage', 'menuSource': 0, 'name': '工作时间管理', 'parentCode': 'system_config_manage', 'payload': '', 'showOrder': 0, 'type': 0}, {'clickAction': 'password:reset', 'code': 'reset_password', 'menuSource': 0, 'name': '重置登录密码', 'parentCode': 'person_manage', 'showOrder': 0, 'type': 1}, {'clickAction': 'chat:fetch_staff_history_sessions', 'code': 'fetch_staff_history_sessions', 'menuSource': 0, 'name': '获取客服历史会话', 'parentCode': 'online_workbench', 'payload': '', 'showOrder': 0, 'type': 1}, {'clickAction': 'chat:fetch_user_info', 'code': 'fetch_user_info', 'menuSource': 0, 'name': '获取用户信息', 'parentCode': 'online_workbench', 'payload': '', 'showOrder': 0, 'type': 1}, {'clickAction': 'chat:fetch_staff_sessions', 'code': 'fetch_staff_sessions', 'menuSource': 0, 'name': '获取客服当前服务会话', 'parentCode': 'online_workbench', 'payload': '', 'showOrder': 0, 'type': 1}, {'clickAction': 'role:list', 'code': 'role_list', 'menuSource': 0, 'name': '查询角色', 'parentCode': 'role_manage', 'payload': '', 'showOrder': 2, 'type': 1}, {'clickAction': 'system', 'code': 'system_manage', 'menuSource': 0, 'name': '设置', 'parentCode': 'root', 'payload': '{"icon":"https://img.alicdn.com/tfs/TB16KNmof6H8KJjy0FjXXaXepXa-1024-1024.svg"}', 'showOrder': 1, 'type': 0}, {'clickAction': 'quick_reply:list', 'code': 'quick_reply_list', 'menuSource': 0, 'name': '快捷回复查询', 'parentCode': 'quick_response_manage', 'showOrder': 1, 'type': 1}, {'clickAction': 'chat:fetch_allow_transfer_skill_group', 'code': 'fetch_allow_transfer_skill_group', 'menuSource': 0, 'name': '获取可转接的技能组信息', 'parentCode': 'online_workbench', 'payload': '', 'showOrder': 0, 'type': 1}, {'clickAction': 'chat:super_admin_force_staff_offline', 'code': 'super_admin_force_staff_offline', 'menuSource': 0, 'name': '管理强制客服下线', 'parentCode': 'monitor', 'payload': '', 'showOrder': 0, 'type': 1}, {'clickAction': 'catalog:edit', 'code': 'service_class_edit', 'menuSource': 0, 'name': '编辑服务记录类目', 'parentCode': 'service_class_manage', 'showOrder': 2, 'type': 1}, {'clickAction': 'chat:online_staff', 'code': 'online_staff', 'menuSource': 0, 'name': '获取在线客服', 'parentCode': 'online_workbench', 'payload': '', 'showOrder': 0, 'type': 1}, {'clickAction': 'window:edit', 'code': 'window_edit', 'menuSource': 0, 'name': '编辑聊天窗', 'parentCode': 'window_manage', 'payload': '', 'showOrder': 0, 'type': 1}, {'clickAction': 'chat:close_session', 'code': 'close_session', 'menuSource': 0, 'name': '关闭会话', 'parentCode': 'online_workbench', 'payload': '', 'showOrder': 0, 'type': 1}, {'clickAction': 'history', 'code': 'chat_history', 'menuSource': 0, 'name': '历史记录', 'parentCode': 'root', 'payload': '{"icon":"https://img.alicdn.com/tfs/TB1hcU_n3vD8KJjy0FlXXagBFXa-1024-1024.svg"}', 'showOrder': 2, 'type': 0}, {'clickAction': 'servicerecord:edit', 'code': 'service_record_edit', 'menuSource': 0, 'name': '编辑服务记录', 'parentCode': 'chat_history', 'showOrder': 2, 'type': 1}, {'clickAction': 'chat:fetch_sessions', 'code': 'fetch_sessions', 'menuSource': 0, 'name': '获取访客历史会话', 'parentCode': 'online_workbench', 'payload': '', 'showOrder': 0, 'type': 1}, {'clickAction': 'quick_reply:edit', 'code': 'quick_reply_edit', 'menuSource': 0, 'name': '快捷回复编辑', 'parentCode': 'quick_response_manage', 'showOrder': 2, 'type': 1}, {'clickAction': 'chat:batch_fetch_messages', 'code': 'batch_fetch_messages', 'menuSource': 0, 'name': '客服拉取消息', 'parentCode': 'online_workbench', 'payload': '', 'showOrder': 0, 'type': 1}, {'clickAction': 'staff:delete', 'code': 'staff_delete', 'menuSource': 0, 'name': '删除客服', 'parentCode': 'person_manage', 'payload': '', 'showOrder': 0, 'type': 1}]}</t>
+    <t>{'baseSuccess': True, 'httpStatusCode': 0, 'menuList': [{'clickAction': '/customerService/QualityControl/FullDose', 'code': 'new_fullDose_manage', 'leaf': 1, 'menuSource': 0, 'name': '全量质检', 'parentCode': 'new_qualityControl_manage', 'showOrder': 0, 'type': 0}, {'clickAction': '/customerService/SystemManagement/Service', 'code': 'new_system_service_manage', 'leaf': 1, 'menuSource': 0, 'name': '客服列表', 'parentCode': 'new_system_manage', 'showOrder': 0, 'type': 0}, {'clickAction': '/customerService/QualityControl/EmotionRecognition', 'code': 'new_emotion_manage', 'leaf': 1, 'menuSource': 0, 'name': '情绪识别', 'parentCode': 'new_qualityControl_manage', 'showOrder': 1, 'type': 0}, {'clickAction': '/customerService/SystemManagement/Organization', 'code': 'new_system_organization_manage', 'leaf': 1, 'menuSource': 0, 'name': '组织架构', 'parentCode': 'new_system_manage', 'showOrder': 1, 'type': 0}, {'clickAction': '/customerService/QualityControl/Satisfaction', 'code': 'new_satisfaction_manage', 'leaf': 1, 'menuSource': 0, 'name': '满意度调研', 'parentCode': 'new_qualityControl_manage', 'showOrder': 2, 'type': 0}, {'clickAction': '/customerService/SystemManagement/SkillGroup', 'code': 'new_system_skillGroup_manage', 'leaf': 1, 'menuSource': 0, 'name': '技能组管理', 'parentCode': 'new_system_manage', 'showOrder': 2, 'type': 0}, {'clickAction': '/customerService/Online', 'code': 'new_online_manage', 'leaf': 1, 'menuSource': 0, 'name': '在线', 'parentCode': 'root', 'showOrder': 3, 'type': 0}, {'clickAction': '/customerService/QualityControl/MyQCRecord', 'code': 'new_QCRecord_manage', 'leaf': 1, 'menuSource': 0, 'name': '我的质检记录', 'parentCode': 'new_qualityControl_manage', 'showOrder': 3, 'type': 0}, {'clickAction': '/customerService/SystemManagement/Role', 'code': 'new_system_role_manage', 'leaf': 1, 'menuSource': 0, 'name': '角色权限', 'parentCode': 'new_system_manage', 'showOrder': 3, 'type': 0}, {'clickAction': '/customerService/Workbench', 'code': 'new_workbench_manage', 'leaf': 1, 'menuSource': 0, 'name': '工作台', 'parentCode': 'root', 'showOrder': 4, 'type': 0}, {'clickAction': '/customerService/SystemManagement/Online', 'code': 'new_system_online_manage', 'leaf': 1, 'menuSource': 0, 'name': '在线', 'parentCode': 'new_system_manage', 'showOrder': 4, 'type': 0}, {'clickAction': '/customerService/Robot', 'code': 'new_robot_manage', 'leaf': 1, 'menuSource': 0, 'name': '机器人', 'parentCode': 'root', 'showOrder': 5, 'type': 0}, {'clickAction': '/customerService/SystemManagement/Robot', 'code': 'new_system_robot_manage', 'leaf': 1, 'menuSource': 0, 'name': '机器人', 'parentCode': 'new_system_manage', 'showOrder': 5, 'type': 0}, {'clickAction': '/customerService/KnowledgeBase', 'code': 'new_knowledgeBase_manage', 'leaf': 1, 'menuSource': 0, 'name': '知识库', 'parentCode': 'root', 'showOrder': 6, 'type': 0}, {'clickAction': '/customerService/SystemManagement/QualityControl', 'code': 'new_system_qualityControl_manage', 'leaf': 1, 'menuSource': 0, 'name': '质检', 'parentCode': 'new_system_manage', 'showOrder': 6, 'type': 0}, {'clickAction': '/customerService/QualityControl', 'code': 'new_qualityControl_manage', 'leaf': 0, 'menuSource': 0, 'name': '质检', 'parentCode': 'root', 'showOrder': 7, 'type': 0}, {'clickAction': '/customerService/SystemManagement/Notice', 'code': 'new_system_notice_manage', 'leaf': 1, 'menuSource': 0, 'name': '公告管理', 'parentCode': 'new_system_manage', 'showOrder': 7, 'type': 0}, {'clickAction': '/customerService/SystemManagement', 'code': 'new_system_manage', 'leaf': 0, 'menuSource': 0, 'name': '系统管理', 'parentCode': 'root', 'showOrder': 8, 'type': 0}, {'clickAction': '/customerService/Notice', 'code': 'new_notice_manage', 'leaf': 1, 'menuSource': 0, 'name': '消息', 'parentCode': 'root', 'showOrder': 9, 'type': 0}]}</t>
   </si>
   <si>
     <t>组织机构-添加机构</t>
@@ -311,7 +311,7 @@
     <t>{"name": "测试新增机构2","responsible": "责任人","parent": "0"}</t>
   </si>
   <si>
-    <t>{'baseSuccess': True, 'httpStatusCode': 0, 'organizationId': 142}</t>
+    <t>{'baseSuccess': True, 'httpStatusCode': 0, 'organizationId': 146}</t>
   </si>
   <si>
     <t>组织机构-修改负责人</t>
@@ -323,21 +323,21 @@
     <t>{"name":"666","parent":"0","responsible":""}</t>
   </si>
   <si>
+    <t>客服列表-停用账号</t>
+  </si>
+  <si>
+    <t>/v1/tenants/_1NTMWLA/modifyStaffStatus/s_b17fc5b87921489788024c30229f0528</t>
+  </si>
+  <si>
+    <t>{"isEnable": 0}</t>
+  </si>
+  <si>
     <t>客服列表-启用账号</t>
   </si>
   <si>
-    <t>/v1/tenants/_1NTMWLA/modifyStaffStatus/s_b17fc5b87921489788024c30229f0528</t>
-  </si>
-  <si>
     <t>{"isEnable": 1}</t>
   </si>
   <si>
-    <t>客服列表-停用账号</t>
-  </si>
-  <si>
-    <t>{"isEnable": 0}</t>
-  </si>
-  <si>
     <t>组织机构-查询子机构信息</t>
   </si>
   <si>
@@ -377,7 +377,7 @@
     <t>{"staffIds":"s_819aee8ed8554b9f82e8d6302c8d2411"}</t>
   </si>
   <si>
-    <t>organzation_staff_1564993387772.xlsx</t>
+    <t>http://citydozhinengkefu.oss-cn-hangzhou.aliyuncs.com/file_test/organzation_staff_1574669957461.xlsx?Expires=1606205957&amp;OSSAccessKeyId=LTAIeeyxnykXoM0A&amp;Signature=XfmdDJq5gadxEVe52lW6Wx7x5eA%3D</t>
   </si>
   <si>
     <t>组织机构-导出</t>
@@ -389,7 +389,7 @@
     <t>{"organizationIds":[22,23,24]}</t>
   </si>
   <si>
-    <t>organzation_1564993389397.xlsx</t>
+    <t>http://citydozhinengkefu.oss-cn-hangzhou.aliyuncs.com/file_test/organzation_1574669958088.xlsx?Expires=1606205958&amp;OSSAccessKeyId=LTAIeeyxnykXoM0A&amp;Signature=m5GFBne5eOIDZoW1Klip7U17Jrs%3D</t>
   </si>
   <si>
     <t>DELETE</t>
@@ -434,25 +434,25 @@
     <t>{"pageSize":10,"pageNumber":1,"roleName":"zgh"}</t>
   </si>
   <si>
-    <t>{'roles': [{'description': '1', 'gmtCreate': 1561635662000, 'gmtModified': 1561637163000, 'isDefault': 0, 'offStatus': 0, 'roleId': '27acc809-03ab-4050-92d5-5f092678b8ed', 'roleName': 'zgh', 'tenantId': '_1NTMWLA'}], 'rowCount': 1}</t>
+    <t>{'roles': [{'description': '·', 'gmtCreate': 1572229747000, 'gmtModified': 1572229747000, 'isDefault': 0, 'offStatus': 0, 'roleId': 'd89ffec6-e9b0-43cd-a417-9d0a8b818f72', 'roleName': 'zgh3', 'tenantId': '_1NTMWLA'}, {'description': '1', 'gmtCreate': 1572225150000, 'gmtModified': 1572225150000, 'isDefault': 0, 'offStatus': 0, 'roleId': '80e70ce5-d34a-40bf-b0d3-bab3d136706f', 'roleName': 'zgh2', 'tenantId': '_1NTMWLA'}, {'description': '1', 'gmtCreate': 1561635662000, 'gmtModified': 1561637163000, 'isDefault': 0, 'offStatus': 0, 'roleId': '27acc809-03ab-4050-92d5-5f092678b8ed', 'roleName': 'zgh', 'tenantId': '_1NTMWLA'}], 'rowCount': 3}</t>
   </si>
   <si>
     <t>角色权限-创建角色-0表示启用</t>
   </si>
   <si>
-    <t>{"description":"备注内容","roleName":"测试客服1","menuList":[{"menuCode":"switch_staff_online_status","menuSource":0},{"menuCode":"session_evaluate","menuSource":0},{"menuCode":"fetch_message","menuSource":0}]}</t>
-  </si>
-  <si>
-    <t>{'roleId': 'e08149fc-3278-402c-97f7-61171ea0bb79'}</t>
+    <t>{"description":"备注内容","roleName":"测试客服1","menuList":[{"menuCode":"new_system_online_manage","menuSource":0},{"menuCode":"new_online_manage","menuSource":0},{"menuCode":"new_qualityControl_manage","menuSource":0}]}</t>
+  </si>
+  <si>
+    <t>{'roleId': '2990a1cd-d7b1-444d-a8c9-770e8e430829'}</t>
   </si>
   <si>
     <t>角色权限-创建角色-1表示关闭</t>
   </si>
   <si>
-    <t>{"description":"备注内容","roleName":"测试客服2","menuList":[{"menuCode":"switch_staff_online_status","menuSource":1},{"menuCode":"session_evaluate","menuSource":0},{"menuCode":"fetch_message","menuSource":0}]}</t>
-  </si>
-  <si>
-    <t>{'roleId': '9fb28242-9e51-4c5c-87e1-f3bbca93d22a'}</t>
+    <t>{"description":"备注内容","roleName":"测试客服2","menuList":[{"menuCode":"new_system_online_manage","menuSource":0},{"menuCode":"new_online_manage","menuSource":0},{"menuCode":"new_qualityControl_manage","menuSource":0}]}</t>
+  </si>
+  <si>
+    <t>{'roleId': 'b20886f3-f4f1-483d-b980-2f6fe8b767ff'}</t>
   </si>
   <si>
     <t>角色权限-停用角色状态</t>
@@ -500,7 +500,7 @@
     <t>角色权限-获取角色信息</t>
   </si>
   <si>
-    <t>{'roles': [{'description': '1', 'gmtCreate': 1563526414000, 'gmtModified': 1564993398000, 'isDefault': 0, 'offStatus': 0, 'roleId': '67ed99dc-3645-4215-90df-25945f1da49b', 'roleName': '1', 'tenantId': '_1NTMWLA'}, {'description': '1', 'gmtCreate': 1561635662000, 'gmtModified': 1561637163000, 'isDefault': 0, 'offStatus': 0, 'roleId': '27acc809-03ab-4050-92d5-5f092678b8ed', 'roleName': 'zgh', 'tenantId': '_1NTMWLA'}, {'description': '系统默认角色', 'gmtCreate': 1561533973000, 'gmtModified': 1561533973000, 'isDefault': 0, 'offStatus': 0, 'roleId': '8ddc45a6-b7b5-477e-9431-eee41fe31b23', 'roleName': '客服', 'tenantId': '_1NTMWLA'}, {'description': '系统默认角色', 'gmtCreate': 1561533973000, 'gmtModified': 1561533973000, 'isDefault': 0, 'offStatus': 0, 'roleId': '1e56829e-83a0-48ec-86ca-6530a0b673bd', 'roleName': '管理员', 'tenantId': '_1NTMWLA'}], 'rowCount': 0}</t>
+    <t>{'roles': [{'description': '1111', 'gmtCreate': 1573794739000, 'gmtModified': 1573794739000, 'isDefault': 0, 'offStatus': 0, 'roleId': 'e4170a12-858b-4917-a002-a2c2c611aac8', 'roleName': '访客111', 'tenantId': '_1NTMWLA'}, {'description': '·', 'gmtCreate': 1572229747000, 'gmtModified': 1572229747000, 'isDefault': 0, 'offStatus': 0, 'roleId': 'd89ffec6-e9b0-43cd-a417-9d0a8b818f72', 'roleName': 'zgh3', 'tenantId': '_1NTMWLA'}, {'description': '1', 'gmtCreate': 1572225150000, 'gmtModified': 1572225150000, 'isDefault': 0, 'offStatus': 0, 'roleId': '80e70ce5-d34a-40bf-b0d3-bab3d136706f', 'roleName': 'zgh2', 'tenantId': '_1NTMWLA'}, {'description': '非客服在线权限', 'gmtCreate': 1571980980000, 'gmtModified': 1571980980000, 'isDefault': 0, 'offStatus': 0, 'roleId': '711fc4f6-1f81-4a8f-9cd3-ff1c4683b336', 'roleName': '非客服在线权限', 'tenantId': '_1NTMWLA'}, {'description': '非质检权限', 'gmtCreate': 1571974639000, 'gmtModified': 1571974639000, 'isDefault': 0, 'offStatus': 0, 'roleId': '871592d6-2d69-4b76-8acb-076675f62334', 'roleName': '非质检权限', 'tenantId': '_1NTMWLA'}, {'description': 'zhang003\n', 'gmtCreate': 1571968427000, 'gmtModified': 1571968427000, 'isDefault': 0, 'offStatus': 0, 'roleId': 'd8bb71c9-35b3-4830-8114-6ec5f4e73f83', 'roleName': 'zhang003', 'tenantId': '_1NTMWLA'}, {'description': '系统默认角色', 'gmtCreate': 1571292711000, 'gmtModified': 1571293474000, 'isDefault': 0, 'offStatus': 0, 'roleId': 'b603d303-882e-4ab9-90d0-e30864d95eca', 'roleName': '质检', 'tenantId': '_1NTMWLA'}, {'description': 'zhang002', 'gmtCreate': 1566178869000, 'gmtModified': 1571968003000, 'isDefault': 0, 'offStatus': 0, 'roleId': '197e57f5-36da-4214-ac22-a47bbc9fbc25', 'roleName': 'zhang002', 'tenantId': '_1NTMWLA'}, {'description': 'zhang001', 'gmtCreate': 1566178868000, 'gmtModified': 1571967989000, 'isDefault': 0, 'offStatus': 0, 'roleId': 'cf6f0b26-3351-4173-a56f-c03ddd90fa43', 'roleName': 'zhang001', 'tenantId': '_1NTMWLA'}, {'description': '1', 'gmtCreate': 1563526414000, 'gmtModified': 1574669966000, 'isDefault': 0, 'offStatus': 0, 'roleId': '67ed99dc-3645-4215-90df-25945f1da49b', 'roleName': '1', 'tenantId': '_1NTMWLA'}, {'description': '1', 'gmtCreate': 1561635662000, 'gmtModified': 1561637163000, 'isDefault': 0, 'offStatus': 0, 'roleId': '27acc809-03ab-4050-92d5-5f092678b8ed', 'roleName': 'zgh', 'tenantId': '_1NTMWLA'}, {'description': '系统默认', 'gmtCreate': 1561533973000, 'gmtModified': 1561533973000, 'isDefault': 1, 'offStatus': 0, 'roleId': '551f4e96-6d42-47a1-b1cf-51735ae45615', 'roleName': '访客', 'tenantId': '_1NTMWLA'}, {'description': '系统默认角色', 'gmtCreate': 1561533973000, 'gmtModified': 1561533973000, 'isDefault': 0, 'offStatus': 0, 'roleId': '8ddc45a6-b7b5-477e-9431-eee41fe31b23', 'roleName': '客服', 'tenantId': '_1NTMWLA'}, {'description': '系统默认角色', 'gmtCreate': 1561533973000, 'gmtModified': 1561533973000, 'isDefault': 0, 'offStatus': 0, 'roleId': '1e56829e-83a0-48ec-86ca-6530a0b673bd', 'roleName': '管理员', 'tenantId': '_1NTMWLA'}, {'description': '系统默认角色', 'gmtCreate': 1561533972000, 'gmtModified': 1561533972000, 'isDefault': 1, 'offStatus': 0, 'roleId': '515e555c-f319-4989-8457-c89a4b286218', 'roleName': '超级管理员', 'tenantId': '_1NTMWLA'}], 'rowCount': 0}</t>
   </si>
   <si>
     <t>角色权限-角色名称是否存在</t>
@@ -524,7 +524,7 @@
     <t>{"roleIds":["67ed99dc-3645-4215-90df-25945f1da49b","27acc809-03ab-4050-92d5-5f092678b8ed","8ddc45a6-b7b5-477e-9431-eee41fe31b23","1e56829e-83a0-48ec-86ca-6530a0b673bd"]}</t>
   </si>
   <si>
-    <t>{'fileName': 'role_1564993404574.xlsx'}</t>
+    <t>{'fileName': 'role_1574669971971.xlsx'}</t>
   </si>
   <si>
     <t>客服列表-滚动角色</t>
@@ -533,7 +533,7 @@
     <t>/v1/tenants/_1NTMWLA/roles-list</t>
   </si>
   <si>
-    <t>{'roles': [{'description': '系统默认角色', 'gmtCreate': 1561533972000, 'gmtModified': 1561533972000, 'id': 31, 'isDefault': 1, 'offStatus': 0, 'roleId': '515e555c-f319-4989-8457-c89a4b286218', 'roleName': '超级管理员', 'tenantId': '_1NTMWLA'}, {'description': '系统默认角色', 'gmtCreate': 1561533973000, 'gmtModified': 1561533973000, 'id': 32, 'isDefault': 0, 'offStatus': 0, 'roleId': '1e56829e-83a0-48ec-86ca-6530a0b673bd', 'roleName': '管理员', 'tenantId': '_1NTMWLA'}, {'description': '系统默认角色', 'gmtCreate': 1561533973000, 'gmtModified': 1561533973000, 'id': 33, 'isDefault': 0, 'offStatus': 0, 'roleId': '8ddc45a6-b7b5-477e-9431-eee41fe31b23', 'roleName': '客服', 'tenantId': '_1NTMWLA'}, {'description': '系统默认', 'gmtCreate': 1561533973000, 'gmtModified': 1561533973000, 'id': 34, 'isDefault': 1, 'offStatus': 0, 'roleId': '551f4e96-6d42-47a1-b1cf-51735ae45615', 'roleName': '访客', 'tenantId': '_1NTMWLA'}, {'description': '1', 'gmtCreate': 1561635662000, 'gmtModified': 1561637163000, 'id': 35, 'isDefault': 0, 'offStatus': 0, 'roleId': '27acc809-03ab-4050-92d5-5f092678b8ed', 'roleName': 'zgh', 'tenantId': '_1NTMWLA'}, {'description': '1', 'gmtCreate': 1563526414000, 'gmtModified': 1564993398000, 'id': 37, 'isDefault': 0, 'offStatus': 0, 'roleId': '67ed99dc-3645-4215-90df-25945f1da49b', 'roleName': '1', 'tenantId': '_1NTMWLA'}]}</t>
+    <t>{'roles': [{'description': '系统默认角色', 'gmtCreate': 1561533972000, 'gmtModified': 1561533972000, 'id': 31, 'isDefault': 1, 'offStatus': 0, 'roleId': '515e555c-f319-4989-8457-c89a4b286218', 'roleName': '超级管理员', 'tenantId': '_1NTMWLA'}, {'description': '系统默认角色', 'gmtCreate': 1561533973000, 'gmtModified': 1561533973000, 'id': 32, 'isDefault': 0, 'offStatus': 0, 'roleId': '1e56829e-83a0-48ec-86ca-6530a0b673bd', 'roleName': '管理员', 'tenantId': '_1NTMWLA'}, {'description': '系统默认角色', 'gmtCreate': 1561533973000, 'gmtModified': 1561533973000, 'id': 33, 'isDefault': 0, 'offStatus': 0, 'roleId': '8ddc45a6-b7b5-477e-9431-eee41fe31b23', 'roleName': '客服', 'tenantId': '_1NTMWLA'}, {'description': '系统默认', 'gmtCreate': 1561533973000, 'gmtModified': 1561533973000, 'id': 34, 'isDefault': 1, 'offStatus': 0, 'roleId': '551f4e96-6d42-47a1-b1cf-51735ae45615', 'roleName': '访客', 'tenantId': '_1NTMWLA'}, {'description': '1', 'gmtCreate': 1561635662000, 'gmtModified': 1561637163000, 'id': 35, 'isDefault': 0, 'offStatus': 0, 'roleId': '27acc809-03ab-4050-92d5-5f092678b8ed', 'roleName': 'zgh', 'tenantId': '_1NTMWLA'}, {'description': '1', 'gmtCreate': 1563526414000, 'gmtModified': 1574669966000, 'id': 37, 'isDefault': 0, 'offStatus': 0, 'roleId': '67ed99dc-3645-4215-90df-25945f1da49b', 'roleName': '1', 'tenantId': '_1NTMWLA'}, {'description': 'zhang001', 'gmtCreate': 1566178868000, 'gmtModified': 1571967989000, 'id': 156, 'isDefault': 0, 'offStatus': 0, 'roleId': 'cf6f0b26-3351-4173-a56f-c03ddd90fa43', 'roleName': 'zhang001', 'tenantId': '_1NTMWLA'}, {'description': 'zhang002', 'gmtCreate': 1566178869000, 'gmtModified': 1571968003000, 'id': 157, 'isDefault': 0, 'offStatus': 0, 'roleId': '197e57f5-36da-4214-ac22-a47bbc9fbc25', 'roleName': 'zhang002', 'tenantId': '_1NTMWLA'}, {'description': '系统默认角色', 'gmtCreate': 1571292711000, 'gmtModified': 1571293474000, 'id': 212, 'isDefault': 0, 'offStatus': 0, 'roleId': 'b603d303-882e-4ab9-90d0-e30864d95eca', 'roleName': '质检', 'tenantId': '_1NTMWLA'}, {'description': 'zhang003\n', 'gmtCreate': 1571968427000, 'gmtModified': 1571968427000, 'id': 213, 'isDefault': 0, 'offStatus': 0, 'roleId': 'd8bb71c9-35b3-4830-8114-6ec5f4e73f83', 'roleName': 'zhang003', 'tenantId': '_1NTMWLA'}, {'description': '非质检权限', 'gmtCreate': 1571974639000, 'gmtModified': 1571974639000, 'id': 214, 'isDefault': 0, 'offStatus': 0, 'roleId': '871592d6-2d69-4b76-8acb-076675f62334', 'roleName': '非质检权限', 'tenantId': '_1NTMWLA'}, {'description': '非客服在线权限', 'gmtCreate': 1571980980000, 'gmtModified': 1571980980000, 'id': 215, 'isDefault': 0, 'offStatus': 0, 'roleId': '711fc4f6-1f81-4a8f-9cd3-ff1c4683b336', 'roleName': '非客服在线权限', 'tenantId': '_1NTMWLA'}, {'description': '1', 'gmtCreate': 1572225150000, 'gmtModified': 1572225150000, 'id': 216, 'isDefault': 0, 'offStatus': 0, 'roleId': '80e70ce5-d34a-40bf-b0d3-bab3d136706f', 'roleName': 'zgh2', 'tenantId': '_1NTMWLA'}, {'description': '·', 'gmtCreate': 1572229747000, 'gmtModified': 1572229747000, 'id': 217, 'isDefault': 0, 'offStatus': 0, 'roleId': 'd89ffec6-e9b0-43cd-a417-9d0a8b818f72', 'roleName': 'zgh3', 'tenantId': '_1NTMWLA'}, {'description': '1111', 'gmtCreate': 1573794739000, 'gmtModified': 1573794739000, 'id': 244, 'isDefault': 0, 'offStatus': 0, 'roleId': 'e4170a12-858b-4917-a002-a2c2c611aac8', 'roleName': '访客111', 'tenantId': '_1NTMWLA'}]}</t>
   </si>
   <si>
     <t>敏感词-展示敏感词-0表示客服</t>
@@ -575,6 +575,12 @@
     <t>{"belong":1,"sensitiveWord":"测试客户敏感词新增",}</t>
   </si>
   <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>新增敏感词失败,加入的敏感词有重复内容</t>
+  </si>
+  <si>
     <t>敏感词-导出敏感词-0表示客服</t>
   </si>
   <si>
@@ -584,7 +590,7 @@
     <t>{"belong": 0,"ids": [3, 4, 5]}</t>
   </si>
   <si>
-    <t>excel_1564993411391.xlsx</t>
+    <t>http://citydozhinengkefu.oss-cn-hangzhou.aliyuncs.com/file_test/excel_1574669976578.xlsx?Expires=1606205976&amp;OSSAccessKeyId=LTAIeeyxnykXoM0A&amp;Signature=Y0bmPmJnZg7P9ZT%2FT9BkLU%2F8YOY%3D</t>
   </si>
   <si>
     <t>敏感词-导出敏感词-1表示客户</t>
@@ -593,7 +599,7 @@
     <t>{"belong": 1,"ids": [2, 6, 8]}</t>
   </si>
   <si>
-    <t>excel_1564993412468.xlsx</t>
+    <t>http://citydozhinengkefu.oss-cn-hangzhou.aliyuncs.com/file_test/excel_1574669977462.xlsx?Expires=1606205977&amp;OSSAccessKeyId=LTAIeeyxnykXoM0A&amp;Signature=I4UdLO%2FWdQC42fI8C77YwrS%2BM2M%3D</t>
   </si>
   <si>
     <t>敏感词-更新敏感词-0表示客服</t>
@@ -662,7 +668,7 @@
     <t>敏感词过滤-jar包-0表示客服</t>
   </si>
   <si>
-    <t>:8081/v1/sensitive/sensitiveWordFilterWithBelong</t>
+    <t>/v1/sensitive/sensitiveWordFilterWithBelong</t>
   </si>
   <si>
     <t>{"text":"测试客服更新1","belong":0}</t>
@@ -716,7 +722,7 @@
     <t>{"configType":1}</t>
   </si>
   <si>
-    <t>{'baseSuccess': True, 'globalConfigList': [{'configCode': 'DISPLAY_AVATAR', 'configDescription': '', 'configName': 'displayAvatar', 'configState': False, 'configType': 1, 'configValue': 'staff', 'tenantId': '_1NTMWLA'}, {'configCode': 'CORPORATION_LOGO', 'configDescription': '', 'configName': 'corporationLogo', 'configState': False, 'configType': 1, 'configValue': '', 'tenantId': '_1NTMWLA'}, {'configCode': 'UNFINISHED_SERVICE_CLASS_REMINDER', 'configDescription': '', 'configName': 'unfinishedServiceClassReminder', 'configState': False, 'configType': 1, 'configValue': 'true', 'tenantId': '_1NTMWLA'}, {'configCode': 'STAFF_TIMEOUT_REMINDER', 'configDescription': '', 'configName': 'staffTimeoutReminder', 'configState': False, 'configType': 1, 'configValue': '{"reminder":false,"words":"客服人员正在努力查询中，请稍候","time":0}', 'tenantId': '_1NTMWLA'}, {'configCode': 'VISITOR_TIMEOUT_REMINDER', 'configDescription': '', 'configName': 'visitorTimeoutReminder', 'configState': False, 'configType': 1, 'configValue': '{"reminder":false,"words":"123456789012345678901234567890","time":0}', 'tenantId': '_1NTMWLA'}, {'configCode': 'SESSION_TIMEOUT_REMINDER', 'configDescription': '', 'configName': 'sessionTimeoutReminder', 'configState': False, 'configType': 1, 'configValue': '{"reminder":true,"words":"您好，我们长时间没有收到回复，系统将结束此次会话","time":240}', 'tenantId': '_1NTMWLA'}, {'configCode': 'WELCOME_WORDS', 'configDescription': '', 'configName': 'welcomeWords', 'configState': False, 'configType': 1, 'configValue': '您好，请问有什么可以帮您', 'tenantId': '_1NTMWLA'}, {'configCode': 'CONNECTED_SESSION_WORDS', 'configDescription': '', 'configName': 'connectedSessionWords', 'configState': True, 'configType': 1, 'configValue': '运算符通过组合其他两个结果表并消去表中任何重复行而派生出一个', 'tenantId': '_1NTMWLA'}, {'configCode': 'START_SESSION_WORDS', 'configDescription': '', 'configName': 'startSessionWords', 'configState': False, 'configType': 1, 'configValue': '正在为您转接人工服务，请稍候', 'tenantId': '_1NTMWLA'}, {'configCode': 'CLOSE_SESSION_WORDS', 'configDescription': '', 'configName': 'closeSessionWords', 'configState': True, 'configType': 1, 'configValue': '运算符通过组合其他两个结果表并消去表中任何重复行而派生出一个', 'tenantId': '_1NTMWLA'}, {'configCode': 'EVALUATION_WORDS', 'configDescription': '', 'configName': 'evaluationWords', 'configState': False, 'configType': 1, 'configValue': '感谢您的咨询，请对我们的服务做出评价，谢谢', 'tenantId': '_1NTMWLA'}, {'configCode': 'WAITING_QUEUE_WORDS', 'configDescription': '', 'configName': 'waitingQueueWords', 'configState': True, 'configType': 1, 'configValue': '运算符通过组合其他两个结果表并消去表中任何重复行而派生出一个', 'tenantId': '_1NTMWLA'}, {'configCode': 'ROBOT_ICON', 'configDescription': '', 'configName': 'robotIcon', 'configState': False, 'configType': 1, 'configValue': 'https://img.alicdn.com/tfs/TB1mvwxjvDH8KJjy1XcXXcpdXXa-160-160.png', 'tenantId': '_1NTMWLA'}, {'configCode': 'WAITING_CLOSE_WORDS', 'configDescription': '', 'configName': 'waitingCloseWords', 'configState': True, 'configType': 1, 'configValue': '运算符通过组合其他两个结果表并消去表中任何重复行而派生出一个', 'tenantId': '_1NTMWLA'}, {'configCode': 'MESSAGE_TO_CUSTOMER', 'configDescription': '', 'configName': 'messageToCustomer', 'configState': True, 'configType': 1, 'configValue': '"{\\"words\\":\\"运算符通过组合其他两个结果表并消去表中任何重复行而派生出一个\\",\\"tocustomer\\":true}"', 'tenantId': '_1NTMWLA'}, {'configCode': 'EVALUATION_CONTEXT', 'configDescription': '', 'configName': 'evaluationContext', 'configState': True, 'configType': 1, 'configValue': '[{"guidanceDocument":"123456789012345678901234567890","declare":"123456789012345","selectedLabel":["没解决问题"],"rate":5,"labelRequired":1,"guideLanguage":"欢迎给我们服务提建议〜","guideLanguageRequired":1,"label":["没解决问题","不礼貌","服务态度差","回答不及时"],"switch":0},{"guidanceDocument":"非常满意，完美","declare":"3","selectedLabel":["没解决问题","回答不及时","服务态度差","不礼貌"],"rate":4,"labelRequired":1,"guideLanguage":"123456789012345678901234567890","guideLanguageRequired":1,"label":["没解决问题","不礼貌","服务态度差","回答不及时","皎月飞光","科幻"],"switch":0},{"guidanceDocument":"非常满意，完美","declare":"123456789012345","selectedLabel":["没解决问题"],"rate":3,"labelRequired":1,"guideLanguage":"123456789012345678901234567890","guideLanguageRequired":1,"label":["没解决问题","不礼貌","服务态度差","回答不及时","皎月飞光","皎月飞光"],"switch":0},{"guidanceDocument":"非常满意，完美","declare":"123456789012345","selectedLabel":["没解决问题"],"rate":2,"labelRequired":1,"guideLanguage":"123456789012345678901234567890","guideLanguageRequired":1,"label":["没解决问题","不礼貌","服务态度差","回答不及时","皎月飞光","科幻"],"switch":0},{"guidanceDocument":"非常满意，完美","declare":"123456789012345","selectedLabel":["没解决问题"],"rate":1,"labelRequired":1,"guideLanguage":"123456789012345678901234567890","guideLanguageRequired":1,"label":["没解决问题","不礼貌","服务态度差","回答不及时","皎月飞光","魔幻"],"switch":0}]', 'tenantId': '_1NTMWLA'}, {'configCode': 'CUSTOMER_SESSION_TIPS', 'configDescription': '', 'configName': 'customerSessionTips', 'configState': False, 'configType': 1, 'configValue': 'false', 'tenantId': '_1NTMWLA'}, {'configCode': 'DISABLE_TIMEOUT_SET', 'configDescription': '', 'configName': 'disableTimeoutSet', 'configState': False, 'configType': 1, 'configValue': '{"reminder":true,"time":"1"}', 'tenantId': '_1NTMWLA'}], 'httpStatusCode': 0, 'rowCount': 0}</t>
+    <t>{'baseSuccess': True, 'globalConfigList': [{'configCode': 'DISPLAY_AVATAR', 'configDescription': '', 'configName': 'displayAvatar', 'configState': False, 'configType': 1, 'configValue': 'staff', 'tenantId': '_1NTMWLA'}, {'configCode': 'CORPORATION_LOGO', 'configDescription': '', 'configName': 'corporationLogo', 'configState': False, 'configType': 1, 'configValue': '', 'tenantId': '_1NTMWLA'}, {'configCode': 'UNFINISHED_SERVICE_CLASS_REMINDER', 'configDescription': '', 'configName': 'unfinishedServiceClassReminder', 'configState': False, 'configType': 1, 'configValue': 'true', 'tenantId': '_1NTMWLA'}, {'configCode': 'STAFF_TIMEOUT_REMINDER', 'configDescription': '', 'configName': 'visitorTimeoutReminder', 'configState': True, 'configType': 1, 'configValue': '{"reminder":true,"words":"客户已经等候多时，请立即回复!","time":1}', 'tenantId': '_1NTMWLA'}, {'configCode': 'VISITOR_TIMEOUT_REMINDER', 'configDescription': '', 'configName': 'visitorTimeoutReminder', 'configState': True, 'configType': 1, 'configValue': '{"reminder":true,"words":"请问您还有需要咨询的内容么？","time":5}', 'tenantId': '_1NTMWLA'}, {'configCode': 'SESSION_TIMEOUT_REMINDER', 'configDescription': '', 'configName': 'visitorTimeoutReminder', 'configState': True, 'configType': 1, 'configValue': '{"reminder":true,"words":"首次响应超时，请立即回复!","time":1}', 'tenantId': '_1NTMWLA'}, {'configCode': 'WELCOME_WORDS', 'configDescription': '', 'configName': 'welcomeWords', 'configState': False, 'configType': 1, 'configValue': '您好，请问有什么可以帮您', 'tenantId': '_1NTMWLA'}, {'configCode': 'CONNECTED_SESSION_WORDS', 'configDescription': '', 'configName': 'connectedSessionWords', 'configState': True, 'configType': 1, 'configValue': '运算符通过组合其他两个结果表并消去表中任何重复行而派生出一个', 'tenantId': '_1NTMWLA'}, {'configCode': 'START_SESSION_WORDS', 'configDescription': '', 'configName': 'startSessionWords', 'configState': False, 'configType': 1, 'configValue': '正在为您转接人工服务，请稍候', 'tenantId': '_1NTMWLA'}, {'configCode': 'CLOSE_SESSION_WORDS', 'configDescription': '', 'configName': 'closeSessionWords', 'configState': True, 'configType': 1, 'configValue': '运算符通过组合其他两个结果表并消去表中任何重复行而派生出一个', 'tenantId': '_1NTMWLA'}, {'configCode': 'EVALUATION_WORDS', 'configDescription': '', 'configName': 'evaluationWords', 'configState': False, 'configType': 1, 'configValue': '感谢您的咨询，请对我们的服务做出评价，谢谢', 'tenantId': '_1NTMWLA'}, {'configCode': 'WAITING_QUEUE_WORDS', 'configDescription': '', 'configName': 'waitingQueueWords', 'configState': True, 'configType': 1, 'configValue': '运算符通过组合其他两个结果表并消去表中任何重复行而派生出一个', 'tenantId': '_1NTMWLA'}, {'configCode': 'ROBOT_ICON', 'configDescription': '', 'configName': 'robotIcon', 'configState': False, 'configType': 1, 'configValue': 'https://img.alicdn.com/tfs/TB1mvwxjvDH8KJjy1XcXXcpdXXa-160-160.png', 'tenantId': '_1NTMWLA'}, {'configCode': 'WAITING_CLOSE_WORDS', 'configDescription': '', 'configName': 'waitingCloseWords', 'configState': True, 'configType': 1, 'configValue': '运算符通过组合其他两个结果表并消去表中任何重复行而派生出一个', 'tenantId': '_1NTMWLA'}, {'configCode': 'MESSAGE_TO_CUSTOMER', 'configDescription': '', 'configName': 'messageToCustomer', 'configState': True, 'configType': 1, 'configValue': '"{\\"words\\":\\"运算符通过组合其他两个结果表并消去表中任何重复行而派生出一个\\",\\"tocustomer\\":true}"', 'tenantId': '_1NTMWLA'}, {'configCode': 'EVALUATION_CONTEXT', 'configDescription': '', 'configName': 'evaluationContext', 'configState': True, 'configType': 1, 'configValue': '[{"guidanceDocument":"123456789012345678901234567890","declare":"123456789012345","selectedLabel":[],"rate":5,"labelRequired":0,"guideLanguage":"欢迎给我们服务提建议〜","guideLanguageRequired":1,"label":["没解决问题","不礼貌","服务态度差","回答不及时"],"switch":0},{"guidanceDocument":"非常满意，完美","declare":"3","selectedLabel":["没解决问题","回答不及时","服务态度差","不礼貌"],"rate":4,"labelRequired":1,"guideLanguage":"123456789012345678901234567890","guideLanguageRequired":1,"label":["没解决问题","不礼貌","服务态度差","回答不及时","皎月飞光","科幻"],"switch":0},{"guidanceDocument":"非常满意，完美","declare":"123456789012345","selectedLabel":["没解决问题"],"rate":3,"labelRequired":1,"guideLanguage":"123456789012345678901234567890","guideLanguageRequired":1,"label":["没解决问题","不礼貌","服务态度差","回答不及时","皎月飞光","皎月飞光"],"switch":0},{"guidanceDocument":"非常满意，完美","declare":"123456789012345","selectedLabel":["没解决问题"],"rate":2,"labelRequired":1,"guideLanguage":"123456789012345678901234567890","guideLanguageRequired":1,"label":["没解决问题","不礼貌","服务态度差","回答不及时","皎月飞光","科幻"],"switch":0},{"guidanceDocument":"非常满意，完美","declare":"123456789012345","selectedLabel":["没解决问题"],"rate":1,"labelRequired":1,"guideLanguage":"123456789012345678901234567890","guideLanguageRequired":1,"label":["没解决问题","不礼貌","服务态度差","回答不及时","皎月飞光","魔幻"],"switch":0}]', 'tenantId': '_1NTMWLA'}, {'configCode': 'CUSTOMER_SESSION_TIPS', 'configDescription': '', 'configName': 'customerSessionTips', 'configState': True, 'configType': 1, 'configValue': 'false', 'tenantId': '_1NTMWLA'}, {'configCode': 'DISABLE_TIMEOUT_SET', 'configDescription': '', 'configName': 'disableTimeoutSet', 'configState': True, 'configType': 1, 'configValue': '{"reminder":true,"time":3}', 'tenantId': '_1NTMWLA'}], 'httpStatusCode': 0, 'rowCount': 0}</t>
   </si>
   <si>
     <t>POST2</t>
@@ -749,7 +755,7 @@
     <t>{"pageSize":10,"pageNumber":1,"skillGroupName":"z"}</t>
   </si>
   <si>
-    <t>{'baseSuccess': True, 'httpStatusCode': 0, 'rowCount': 3, 'skillGroupList': [{'description': 'zhang', 'disableEnable': True, 'gmtCreate': 1561539202000, 'gmtModified': 1561539210000, 'id': 34, 'name': 'zhang003', 'skillGroupId': '1fa50dc4-5520-4b58-8990-acad3baa5a89', 'tenantId': '_1NTMWLA', 'totalCount': 1, 'type': 1}, {'description': 'zhang', 'disableEnable': True, 'gmtCreate': 1561534192000, 'gmtModified': 1561534192000, 'id': 33, 'name': 'zhang002', 'skillGroupId': 'e37d7488-7a6b-4863-8d8b-0115b21ca0f8', 'tenantId': '_1NTMWLA', 'totalCount': 3, 'type': 1}, {'description': 'zhang', 'disableEnable': True, 'gmtCreate': 1561534179000, 'gmtModified': 1561636728000, 'id': 32, 'name': 'zhang001', 'skillGroupId': 'dc14c144-a9bb-4beb-ad0a-2df4be155623', 'tenantId': '_1NTMWLA', 'totalCount': 3, 'type': 1}]}</t>
+    <t>{'baseSuccess': True, 'httpStatusCode': 0, 'rowCount': 3, 'skillGroupList': [{'description': 'zhang', 'disableEnable': True, 'gmtCreate': 1561539202000, 'gmtModified': 1561539210000, 'id': 34, 'name': 'zhang003', 'skillGroupId': '1fa50dc4-5520-4b58-8990-acad3baa5a89', 'tenantId': '_1NTMWLA', 'totalCount': 3, 'type': 1}, {'description': 'zhang', 'disableEnable': True, 'gmtCreate': 1561534192000, 'gmtModified': 1561534192000, 'id': 33, 'name': 'zhang002', 'skillGroupId': 'e37d7488-7a6b-4863-8d8b-0115b21ca0f8', 'tenantId': '_1NTMWLA', 'totalCount': 10, 'type': 1}, {'description': 'zhang', 'disableEnable': True, 'gmtCreate': 1561534179000, 'gmtModified': 1561636728000, 'id': 32, 'name': 'zhang001', 'skillGroupId': 'dc14c144-a9bb-4beb-ad0a-2df4be155623', 'tenantId': '_1NTMWLA', 'totalCount': 7, 'type': 1}]}</t>
   </si>
   <si>
     <t>客服上传文件</t>
@@ -761,7 +767,7 @@
     <t>{"name": "uploadFile", "filename": "2018070420479.gif"}</t>
   </si>
   <si>
-    <t>{'url': 'files/_1NTMWLA/116faeb5f6e84fcea8c15bf77ce1c31d/s_819aee8ed8554b9f82e8d6302c8d2411/116faeb5f6e84fcea8c15bf77ce1c31d_166818c8fb814a99b966c4362f4d71fe.gif', 'baseMessage': '上传成功'}</t>
+    <t>{'url': 'http://citydozhinengkefu.oss-cn-hangzhou.aliyuncs.com/pic_test//116faeb5f6e84fcea8c15bf77ce1c31d_577d910239c84f95b73722f4f53039e1.gif?Expires=1606206010&amp;OSSAccessKeyId=LTAIeeyxnykXoM0A&amp;Signature=y3uqT6v9tyGiAhN4EmuZLgSl0ek%3D', 'baseMessage': '上传成功'}</t>
   </si>
   <si>
     <t>客服列表-修改客服信息2-个人信息</t>
@@ -806,7 +812,7 @@
     <t>/v1/tenants/_1NTMWLA/staffs-list</t>
   </si>
   <si>
-    <t>[{'avatar': 'http://47.97.152.55:8008/customer_service.svg', 'displayName': '', 'email': 'comvip@163.com', 'gmtCreate': 1561533973000, 'gmtModified': 1561533973000, 'id': 31, 'isDeleted': 0, 'isEnable': 1, 'level': 0, 'organization': 0, 'phone': '', 'staffId': 's_d5aee8db4c8b4a33a8028f89be8c0fcf', 'staffName': 'Super Admin', 'tenantId': '_1NTMWLA', 'username': 'admin'}, {'avatar': '/static/media/line_icon_photo01.646c3740.svg', 'displayName': '章', 'gmtCreate': 1561534243000, 'gmtModified': 1563867116000, 'id': 32, 'isDeleted': 0, 'isEnable': 1, 'jobNumber': '001', 'level': 100, 'organization': 33, 'phone': '13622222222', 'staffId': 's_819aee8ed8554b9f82e8d6302c8d2411', 'staffName': '章广华', 'tenantId': '_1NTMWLA', 'username': 'zhang001'}, {'avatar': '', 'displayName': '章2', 'gmtCreate': 1561534283000, 'gmtModified': 1564993383000, 'id': 33, 'isDeleted': 0, 'isEnable': 0, 'jobNumber': '002', 'level': 5, 'organization': 0, 'phone': '13622222222', 'staffId': 's_b17fc5b87921489788024c30229f0528', 'staffName': '章广华2', 'tenantId': '_1NTMWLA', 'username': 'zhang002'}, {'avatar': '', 'displayName': '章3', 'gmtCreate': 1561539262000, 'gmtModified': 1563789768000, 'id': 34, 'isDeleted': 0, 'isEnable': 1, 'jobNumber': '003', 'level': 5, 'organization': 0, 'phone': '13622222222', 'staffId': 's_27dc197e2b184befa8dc863f7b429bd2', 'staffName': '章广华3', 'tenantId': '_1NTMWLA', 'username': 'zhang003'}, {'avatar': 'http://47.97.152.55:8008/customer_service.svg', 'displayName': 'yangnk2', 'entryTime': 1561602497000, 'gmtCreate': 1561602497000, 'gmtModified': 1561602497000, 'id': 35, 'isDeleted': 0, 'isEnable': 1, 'jobNumber': 'yangnk2', 'level': 5, 'organization': 0, 'phone': '13888888888', 'staffId': 's_4d3464d78a374af18b85a2fe80a7874a', 'staffName': 'yangnk2', 'tenantId': '_1NTMWLA', 'username': 'yangnk2'}, {'avatar': 'http://47.97.152.55:8008/customer_service.svg', 'displayName': 'yangnk3', 'entryTime': 1561604334000, 'gmtCreate': 1561604335000, 'gmtModified': 1561604335000, 'id': 36, 'isDeleted': 0, 'isEnable': 1, 'jobNumber': 'yangnk3', 'level': 5, 'organization': 0, 'phone': '13888888888', 'staffId': 's_eebb9de18d2e4d37bcecd64778b88601', 'staffName': 'yangnk3', 'tenantId': '_1NTMWLA', 'username': 'yangnk3'}, {'avatar': 'http://47.97.152.55:8008/customer_service.svg', 'displayName': 'yangnk4', 'entryTime': 1561614657000, 'gmtCreate': 1561614658000, 'gmtModified': 1561630938000, 'id': 37, 'isDeleted': 0, 'isEnable': 1, 'jobNumber': 'yangnk4', 'level': 5, 'organization': 34, 'phone': '13888888888', 'staffId': 's_22d9469d2d56464b84320fbf0c4a237c', 'staffName': 'yangnk4', 'tenantId': '_1NTMWLA', 'username': 'yangnk4'}, {'avatar': 'http://47.97.152.55:8008/customer_service.svg', 'displayName': 'yangnk5', 'entryTime': 1561622878000, 'gmtCreate': 1561622879000, 'gmtModified': 1561622879000, 'id': 38, 'isDeleted': 0, 'isEnable': 1, 'jobNumber': 'yangnk5', 'level': 5, 'organization': 0, 'phone': '13888888888', 'staffId': 's_2fe3875c390040b489b644cc5c1ae0e2', 'staffName': 'yangnk5', 'tenantId': '_1NTMWLA', 'username': 'yangnk5'}]</t>
+    <t>[{'avatar': 'http://citydozhinengkefu.oss-cn-hangzhou.aliyuncs.com/pic_test//avatar_254ab5910bed4e6b90f5e89e310ecac0.png?Expires=1605252417&amp;OSSAccessKeyId=LTAIeeyxnykXoM0A&amp;Signature=L2r6NgIbQ%2BpuQVXHRwmiLMY3x0Y%3D', 'displayName': 'admin', 'email': 'comvip@163.com', 'gmtCreate': 1561533973000, 'gmtModified': 1573716436000, 'id': 31, 'isDeleted': 0, 'isEnable': 1, 'level': 0, 'organization': 0, 'phone': '', 'staffId': 's_d5aee8db4c8b4a33a8028f89be8c0fcf', 'staffName': 'Super Admin', 'tenantId': '_1NTMWLA', 'username': 'admin'}, {'avatar': '/static/media/line_icon_photo01.646c3740.svg', 'displayName': '章', 'gmtCreate': 1561534243000, 'gmtModified': 1571407294000, 'id': 32, 'isDeleted': 0, 'isEnable': 1, 'jobNumber': '001', 'level': 100, 'organization': 33, 'phone': '13622222222', 'staffId': 's_819aee8ed8554b9f82e8d6302c8d2411', 'staffName': '章广华', 'tenantId': '_1NTMWLA', 'username': 'zhang001'}, {'avatar': 'http://citydozhinengkefu.oss-cn-hangzhou.aliyuncs.com/pic_test//avatar_3a1854c438a9403b941c340e1e9c7582.jpg?Expires=1603439974&amp;OSSAccessKeyId=LTAIeeyxnykXoM0A&amp;Signature=gL3ZYCuPJpyvx3oqWVCFlAlJtwQ%3D', 'displayName': 'zhang002', 'gmtCreate': 1561534283000, 'gmtModified': 1574669954000, 'id': 33, 'isDeleted': 0, 'isEnable': 1, 'jobNumber': '002', 'level': 5, 'organization': 0, 'phone': '13622222222', 'staffId': 's_b17fc5b87921489788024c30229f0528', 'staffName': 'zhang002', 'tenantId': '_1NTMWLA', 'username': 'zhang002'}, {'avatar': '', 'displayName': '章3', 'gmtCreate': 1561539262000, 'gmtModified': 1566183504000, 'id': 34, 'isDeleted': 0, 'isEnable': 1, 'jobNumber': '003', 'level': 5, 'organization': 0, 'phone': '13622222222', 'staffId': 's_27dc197e2b184befa8dc863f7b429bd2', 'staffName': '章广华3', 'tenantId': '_1NTMWLA', 'username': 'zhang003'}, {'avatar': '', 'displayName': 'yangnk2', 'gmtCreate': 1561602497000, 'gmtModified': 1572572510000, 'id': 35, 'isDeleted': 0, 'isEnable': 1, 'jobNumber': 'yangnk2', 'level': 10, 'organization': 0, 'phone': '13888888888', 'staffId': 's_4d3464d78a374af18b85a2fe80a7874a', 'staffName': 'yangnk2', 'tenantId': '_1NTMWLA', 'username': 'yangnk2'}, {'avatar': '', 'displayName': 'yangnk3', 'gmtCreate': 1561604335000, 'gmtModified': 1574143449000, 'id': 36, 'isDeleted': 0, 'isEnable': 1, 'jobNumber': 'yangnk3', 'level': 25, 'organization': 0, 'phone': '13888888888', 'staffId': 's_eebb9de18d2e4d37bcecd64778b88601', 'staffName': 'yangnk3', 'tenantId': '_1NTMWLA', 'username': 'yangnk3'}, {'avatar': 'http://citydozhinengkefu.oss-cn-hangzhou.aliyuncs.com/pic_test//avatar_ab3abdc2fc194674beede81eac9a898b.jpg?Expires=1603505792&amp;OSSAccessKeyId=LTAIeeyxnykXoM0A&amp;Signature=oJCeSM42fTfS0YLPP5dxEgHkCn4%3D', 'displayName': 'yangnk4', 'entryTime': 1561614657000, 'gmtCreate': 1561614658000, 'gmtModified': 1571969794000, 'id': 37, 'isDeleted': 0, 'isEnable': 1, 'jobNumber': 'yangnk4', 'level': 5, 'organization': 34, 'phone': '13888888888', 'staffId': 's_22d9469d2d56464b84320fbf0c4a237c', 'staffName': 'yangnk4', 'tenantId': '_1NTMWLA', 'username': 'yangnk4'}, {'avatar': 'http://47.97.152.55:8008/customer_service.svg', 'displayName': 'yangnk5', 'entryTime': 1561622878000, 'gmtCreate': 1561622879000, 'gmtModified': 1561622879000, 'id': 38, 'isDeleted': 0, 'isEnable': 1, 'jobNumber': 'yangnk5', 'level': 5, 'organization': 0, 'phone': '13888888888', 'staffId': 's_2fe3875c390040b489b644cc5c1ae0e2', 'staffName': 'yangnk5', 'tenantId': '_1NTMWLA', 'username': 'yangnk5'}, {'avatar': '', 'displayName': 'zgh', 'gmtCreate': 1567064493000, 'gmtModified': 1571968395000, 'id': 43, 'isDeleted': 0, 'isEnable': 1, 'jobNumber': '007', 'level': 5, 'organization': 0, 'phone': '13122222222', 'staffId': 's_5218ea681e1e436cb03a3151b97bdf9f', 'staffName': '章广华', 'tenantId': '_1NTMWLA', 'username': 'zgh'}, {'avatar': 'http://47.97.152.55:8008/customer_service.svg', 'displayName': 'liuwc', 'entryTime': 1569383417000, 'gmtCreate': 1569383418000, 'gmtModified': 1569383418000, 'id': 44, 'isDeleted': 0, 'isEnable': 1, 'jobNumber': '03133', 'level': 10, 'organization': 0, 'phone': '17799144017', 'staffId': 's_3d2ce1f6dd4b4ca8917664aee580e960', 'staffName': 'liuwc', 'tenantId': '_1NTMWLA', 'username': 'liuwc'}, {'avatar': '', 'displayName': 'liuhq', 'gmtCreate': 1571284231000, 'gmtModified': 1571301162000, 'id': 45, 'isDeleted': 0, 'isEnable': 1, 'jobNumber': '00009', 'level': 20, 'organization': 0, 'phone': '13200000000', 'staffId': 's_014fc0c1753040a98c707182bf42f4d3', 'staffName': 'liuhq', 'tenantId': '_1NTMWLA', 'username': 'liuhq'}, {'avatar': 'http://47.110.131.231:8008/customer_service.svg', 'displayName': 'cc', 'entryTime': 1571390158000, 'gmtCreate': 1571390158000, 'gmtModified': 1571390158000, 'id': 46, 'isDeleted': 0, 'isEnable': 1, 'jobNumber': '001', 'level': 5, 'organization': 0, 'phone': '18758882514', 'staffId': 's_85755b2aad654b59bda7865ee8cd5caf', 'staffName': 'cyq', 'tenantId': '_1NTMWLA', 'username': 'cyq123'}, {'avatar': 'http://47.110.131.231:8008/customer_service.svg', 'displayName': 'xujm', 'entryTime': 1571390972000, 'gmtCreate': 1571390982000, 'gmtModified': 1571390982000, 'id': 47, 'isDeleted': 0, 'isEnable': 1, 'jobNumber': '0138', 'level': 10, 'organization': 0, 'phone': '15925649020', 'staffId': 's_ede14430991843dc8eca411432a2cb79', 'staffName': 'xujm', 'tenantId': '_1NTMWLA', 'username': 'xujm'}, {'avatar': '', 'displayName': 'test', 'gmtCreate': 1571638849000, 'gmtModified': 1572233528000, 'id': 48, 'isDeleted': 0, 'isEnable': 1, 'jobNumber': '08908', 'level': 35, 'organization': 0, 'phone': '13200999999', 'staffId': 's_ba4d29558af446068d5817c0a4f9966e', 'staffName': 'test', 'tenantId': '_1NTMWLA', 'username': 'test'}, {'avatar': 'http://47.110.131.231:8008/customer_service.svg', 'displayName': 'y', 'entryTime': 1571715693000, 'gmtCreate': 1571715694000, 'gmtModified': 1571715694000, 'id': 50, 'isDeleted': 0, 'isEnable': 1, 'jobNumber': '121', 'level': 5, 'organization': 0, 'phone': '18758882514', 'staffId': 's_91999a546be64f6b81990735bc717910', 'staffName': 'yu', 'tenantId': '_1NTMWLA', 'username': 'caoyu'}, {'avatar': '', 'displayName': 'zff', 'gmtCreate': 1571734326000, 'gmtModified': 1571980745000, 'id': 51, 'isDeleted': 0, 'isEnable': 1, 'jobNumber': '4454543', 'level': 15, 'organization': 0, 'phone': '13622222222', 'staffId': 's_150eb33af40344e59742d092a8978348', 'staffName': 'zff', 'tenantId': '_1NTMWLA', 'username': 'zff'}, {'avatar': '', 'displayName': 'aq', 'gmtCreate': 1571794175000, 'gmtModified': 1572859898000, 'id': 52, 'isDeleted': 0, 'isEnable': 1, 'jobNumber': '1234', 'level': 35, 'organization': 0, 'phone': '18758882514', 'staffId': 's_279d441459b74627ae288bf9b3837f26', 'staffName': '王五', 'tenantId': '_1NTMWLA', 'username': 'xsz'}, {'avatar': '', 'displayName': 'dsdd', 'gmtCreate': 1571916480000, 'gmtModified': 1572859889000, 'id': 54, 'isDeleted': 0, 'isEnable': 1, 'jobNumber': '009', 'level': 35, 'organization': 0, 'phone': '18600110011', 'staffId': 's_47a323e3b1d2404c8c2ea6d2451a01b4', 'staffName': '李四', 'tenantId': '_1NTMWLA', 'username': 'ddd'}, {'avatar': '', 'displayName': 'nicheng', 'email': 'liuhq@citydo.com.cn', 'gmtCreate': 1571969215000, 'gmtModified': 1572859875000, 'id': 55, 'isDeleted': 0, 'isEnable': 1, 'jobNumber': 'gonghao123', 'level': 35, 'organization': 0, 'phone': '18812345678', 'staffId': 's_c5aca925293c4b119045ed4af8c54d3f', 'staffName': '张三', 'tenantId': '_1NTMWLA', 'username': 'dengluming登录名'}, {'avatar': '', 'displayName': '曾', 'email': 'zenghua@citydo.com.cn', 'entryTime': 1573629511000, 'gmtCreate': 1573629518000, 'gmtModified': 1573629518000, 'id': 56, 'isDeleted': 0, 'isEnable': 1, 'jobNumber': '890', 'level': 5, 'organization': 0, 'phone': '18600001111', 'staffId': 's_7e2c63317ffd4df8ac63d384c096286f', 'staffName': '曾', 'tenantId': '_1NTMWLA', 'username': '曾华'}, {'avatar': '', 'displayName': '王琳', 'email': 'liuhq@citydo.com.cn', 'gmtCreate': 1573629808000, 'gmtModified': 1573645432000, 'id': 57, 'isDeleted': 0, 'isEnable': 1, 'jobNumber': '123', 'level': 10, 'organization': 0, 'phone': '18600000000', 'staffId': 's_bcea95997c5941ef89e9260b3a398037', 'staffName': '王琳', 'tenantId': '_1NTMWLA', 'username': '王琳'}, {'avatar': '', 'displayName': 'manyidu', 'gmtCreate': 1573717871000, 'gmtModified': 1573725183000, 'id': 58, 'isDeleted': 0, 'isEnable': 1, 'jobNumber': '2222', 'level': 10, 'organization': 0, 'phone': '13200000000', 'staffId': 's_da3f3c3fd48947cab0657aa1428b39ab', 'staffName': 'manyidu', 'tenantId': '_1NTMWLA', 'username': 'manyidu'}, {'avatar': '', 'displayName': '222', 'email': '', 'gmtCreate': 1574299877000, 'gmtModified': 1574304032000, 'id': 59, 'isDeleted': 0, 'isEnable': 1, 'jobNumber': '111', 'level': 10, 'organization': 0, 'phone': '15211155564', 'staffId': 's_6c219113bfa14694bcd47f7f444ec513', 'staffName': 'wzh1111', 'tenantId': '_1NTMWLA', 'username': '111'}]</t>
   </si>
   <si>
     <t>在线-会话重排-按照等待时长重排</t>
@@ -824,7 +830,7 @@
     <t>/v1/tenants/_1NTMWLA/staffs/s_819aee8ed8554b9f82e8d6302c8d2411</t>
   </si>
   <si>
-    <t>{'baseSuccess': True, 'httpStatusCode': 0, 'staffInfo': {'avatar': '/static/media/line_icon_photo01.646c3740.svg', 'displayName': '章', 'id': 32, 'isDeleted': 0, 'isEnable': 1, 'isModifyPassword': 1, 'jobNumber': '001', 'level': 100, 'organization': 33, 'password': '001', 'phone': '13622222222', 'roleIds': ['1e56829e-83a0-48ec-86ca-6530a0b673bd', '27acc809-03ab-4050-92d5-5f092678b8ed', '515e555c-f319-4989-8457-c89a4b286218', '8ddc45a6-b7b5-477e-9431-eee41fe31b23'], 'roleList': [{'description': '系统默认角色', 'gmtCreate': 1561533973000, 'gmtModified': 1561533973000, 'isDefault': 0, 'offStatus': 0, 'roleId': '1e56829e-83a0-48ec-86ca-6530a0b673bd', 'roleName': '管理员', 'tenantId': '_1NTMWLA'}, {'description': '1', 'gmtCreate': 1561635662000, 'gmtModified': 1561637163000, 'isDefault': 0, 'offStatus': 0, 'roleId': '27acc809-03ab-4050-92d5-5f092678b8ed', 'roleName': 'zgh', 'tenantId': '_1NTMWLA'}, {'description': '系统默认角色', 'gmtCreate': 1561533972000, 'gmtModified': 1561533972000, 'isDefault': 1, 'offStatus': 0, 'roleId': '515e555c-f319-4989-8457-c89a4b286218', 'roleName': '超级管理员', 'tenantId': '_1NTMWLA'}, {'description': '系统默认角色', 'gmtCreate': 1561533973000, 'gmtModified': 1561533973000, 'isDefault': 0, 'offStatus': 0, 'roleId': '8ddc45a6-b7b5-477e-9431-eee41fe31b23', 'roleName': '客服', 'tenantId': '_1NTMWLA'}], 'skillGroupIds': ['dc14c144-a9bb-4beb-ad0a-2df4be155623', 'e37d7488-7a6b-4863-8d8b-0115b21ca0f8'], 'skillGroupList': [{'description': 'zhang', 'disableEnable': True, 'gmtCreate': 1561534179000, 'gmtModified': 1561636728000, 'id': 32, 'name': 'zhang001', 'skillGroupId': 'dc14c144-a9bb-4beb-ad0a-2df4be155623', 'tenantId': '_1NTMWLA', 'type': 1}, {'description': 'zhang', 'disableEnable': True, 'gmtCreate': 1561534192000, 'gmtModified': 1561534192000, 'id': 33, 'name': 'zhang002', 'skillGroupId': 'e37d7488-7a6b-4863-8d8b-0115b21ca0f8', 'tenantId': '_1NTMWLA', 'type': 1}], 'staffId': 's_819aee8ed8554b9f82e8d6302c8d2411', 'staffName': '章广华', 'tenantId': '_1NTMWLA', 'username': 'zhang001'}}</t>
+    <t>{'baseSuccess': True, 'httpStatusCode': 0, 'staffInfo': {'avatar': '/static/media/line_icon_photo01.646c3740.svg', 'displayName': '章', 'id': 32, 'isDeleted': 0, 'isEnable': 1, 'isModifyPassword': 1, 'jobNumber': '001', 'level': 100, 'organization': 33, 'password': '001', 'phone': '13622222222', 'roleIds': ['1e56829e-83a0-48ec-86ca-6530a0b673bd', '27acc809-03ab-4050-92d5-5f092678b8ed', '515e555c-f319-4989-8457-c89a4b286218', '8ddc45a6-b7b5-477e-9431-eee41fe31b23', 'b603d303-882e-4ab9-90d0-e30864d95eca'], 'roleList': [{'description': '系统默认角色', 'gmtCreate': 1561533973000, 'gmtModified': 1561533973000, 'isDefault': 0, 'offStatus': 0, 'roleId': '1e56829e-83a0-48ec-86ca-6530a0b673bd', 'roleName': '管理员', 'tenantId': '_1NTMWLA'}, {'description': '1', 'gmtCreate': 1561635662000, 'gmtModified': 1561637163000, 'isDefault': 0, 'offStatus': 0, 'roleId': '27acc809-03ab-4050-92d5-5f092678b8ed', 'roleName': 'zgh', 'tenantId': '_1NTMWLA'}, {'description': '系统默认角色', 'gmtCreate': 1561533972000, 'gmtModified': 1561533972000, 'isDefault': 1, 'offStatus': 0, 'roleId': '515e555c-f319-4989-8457-c89a4b286218', 'roleName': '超级管理员', 'tenantId': '_1NTMWLA'}, {'description': '系统默认角色', 'gmtCreate': 1561533973000, 'gmtModified': 1561533973000, 'isDefault': 0, 'offStatus': 0, 'roleId': '8ddc45a6-b7b5-477e-9431-eee41fe31b23', 'roleName': '客服', 'tenantId': '_1NTMWLA'}, {'description': '系统默认角色', 'gmtCreate': 1571292711000, 'gmtModified': 1571293474000, 'isDefault': 0, 'offStatus': 0, 'roleId': 'b603d303-882e-4ab9-90d0-e30864d95eca', 'roleName': '质检', 'tenantId': '_1NTMWLA'}], 'skillGroupIds': ['dc14c144-a9bb-4beb-ad0a-2df4be155623', 'e37d7488-7a6b-4863-8d8b-0115b21ca0f8'], 'skillGroupList': [{'description': 'zhang', 'disableEnable': True, 'gmtCreate': 1561534179000, 'gmtModified': 1561636728000, 'id': 32, 'name': 'zhang001', 'skillGroupId': 'dc14c144-a9bb-4beb-ad0a-2df4be155623', 'tenantId': '_1NTMWLA', 'type': 1}, {'description': 'zhang', 'disableEnable': True, 'gmtCreate': 1561534192000, 'gmtModified': 1561534192000, 'id': 33, 'name': 'zhang002', 'skillGroupId': 'e37d7488-7a6b-4863-8d8b-0115b21ca0f8', 'tenantId': '_1NTMWLA', 'type': 1}], 'staffId': 's_819aee8ed8554b9f82e8d6302c8d2411', 'staffName': '章广华', 'tenantId': '_1NTMWLA', 'username': 'zhang001'}}</t>
   </si>
   <si>
     <t>客服端批量获取发送给自己的聊天消息</t>
@@ -842,7 +848,7 @@
     <t>/v1/tenants/_1NTMWLA/staffs/s_819aee8ed8554b9f82e8d6302c8d2411/batch-fetch-messages</t>
   </si>
   <si>
-    <t>[{'from': 'v_a_ed2ccc8cfc3c40f8a20cea7134032db9', 'groupSessionId': '116faeb5f6e84fcea8c15bf77ce1c31d', 'messageBody': {'skillGroupId': 'dc14c144-a9bb-4beb-ad0a-2df4be155623'}, 'messageId': '6550245263989014531', 'messageType': 'event/switchToStaff', 'sentTime': 1561700168606, 'sessionId': 'df15ff5d57024ad3b22d788bc67a2030', 'tenantId': '_1NTMWLA', 'to': 'SYSTEM'}, {'from': 'SYSTEM', 'groupSessionId': '116faeb5f6e84fcea8c15bf77ce1c31d', 'messageBody': {'from': 'INIT', 'to': 's_819aee8ed8554b9f82e8d6302c8d2411'}, 'messageId': '6550245264123232259', 'messageType': 'event/staffConnected', 'sentTime': 1561700168637, 'sessionId': 'c51288f3280545879d246937b1ed188d', 'tenantId': '_1NTMWLA', 'to': 'SYSTEM'}, {'from': 'SYSTEM', 'groupSessionId': '116faeb5f6e84fcea8c15bf77ce1c31d', 'messageBody': {'message': 'visitor_closed'}, 'messageId': '6550245273497501699', 'messageType': 'event/sessionClosed', 'sentTime': 1561700170873, 'sessionId': 'c51288f3280545879d246937b1ed188d', 'tenantId': '_1NTMWLA', 'to': 'SYSTEM'}]</t>
+    <t>[{'from': 'v_a_ed2ccc8cfc3c40f8a20cea7134032db9', 'groupSessionId': '116faeb5f6e84fcea8c15bf77ce1c31d', 'messageBody': {'skillGroupId': 'dc14c144-a9bb-4beb-ad0a-2df4be155623', 'throwOver': False}, 'messageId': '6550245263989014531', 'messageType': 'event/switchToStaff', 'sentTime': 1561700168606, 'sessionId': 'df15ff5d57024ad3b22d788bc67a2030', 'tenantId': '_1NTMWLA', 'to': 'SYSTEM'}, {'from': 'SYSTEM', 'groupSessionId': '116faeb5f6e84fcea8c15bf77ce1c31d', 'messageBody': {'from': 'INIT', 'throwOver': False, 'to': 's_819aee8ed8554b9f82e8d6302c8d2411'}, 'messageId': '6550245264123232259', 'messageType': 'event/staffConnected', 'sentTime': 1561700168637, 'sessionId': 'c51288f3280545879d246937b1ed188d', 'tenantId': '_1NTMWLA', 'to': 'SYSTEM'}, {'from': 'SYSTEM', 'groupSessionId': '116faeb5f6e84fcea8c15bf77ce1c31d', 'messageBody': {'message': 'visitor_closed', 'throwOver': False}, 'messageId': '6550245273497501699', 'messageType': 'event/sessionClosed', 'sentTime': 1561700170873, 'sessionId': 'c51288f3280545879d246937b1ed188d', 'tenantId': '_1NTMWLA', 'to': 'SYSTEM'}]</t>
   </si>
   <si>
     <t>客服状态-上线-"online"表示上线</t>
@@ -854,7 +860,7 @@
     <t>{"status":"online"}</t>
   </si>
   <si>
-    <t>{'baseSuccess': True, 'httpStatusCode': 0, 'status': 'online', 'token': {'tokenCreateTime': 1564993445532, 'value': '44d5fd02a2e243179ef4f64cf2a45008'}}</t>
+    <t>{'baseSuccess': True, 'httpStatusCode': 0, 'status': 'online', 'test': '76c40206fe08470ba1df2f777b736668', 'token': {'tokenCreateTime': 1574670018806, 'value': '76c40206fe08470ba1df2f777b736668'}}</t>
   </si>
   <si>
     <t>客服列表-修改客服会话上限</t>
@@ -902,7 +908,7 @@
     <t>/v1/tenants/_1NTMWLA/staffs</t>
   </si>
   <si>
-    <t>{'baseSuccess': True, 'httpStatusCode': 0, 'rowCount': 8, 'staffInfoList': [{'avatar': 'http://47.97.152.55:8008/customer_service.svg', 'displayName': 'yangnk5', 'entryTime': 1561622878000, 'id': 38, 'isDeleted': 0, 'isEnable': 1, 'jobNumber': 'yangnk5', 'level': 5, 'organization': 0, 'password': 'yangnk5', 'phone': '13888888888', 'roleIds': ['1e56829e-83a0-48ec-86ca-6530a0b673bd'], 'roleList': [{'description': '系统默认角色', 'gmtCreate': 1561533973000, 'gmtModified': 1561533973000, 'isDefault': 0, 'offStatus': 0, 'roleId': '1e56829e-83a0-48ec-86ca-6530a0b673bd', 'roleName': '管理员', 'tenantId': '_1NTMWLA'}], 'skillGroupIds': ['713b4b4f-97bb-49c5-847b-e2fb67a637ee'], 'skillGroupList': [{'description': 'yangnk5', 'disableEnable': True, 'gmtCreate': 1561622859000, 'gmtModified': 1561622859000, 'id': 38, 'name': 'yangnk5', 'skillGroupId': '713b4b4f-97bb-49c5-847b-e2fb67a637ee', 'tenantId': '_1NTMWLA', 'type': 1}], 'staffId': 's_2fe3875c390040b489b644cc5c1ae0e2', 'staffName': 'yangnk5', 'tenantId': '_1NTMWLA', 'username': 'yangnk5'}, {'avatar': 'http://47.97.152.55:8008/customer_service.svg', 'displayName': 'yangnk4', 'entryTime': 1561614657000, 'id': 37, 'isDeleted': 0, 'isEnable': 1, 'jobNumber': 'yangnk4', 'level': 5, 'organization': 34, 'password': 'yangnk4', 'phone': '13888888888', 'roleIds': ['1e56829e-83a0-48ec-86ca-6530a0b673bd'], 'roleList': [{'description': '系统默认角色', 'gmtCreate': 1561533973000, 'gmtModified': 1561533973000, 'isDefault': 0, 'offStatus': 0, 'roleId': '1e56829e-83a0-48ec-86ca-6530a0b673bd', 'roleName': '管理员', 'tenantId': '_1NTMWLA'}], 'skillGroupIds': ['66c6822a-5b07-484f-ae4a-720523ba8962', '713b4b4f-97bb-49c5-847b-e2fb67a637ee'], 'skillGroupList': [{'description': 'yangnk4', 'disableEnable': True, 'gmtCreate': 1561614625000, 'gmtModified': 1561614625000, 'id': 37, 'name': 'yangnk4', 'skillGroupId': '66c6822a-5b07-484f-ae4a-720523ba8962', 'tenantId': '_1NTMWLA', 'type': 1}, {'description': 'yangnk5', 'disableEnable': True, 'gmtCreate': 1561622859000, 'gmtModified': 1561622859000, 'id': 38, 'name': 'yangnk5', 'skillGroupId': '713b4b4f-97bb-49c5-847b-e2fb67a637ee', 'tenantId': '_1NTMWLA', 'type': 1}], 'staffId': 's_22d9469d2d56464b84320fbf0c4a237c', 'staffName': 'yangnk4', 'tenantId': '_1NTMWLA', 'username': 'yangnk4'}, {'avatar': 'http://47.97.152.55:8008/customer_service.svg', 'displayName': 'yangnk3', 'entryTime': 1561604334000, 'id': 36, 'isDeleted': 0, 'isEnable': 1, 'jobNumber': 'yangnk3', 'level': 5, 'organization': 0, 'password': 'yangnk3', 'phone': '13888888888', 'roleIds': ['1e56829e-83a0-48ec-86ca-6530a0b673bd'], 'roleList': [{'description': '系统默认角色', 'gmtCreate': 1561533973000, 'gmtModified': 1561533973000, 'isDefault': 0, 'offStatus': 0, 'roleId': '1e56829e-83a0-48ec-86ca-6530a0b673bd', 'roleName': '管理员', 'tenantId': '_1NTMWLA'}], 'skillGroupIds': ['1d7868eb-ea22-4c63-9728-6caea8e5ca50', '713b4b4f-97bb-49c5-847b-e2fb67a637ee'], 'skillGroupList': [{'description': 'yangnk3', 'disableEnable': True, 'gmtCreate': 1561604312000, 'gmtModified': 1561604312000, 'id': 36, 'name': 'yangnk3', 'skillGroupId': '1d7868eb-ea22-4c63-9728-6caea8e5ca50', 'tenantId': '_1NTMWLA', 'type': 1}, {'description': 'yangnk5', 'disableEnable': True, 'gmtCreate': 1561622859000, 'gmtModified': 1561622859000, 'id': 38, 'name': 'yangnk5', 'skillGroupId': '713b4b4f-97bb-49c5-847b-e2fb67a637ee', 'tenantId': '_1NTMWLA', 'type': 1}], 'staffId': 's_eebb9de18d2e4d37bcecd64778b88601', 'staffName': 'yangnk3', 'tenantId': '_1NTMWLA', 'username': 'yangnk3'}, {'avatar': 'http://47.97.152.55:8008/customer_service.svg', 'displayName': 'yangnk2', 'entryTime': 1561602497000, 'id': 35, 'isDeleted': 0, 'isEnable': 1, 'jobNumber': 'yangnk2', 'level': 5, 'organization': 0, 'password': 'yangnk2', 'phone': '13888888888', 'roleIds': ['1e56829e-83a0-48ec-86ca-6530a0b673bd'], 'roleList': [{'description': '系统默认角色', 'gmtCreate': 1561533973000, 'gmtModified': 1561533973000, 'isDefault': 0, 'offStatus': 0, 'roleId': '1e56829e-83a0-48ec-86ca-6530a0b673bd', 'roleName': '管理员', 'tenantId': '_1NTMWLA'}], 'skillGroupIds': ['162babff-74c6-4cc5-b40b-3344de43b7c6', '713b4b4f-97bb-49c5-847b-e2fb67a637ee'], 'skillGroupList': [{'description': 'yangnk2', 'disableEnable': True, 'gmtCreate': 1561602477000, 'gmtModified': 1561602477000, 'id': 35, 'name': 'yangnk2', 'skillGroupId': '162babff-74c6-4cc5-b40b-3344de43b7c6', 'tenantId': '_1NTMWLA', 'type': 1}, {'description': 'yangnk5', 'disableEnable': True, 'gmtCreate': 1561622859000, 'gmtModified': 1561622859000, 'id': 38, 'name': 'yangnk5', 'skillGroupId': '713b4b4f-97bb-49c5-847b-e2fb67a637ee', 'tenantId': '_1NTMWLA', 'type': 1}], 'staffId': 's_4d3464d78a374af18b85a2fe80a7874a', 'staffName': 'yangnk2', 'tenantId': '_1NTMWLA', 'username': 'yangnk2'}, {'avatar': '', 'displayName': '章3', 'id': 34, 'isDeleted': 0, 'isEnable': 1, 'jobNumber': '003', 'level': 5, 'organization': 0, 'password': '003', 'phone': '13622222222', 'roleIds': ['1e56829e-83a0-48ec-86ca-6530a0b673bd', '515e555c-f319-4989-8457-c89a4b286218', '8ddc45a6-b7b5-477e-9431-eee41fe31b23'], 'roleList': [{'description': '系统默认角色', 'gmtCreate': 1561533973000, 'gmtModified': 1561533973000, 'isDefault': 0, 'offStatus': 0, 'roleId': '1e56829e-83a0-48ec-86ca-6530a0b673bd', 'roleName': '管理员', 'tenantId': '_1NTMWLA'}, {'description': '系统默认角色', 'gmtCreate': 1561533972000, 'gmtModified': 1561533972000, 'isDefault': 1, 'offStatus': 0, 'roleId': '515e555c-f319-4989-8457-c89a4b286218', 'roleName': '超级管理员', 'tenantId': '_1NTMWLA'}, {'description': '系统默认角色', 'gmtCreate': 1561533973000, 'gmtModified': 1561533973000, 'isDefault': 0, 'offStatus': 0, 'roleId': '8ddc45a6-b7b5-477e-9431-eee41fe31b23', 'roleName': '客服', 'tenantId': '_1NTMWLA'}], 'skillGroupIds': ['1fa50dc4-5520-4b58-8990-acad3baa5a89', 'dc14c144-a9bb-4beb-ad0a-2df4be155623', 'e37d7488-7a6b-4863-8d8b-0115b21ca0f8'], 'skillGroupList': [{'description': 'zhang', 'disableEnable': True, 'gmtCreate': 1561539202000, 'gmtModified': 1561539210000, 'id': 34, 'name': 'zhang003', 'skillGroupId': '1fa50dc4-5520-4b58-8990-acad3baa5a89', 'tenantId': '_1NTMWLA', 'type': 1}, {'description': 'zhang', 'disableEnable': True, 'gmtCreate': 1561534179000, 'gmtModified': 1561636728000, 'id': 32, 'name': 'zhang001', 'skillGroupId': 'dc14c144-a9bb-4beb-ad0a-2df4be155623', 'tenantId': '_1NTMWLA', 'type': 1}, {'description': 'zhang', 'disableEnable': True, 'gmtCreate': 1561534192000, 'gmtModified': 1561534192000, 'id': 33, 'name': 'zhang002', 'skillGroupId': 'e37d7488-7a6b-4863-8d8b-0115b21ca0f8', 'tenantId': '_1NTMWLA', 'type': 1}], 'staffId': 's_27dc197e2b184befa8dc863f7b429bd2', 'staffName': '章广华3', 'tenantId': '_1NTMWLA', 'username': 'zhang003'}, {'avatar': '', 'displayName': '章2', 'id': 33, 'isDeleted': 0, 'isEnable': 0, 'jobNumber': '002', 'level': 5, 'organization': 0, 'password': '002', 'phone': '13622222222', 'roleIds': ['1e56829e-83a0-48ec-86ca-6530a0b673bd', '515e555c-f319-4989-8457-c89a4b286218', '8ddc45a6-b7b5-477e-9431-eee41fe31b23'], 'roleList': [{'description': '系统默认角色', 'gmtCreate': 1561533973000, 'gmtModified': 1561533973000, 'isDefault': 0, 'offStatus': 0, 'roleId': '1e56829e-83a0-48ec-86ca-6530a0b673bd', 'roleName': '管理员', 'tenantId': '_1NTMWLA'}, {'description': '系统默认角色', 'gmtCreate': 1561533972000, 'gmtModified': 1561533972000, 'isDefault': 1, 'offStatus': 0, 'roleId': '515e555c-f319-4989-8457-c89a4b286218', 'roleName': '超级管理员', 'tenantId': '_1NTMWLA'}, {'description': '系统默认角色', 'gmtCreate': 1561533973000, 'gmtModified': 1561533973000, 'isDefault': 0, 'offStatus': 0, 'roleId': '8ddc45a6-b7b5-477e-9431-eee41fe31b23', 'roleName': '客服', 'tenantId': '_1NTMWLA'}], 'skillGroupIds': ['dc14c144-a9bb-4beb-ad0a-2df4be155623', 'e37d7488-7a6b-4863-8d8b-0115b21ca0f8'], 'skillGroupList': [{'description': 'zhang', 'disableEnable': True, 'gmtCreate': 1561534179000, 'gmtModified': 1561636728000, 'id': 32, 'name': 'zhang001', 'skillGroupId': 'dc14c144-a9bb-4beb-ad0a-2df4be155623', 'tenantId': '_1NTMWLA', 'type': 1}, {'description': 'zhang', 'disableEnable': True, 'gmtCreate': 1561534192000, 'gmtModified': 1561534192000, 'id': 33, 'name': 'zhang002', 'skillGroupId': 'e37d7488-7a6b-4863-8d8b-0115b21ca0f8', 'tenantId': '_1NTMWLA', 'type': 1}], 'staffId': 's_b17fc5b87921489788024c30229f0528', 'staffName': '章广华2', 'tenantId': '_1NTMWLA', 'username': 'zhang002'}, {'avatar': '/static/media/line_icon_photo01.646c3740.svg', 'displayName': '章', 'id': 32, 'isDeleted': 0, 'isEnable': 1, 'jobNumber': '001', 'level': 100, 'organization': 33, 'password': '001', 'phone': '13622222222', 'roleIds': ['1e56829e-83a0-48ec-86ca-6530a0b673bd', '27acc809-03ab-4050-92d5-5f092678b8ed', '515e555c-f319-4989-8457-c89a4b286218', '8ddc45a6-b7b5-477e-9431-eee41fe31b23'], 'roleList': [{'description': '系统默认角色', 'gmtCreate': 1561533973000, 'gmtModified': 1561533973000, 'isDefault': 0, 'offStatus': 0, 'roleId': '1e56829e-83a0-48ec-86ca-6530a0b673bd', 'roleName': '管理员', 'tenantId': '_1NTMWLA'}, {'description': '1', 'gmtCreate': 1561635662000, 'gmtModified': 1561637163000, 'isDefault': 0, 'offStatus': 0, 'roleId': '27acc809-03ab-4050-92d5-5f092678b8ed', 'roleName': 'zgh', 'tenantId': '_1NTMWLA'}, {'description': '系统默认角色', 'gmtCreate': 1561533972000, 'gmtModified': 1561533972000, 'isDefault': 1, 'offStatus': 0, 'roleId': '515e555c-f319-4989-8457-c89a4b286218', 'roleName': '超级管理员', 'tenantId': '_1NTMWLA'}, {'description': '系统默认角色', 'gmtCreate': 1561533973000, 'gmtModified': 1561533973000, 'isDefault': 0, 'offStatus': 0, 'roleId': '8ddc45a6-b7b5-477e-9431-eee41fe31b23', 'roleName': '客服', 'tenantId': '_1NTMWLA'}], 'skillGroupIds': ['dc14c144-a9bb-4beb-ad0a-2df4be155623', 'e37d7488-7a6b-4863-8d8b-0115b21ca0f8'], 'skillGroupList': [{'description': 'zhang', 'disableEnable': True, 'gmtCreate': 1561534179000, 'gmtModified': 1561636728000, 'id': 32, 'name': 'zhang001', 'skillGroupId': 'dc14c144-a9bb-4beb-ad0a-2df4be155623', 'tenantId': '_1NTMWLA', 'type': 1}, {'description': 'zhang', 'disableEnable': True, 'gmtCreate': 1561534192000, 'gmtModified': 1561534192000, 'id': 33, 'name': 'zhang002', 'skillGroupId': 'e37d7488-7a6b-4863-8d8b-0115b21ca0f8', 'tenantId': '_1NTMWLA', 'type': 1}], 'staffId': 's_819aee8ed8554b9f82e8d6302c8d2411', 'staffName': '章广华', 'tenantId': '_1NTMWLA', 'username': 'zhang001'}, {'avatar': 'http://47.97.152.55:8008/customer_service.svg', 'displayName': '', 'email': 'comvip@163.com', 'id': 31, 'isDeleted': 0, 'isEnable': 1, 'level': 0, 'organization': 0, 'phone': '', 'roleIds': ['515e555c-f319-4989-8457-c89a4b286218'], 'roleList': [{'description': '系统默认角色', 'gmtCreate': 1561533972000, 'gmtModified': 1561533972000, 'isDefault': 1, 'offStatus': 0, 'roleId': '515e555c-f319-4989-8457-c89a4b286218', 'roleName': '超级管理员', 'tenantId': '_1NTMWLA'}], 'skillGroupIds': [], 'staffId': 's_d5aee8db4c8b4a33a8028f89be8c0fcf', 'staffName': 'Super Admin', 'tenantId': '_1NTMWLA', 'username': 'admin'}]}</t>
+    <t>{'baseSuccess': True, 'httpStatusCode': 0, 'rowCount': 23, 'staffInfoList': [{'avatar': '', 'displayName': '222', 'email': '', 'id': 59, 'isDeleted': 0, 'isEnable': 1, 'jobNumber': '111', 'level': 10, 'organization': 0, 'password': '111', 'phone': '15211155564', 'roleIds': ['1e56829e-83a0-48ec-86ca-6530a0b673bd', '8ddc45a6-b7b5-477e-9431-eee41fe31b23', 'b603d303-882e-4ab9-90d0-e30864d95eca'], 'roleList': [{'description': '系统默认角色', 'gmtCreate': 1561533973000, 'gmtModified': 1561533973000, 'isDefault': 0, 'offStatus': 0, 'roleId': '1e56829e-83a0-48ec-86ca-6530a0b673bd', 'roleName': '管理员', 'tenantId': '_1NTMWLA'}, {'description': '系统默认角色', 'gmtCreate': 1561533973000, 'gmtModified': 1561533973000, 'isDefault': 0, 'offStatus': 0, 'roleId': '8ddc45a6-b7b5-477e-9431-eee41fe31b23', 'roleName': '客服', 'tenantId': '_1NTMWLA'}, {'description': '系统默认角色', 'gmtCreate': 1571292711000, 'gmtModified': 1571293474000, 'isDefault': 0, 'offStatus': 0, 'roleId': 'b603d303-882e-4ab9-90d0-e30864d95eca', 'roleName': '质检', 'tenantId': '_1NTMWLA'}], 'skillGroupIds': ['66c6822a-5b07-484f-ae4a-720523ba8962'], 'skillGroupList': [{'description': 'yangnk4', 'disableEnable': True, 'gmtCreate': 1561614625000, 'gmtModified': 1561614625000, 'id': 37, 'name': 'yangnk4', 'skillGroupId': '66c6822a-5b07-484f-ae4a-720523ba8962', 'tenantId': '_1NTMWLA', 'type': 1}], 'staffId': 's_6c219113bfa14694bcd47f7f444ec513', 'staffName': 'wzh1111', 'tenantId': '_1NTMWLA', 'username': '111'}, {'avatar': '', 'displayName': 'manyidu', 'id': 58, 'isDeleted': 0, 'isEnable': 1, 'jobNumber': '2222', 'level': 10, 'organization': 0, 'password': '2222', 'phone': '13200000000', 'roleIds': ['1e56829e-83a0-48ec-86ca-6530a0b673bd', '8ddc45a6-b7b5-477e-9431-eee41fe31b23'], 'roleList': [{'description': '系统默认角色', 'gmtCreate': 1561533973000, 'gmtModified': 1561533973000, 'isDefault': 0, 'offStatus': 0, 'roleId': '1e56829e-83a0-48ec-86ca-6530a0b673bd', 'roleName': '管理员', 'tenantId': '_1NTMWLA'}, {'description': '系统默认角色', 'gmtCreate': 1561533973000, 'gmtModified': 1561533973000, 'isDefault': 0, 'offStatus': 0, 'roleId': '8ddc45a6-b7b5-477e-9431-eee41fe31b23', 'roleName': '客服', 'tenantId': '_1NTMWLA'}], 'skillGroupIds': ['1a36c5c8-8d45-4dc0-a406-5b2ceda3776c', 'e37d7488-7a6b-4863-8d8b-0115b21ca0f8'], 'skillGroupList': [{'description': '借记卡咨询', 'disableEnable': True, 'gmtCreate': 1572858636000, 'gmtModified': 1572858636000, 'id': 44, 'name': '借记卡', 'skillGroupId': '1a36c5c8-8d45-4dc0-a406-5b2ceda3776c', 'tenantId': '_1NTMWLA', 'type': 1}, {'description': 'zhang', 'disableEnable': True, 'gmtCreate': 1561534192000, 'gmtModified': 1561534192000, 'id': 33, 'name': 'zhang002', 'skillGroupId': 'e37d7488-7a6b-4863-8d8b-0115b21ca0f8', 'tenantId': '_1NTMWLA', 'type': 1}], 'staffId': 's_da3f3c3fd48947cab0657aa1428b39ab', 'staffName': 'manyidu', 'tenantId': '_1NTMWLA', 'username': 'manyidu'}, {'avatar': '', 'displayName': '王琳', 'email': 'liuhq@citydo.com.cn', 'id': 57, 'isDeleted': 0, 'isEnable': 1, 'jobNumber': '123', 'level': 10, 'organization': 0, 'password': '123', 'phone': '18600000000', 'roleIds': ['1e56829e-83a0-48ec-86ca-6530a0b673bd', '8ddc45a6-b7b5-477e-9431-eee41fe31b23', 'b603d303-882e-4ab9-90d0-e30864d95eca'], 'roleList': [{'description': '系统默认角色', 'gmtCreate': 1561533973000, 'gmtModified': 1561533973000, 'isDefault': 0, 'offStatus': 0, 'roleId': '1e56829e-83a0-48ec-86ca-6530a0b673bd', 'roleName': '管理员', 'tenantId': '_1NTMWLA'}, {'description': '系统默认角色', 'gmtCreate': 1561533973000, 'gmtModified': 1561533973000, 'isDefault': 0, 'offStatus': 0, 'roleId': '8ddc45a6-b7b5-477e-9431-eee41fe31b23', 'roleName': '客服', 'tenantId': '_1NTMWLA'}, {'description': '系统默认角色', 'gmtCreate': 1571292711000, 'gmtModified': 1571293474000, 'isDefault': 0, 'offStatus': 0, 'roleId': 'b603d303-882e-4ab9-90d0-e30864d95eca', 'roleName': '质检', 'tenantId': '_1NTMWLA'}], 'skillGroupIds': ['06d786f7-d7ef-4585-adfa-49b0ca23c974'], 'skillGroupList': [{'description': '大额信贷咨询', 'disableEnable': True, 'gmtCreate': 1571300957000, 'gmtModified': 1572858927000, 'id': 39, 'name': '大额信贷', 'skillGroupId': '06d786f7-d7ef-4585-adfa-49b0ca23c974', 'tenantId': '_1NTMWLA', 'type': 1}], 'staffId': 's_bcea95997c5941ef89e9260b3a398037', 'staffName': '王琳', 'tenantId': '_1NTMWLA', 'username': '王琳'}, {'avatar': '', 'displayName': '曾', 'email': 'zenghua@citydo.com.cn', 'entryTime': 1573629511000, 'id': 56, 'isDeleted': 0, 'isEnable': 1, 'jobNumber': '890', 'level': 5, 'organization': 0, 'password': '890', 'phone': '18600001111', 'roleIds': ['8ddc45a6-b7b5-477e-9431-eee41fe31b23'], 'roleList': [{'description': '系统默认角色', 'gmtCreate': 1561533973000, 'gmtModified': 1561533973000, 'isDefault': 0, 'offStatus': 0, 'roleId': '8ddc45a6-b7b5-477e-9431-eee41fe31b23', 'roleName': '客服', 'tenantId': '_1NTMWLA'}], 'skillGroupIds': ['06d786f7-d7ef-4585-adfa-49b0ca23c974'], 'skillGroupList': [{'description': '大额信贷咨询', 'disableEnable': True, 'gmtCreate': 1571300957000, 'gmtModified': 1572858927000, 'id': 39, 'name': '大额信贷', 'skillGroupId': '06d786f7-d7ef-4585-adfa-49b0ca23c974', 'tenantId': '_1NTMWLA', 'type': 1}], 'staffId': 's_7e2c63317ffd4df8ac63d384c096286f', 'staffName': '曾', 'tenantId': '_1NTMWLA', 'username': '曾华'}, {'avatar': '', 'displayName': 'nicheng', 'email': 'liuhq@citydo.com.cn', 'id': 55, 'isDeleted': 0, 'isEnable': 1, 'jobNumber': 'gonghao123', 'level': 35, 'organization': 0, 'password': 'gonghao123', 'phone': '18812345678', 'roleIds': ['871592d6-2d69-4b76-8acb-076675f62334'], 'roleList': [{'description': '非质检权限', 'gmtCreate': 1571974639000, 'gmtModified': 1571974639000, 'isDefault': 0, 'offStatus': 0, 'roleId': '871592d6-2d69-4b76-8acb-076675f62334', 'roleName': '非质检权限', 'tenantId': '_1NTMWLA'}], 'skillGroupIds': ['06d786f7-d7ef-4585-adfa-49b0ca23c974'], 'skillGroupList': [{'description': '大额信贷咨询', 'disableEnable': True, 'gmtCreate': 1571300957000, 'gmtModified': 1572858927000, 'id': 39, 'name': '大额信贷', 'skillGroupId': '06d786f7-d7ef-4585-adfa-49b0ca23c974', 'tenantId': '_1NTMWLA', 'type': 1}], 'staffId': 's_c5aca925293c4b119045ed4af8c54d3f', 'staffName': '张三', 'tenantId': '_1NTMWLA', 'username': 'dengluming登录名'}, {'avatar': '', 'displayName': 'dsdd', 'id': 54, 'isDeleted': 0, 'isEnable': 1, 'jobNumber': '009', 'level': 35, 'organization': 0, 'password': '009', 'phone': '18600110011', 'roleIds': ['1e56829e-83a0-48ec-86ca-6530a0b673bd', '515e555c-f319-4989-8457-c89a4b286218'], 'roleList': [{'description': '系统默认角色', 'gmtCreate': 1561533973000, 'gmtModified': 1561533973000, 'isDefault': 0, 'offStatus': 0, 'roleId': '1e56829e-83a0-48ec-86ca-6530a0b673bd', 'roleName': '管理员', 'tenantId': '_1NTMWLA'}, {'description': '系统默认角色', 'gmtCreate': 1561533972000, 'gmtModified': 1561533972000, 'isDefault': 1, 'offStatus': 0, 'roleId': '515e555c-f319-4989-8457-c89a4b286218', 'roleName': '超级管理员', 'tenantId': '_1NTMWLA'}], 'skillGroupIds': ['a3df8ba4-bd01-4e83-bfdc-b4cf0b662886'], 'skillGroupList': [{'description': '外汇咨询', 'disableEnable': True, 'gmtCreate': 1571916315000, 'gmtModified': 1572858877000, 'id': 42, 'name': '外汇', 'skillGroupId': 'a3df8ba4-bd01-4e83-bfdc-b4cf0b662886', 'tenantId': '_1NTMWLA', 'type': 1}], 'staffId': 's_47a323e3b1d2404c8c2ea6d2451a01b4', 'staffName': '李四', 'tenantId': '_1NTMWLA', 'username': 'ddd'}, {'avatar': '', 'displayName': 'aq', 'id': 52, 'isDeleted': 0, 'isEnable': 1, 'jobNumber': '1234', 'level': 35, 'organization': 0, 'password': '1234', 'phone': '18758882514', 'roleIds': ['1e56829e-83a0-48ec-86ca-6530a0b673bd', '515e555c-f319-4989-8457-c89a4b286218', '8ddc45a6-b7b5-477e-9431-eee41fe31b23'], 'roleList': [{'description': '系统默认角色', 'gmtCreate': 1561533973000, 'gmtModified': 1561533973000, 'isDefault': 0, 'offStatus': 0, 'roleId': '1e56829e-83a0-48ec-86ca-6530a0b673bd', 'roleName': '管理员', 'tenantId': '_1NTMWLA'}, {'description': '系统默认角色', 'gmtCreate': 1561533972000, 'gmtModified': 1561533972000, 'isDefault': 1, 'offStatus': 0, 'roleId': '515e555c-f319-4989-8457-c89a4b286218', 'roleName': '超级管理员', 'tenantId': '_1NTMWLA'}, {'description': '系统默认角色', 'gmtCreate': 1561533973000, 'gmtModified': 1561533973000, 'isDefault': 0, 'offStatus': 0, 'roleId': '8ddc45a6-b7b5-477e-9431-eee41fe31b23', 'roleName': '客服', 'tenantId': '_1NTMWLA'}], 'skillGroupIds': ['162babff-74c6-4cc5-b40b-3344de43b7c6', '1fa50dc4-5520-4b58-8990-acad3baa5a89', 'dc14c144-a9bb-4beb-ad0a-2df4be155623', 'e37d7488-7a6b-4863-8d8b-0115b21ca0f8'], 'skillGroupList': [{'description': 'yangnk2', 'disableEnable': True, 'gmtCreate': 1561602477000, 'gmtModified': 1561602477000, 'id': 35, 'name': 'yangnk2', 'skillGroupId': '162babff-74c6-4cc5-b40b-3344de43b7c6', 'tenantId': '_1NTMWLA', 'type': 1}, {'description': 'zhang', 'disableEnable': True, 'gmtCreate': 1561539202000, 'gmtModified': 1561539210000, 'id': 34, 'name': 'zhang003', 'skillGroupId': '1fa50dc4-5520-4b58-8990-acad3baa5a89', 'tenantId': '_1NTMWLA', 'type': 1}, {'description': 'zhang', 'disableEnable': True, 'gmtCreate': 1561534179000, 'gmtModified': 1561636728000, 'id': 32, 'name': 'zhang001', 'skillGroupId': 'dc14c144-a9bb-4beb-ad0a-2df4be155623', 'tenantId': '_1NTMWLA', 'type': 1}, {'description': 'zhang', 'disableEnable': True, 'gmtCreate': 1561534192000, 'gmtModified': 1561534192000, 'id': 33, 'name': 'zhang002', 'skillGroupId': 'e37d7488-7a6b-4863-8d8b-0115b21ca0f8', 'tenantId': '_1NTMWLA', 'type': 1}], 'staffId': 's_279d441459b74627ae288bf9b3837f26', 'staffName': '王五', 'tenantId': '_1NTMWLA', 'username': 'xsz'}, {'avatar': '', 'displayName': 'zff', 'id': 51, 'isDeleted': 0, 'isEnable': 1, 'jobNumber': '4454543', 'level': 15, 'organization': 0, 'password': '4454543', 'phone': '13622222222', 'roleIds': ['8ddc45a6-b7b5-477e-9431-eee41fe31b23'], 'roleList': [{'description': '系统默认角色', 'gmtCreate': 1561533973000, 'gmtModified': 1561533973000, 'isDefault': 0, 'offStatus': 0, 'roleId': '8ddc45a6-b7b5-477e-9431-eee41fe31b23', 'roleName': '客服', 'tenantId': '_1NTMWLA'}], 'skillGroupIds': ['e37d7488-7a6b-4863-8d8b-0115b21ca0f8'], 'skillGroupList': [{'description': 'zhang', 'disableEnable': True, 'gmtCreate': 1561534192000, 'gmtModified': 1561534192000, 'id': 33, 'name': 'zhang002', 'skillGroupId': 'e37d7488-7a6b-4863-8d8b-0115b21ca0f8', 'tenantId': '_1NTMWLA', 'type': 1}], 'staffId': 's_150eb33af40344e59742d092a8978348', 'staffName': 'zff', 'tenantId': '_1NTMWLA', 'username': 'zff'}, {'avatar': 'http://47.110.131.231:8008/customer_service.svg', 'displayName': 'y', 'entryTime': 1571715693000, 'id': 50, 'isDeleted': 0, 'isEnable': 1, 'jobNumber': '121', 'level': 5, 'organization': 0, 'password': '121', 'phone': '18758882514', 'roleIds': ['1e56829e-83a0-48ec-86ca-6530a0b673bd', '515e555c-f319-4989-8457-c89a4b286218', '8ddc45a6-b7b5-477e-9431-eee41fe31b23'], 'roleList': [{'description': '系统默认角色', 'gmtCreate': 1561533973000, 'gmtModified': 1561533973000, 'isDefault': 0, 'offStatus': 0, 'roleId': '1e56829e-83a0-48ec-86ca-6530a0b673bd', 'roleName': '管理员', 'tenantId': '_1NTMWLA'}, {'description': '系统默认角色', 'gmtCreate': 1561533972000, 'gmtModified': 1561533972000, 'isDefault': 1, 'offStatus': 0, 'roleId': '515e555c-f319-4989-8457-c89a4b286218', 'roleName': '超级管理员', 'tenantId': '_1NTMWLA'}, {'description': '系统默认角色', 'gmtCreate': 1561533973000, 'gmtModified': 1561533973000, 'isDefault': 0, 'offStatus': 0, 'roleId': '8ddc45a6-b7b5-477e-9431-eee41fe31b23', 'roleName': '客服', 'tenantId': '_1NTMWLA'}], 'skillGroupIds': ['06d786f7-d7ef-4585-adfa-49b0ca23c974', '162babff-74c6-4cc5-b40b-3344de43b7c6', '1fa50dc4-5520-4b58-8990-acad3baa5a89', '713b4b4f-97bb-49c5-847b-e2fb67a637ee', 'dc14c144-a9bb-4beb-ad0a-2df4be155623', 'e37d7488-7a6b-4863-8d8b-0115b21ca0f8'], 'skillGroupList': [{'description': '大额信贷咨询', 'disableEnable': True, 'gmtCreate': 1571300957000, 'gmtModified': 1572858927000, 'id': 39, 'name': '大额信贷', 'skillGroupId': '06d786f7-d7ef-4585-adfa-49b0ca23c974', 'tenantId': '_1NTMWLA', 'type': 1}, {'description': 'yangnk2', 'disableEnable': True, 'gmtCreate': 1561602477000, 'gmtModified': 1561602477000, 'id': 35, 'name': 'yangnk2', 'skillGroupId': '162babff-74c6-4cc5-b40b-3344de43b7c6', 'tenantId': '_1NTMWLA', 'type': 1}, {'description': 'zhang', 'disableEnable': True, 'gmtCreate': 1561539202000, 'gmtModified': 1561539210000, 'id': 34, 'name': 'zhang003', 'skillGroupId': '1fa50dc4-5520-4b58-8990-acad3baa5a89', 'tenantId': '_1NTMWLA', 'type': 1}, {'description': 'yangnk5', 'disableEnable': True, 'gmtCreate': 1561622859000, 'gmtModified': 1561622859000, 'id': 38, 'name': 'yangnk5', 'skillGroupId': '713b4b4f-97bb-49c5-847b-e2fb67a637ee', 'tenantId': '_1NTMWLA', 'type': 1}, {'description': 'zhang', 'disableEnable': True, 'gmtCreate': 1561534179000, 'gmtModified': 1561636728000, 'id': 32, 'name': 'zhang001', 'skillGroupId': 'dc14c144-a9bb-4beb-ad0a-2df4be155623', 'tenantId': '_1NTMWLA', 'type': 1}, {'description': 'zhang', 'disableEnable': True, 'gmtCreate': 1561534192000, 'gmtModified': 1561534192000, 'id': 33, 'name': 'zhang002', 'skillGroupId': 'e37d7488-7a6b-4863-8d8b-0115b21ca0f8', 'tenantId': '_1NTMWLA', 'type': 1}], 'staffId': 's_91999a546be64f6b81990735bc717910', 'staffName': 'yu', 'tenantId': '_1NTMWLA', 'username': 'caoyu'}, {'avatar': '', 'displayName': 'test', 'id': 48, 'isDeleted': 0, 'isEnable': 1, 'jobNumber': '08908', 'level': 35, 'organization': 0, 'password': '08908', 'phone': '13200999999', 'roleIds': ['1e56829e-83a0-48ec-86ca-6530a0b673bd', '515e555c-f319-4989-8457-c89a4b286218', '551f4e96-6d42-47a1-b1cf-51735ae45615', '8ddc45a6-b7b5-477e-9431-eee41fe31b23'], 'roleList': [{'description': '系统默认角色', 'gmtCreate': 1561533973000, 'gmtModified': 1561533973000, 'isDefault': 0, 'offStatus': 0, 'roleId': '1e56829e-83a0-48ec-86ca-6530a0b673bd', 'roleName': '管理员', 'tenantId': '_1NTMWLA'}, {'description': '系统默认角色', 'gmtCreate': 1561533972000, 'gmtModified': 1561533972000, 'isDefault': 1, 'offStatus': 0, 'roleId': '515e555c-f319-4989-8457-c89a4b286218', 'roleName': '超级管理员', 'tenantId': '_1NTMWLA'}, {'description': '系统默认', 'gmtCreate': 1561533973000, 'gmtModified': 1561533973000, 'isDefault': 1, 'offStatus': 0, 'roleId': '551f4e96-6d42-47a1-b1cf-51735ae45615', 'roleName': '访客', 'tenantId': '_1NTMWLA'}, {'description': '系统默认角色', 'gmtCreate': 1561533973000, 'gmtModified': 1561533973000, 'isDefault': 0, 'offStatus': 0, 'roleId': '8ddc45a6-b7b5-477e-9431-eee41fe31b23', 'roleName': '客服', 'tenantId': '_1NTMWLA'}], 'skillGroupIds': ['1a36c5c8-8d45-4dc0-a406-5b2ceda3776c'], 'skillGroupList': [{'description': '借记卡咨询', 'disableEnable': True, 'gmtCreate': 1572858636000, 'gmtModified': 1572858636000, 'id': 44, 'name': '借记卡', 'skillGroupId': '1a36c5c8-8d45-4dc0-a406-5b2ceda3776c', 'tenantId': '_1NTMWLA', 'type': 1}], 'staffId': 's_ba4d29558af446068d5817c0a4f9966e', 'staffName': 'test', 'tenantId': '_1NTMWLA', 'username': 'test'}, {'avatar': 'http://47.110.131.231:8008/customer_service.svg', 'displayName': 'xujm', 'entryTime': 1571390972000, 'id': 47, 'isDeleted': 0, 'isEnable': 1, 'jobNumber': '0138', 'level': 10, 'organization': 0, 'password': '0138', 'phone': '15925649020', 'roleIds': ['1e56829e-83a0-48ec-86ca-6530a0b673bd', '515e555c-f319-4989-8457-c89a4b286218', '551f4e96-6d42-47a1-b1cf-51735ae45615', '8ddc45a6-b7b5-477e-9431-eee41fe31b23'], 'roleList': [{'description': '系统默认角色', 'gmtCreate': 1561533973000, 'gmtModified': 1561533973000, 'isDefault': 0, 'offStatus': 0, 'roleId': '1e56829e-83a0-48ec-86ca-6530a0b673bd', 'roleName': '管理员', 'tenantId': '_1NTMWLA'}, {'description': '系统默认角色', 'gmtCreate': 1561533972000, 'gmtModified': 1561533972000, 'isDefault': 1, 'offStatus': 0, 'roleId': '515e555c-f319-4989-8457-c89a4b286218', 'roleName': '超级管理员', 'tenantId': '_1NTMWLA'}, {'description': '系统默认', 'gmtCreate': 1561533973000, 'gmtModified': 1561533973000, 'isDefault': 1, 'offStatus': 0, 'roleId': '551f4e96-6d42-47a1-b1cf-51735ae45615', 'roleName': '访客', 'tenantId': '_1NTMWLA'}, {'description': '系统默认角色', 'gmtCreate': 1561533973000, 'gmtModified': 1561533973000, 'isDefault': 0, 'offStatus': 0, 'roleId': '8ddc45a6-b7b5-477e-9431-eee41fe31b23', 'roleName': '客服', 'tenantId': '_1NTMWLA'}], 'skillGroupIds': ['dc14c144-a9bb-4beb-ad0a-2df4be155623', 'e37d7488-7a6b-4863-8d8b-0115b21ca0f8'], 'skillGroupList': [{'description': 'zhang', 'disableEnable': True, 'gmtCreate': 1561534179000, 'gmtModified': 1561636728000, 'id': 32, 'name': 'zhang001', 'skillGroupId': 'dc14c144-a9bb-4beb-ad0a-2df4be155623', 'tenantId': '_1NTMWLA', 'type': 1}, {'description': 'zhang', 'disableEnable': True, 'gmtCreate': 1561534192000, 'gmtModified': 1561534192000, 'id': 33, 'name': 'zhang002', 'skillGroupId': 'e37d7488-7a6b-4863-8d8b-0115b21ca0f8', 'tenantId': '_1NTMWLA', 'type': 1}], 'staffId': 's_ede14430991843dc8eca411432a2cb79', 'staffName': 'xujm', 'tenantId': '_1NTMWLA', 'username': 'xujm'}, {'avatar': 'http://47.110.131.231:8008/customer_service.svg', 'displayName': 'cc', 'entryTime': 1571390158000, 'id': 46, 'isDeleted': 0, 'isEnable': 1, 'jobNumber': '001', 'level': 5, 'organization': 0, 'password': '001', 'phone': '18758882514', 'roleIds': ['1e56829e-83a0-48ec-86ca-6530a0b673bd', '515e555c-f319-4989-8457-c89a4b286218', '8ddc45a6-b7b5-477e-9431-eee41fe31b23'], 'roleList': [{'description': '系统默认角色', 'gmtCreate': 1561533973000, 'gmtModified': 1561533973000, 'isDefault': 0, 'offStatus': 0, 'roleId': '1e56829e-83a0-48ec-86ca-6530a0b673bd', 'roleName': '管理员', 'tenantId': '_1NTMWLA'}, {'description': '系统默认角色', 'gmtCreate': 1561533972000, 'gmtModified': 1561533972000, 'isDefault': 1, 'offStatus': 0, 'roleId': '515e555c-f319-4989-8457-c89a4b286218', 'roleName': '超级管理员', 'tenantId': '_1NTMWLA'}, {'description': '系统默认角色', 'gmtCreate': 1561533973000, 'gmtModified': 1561533973000, 'isDefault': 0, 'offStatus': 0, 'roleId': '8ddc45a6-b7b5-477e-9431-eee41fe31b23', 'roleName': '客服', 'tenantId': '_1NTMWLA'}], 'skillGroupIds': ['dc14c144-a9bb-4beb-ad0a-2df4be155623', 'e37d7488-7a6b-4863-8d8b-0115b21ca0f8'], 'skillGroupList': [{'description': 'zhang', 'disableEnable': True, 'gmtCreate': 1561534179000, 'gmtModified': 1561636728000, 'id': 32, 'name': 'zhang001', 'skillGroupId': 'dc14c144-a9bb-4beb-ad0a-2df4be155623', 'tenantId': '_1NTMWLA', 'type': 1}, {'description': 'zhang', 'disableEnable': True, 'gmtCreate': 1561534192000, 'gmtModified': 1561534192000, 'id': 33, 'name': 'zhang002', 'skillGroupId': 'e37d7488-7a6b-4863-8d8b-0115b21ca0f8', 'tenantId': '_1NTMWLA', 'type': 1}], 'staffId': 's_85755b2aad654b59bda7865ee8cd5caf', 'staffName': 'cyq', 'tenantId': '_1NTMWLA', 'username': 'cyq123'}, {'avatar': '', 'displayName': 'liuhq', 'id': 45, 'isDeleted': 0, 'isEnable': 1, 'jobNumber': '00009', 'level': 20, 'organization': 0, 'password': '00009', 'phone': '13200000000', 'roleIds': ['1e56829e-83a0-48ec-86ca-6530a0b673bd', 'b603d303-882e-4ab9-90d0-e30864d95eca'], 'roleList': [{'description': '系统默认角色', 'gmtCreate': 1561533973000, 'gmtModified': 1561533973000, 'isDefault': 0, 'offStatus': 0, 'roleId': '1e56829e-83a0-48ec-86ca-6530a0b673bd', 'roleName': '管理员', 'tenantId': '_1NTMWLA'}, {'description': '系统默认角色', 'gmtCreate': 1571292711000, 'gmtModified': 1571293474000, 'isDefault': 0, 'offStatus': 0, 'roleId': 'b603d303-882e-4ab9-90d0-e30864d95eca', 'roleName': '质检', 'tenantId': '_1NTMWLA'}], 'skillGroupIds': ['06d786f7-d7ef-4585-adfa-49b0ca23c974'], 'skillGroupList': [{'description': '大额信贷咨询', 'disableEnable': True, 'gmtCreate': 1571300957000, 'gmtModified': 1572858927000, 'id': 39, 'name': '大额信贷', 'skillGroupId': '06d786f7-d7ef-4585-adfa-49b0ca23c974', 'tenantId': '_1NTMWLA', 'type': 1}], 'staffId': 's_014fc0c1753040a98c707182bf42f4d3', 'staffName': 'liuhq', 'tenantId': '_1NTMWLA', 'username': 'liuhq'}, {'avatar': 'http://47.97.152.55:8008/customer_service.svg', 'displayName': 'liuwc', 'entryTime': 1569383417000, 'id': 44, 'isDeleted': 0, 'isEnable': 1, 'jobNumber': '03133', 'level': 10, 'organization': 0, 'password': '03133', 'phone': '17799144017', 'roleIds': ['515e555c-f319-4989-8457-c89a4b286218'], 'roleList': [{'description': '系统默认角色', 'gmtCreate': 1561533972000, 'gmtModified': 1561533972000, 'isDefault': 1, 'offStatus': 0, 'roleId': '515e555c-f319-4989-8457-c89a4b286218', 'roleName': '超级管理员', 'tenantId': '_1NTMWLA'}], 'skillGroupIds': ['a3df8ba4-bd01-4e83-bfdc-b4cf0b662886', 'e37d7488-7a6b-4863-8d8b-0115b21ca0f8'], 'skillGroupList': [{'description': '外汇咨询', 'disableEnable': True, 'gmtCreate': 1571916315000, 'gmtModified': 1572858877000, 'id': 42, 'name': '外汇', 'skillGroupId': 'a3df8ba4-bd01-4e83-bfdc-b4cf0b662886', 'tenantId': '_1NTMWLA', 'type': 1}, {'description': 'zhang', 'disableEnable': True, 'gmtCreate': 1561534192000, 'gmtModified': 1561534192000, 'id': 33, 'name': 'zhang002', 'skillGroupId': 'e37d7488-7a6b-4863-8d8b-0115b21ca0f8', 'tenantId': '_1NTMWLA', 'type': 1}], 'staffId': 's_3d2ce1f6dd4b4ca8917664aee580e960', 'staffName': 'liuwc', 'tenantId': '_1NTMWLA', 'username': 'liuwc'}, {'avatar': '', 'displayName': 'zgh', 'id': 43, 'isDeleted': 0, 'isEnable': 1, 'jobNumber': '007', 'level': 5, 'organization': 0, 'password': '007', 'phone': '13122222222', 'roleIds': ['1e56829e-83a0-48ec-86ca-6530a0b673bd', '515e555c-f319-4989-8457-c89a4b286218', '8ddc45a6-b7b5-477e-9431-eee41fe31b23'], 'roleList': [{'description': '系统默认角色', 'gmtCreate': 1561533973000, 'gmtModified': 1561533973000, 'isDefault': 0, 'offStatus': 0, 'roleId': '1e56829e-83a0-48ec-86ca-6530a0b673bd', 'roleName': '管理员', 'tenantId': '_1NTMWLA'}, {'description': '系统默认角色', 'gmtCreate': 1561533972000, 'gmtModified': 1561533972000, 'isDefault': 1, 'offStatus': 0, 'roleId': '515e555c-f319-4989-8457-c89a4b286218', 'roleName': '超级管理员', 'tenantId': '_1NTMWLA'}, {'description': '系统默认角色', 'gmtCreate': 1561533973000, 'gmtModified': 1561533973000, 'isDefault': 0, 'offStatus': 0, 'roleId': '8ddc45a6-b7b5-477e-9431-eee41fe31b23', 'roleName': '客服', 'tenantId': '_1NTMWLA'}], 'skillGroupIds': ['dc14c144-a9bb-4beb-ad0a-2df4be155623'], 'skillGroupList': [{'description': 'zhang', 'disableEnable': True, 'gmtCreate': 1561534179000, 'gmtModified': 1561636728000, 'id': 32, 'name': 'zhang001', 'skillGroupId': 'dc14c144-a9bb-4beb-ad0a-2df4be155623', 'tenantId': '_1NTMWLA', 'type': 1}], 'staffId': 's_5218ea681e1e436cb03a3151b97bdf9f', 'staffName': '章广华', 'tenantId': '_1NTMWLA', 'username': 'zgh'}, {'avatar': 'http://47.97.152.55:8008/customer_service.svg', 'displayName': 'yangnk5', 'entryTime': 1561622878000, 'id': 38, 'isDeleted': 0, 'isEnable': 1, 'jobNumber': 'yangnk5', 'level': 5, 'organization': 0, 'password': 'yangnk5', 'phone': '13888888888', 'roleIds': ['1e56829e-83a0-48ec-86ca-6530a0b673bd'], 'roleList': [{'description': '系统默认角色', 'gmtCreate': 1561533973000, 'gmtModified': 1561533973000, 'isDefault': 0, 'offStatus': 0, 'roleId': '1e56829e-83a0-48ec-86ca-6530a0b673bd', 'roleName': '管理员', 'tenantId': '_1NTMWLA'}], 'skillGroupIds': ['713b4b4f-97bb-49c5-847b-e2fb67a637ee'], 'skillGroupList': [{'description': 'yangnk5', 'disableEnable': True, 'gmtCreate': 1561622859000, 'gmtModified': 1561622859000, 'id': 38, 'name': 'yangnk5', 'skillGroupId': '713b4b4f-97bb-49c5-847b-e2fb67a637ee', 'tenantId': '_1NTMWLA', 'type': 1}], 'staffId': 's_2fe3875c390040b489b644cc5c1ae0e2', 'staffName': 'yangnk5', 'tenantId': '_1NTMWLA', 'username': 'yangnk5'}, {'avatar': 'http://citydozhinengkefu.oss-cn-hangzhou.aliyuncs.com/pic_test//avatar_ab3abdc2fc194674beede81eac9a898b.jpg?Expires=1603505792&amp;OSSAccessKeyId=LTAIeeyxnykXoM0A&amp;Signature=oJCeSM42fTfS0YLPP5dxEgHkCn4%3D', 'displayName': 'yangnk4', 'entryTime': 1561614657000, 'id': 37, 'isDeleted': 0, 'isEnable': 1, 'jobNumber': 'yangnk4', 'level': 5, 'organization': 34, 'password': 'yangnk4', 'phone': '13888888888', 'roleIds': ['1e56829e-83a0-48ec-86ca-6530a0b673bd'], 'roleList': [{'description': '系统默认角色', 'gmtCreate': 1561533973000, 'gmtModified': 1561533973000, 'isDefault': 0, 'offStatus': 0, 'roleId': '1e56829e-83a0-48ec-86ca-6530a0b673bd', 'roleName': '管理员', 'tenantId': '_1NTMWLA'}], 'skillGroupIds': ['66c6822a-5b07-484f-ae4a-720523ba8962', '713b4b4f-97bb-49c5-847b-e2fb67a637ee'], 'skillGroupList': [{'description': 'yangnk4', 'disableEnable': True, 'gmtCreate': 1561614625000, 'gmtModified': 1561614625000, 'id': 37, 'name': 'yangnk4', 'skillGroupId': '66c6822a-5b07-484f-ae4a-720523ba8962', 'tenantId': '_1NTMWLA', 'type': 1}, {'description': 'yangnk5', 'disableEnable': True, 'gmtCreate': 1561622859000, 'gmtModified': 1561622859000, 'id': 38, 'name': 'yangnk5', 'skillGroupId': '713b4b4f-97bb-49c5-847b-e2fb67a637ee', 'tenantId': '_1NTMWLA', 'type': 1}], 'staffId': 's_22d9469d2d56464b84320fbf0c4a237c', 'staffName': 'yangnk4', 'tenantId': '_1NTMWLA', 'username': 'yangnk4'}, {'avatar': '', 'displayName': 'yangnk3', 'id': 36, 'isDeleted': 0, 'isEnable': 1, 'jobNumber': 'yangnk3', 'level': 25, 'organization': 0, 'password': 'yangnk3', 'phone': '13888888888', 'roleIds': ['1e56829e-83a0-48ec-86ca-6530a0b673bd', '551f4e96-6d42-47a1-b1cf-51735ae45615', '8ddc45a6-b7b5-477e-9431-eee41fe31b23', 'b603d303-882e-4ab9-90d0-e30864d95eca'], 'roleList': [{'description': '系统默认角色', 'gmtCreate': 1561533973000, 'gmtModified': 1561533973000, 'isDefault': 0, 'offStatus': 0, 'roleId': '1e56829e-83a0-48ec-86ca-6530a0b673bd', 'roleName': '管理员', 'tenantId': '_1NTMWLA'}, {'description': '系统默认', 'gmtCreate': 1561533973000, 'gmtModified': 1561533973000, 'isDefault': 1, 'offStatus': 0, 'roleId': '551f4e96-6d42-47a1-b1cf-51735ae45615', 'roleName': '访客', 'tenantId': '_1NTMWLA'}, {'description': '系统默认角色', 'gmtCreate': 1561533973000, 'gmtModified': 1561533973000, 'isDefault': 0, 'offStatus': 0, 'roleId': '8ddc45a6-b7b5-477e-9431-eee41fe31b23', 'roleName': '客服', 'tenantId': '_1NTMWLA'}, {'description': '系统默认角色', 'gmtCreate': 1571292711000, 'gmtModified': 1571293474000, 'isDefault': 0, 'offStatus': 0, 'roleId': 'b603d303-882e-4ab9-90d0-e30864d95eca', 'roleName': '质检', 'tenantId': '_1NTMWLA'}], 'skillGroupIds': ['1d7868eb-ea22-4c63-9728-6caea8e5ca50', '713b4b4f-97bb-49c5-847b-e2fb67a637ee'], 'skillGroupList': [{'description': 'yangnk3', 'disableEnable': True, 'gmtCreate': 1561604312000, 'gmtModified': 1561604312000, 'id': 36, 'name': 'yangnk3', 'skillGroupId': '1d7868eb-ea22-4c63-9728-6caea8e5ca50', 'tenantId': '_1NTMWLA', 'type': 1}, {'description': 'yangnk5', 'disableEnable': True, 'gmtCreate': 1561622859000, 'gmtModified': 1561622859000, 'id': 38, 'name': 'yangnk5', 'skillGroupId': '713b4b4f-97bb-49c5-847b-e2fb67a637ee', 'tenantId': '_1NTMWLA', 'type': 1}], 'staffId': 's_eebb9de18d2e4d37bcecd64778b88601', 'staffName': 'yangnk3', 'tenantId': '_1NTMWLA', 'username': 'yangnk3'}, {'avatar': '', 'displayName': 'yangnk2', 'id': 35, 'isDeleted': 0, 'isEnable': 1, 'jobNumber': 'yangnk2', 'level': 10, 'organization': 0, 'password': 'yangnk2', 'phone': '13888888888', 'roleIds': ['1e56829e-83a0-48ec-86ca-6530a0b673bd', '8ddc45a6-b7b5-477e-9431-eee41fe31b23', 'b603d303-882e-4ab9-90d0-e30864d95eca'], 'roleList': [{'description': '系统默认角色', 'gmtCreate': 1561533973000, 'gmtModified': 1561533973000, 'isDefault': 0, 'offStatus': 0, 'roleId': '1e56829e-83a0-48ec-86ca-6530a0b673bd', 'roleName': '管理员', 'tenantId': '_1NTMWLA'}, {'description': '系统默认角色', 'gmtCreate': 1561533973000, 'gmtModified': 1561533973000, 'isDefault': 0, 'offStatus': 0, 'roleId': '8ddc45a6-b7b5-477e-9431-eee41fe31b23', 'roleName': '客服', 'tenantId': '_1NTMWLA'}, {'description': '系统默认角色', 'gmtCreate': 1571292711000, 'gmtModified': 1571293474000, 'isDefault': 0, 'offStatus': 0, 'roleId': 'b603d303-882e-4ab9-90d0-e30864d95eca', 'roleName': '质检', 'tenantId': '_1NTMWLA'}], 'skillGroupIds': ['06d786f7-d7ef-4585-adfa-49b0ca23c974', '162babff-74c6-4cc5-b40b-3344de43b7c6', '1d7868eb-ea22-4c63-9728-6caea8e5ca50', '713b4b4f-97bb-49c5-847b-e2fb67a637ee'], 'skillGroupList': [{'description': '大额信贷咨询', 'disableEnable': True, 'gmtCreate': 1571300957000, 'gmtModified': 1572858927000, 'id': 39, 'name': '大额信贷', 'skillGroupId': '06d786f7-d7ef-4585-adfa-49b0ca23c974', 'tenantId': '_1NTMWLA', 'type': 1}, {'description': 'yangnk2', 'disableEnable': True, 'gmtCreate': 1561602477000, 'gmtModified': 1561602477000, 'id': 35, 'name': 'yangnk2', 'skillGroupId': '162babff-74c6-4cc5-b40b-3344de43b7c6', 'tenantId': '_1NTMWLA', 'type': 1}, {'description': 'yangnk3', 'disableEnable': True, 'gmtCreate': 1561604312000, 'gmtModified': 1561604312000, 'id': 36, 'name': 'yangnk3', 'skillGroupId': '1d7868eb-ea22-4c63-9728-6caea8e5ca50', 'tenantId': '_1NTMWLA', 'type': 1}, {'description': 'yangnk5', 'disableEnable': True, 'gmtCreate': 1561622859000, 'gmtModified': 1561622859000, 'id': 38, 'name': 'yangnk5', 'skillGroupId': '713b4b4f-97bb-49c5-847b-e2fb67a637ee', 'tenantId': '_1NTMWLA', 'type': 1}], 'staffId': 's_4d3464d78a374af18b85a2fe80a7874a', 'staffName': 'yangnk2', 'tenantId': '_1NTMWLA', 'username': 'yangnk2'}, {'avatar': '', 'displayName': '章3', 'id': 34, 'isDeleted': 0, 'isEnable': 1, 'jobNumber': '003', 'level': 5, 'organization': 0, 'password': '003', 'phone': '13622222222', 'roleIds': ['1e56829e-83a0-48ec-86ca-6530a0b673bd', '515e555c-f319-4989-8457-c89a4b286218', '8ddc45a6-b7b5-477e-9431-eee41fe31b23'], 'roleList': [{'description': '系统默认角色', 'gmtCreate': 1561533973000, 'gmtModified': 1561533973000, 'isDefault': 0, 'offStatus': 0, 'roleId': '1e56829e-83a0-48ec-86ca-6530a0b673bd', 'roleName': '管理员', 'tenantId': '_1NTMWLA'}, {'description': '系统默认角色', 'gmtCreate': 1561533972000, 'gmtModified': 1561533972000, 'isDefault': 1, 'offStatus': 0, 'roleId': '515e555c-f319-4989-8457-c89a4b286218', 'roleName': '超级管理员', 'tenantId': '_1NTMWLA'}, {'description': '系统默认角色', 'gmtCreate': 1561533973000, 'gmtModified': 1561533973000, 'isDefault': 0, 'offStatus': 0, 'roleId': '8ddc45a6-b7b5-477e-9431-eee41fe31b23', 'roleName': '客服', 'tenantId': '_1NTMWLA'}], 'skillGroupIds': ['1fa50dc4-5520-4b58-8990-acad3baa5a89', 'dc14c144-a9bb-4beb-ad0a-2df4be155623', 'e37d7488-7a6b-4863-8d8b-0115b21ca0f8'], 'skillGroupList': [{'description': 'zhang', 'disableEnable': True, 'gmtCreate': 1561539202000, 'gmtModified': 1561539210000, 'id': 34, 'name': 'zhang003', 'skillGroupId': '1fa50dc4-5520-4b58-8990-acad3baa5a89', 'tenantId': '_1NTMWLA', 'type': 1}, {'description': 'zhang', 'disableEnable': True, 'gmtCreate': 1561534179000, 'gmtModified': 1561636728000, 'id': 32, 'name': 'zhang001', 'skillGroupId': 'dc14c144-a9bb-4beb-ad0a-2df4be155623', 'tenantId': '_1NTMWLA', 'type': 1}, {'description': 'zhang', 'disableEnable': True, 'gmtCreate': 1561534192000, 'gmtModified': 1561534192000, 'id': 33, 'name': 'zhang002', 'skillGroupId': 'e37d7488-7a6b-4863-8d8b-0115b21ca0f8', 'tenantId': '_1NTMWLA', 'type': 1}], 'staffId': 's_27dc197e2b184befa8dc863f7b429bd2', 'staffName': '章广华3', 'tenantId': '_1NTMWLA', 'username': 'zhang003'}, {'avatar': 'http://citydozhinengkefu.oss-cn-hangzhou.aliyuncs.com/pic_test//avatar_3a1854c438a9403b941c340e1e9c7582.jpg?Expires=1603439974&amp;OSSAccessKeyId=LTAIeeyxnykXoM0A&amp;Signature=gL3ZYCuPJpyvx3oqWVCFlAlJtwQ%3D', 'displayName': 'zhang002', 'id': 33, 'isDeleted': 0, 'isEnable': 1, 'jobNumber': '002', 'level': 5, 'organization': 0, 'password': '002', 'phone': '13622222222', 'roleIds': ['1e56829e-83a0-48ec-86ca-6530a0b673bd', '515e555c-f319-4989-8457-c89a4b286218', '8ddc45a6-b7b5-477e-9431-eee41fe31b23', 'b603d303-882e-4ab9-90d0-e30864d95eca'], 'roleList': [{'description': '系统默认角色', 'gmtCreate': 1561533973000, 'gmtModified': 1561533973000, 'isDefault': 0, 'offStatus': 0, 'roleId': '1e56829e-83a0-48ec-86ca-6530a0b673bd', 'roleName': '管理员', 'tenantId': '_1NTMWLA'}, {'description': '系统默认角色', 'gmtCreate': 1561533972000, 'gmtModified': 1561533972000, 'isDefault': 1, 'offStatus': 0, 'roleId': '515e555c-f319-4989-8457-c89a4b286218', 'roleName': '超级管理员', 'tenantId': '_1NTMWLA'}, {'description': '系统默认角色', 'gmtCreate': 1561533973000, 'gmtModified': 1561533973000, 'isDefault': 0, 'offStatus': 0, 'roleId': '8ddc45a6-b7b5-477e-9431-eee41fe31b23', 'roleName': '客服', 'tenantId': '_1NTMWLA'}, {'description': '系统默认角色', 'gmtCreate': 1571292711000, 'gmtModified': 1571293474000, 'isDefault': 0, 'offStatus': 0, 'roleId': 'b603d303-882e-4ab9-90d0-e30864d95eca', 'roleName': '质检', 'tenantId': '_1NTMWLA'}], 'skillGroupIds': ['e37d7488-7a6b-4863-8d8b-0115b21ca0f8'], 'skillGroupList': [{'description': 'zhang', 'disableEnable': True, 'gmtCreate': 1561534192000, 'gmtModified': 1561534192000, 'id': 33, 'name': 'zhang002', 'skillGroupId': 'e37d7488-7a6b-4863-8d8b-0115b21ca0f8', 'tenantId': '_1NTMWLA', 'type': 1}], 'staffId': 's_b17fc5b87921489788024c30229f0528', 'staffName': 'zhang002', 'tenantId': '_1NTMWLA', 'username': 'zhang002'}, {'avatar': '/static/media/line_icon_photo01.646c3740.svg', 'displayName': '章', 'id': 32, 'isDeleted': 0, 'isEnable': 1, 'jobNumber': '001', 'level': 100, 'organization': 33, 'password': '001', 'phone': '13622222222', 'roleIds': ['1e56829e-83a0-48ec-86ca-6530a0b673bd', '27acc809-03ab-4050-92d5-5f092678b8ed', '515e555c-f319-4989-8457-c89a4b286218', '8ddc45a6-b7b5-477e-9431-eee41fe31b23', 'b603d303-882e-4ab9-90d0-e30864d95eca'], 'roleList': [{'description': '系统默认角色', 'gmtCreate': 1561533973000, 'gmtModified'</t>
   </si>
   <si>
     <t>客服列表-选择数据导出Excel</t>
@@ -911,10 +917,10 @@
     <t>/v1/tenants/_1NTMWLA/staffsExport</t>
   </si>
   <si>
-    <t>{'staffIds':'s_2fe3875c390040b489b644cc5c1ae0e2'}</t>
-  </si>
-  <si>
-    <t>{'baseSuccess': True, 'fileName': 'staff_1564993454002.xlsx', 'httpStatusCode': 0}</t>
+    <t>{'staffIds':['s_3d2ce1f6dd4b4ca8917664aee580e960','s_5218ea681e1e436cb03a3151b97bdf9f']}</t>
+  </si>
+  <si>
+    <t>{'baseSuccess': True, 'fileName': 'http://citydozhinengkefu.oss-cn-hangzhou.aliyuncs.com/file_test/staff_1574670024943.xlsx?Expires=1606206025&amp;OSSAccessKeyId=LTAIeeyxnykXoM0A&amp;Signature=jBxta4ogmk6Wv%2Bibyqeu5jAPDq4%3D', 'httpStatusCode': 0}</t>
   </si>
   <si>
     <t>功能管理-客户分流-修改客户分流接口-客户技能优先级true开启</t>
@@ -959,7 +965,7 @@
     <t>/v1/tenants/_1NTMWLA/visitorId/v_a_0d644fee1c7546f5af7bc3a84736948f/queryVisitorInfo</t>
   </si>
   <si>
-    <t>{'baseSuccess': True, 'chats': [{'endTime': 1563846507836, 'groupSessionId': 'cf8ccbbb575c4df7bd8de0c4eac9bb7d', 'prevSessionId': '533fc252a1884e02a8d8a587928e6edb', 'sessionId': '99b916bda54b498db1caf34367a69af0', 'sessionStatus': 1, 'skillGroupId': 'dc14c144-a9bb-4beb-ad0a-2df4be155623', 'staffAvatar': '/static/media/line_icon_photo01.646c3740.svg', 'staffId': 's_819aee8ed8554b9f82e8d6302c8d2411', 'staffName': '章广华', 'startTime': 1563844699926, 'tenantId': '_1NTMWLA', 'userId': 'v_a_0d644fee1c7546f5af7bc3a84736948f', 'userName': 'anonymous'}], 'httpStatusCode': 0, 'openId': 'v_a_0d644fee1c7546f5af7bc3a84736948f', 'personasLabel': '', 'userName': 'anonymous'}</t>
+    <t>{'avatar': '', 'baseSuccess': True, 'chats': [{'endTime': 1563846507836, 'groupSessionId': 'cf8ccbbb575c4df7bd8de0c4eac9bb7d', 'prevSessionId': '533fc252a1884e02a8d8a587928e6edb', 'sessionId': '99b916bda54b498db1caf34367a69af0', 'sessionStatus': 1, 'skillGroupId': 'dc14c144-a9bb-4beb-ad0a-2df4be155623', 'staffAvatar': '/static/media/line_icon_photo01.646c3740.svg', 'staffId': 's_819aee8ed8554b9f82e8d6302c8d2411', 'staffName': '章广华', 'startTime': 1563844699926, 'tenantId': '_1NTMWLA', 'userId': 'v_a_0d644fee1c7546f5af7bc3a84736948f', 'userName': 'anonymous'}], 'httpStatusCode': 0, 'openId': 'v_a_0d644fee1c7546f5af7bc3a84736948f', 'personasLabel': '', 'userName': 'anonymous'}</t>
   </si>
   <si>
     <t>客服状态-退出登陆</t>
@@ -971,7 +977,7 @@
     <t>客服状态-上线-客户端接入前置条件</t>
   </si>
   <si>
-    <t>{'baseSuccess': True, 'httpStatusCode': 0, 'status': 'online', 'token': {'tokenCreateTime': 1564993461556, 'value': 'fba08023a8434c28af45af57ae0a76a0'}}</t>
+    <t>{'baseSuccess': True, 'httpStatusCode': 0, 'status': 'online', 'test': '2a7caaf7d5e6488fa43457f82e14f83d', 'token': {'tokenCreateTime': 1574670029900, 'value': '2a7caaf7d5e6488fa43457f82e14f83d'}}</t>
   </si>
   <si>
     <t>客户端-客户端创建聊天会话</t>
@@ -983,7 +989,7 @@
     <t>{"windowId":"WIN00000001","os":'null',"device":'null',"channel":"pc"}</t>
   </si>
   <si>
-    <t>{'baseSuccess': True, 'groupSessionId': 'f8922b66c8d04a28bcbf23c98ff63c8f', 'httpStatusCode': 0, 'isNewSession': True, 'uid': 'v_a_5248f722d13b4e29a800cc9de80e96e9'}</t>
+    <t>{'baseSuccess': True, 'groupSessionId': '16ed30e1f1894df3827b50f3d3bd66b8', 'httpStatusCode': 0, 'isAskForm': '', 'isNewSession': True, 'uid': 'v_a_3c8006e0710f4fb294596d82bfc427a5'}</t>
   </si>
   <si>
     <t>GET_kh</t>
@@ -1001,94 +1007,91 @@
     <t>/v1/tenants/_1NTMWLA/users/%s/visitor</t>
   </si>
   <si>
-    <t>{"1":8}</t>
+    <t>{"my_sql": "select * from chat where tenant_id=%s ORDER BY id DESC LIMIT 1 ", "condition": "_1NTMWLA","result": "1","1":8, "code": 0}</t>
+  </si>
+  <si>
+    <t>{'avatar': '', 'baseSuccess': True, 'chats': [], 'httpStatusCode': 0, 'openId': 'v_a_702552f38c1c4fb3a77707be2cb2921f', 'personasLabel': '', 'userName': 'anonymous'}</t>
+  </si>
+  <si>
+    <t>客户端-获取系统配置信息</t>
+  </si>
+  <si>
+    <t>/v1/tenants/_1NTMWLA/window-to-visitor/WIN00000001</t>
+  </si>
+  <si>
+    <t>{'baseSuccess': True, 'globalConfigList': [{'configCode': 'MAX_HISTORY_MESSAGE_NUMBER', 'configDescription': '', 'configName': 'maxHistoryMessageNumber', 'configState': False, 'configType': 0, 'configValue': '30', 'tenantId': '_1NTMWLA'}, {'configCode': 'CRM_URL', 'configDescription': '', 'configName': 'crmUrl', 'configState': False, 'configType': 0, 'configValue': '2', 'tenantId': '_1NTMWLA'}, {'configCode': 'REPORT_URL', 'configDescription': '', 'configName': 'ReportUrl', 'configState': False, 'configType': 0, 'configValue': '114', 'tenantId': '_1NTMWLA'}, {'configCode': 'MQ_URL', 'configDescription': '', 'configName': 'maxHistoryMessageNumber', 'configState': False, 'configType': 0, 'configValue': '30', 'tenantId': '_1NTMWLA'}, {'configCode': 'TRANSFER_CONFIRMATION', 'configDescription': '', 'configName': 'transferConfirmation', 'configState': True, 'configType': 0, 'configValue': 'true', 'tenantId': '_1NTMWLA'}, {'configCode': 'INPUT_INSTRUCTIONS', 'configDescription': '', 'configName': 'inputInstructions', 'configState': True, 'configType': 0, 'configValue': 'true', 'tenantId': '_1NTMWLA'}, {'configCode': 'REPEATED_CONSULTATION', 'configDescription': '', 'configName': 'repeatedConsultation', 'configState': True, 'configType': 0, 'configValue': 'true', 'tenantId': '_1NTMWLA'}, {'configCode': 'DISPLAY_AVATAR', 'configDescription': '', 'configName': 'displayAvatar', 'configState': False, 'configType': 1, 'configValue': 'staff', 'tenantId': '_1NTMWLA'}, {'configCode': 'CORPORATION_LOGO', 'configDescription': '', 'configName': 'corporationLogo', 'configState': False, 'configType': 1, 'configValue': '', 'tenantId': '_1NTMWLA'}, {'configCode': 'UNFINISHED_SERVICE_CLASS_REMINDER', 'configDescription': '', 'configName': 'unfinishedServiceClassReminder', 'configState': False, 'configType': 1, 'configValue': 'true', 'tenantId': '_1NTMWLA'}, {'configCode': 'STAFF_TIMEOUT_REMINDER', 'configDescription': '', 'configName': 'visitorTimeoutReminder', 'configState': True, 'configType': 1, 'configValue': '{"reminder":true,"words":"客户已经等候多时，请立即回复!","time":1}', 'tenantId': '_1NTMWLA'}, {'configCode': 'VISITOR_TIMEOUT_REMINDER', 'configDescription': '', 'configName': 'visitorTimeoutReminder', 'configState': True, 'configType': 1, 'configValue': '{"reminder":true,"words":"请问您还有需要咨询的内容么？","time":5}', 'tenantId': '_1NTMWLA'}, {'configCode': 'SESSION_TIMEOUT_REMINDER', 'configDescription': '', 'configName': 'visitorTimeoutReminder', 'configState': True, 'configType': 1, 'configValue': '{"reminder":true,"words":"首次响应超时，请立即回复!","time":1}', 'tenantId': '_1NTMWLA'}, {'configCode': 'WELCOME_WORDS', 'configDescription': '', 'configName': 'welcomeWords', 'configState': False, 'configType': 1, 'configValue': '您好，请问有什么可以帮您', 'tenantId': '_1NTMWLA'}, {'configCode': 'CONNECTED_SESSION_WORDS', 'configDescription': '', 'configName': 'connectedSessionWords', 'configState': True, 'configType': 1, 'configValue': '运算符通过组合其他两个结果表并消去表中任何重复行而派生出一个', 'tenantId': '_1NTMWLA'}, {'configCode': 'START_SESSION_WORDS', 'configDescription': '', 'configName': 'startSessionWords', 'configState': False, 'configType': 1, 'configValue': '正在为您转接人工服务，请稍候', 'tenantId': '_1NTMWLA'}, {'configCode': 'CLOSE_SESSION_WORDS', 'configDescription': '', 'configName': 'closeSessionWords', 'configState': True, 'configType': 1, 'configValue': '运算符通过组合其他两个结果表并消去表中任何重复行而派生出一个', 'tenantId': '_1NTMWLA'}, {'configCode': 'EVALUATION_WORDS', 'configDescription': '', 'configName': 'evaluationWords', 'configState': False, 'configType': 1, 'configValue': '感谢您的咨询，请对我们的服务做出评价，谢谢', 'tenantId': '_1NTMWLA'}, {'configCode': 'WAITING_QUEUE_WORDS', 'configDescription': '', 'configName': 'waitingQueueWords', 'configState': True, 'configType': 1, 'configValue': '运算符通过组合其他两个结果表并消去表中任何重复行而派生出一个', 'tenantId': '_1NTMWLA'}, {'configCode': 'ROBOT_ICON', 'configDescription': '', 'configName': 'robotIcon', 'configState': False, 'configType': 1, 'configValue': 'https://img.alicdn.com/tfs/TB1mvwxjvDH8KJjy1XcXXcpdXXa-160-160.png', 'tenantId': '_1NTMWLA'}, {'configCode': 'WAITING_CLOSE_WORDS', 'configDescription': '', 'configName': 'waitingCloseWords', 'configState': True, 'configType': 1, 'configValue': '运算符通过组合其他两个结果表并消去表中任何重复行而派生出一个', 'tenantId': '_1NTMWLA'}, {'configCode': 'MESSAGE_TO_CUSTOMER', 'configDescription': '', 'configName': 'messageToCustomer', 'configState': True, 'configType': 1, 'configValue': '"{\\"words\\":\\"运算符通过组合其他两个结果表并消去表中任何重复行而派生出一个\\",\\"tocustomer\\":true}"', 'tenantId': '_1NTMWLA'}, {'configCode': 'EVALUATION_CONTEXT', 'configDescription': '', 'configName': 'evaluationContext', 'configState': True, 'configType': 1, 'configValue': '[{"guidanceDocument":"123456789012345678901234567890","declare":"123456789012345","selectedLabel":[],"rate":5,"labelRequired":0,"guideLanguage":"欢迎给我们服务提建议〜","guideLanguageRequired":1,"label":["没解决问题","不礼貌","服务态度差","回答不及时"],"switch":0},{"guidanceDocument":"非常满意，完美","declare":"3","selectedLabel":["没解决问题","回答不及时","服务态度差","不礼貌"],"rate":4,"labelRequired":1,"guideLanguage":"123456789012345678901234567890","guideLanguageRequired":1,"label":["没解决问题","不礼貌","服务态度差","回答不及时","皎月飞光","科幻"],"switch":0},{"guidanceDocument":"非常满意，完美","declare":"123456789012345","selectedLabel":["没解决问题"],"rate":3,"labelRequired":1,"guideLanguage":"123456789012345678901234567890","guideLanguageRequired":1,"label":["没解决问题","不礼貌","服务态度差","回答不及时","皎月飞光","皎月飞光"],"switch":0},{"guidanceDocument":"非常满意，完美","declare":"123456789012345","selectedLabel":["没解决问题"],"rate":2,"labelRequired":1,"guideLanguage":"123456789012345678901234567890","guideLanguageRequired":1,"label":["没解决问题","不礼貌","服务态度差","回答不及时","皎月飞光","科幻"],"switch":0},{"guidanceDocument":"非常满意，完美","declare":"123456789012345","selectedLabel":["没解决问题"],"rate":1,"labelRequired":1,"guideLanguage":"123456789012345678901234567890","guideLanguageRequired":1,"label":["没解决问题","不礼貌","服务态度差","回答不及时","皎月飞光","魔幻"],"switch":0}]', 'tenantId': '_1NTMWLA'}, {'configCode': 'CUSTOMER_SESSION_TIPS', 'configDescription': '', 'configName': 'customerSessionTips', 'configState': True, 'configType': 1, 'configValue': 'false', 'tenantId': '_1NTMWLA'}, {'configCode': 'DISABLE_TIMEOUT_SET', 'configDescription': '', 'configName': 'disableTimeoutSet', 'configState': True, 'configType': 1, 'configValue': '{"reminder":true,"time":3}', 'tenantId': '_1NTMWLA'}], 'httpStatusCode': 0, 'noticeList': [], 'skillGroupList': [{'description': 'zhang', 'disableEnable': True, 'gmtCreate': 1561539202000, 'gmtModified': 1561539210000, 'id': 34, 'name': 'zhang003', 'skillGroupId': '1fa50dc4-5520-4b58-8990-acad3baa5a89', 'tenantId': '_1NTMWLA', 'type': 1}, {'description': 'zhang', 'disableEnable': True, 'gmtCreate': 1561534179000, 'gmtModified': 1561636728000, 'id': 32, 'name': 'zhang001', 'skillGroupId': 'dc14c144-a9bb-4beb-ad0a-2df4be155623', 'tenantId': '_1NTMWLA', 'type': 1}, {'description': 'zhang', 'disableEnable': True, 'gmtCreate': 1561534192000, 'gmtModified': 1561534192000, 'id': 33, 'name': 'zhang002', 'skillGroupId': 'e37d7488-7a6b-4863-8d8b-0115b21ca0f8', 'tenantId': '_1NTMWLA', 'type': 1}], 'windowConfig': {'artificialEntryCount': 1, 'artificialKeywords': '', 'createDate': 1561534812000, 'gmtCreate': 1561534812000, 'gmtModified': 1561534812000, 'inputDefault': '', 'robotCode': '', 'robotFlag': 0, 'skillGroupFlag': 1, 'sorryText': '', 'tenantId': '_1NTMWLA', 'title': 'zhang', 'updateDate': 1561534812000, 'voiceFlag': 0, 'windowId': 'WIN00000001'}}</t>
+  </si>
+  <si>
+    <t>客户端-获取用户的历史消息，最多返回数量可配置</t>
+  </si>
+  <si>
+    <t>/v1/tenants/_1NTMWLA/users/%s/history-messages</t>
+  </si>
+  <si>
+    <t>客户端-访客获取随机获取在线客服的技能组</t>
+  </si>
+  <si>
+    <t>/v3/tenants/_1NTMWLA/visitor/getOneSkillGroup</t>
+  </si>
+  <si>
+    <t>{'baseSuccess': True, 'httpStatusCode': 0, 'skillGroupId': 'e37d7488-7a6b-4863-8d8b-0115b21ca0f8'}</t>
+  </si>
+  <si>
+    <t>POST_kh</t>
+  </si>
+  <si>
+    <t>客户端-访客发送聊天消息（转人工请求）-event/switchToStaff</t>
+  </si>
+  <si>
+    <t>/v1/tenants/_1NTMWLA/sessions/cf8ccbbb575c4df7bd8de0c4eac9bb7d/messages/visitor</t>
+  </si>
+  <si>
+    <t>{"from":"v_a_a3a3faee9aa7442daf7f423251b35480","sentTime":1563873893952,"messageType":"event/switchToStaff","messageBody":{"skillGroupId":"dc14c144-a9bb-4beb-ad0a-2df4be155623","reason":"unknown"},"requestId":"babae400-ad2b-11e9-8277-a7ffccc9e79a","sendingStatus":"sending"}</t>
+  </si>
+  <si>
+    <t>会话已关闭</t>
+  </si>
+  <si>
+    <t>{'code': 'SessionNotExist', 'message': '会话已关闭'}</t>
+  </si>
+  <si>
+    <t>客户端-访客发送聊天消息（转人工请求）-text/plain</t>
+  </si>
+  <si>
+    <t>{"from":"v_a_a3a3faee9aa7442daf7f423251b35480","groupSessionId":"cf8ccbbb575c4df7bd8de0c4eac9bb7d","messageBody":{"inputMethod":"keyboard","message":"11111111111"},"messageId":"6556368879541551107","messageType":"text/plain","requestId":"babae400-ad2b-11e9-8277-a7ffccc9e79a","sentTime":1563160151077,"sessionId":"99b916bda54b498db1caf34367a69af0","tenantId":"_1LWHJ9M","to":"s_a75213d858f245598a1beebe2e4f3239"}</t>
+  </si>
+  <si>
+    <t>客户端-访客发送聊天消息（转人工请求）-text/html</t>
+  </si>
+  <si>
+    <t>{"from":"v_a_a3a3faee9aa7442daf7f423251b35480","sentTime":1563873893952,"messageType":"text/html","messageBody":{"skillGroupId":"dc14c144-a9bb-4beb-ad0a-2df4be155623","reason":"unknown"},"requestId":"babae400-ad2b-11e9-8277-a7ffccc9e79a","sendingStatus":"sending"}</t>
+  </si>
+  <si>
+    <t>客户端-访客发送聊天消息（转人工请求）-image/jpeg</t>
+  </si>
+  <si>
+    <t>{"from":"v_a_a3a3faee9aa7442daf7f423251b35480","sentTime":1563873893952,"messageType":"image/jpeg","messageBody":{"skillGroupId":"dc14c144-a9bb-4beb-ad0a-2df4be155623","reason":"unknown"},"requestId":"babae400-ad2b-11e9-8277-a7ffccc9e79a","sendingStatus":"sending"}</t>
+  </si>
+  <si>
+    <t>客户端-访客获取客服信息</t>
+  </si>
+  <si>
+    <t>/v1/tenants/_1NTMWLA/staff-to-visitor/s_819aee8ed8554b9f82e8d6302c8d2411</t>
+  </si>
+  <si>
+    <t>{'baseSuccess': True, 'httpStatusCode': 0, 'staffInfo': {'avatar': '/static/media/line_icon_photo01.646c3740.svg', 'displayName': '章', 'id': 32, 'isDeleted': 0, 'jobNumber': '001', 'organization': 0, 'staffId': 's_819aee8ed8554b9f82e8d6302c8d2411', 'tenantId': '_1NTMWLA', 'username': 'zhang001'}}</t>
+  </si>
+  <si>
+    <t>客户端-访客进行关闭会话，{UUID}是随机数</t>
+  </si>
+  <si>
+    <t>/v3/tenants/_1NTMWLA/sessions/{}/visitor?userId={}</t>
   </si>
   <si>
     <t>{"my_sql": "select * from chat where tenant_id=%s ORDER BY id DESC LIMIT 1 ", "condition": "_1NTMWLA","result": "1", "code": 0}</t>
   </si>
   <si>
-    <t>{'baseSuccess': True, 'chats': [], 'httpStatusCode': 0, 'openId': 'v_a_6b3f5b6d1ca84f0cafbe713b5133f023', 'personasLabel': '', 'userName': 'anonymous'}</t>
-  </si>
-  <si>
-    <t>客户端-获取系统配置信息</t>
-  </si>
-  <si>
-    <t>/v1/tenants/_1NTMWLA/window-to-visitor/WIN00000001</t>
-  </si>
-  <si>
-    <t>{'baseSuccess': True, 'globalConfigList': [{'configCode': 'MAX_HISTORY_MESSAGE_NUMBER', 'configDescription': '', 'configName': 'maxHistoryMessageNumber', 'configState': False, 'configType': 0, 'configValue': '30', 'tenantId': '_1NTMWLA'}, {'configCode': 'CRM_URL', 'configDescription': '', 'configName': 'crmUrl', 'configState': False, 'configType': 0, 'configValue': '2', 'tenantId': '_1NTMWLA'}, {'configCode': 'REPORT_URL', 'configDescription': '', 'configName': 'ReportUrl', 'configState': False, 'configType': 0, 'configValue': '114', 'tenantId': '_1NTMWLA'}, {'configCode': 'MQ_URL', 'configDescription': '', 'configName': 'maxHistoryMessageNumber', 'configState': False, 'configType': 0, 'configValue': '30', 'tenantId': '_1NTMWLA'}, {'configCode': 'TRANSFER_CONFIRMATION', 'configDescription': '', 'configName': 'transferConfirmation', 'configState': True, 'configType': 0, 'configValue': 'true', 'tenantId': '_1NTMWLA'}, {'configCode': 'INPUT_INSTRUCTIONS', 'configDescription': '', 'configName': 'inputInstructions', 'configState': False, 'configType': 0, 'configValue': 'false', 'tenantId': '_1NTMWLA'}, {'configCode': 'REPEATED_CONSULTATION', 'configDescription': '', 'configName': 'repeatedConsultation', 'configState': False, 'configType': 0, 'configValue': 'false', 'tenantId': '_1NTMWLA'}, {'configCode': 'DISPLAY_AVATAR', 'configDescription': '', 'configName': 'displayAvatar', 'configState': False, 'configType': 1, 'configValue': 'staff', 'tenantId': '_1NTMWLA'}, {'configCode': 'CORPORATION_LOGO', 'configDescription': '', 'configName': 'corporationLogo', 'configState': False, 'configType': 1, 'configValue': '', 'tenantId': '_1NTMWLA'}, {'configCode': 'UNFINISHED_SERVICE_CLASS_REMINDER', 'configDescription': '', 'configName': 'unfinishedServiceClassReminder', 'configState': False, 'configType': 1, 'configValue': 'true', 'tenantId': '_1NTMWLA'}, {'configCode': 'STAFF_TIMEOUT_REMINDER', 'configDescription': '', 'configName': 'staffTimeoutReminder', 'configState': False, 'configType': 1, 'configValue': '{"reminder":false,"words":"客服人员正在努力查询中，请稍候","time":0}', 'tenantId': '_1NTMWLA'}, {'configCode': 'VISITOR_TIMEOUT_REMINDER', 'configDescription': '', 'configName': 'visitorTimeoutReminder', 'configState': False, 'configType': 1, 'configValue': '{"reminder":false,"words":"123456789012345678901234567890","time":0}', 'tenantId': '_1NTMWLA'}, {'configCode': 'SESSION_TIMEOUT_REMINDER', 'configDescription': '', 'configName': 'sessionTimeoutReminder', 'configState': False, 'configType': 1, 'configValue': '{"reminder":true,"words":"您好，我们长时间没有收到回复，系统将结束此次会话","time":240}', 'tenantId': '_1NTMWLA'}, {'configCode': 'WELCOME_WORDS', 'configDescription': '', 'configName': 'welcomeWords', 'configState': False, 'configType': 1, 'configValue': '您好，请问有什么可以帮您', 'tenantId': '_1NTMWLA'}, {'configCode': 'CONNECTED_SESSION_WORDS', 'configDescription': '', 'configName': 'connectedSessionWords', 'configState': True, 'configType': 1, 'configValue': '运算符通过组合其他两个结果表并消去表中任何重复行而派生出一个', 'tenantId': '_1NTMWLA'}, {'configCode': 'START_SESSION_WORDS', 'configDescription': '', 'configName': 'startSessionWords', 'configState': False, 'configType': 1, 'configValue': '正在为您转接人工服务，请稍候', 'tenantId': '_1NTMWLA'}, {'configCode': 'CLOSE_SESSION_WORDS', 'configDescription': '', 'configName': 'closeSessionWords', 'configState': True, 'configType': 1, 'configValue': '运算符通过组合其他两个结果表并消去表中任何重复行而派生出一个', 'tenantId': '_1NTMWLA'}, {'configCode': 'EVALUATION_WORDS', 'configDescription': '', 'configName': 'evaluationWords', 'configState': False, 'configType': 1, 'configValue': '感谢您的咨询，请对我们的服务做出评价，谢谢', 'tenantId': '_1NTMWLA'}, {'configCode': 'WAITING_QUEUE_WORDS', 'configDescription': '', 'configName': 'waitingQueueWords', 'configState': True, 'configType': 1, 'configValue': '运算符通过组合其他两个结果表并消去表中任何重复行而派生出一个', 'tenantId': '_1NTMWLA'}, {'configCode': 'ROBOT_ICON', 'configDescription': '', 'configName': 'robotIcon', 'configState': False, 'configType': 1, 'configValue': 'https://img.alicdn.com/tfs/TB1mvwxjvDH8KJjy1XcXXcpdXXa-160-160.png', 'tenantId': '_1NTMWLA'}, {'configCode': 'WAITING_CLOSE_WORDS', 'configDescription': '', 'configName': 'waitingCloseWords', 'configState': True, 'configType': 1, 'configValue': '运算符通过组合其他两个结果表并消去表中任何重复行而派生出一个', 'tenantId': '_1NTMWLA'}, {'configCode': 'MESSAGE_TO_CUSTOMER', 'configDescription': '', 'configName': 'messageToCustomer', 'configState': True, 'configType': 1, 'configValue': '"{\\"words\\":\\"运算符通过组合其他两个结果表并消去表中任何重复行而派生出一个\\",\\"tocustomer\\":true}"', 'tenantId': '_1NTMWLA'}, {'configCode': 'EVALUATION_CONTEXT', 'configDescription': '', 'configName': 'evaluationContext', 'configState': True, 'configType': 1, 'configValue': '[{"guidanceDocument":"123456789012345678901234567890","declare":"123456789012345","selectedLabel":["没解决问题"],"rate":5,"labelRequired":1,"guideLanguage":"欢迎给我们服务提建议〜","guideLanguageRequired":1,"label":["没解决问题","不礼貌","服务态度差","回答不及时"],"switch":0},{"guidanceDocument":"非常满意，完美","declare":"3","selectedLabel":["没解决问题","回答不及时","服务态度差","不礼貌"],"rate":4,"labelRequired":1,"guideLanguage":"123456789012345678901234567890","guideLanguageRequired":1,"label":["没解决问题","不礼貌","服务态度差","回答不及时","皎月飞光","科幻"],"switch":0},{"guidanceDocument":"非常满意，完美","declare":"123456789012345","selectedLabel":["没解决问题"],"rate":3,"labelRequired":1,"guideLanguage":"123456789012345678901234567890","guideLanguageRequired":1,"label":["没解决问题","不礼貌","服务态度差","回答不及时","皎月飞光","皎月飞光"],"switch":0},{"guidanceDocument":"非常满意，完美","declare":"123456789012345","selectedLabel":["没解决问题"],"rate":2,"labelRequired":1,"guideLanguage":"123456789012345678901234567890","guideLanguageRequired":1,"label":["没解决问题","不礼貌","服务态度差","回答不及时","皎月飞光","科幻"],"switch":0},{"guidanceDocument":"非常满意，完美","declare":"123456789012345","selectedLabel":["没解决问题"],"rate":1,"labelRequired":1,"guideLanguage":"123456789012345678901234567890","guideLanguageRequired":1,"label":["没解决问题","不礼貌","服务态度差","回答不及时","皎月飞光","魔幻"],"switch":0}]', 'tenantId': '_1NTMWLA'}, {'configCode': 'CUSTOMER_SESSION_TIPS', 'configDescription': '', 'configName': 'customerSessionTips', 'configState': False, 'configType': 1, 'configValue': 'false', 'tenantId': '_1NTMWLA'}, {'configCode': 'DISABLE_TIMEOUT_SET', 'configDescription': '', 'configName': 'disableTimeoutSet', 'configState': False, 'configType': 1, 'configValue': '{"reminder":true,"time":"1"}', 'tenantId': '_1NTMWLA'}], 'httpStatusCode': 0, 'noticeList': [], 'skillGroupList': [{'description': 'zhang', 'disableEnable': True, 'gmtCreate': 1561539202000, 'gmtModified': 1561539210000, 'id': 34, 'name': 'zhang003', 'skillGroupId': '1fa50dc4-5520-4b58-8990-acad3baa5a89', 'tenantId': '_1NTMWLA', 'type': 1}, {'description': 'zhang', 'disableEnable': True, 'gmtCreate': 1561534179000, 'gmtModified': 1561636728000, 'id': 32, 'name': 'zhang001', 'skillGroupId': 'dc14c144-a9bb-4beb-ad0a-2df4be155623', 'tenantId': '_1NTMWLA', 'type': 1}, {'description': 'zhang', 'disableEnable': True, 'gmtCreate': 1561534192000, 'gmtModified': 1561534192000, 'id': 33, 'name': 'zhang002', 'skillGroupId': 'e37d7488-7a6b-4863-8d8b-0115b21ca0f8', 'tenantId': '_1NTMWLA', 'type': 1}], 'windowConfig': {'artificialEntryCount': 1, 'artificialKeywords': '', 'createDate': 1561534812000, 'gmtCreate': 1561534812000, 'gmtModified': 1561534812000, 'inputDefault': '', 'robotCode': '', 'robotFlag': 0, 'skillGroupFlag': 1, 'sorryText': '', 'tenantId': '_1NTMWLA', 'title': 'zhang', 'updateDate': 1561534812000, 'voiceFlag': 0, 'windowId': 'WIN00000001'}}</t>
-  </si>
-  <si>
-    <t>客户端-获取用户的历史消息，最多返回数量可配置</t>
-  </si>
-  <si>
-    <t>/v1/tenants/_1NTMWLA/users/%s/history-messages</t>
-  </si>
-  <si>
-    <t>[{'from': 'SYSTEM', 'groupSessionId': '0054ad74cf0745d19298cfe154c3f43f', 'messageId': '6564058357987016707', 'messageType': 'event/sessionCreated', 'sentTime': 1564993466850, 'sessionId': 'f7f926eb4c7d4c3cb6a9ddb297d7a81d', 'tenantId': '_1NTMWLA', 'to': 'SYSTEM'}]</t>
-  </si>
-  <si>
-    <t>客户端-访客获取随机获取在线客服的技能组</t>
-  </si>
-  <si>
-    <t>/v3/tenants/_1NTMWLA/visitor/getOneSkillGroup</t>
-  </si>
-  <si>
-    <t>{'baseSuccess': True, 'httpStatusCode': 0, 'skillGroupId': 'dc14c144-a9bb-4beb-ad0a-2df4be155623'}</t>
-  </si>
-  <si>
-    <t>POST_kh</t>
-  </si>
-  <si>
-    <t>客户端-访客发送聊天消息（转人工请求）-event/switchToStaff</t>
-  </si>
-  <si>
-    <t>/v1/tenants/_1NTMWLA/sessions/cf8ccbbb575c4df7bd8de0c4eac9bb7d/messages/visitor</t>
-  </si>
-  <si>
-    <t>{"from":"v_a_a3a3faee9aa7442daf7f423251b35480","sentTime":1563873893952,"messageType":"event/switchToStaff","messageBody":{"skillGroupId":"dc14c144-a9bb-4beb-ad0a-2df4be155623","reason":"unknown"},"requestId":"babae400-ad2b-11e9-8277-a7ffccc9e79a","sendingStatus":"sending"}</t>
-  </si>
-  <si>
-    <t>会话已关闭</t>
-  </si>
-  <si>
-    <t>{'code': 'SessionNotExist', 'message': '会话已关闭'}</t>
-  </si>
-  <si>
-    <t>客户端-访客发送聊天消息（转人工请求）-text/plain</t>
-  </si>
-  <si>
-    <t>{"from":"v_a_a3a3faee9aa7442daf7f423251b35480","groupSessionId":"cf8ccbbb575c4df7bd8de0c4eac9bb7d","messageBody":{"inputMethod":"keyboard","message":"11111111111"},"messageId":"6556368879541551107","messageType":"text/plain","requestId":"babae400-ad2b-11e9-8277-a7ffccc9e79a","sentTime":1563160151077,"sessionId":"99b916bda54b498db1caf34367a69af0","tenantId":"_1LWHJ9M","to":"s_a75213d858f245598a1beebe2e4f3239"}</t>
-  </si>
-  <si>
-    <t>客户端-访客发送聊天消息（转人工请求）-text/html</t>
-  </si>
-  <si>
-    <t>{"from":"v_a_a3a3faee9aa7442daf7f423251b35480","sentTime":1563873893952,"messageType":"text/html","messageBody":{"skillGroupId":"dc14c144-a9bb-4beb-ad0a-2df4be155623","reason":"unknown"},"requestId":"babae400-ad2b-11e9-8277-a7ffccc9e79a","sendingStatus":"sending"}</t>
-  </si>
-  <si>
-    <t>客户端-访客发送聊天消息（转人工请求）-image/jpeg</t>
-  </si>
-  <si>
-    <t>{"from":"v_a_a3a3faee9aa7442daf7f423251b35480","sentTime":1563873893952,"messageType":"image/jpeg","messageBody":{"skillGroupId":"dc14c144-a9bb-4beb-ad0a-2df4be155623","reason":"unknown"},"requestId":"babae400-ad2b-11e9-8277-a7ffccc9e79a","sendingStatus":"sending"}</t>
-  </si>
-  <si>
-    <t>客户端-访客获取客服信息</t>
-  </si>
-  <si>
-    <t>/v1/tenants/_1NTMWLA/staff-to-visitor/s_819aee8ed8554b9f82e8d6302c8d2411</t>
-  </si>
-  <si>
-    <t>{'baseSuccess': True, 'httpStatusCode': 0, 'staffInfo': {'avatar': '/static/media/line_icon_photo01.646c3740.svg', 'displayName': '章', 'id': 32, 'isDeleted': 0, 'jobNumber': '001', 'organization': 0, 'staffId': 's_819aee8ed8554b9f82e8d6302c8d2411', 'tenantId': '_1NTMWLA', 'username': 'zhang001'}}</t>
-  </si>
-  <si>
-    <t>客户端-访客进行关闭会话，{UUID}是随机数</t>
-  </si>
-  <si>
-    <t>/v1/tenants/_1NTMWLA/sessions/{}/visitor?userId={}</t>
-  </si>
-  <si>
-    <t>{'baseSuccess': True, 'groupSessionId': 'a08ccf9875ca495ca500dc1e69194b7a', 'httpStatusCode': 0}</t>
+    <t>{'code': 'InternalError', 'message': 'Unknown Error'}</t>
   </si>
   <si>
     <t>客服状态-小休-客户端接入前置条件</t>
@@ -1097,19 +1100,1018 @@
     <t>客服状态-离线-客户端接入前置条件</t>
   </si>
   <si>
+    <t>添加质检规则-应用范围1在线-请求成功</t>
+  </si>
+  <si>
+    <t>/qis/v1/tenant/_1NTMWLA/add-rule</t>
+  </si>
+  <si>
+    <t>{"fullScore":10,"ruleDetails":[{"ruleType":1,"scoreRank":10,"continuity":3,"repeatTime":3,"sentenceOrder":1,"start":"3","end":"15"},{"ruleType":1,"scoreRank":10,"continuity":3,"repeatTime":3,"sentenceOrder":0,"start":"3","end":"15"},{"ruleType":2,"keywords":["1","2"],"tabooWords":["1","2"],"scoreRank":10,"start":3,"end":15,"keywordHitType":1,"tabooWordHitType":3},{"ruleType":2,"keywords":["1","2"],"tabooWords":["1","2"],"scoreRank":10,"start":3,"end":15,"keywordHitType":1,"tabooWordHitType":2},{"ruleType":2,"keywords":["1","2"],"tabooWords":["1","2"],"scoreRank":10,"start":3,"end":15,"keywordHitType":2,"tabooWordHitType":3},{"ruleType":2,"keywords":["1","2"],"tabooWords":["1","2"],"scoreRank":10,"start":3,"end":15,"keywordHitType":2,"tabooWordHitType":2},{"ruleType":3,"scoreRank":10,"interval":5,"start":3,"end":15,"sentenceOrder":1},{"ruleType":3,"scoreRank":30,"interval":5,"start":3,"end":15,"sentenceOrder":0}],"skillGroupError":'false',"appliedRange":1,"ruleName":"test_zgh","standardScore":6,"skillGroupId":"e37d7488-7a6b-4863-8d8b-0115b21ca0f8"}</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>添加质检规则-应用范围0全部-请求成功</t>
+  </si>
+  <si>
+    <t>{"fullScore":10,"ruleDetails":[{"ruleType":1,"scoreRank":10,"continuity":3,"repeatTime":3,"sentenceOrder":1,"start":"3","end":"15"},{"ruleType":1,"scoreRank":10,"continuity":3,"repeatTime":3,"sentenceOrder":0,"start":"3","end":"15"},{"ruleType":2,"keywords":["1","2"],"tabooWords":["1","2"],"scoreRank":10,"start":3,"end":15,"keywordHitType":1,"tabooWordHitType":3},{"ruleType":2,"keywords":["1","2"],"tabooWords":["1","2"],"scoreRank":10,"start":3,"end":15,"keywordHitType":1,"tabooWordHitType":2},{"ruleType":2,"keywords":["1","2"],"tabooWords":["1","2"],"scoreRank":10,"start":3,"end":15,"keywordHitType":2,"tabooWordHitType":3},{"ruleType":2,"keywords":["1","2"],"tabooWords":["1","2"],"scoreRank":10,"start":3,"end":15,"keywordHitType":2,"tabooWordHitType":2},{"ruleType":3,"scoreRank":10,"interval":5,"start":3,"end":15,"sentenceOrder":1},{"ruleType":3,"scoreRank":30,"interval":5,"start":3,"end":15,"sentenceOrder":0}],"skillGroupError":'false',"appliedRange":0,"ruleName":"test_zgh","standardScore":6,"skillGroupId":"e37d7488-7a6b-4863-8d8b-0115b21ca0f8"}</t>
+  </si>
+  <si>
+    <t>添加质检规则-应用范围内容空-请求失败</t>
+  </si>
+  <si>
+    <t>{"fullScore":10,"ruleDetails":[{"ruleType":1,"scoreRank":10,"continuity":3,"repeatTime":3,"sentenceOrder":1,"start":"3","end":"15"},{"ruleType":1,"scoreRank":10,"continuity":3,"repeatTime":3,"sentenceOrder":0,"start":"3","end":"15"},{"ruleType":2,"keywords":["1","2"],"tabooWords":["1","2"],"scoreRank":10,"start":3,"end":15,"keywordHitType":1,"tabooWordHitType":3},{"ruleType":2,"keywords":["1","2"],"tabooWords":["1","2"],"scoreRank":10,"start":3,"end":15,"keywordHitType":1,"tabooWordHitType":2},{"ruleType":2,"keywords":["1","2"],"tabooWords":["1","2"],"scoreRank":10,"start":3,"end":15,"keywordHitType":2,"tabooWordHitType":3},{"ruleType":2,"keywords":["1","2"],"tabooWords":["1","2"],"scoreRank":10,"start":3,"end":15,"keywordHitType":2,"tabooWordHitType":2},{"ruleType":3,"scoreRank":10,"interval":5,"start":3,"end":15,"sentenceOrder":1},{"ruleType":3,"scoreRank":30,"interval":5,"start":3,"end":15,"sentenceOrder":0}],"skillGroupError":'false',"appliedRange":"","ruleName":"test_zgh","standardScore":6,"skillGroupId":"e37d7488-7a6b-4863-8d8b-0115b21ca0f8"}</t>
+  </si>
+  <si>
+    <t>添加质检规则-应用范围字段空-请求失败</t>
+  </si>
+  <si>
+    <t>{"fullScore":10,"ruleDetails":[{"ruleType":1,"scoreRank":10,"continuity":3,"repeatTime":3,"sentenceOrder":1,"start":"3","end":"15"},{"ruleType":1,"scoreRank":10,"continuity":3,"repeatTime":3,"sentenceOrder":0,"start":"3","end":"15"},{"ruleType":2,"keywords":["1","2"],"tabooWords":["1","2"],"scoreRank":10,"start":3,"end":15,"keywordHitType":1,"tabooWordHitType":3},{"ruleType":2,"keywords":["1","2"],"tabooWords":["1","2"],"scoreRank":10,"start":3,"end":15,"keywordHitType":1,"tabooWordHitType":2},{"ruleType":2,"keywords":["1","2"],"tabooWords":["1","2"],"scoreRank":10,"start":3,"end":15,"keywordHitType":2,"tabooWordHitType":3},{"ruleType":2,"keywords":["1","2"],"tabooWords":["1","2"],"scoreRank":10,"start":3,"end":15,"keywordHitType":2,"tabooWordHitType":2},{"ruleType":3,"scoreRank":10,"interval":5,"start":3,"end":15,"sentenceOrder":1},{"ruleType":3,"scoreRank":30,"interval":5,"start":3,"end":15,"sentenceOrder":0}],"skillGroupError":'false',"ruleName":"test_zgh","standardScore":6,"skillGroupId":"e37d7488-7a6b-4863-8d8b-0115b21ca0f8"}</t>
+  </si>
+  <si>
+    <t>添加质检规则-规则名称内容空-请求失败</t>
+  </si>
+  <si>
+    <t>{"fullScore":10,"ruleDetails":[{"ruleType":1,"scoreRank":10,"continuity":3,"repeatTime":3,"sentenceOrder":1,"start":"3","end":"15"},{"ruleType":1,"scoreRank":10,"continuity":3,"repeatTime":3,"sentenceOrder":0,"start":"3","end":"15"},{"ruleType":2,"keywords":["1","2"],"tabooWords":["1","2"],"scoreRank":10,"start":3,"end":15,"keywordHitType":1,"tabooWordHitType":3},{"ruleType":2,"keywords":["1","2"],"tabooWords":["1","2"],"scoreRank":10,"start":3,"end":15,"keywordHitType":1,"tabooWordHitType":2},{"ruleType":2,"keywords":["1","2"],"tabooWords":["1","2"],"scoreRank":10,"start":3,"end":15,"keywordHitType":2,"tabooWordHitType":3},{"ruleType":2,"keywords":["1","2"],"tabooWords":["1","2"],"scoreRank":10,"start":3,"end":15,"keywordHitType":2,"tabooWordHitType":2},{"ruleType":3,"scoreRank":10,"interval":5,"start":3,"end":15,"sentenceOrder":1},{"ruleType":3,"scoreRank":30,"interval":5,"start":3,"end":15,"sentenceOrder":0}],"skillGroupError":'false',"appliedRange":1,"ruleName":"","standardScore":6,"skillGroupId":"e37d7488-7a6b-4863-8d8b-0115b21ca0f8"}</t>
+  </si>
+  <si>
+    <t>添加质检规则-规则名称字段空-请求失败</t>
+  </si>
+  <si>
+    <t>{"fullScore":10,"ruleDetails":[{"ruleType":1,"scoreRank":10,"continuity":3,"repeatTime":3,"sentenceOrder":1,"start":"3","end":"15"},{"ruleType":1,"scoreRank":10,"continuity":3,"repeatTime":3,"sentenceOrder":0,"start":"3","end":"15"},{"ruleType":2,"keywords":["1","2"],"tabooWords":["1","2"],"scoreRank":10,"start":3,"end":15,"keywordHitType":1,"tabooWordHitType":3},{"ruleType":2,"keywords":["1","2"],"tabooWords":["1","2"],"scoreRank":10,"start":3,"end":15,"keywordHitType":1,"tabooWordHitType":2},{"ruleType":2,"keywords":["1","2"],"tabooWords":["1","2"],"scoreRank":10,"start":3,"end":15,"keywordHitType":2,"tabooWordHitType":3},{"ruleType":2,"keywords":["1","2"],"tabooWords":["1","2"],"scoreRank":10,"start":3,"end":15,"keywordHitType":2,"tabooWordHitType":2},{"ruleType":3,"scoreRank":10,"interval":5,"start":3,"end":15,"sentenceOrder":1},{"ruleType":3,"scoreRank":30,"interval":5,"start":3,"end":15,"sentenceOrder":0}],"skillGroupError":'false',"appliedRange":1,"standardScore":6,"skillGroupId":"e37d7488-7a6b-4863-8d8b-0115b21ca0f8"}</t>
+  </si>
+  <si>
+    <t>添加质检规则-标准分值内容空-请求失败</t>
+  </si>
+  <si>
+    <t>{"fullScore":10,"ruleDetails":[{"ruleType":1,"scoreRank":10,"continuity":3,"repeatTime":3,"sentenceOrder":1,"start":"3","end":"15"},{"ruleType":1,"scoreRank":10,"continuity":3,"repeatTime":3,"sentenceOrder":0,"start":"3","end":"15"},{"ruleType":2,"keywords":["1","2"],"tabooWords":["1","2"],"scoreRank":10,"start":3,"end":15,"keywordHitType":1,"tabooWordHitType":3},{"ruleType":2,"keywords":["1","2"],"tabooWords":["1","2"],"scoreRank":10,"start":3,"end":15,"keywordHitType":1,"tabooWordHitType":2},{"ruleType":2,"keywords":["1","2"],"tabooWords":["1","2"],"scoreRank":10,"start":3,"end":15,"keywordHitType":2,"tabooWordHitType":3},{"ruleType":2,"keywords":["1","2"],"tabooWords":["1","2"],"scoreRank":10,"start":3,"end":15,"keywordHitType":2,"tabooWordHitType":2},{"ruleType":3,"scoreRank":10,"interval":5,"start":3,"end":15,"sentenceOrder":1},{"ruleType":3,"scoreRank":30,"interval":5,"start":3,"end":15,"sentenceOrder":0}],"skillGroupError":'false',"appliedRange":1,"ruleName":"test_zgh","standardScore":"","skillGroupId":"e37d7488-7a6b-4863-8d8b-0115b21ca0f8"}</t>
+  </si>
+  <si>
+    <t>添加质检规则-标准分值字段空-请求失败</t>
+  </si>
+  <si>
+    <t>{"fullScore":10,"ruleDetails":[{"ruleType":1,"scoreRank":10,"continuity":3,"repeatTime":3,"sentenceOrder":1,"start":"3","end":"15"},{"ruleType":1,"scoreRank":10,"continuity":3,"repeatTime":3,"sentenceOrder":0,"start":"3","end":"15"},{"ruleType":2,"keywords":["1","2"],"tabooWords":["1","2"],"scoreRank":10,"start":3,"end":15,"keywordHitType":1,"tabooWordHitType":3},{"ruleType":2,"keywords":["1","2"],"tabooWords":["1","2"],"scoreRank":10,"start":3,"end":15,"keywordHitType":1,"tabooWordHitType":2},{"ruleType":2,"keywords":["1","2"],"tabooWords":["1","2"],"scoreRank":10,"start":3,"end":15,"keywordHitType":2,"tabooWordHitType":3},{"ruleType":2,"keywords":["1","2"],"tabooWords":["1","2"],"scoreRank":10,"start":3,"end":15,"keywordHitType":2,"tabooWordHitType":2},{"ruleType":3,"scoreRank":10,"interval":5,"start":3,"end":15,"sentenceOrder":1},{"ruleType":3,"scoreRank":30,"interval":5,"start":3,"end":15,"sentenceOrder":0}],"skillGroupError":'false',"appliedRange":1,"ruleName":"test_zgh","skillGroupId":"e37d7488-7a6b-4863-8d8b-0115b21ca0f8"}</t>
+  </si>
+  <si>
+    <t>添加质检规则-满分值内容空-请求失败</t>
+  </si>
+  <si>
+    <t>{"fullScore":"","ruleDetails":[{"ruleType":1,"scoreRank":10,"continuity":3,"repeatTime":3,"sentenceOrder":1,"start":"3","end":"15"},{"ruleType":1,"scoreRank":10,"continuity":3,"repeatTime":3,"sentenceOrder":0,"start":"3","end":"15"},{"ruleType":2,"keywords":["1","2"],"tabooWords":["1","2"],"scoreRank":10,"start":3,"end":15,"keywordHitType":1,"tabooWordHitType":3},{"ruleType":2,"keywords":["1","2"],"tabooWords":["1","2"],"scoreRank":10,"start":3,"end":15,"keywordHitType":1,"tabooWordHitType":2},{"ruleType":2,"keywords":["1","2"],"tabooWords":["1","2"],"scoreRank":10,"start":3,"end":15,"keywordHitType":2,"tabooWordHitType":3},{"ruleType":2,"keywords":["1","2"],"tabooWords":["1","2"],"scoreRank":10,"start":3,"end":15,"keywordHitType":2,"tabooWordHitType":2},{"ruleType":3,"scoreRank":10,"interval":5,"start":3,"end":15,"sentenceOrder":1},{"ruleType":3,"scoreRank":30,"interval":5,"start":3,"end":15,"sentenceOrder":0}],"skillGroupError":'false',"appliedRange":1,"ruleName":"test_zgh","standardScore":6,"skillGroupId":"e37d7488-7a6b-4863-8d8b-0115b21ca0f8"}</t>
+  </si>
+  <si>
+    <t>添加质检规则-满分值字段空-请求失败</t>
+  </si>
+  <si>
+    <t>{"ruleDetails":[{"ruleType":1,"scoreRank":10,"continuity":3,"repeatTime":3,"sentenceOrder":1,"start":"3","end":"15"},{"ruleType":1,"scoreRank":10,"continuity":3,"repeatTime":3,"sentenceOrder":0,"start":"3","end":"15"},{"ruleType":2,"keywords":["1","2"],"tabooWords":["1","2"],"scoreRank":10,"start":3,"end":15,"keywordHitType":1,"tabooWordHitType":3},{"ruleType":2,"keywords":["1","2"],"tabooWords":["1","2"],"scoreRank":10,"start":3,"end":15,"keywordHitType":1,"tabooWordHitType":2},{"ruleType":2,"keywords":["1","2"],"tabooWords":["1","2"],"scoreRank":10,"start":3,"end":15,"keywordHitType":2,"tabooWordHitType":3},{"ruleType":2,"keywords":["1","2"],"tabooWords":["1","2"],"scoreRank":10,"start":3,"end":15,"keywordHitType":2,"tabooWordHitType":2},{"ruleType":3,"scoreRank":10,"interval":5,"start":3,"end":15,"sentenceOrder":1},{"ruleType":3,"scoreRank":30,"interval":5,"start":3,"end":15,"sentenceOrder":0}],"skillGroupError":'false',"appliedRange":1,"ruleName":"test_zgh","standardScore":6,"skillGroupId":"e37d7488-7a6b-4863-8d8b-0115b21ca0f8"}</t>
+  </si>
+  <si>
+    <t>添加质检规则-应用的技能组内容空-请求失败</t>
+  </si>
+  <si>
+    <t>{"fullScore":10,"ruleDetails":[{"ruleType":1,"scoreRank":10,"continuity":3,"repeatTime":3,"sentenceOrder":1,"start":"3","end":"15"},{"ruleType":1,"scoreRank":10,"continuity":3,"repeatTime":3,"sentenceOrder":0,"start":"3","end":"15"},{"ruleType":2,"keywords":["1","2"],"tabooWords":["1","2"],"scoreRank":10,"start":3,"end":15,"keywordHitType":1,"tabooWordHitType":3},{"ruleType":2,"keywords":["1","2"],"tabooWords":["1","2"],"scoreRank":10,"start":3,"end":15,"keywordHitType":1,"tabooWordHitType":2},{"ruleType":2,"keywords":["1","2"],"tabooWords":["1","2"],"scoreRank":10,"start":3,"end":15,"keywordHitType":2,"tabooWordHitType":3},{"ruleType":2,"keywords":["1","2"],"tabooWords":["1","2"],"scoreRank":10,"start":3,"end":15,"keywordHitType":2,"tabooWordHitType":2},{"ruleType":3,"scoreRank":10,"interval":5,"start":3,"end":15,"sentenceOrder":1},{"ruleType":3,"scoreRank":30,"interval":5,"start":3,"end":15,"sentenceOrder":0}],"skillGroupError":'false',"appliedRange":1,"ruleName":"test_zgh","standardScore":6,"skillGroupId":""}</t>
+  </si>
+  <si>
+    <t>添加质检规则-应用的技能组字段空-请求失败</t>
+  </si>
+  <si>
+    <t>{"fullScore":10,"ruleDetails":[{"ruleType":1,"scoreRank":10,"continuity":3,"repeatTime":3,"sentenceOrder":1,"start":"3","end":"15"},{"ruleType":1,"scoreRank":10,"continuity":3,"repeatTime":3,"sentenceOrder":0,"start":"3","end":"15"},{"ruleType":2,"keywords":["1","2"],"tabooWords":["1","2"],"scoreRank":10,"start":3,"end":15,"keywordHitType":1,"tabooWordHitType":3},{"ruleType":2,"keywords":["1","2"],"tabooWords":["1","2"],"scoreRank":10,"start":3,"end":15,"keywordHitType":1,"tabooWordHitType":2},{"ruleType":2,"keywords":["1","2"],"tabooWords":["1","2"],"scoreRank":10,"start":3,"end":15,"keywordHitType":2,"tabooWordHitType":3},{"ruleType":2,"keywords":["1","2"],"tabooWords":["1","2"],"scoreRank":10,"start":3,"end":15,"keywordHitType":2,"tabooWordHitType":2},{"ruleType":3,"scoreRank":10,"interval":5,"start":3,"end":15,"sentenceOrder":1},{"ruleType":3,"scoreRank":30,"interval":5,"start":3,"end":15,"sentenceOrder":0}],"skillGroupError":'false',"appliedRange":1,"ruleName":"test_zgh","standardScore":6}</t>
+  </si>
+  <si>
+    <t>添加质检规则-条件设置内容空-请求失败</t>
+  </si>
+  <si>
+    <t>{"fullScore":10,"ruleDetails":"","skillGroupError":'false',"appliedRange":1,"ruleName":"test_zgh","standardScore":6,"skillGroupId":"e37d7488-7a6b-4863-8d8b-0115b21ca0f8"}</t>
+  </si>
+  <si>
+    <t>添加质检规则-条件设置字段空-请求失败</t>
+  </si>
+  <si>
+    <t>{"fullScore":10,"skillGroupError":'false',"appliedRange":1,"ruleName":"test_zgh","standardScore":6,"skillGroupId":"e37d7488-7a6b-4863-8d8b-0115b21ca0f8"}</t>
+  </si>
+  <si>
+    <t>添加质检规则-错误租户id-请求失败</t>
+  </si>
+  <si>
+    <t>/qis/v1/tenant/{tenantId}/add-rule</t>
+  </si>
+  <si>
+    <t>{'code': 'NotExistException', 'message': '租户不存在'}</t>
+  </si>
+  <si>
+    <t>修改质检规则-请求成功</t>
+  </si>
+  <si>
+    <t>/qis/v1/tenant/_1NTMWLA/update-rule</t>
+  </si>
+  <si>
+    <t>{"orderNo":"59","ruleId":59,"ruleName":"zghtest","appliedRange":1,"standardScore":6,"fullScore":10,"skillGroupName":"全部技能组","skillGroupId":"","ruleState":1,"gmtCreate":1574140960532,"gmtUpdate":1574140960532,"ruleTypes":"null","ruleDetails":[{"ruleDetailId":403,"ruleType":1,"scoreRank":100,"continuity":5,"repeatTime":5,"sentenceOrder":1,"start":2,"end":15}]}</t>
+  </si>
+  <si>
+    <t>{'1':1}</t>
+  </si>
+  <si>
+    <t>修改质检规则-应用范围0全部-请求成功</t>
+  </si>
+  <si>
+    <t>{"orderNo":"59","ruleId":59,"ruleName":"zghtest","appliedRange":0,"standardScore":6,"fullScore":10,"skillGroupName":"全部技能组","skillGroupId":"","ruleState":1,"gmtCreate":1574140960532,"gmtUpdate":1574140960532,"ruleTypes":"null","ruleDetails":[{"ruleDetailId":403,"ruleType":1,"scoreRank":100,"continuity":5,"repeatTime":5,"sentenceOrder":1,"start":2,"end":15}]}</t>
+  </si>
+  <si>
+    <t>修改质检规则-应用范围内容空-请求失败</t>
+  </si>
+  <si>
+    <t>{"orderNo":"59","ruleId":59,"ruleName":"zghtest","appliedRange":"","standardScore":6,"fullScore":10,"skillGroupName":"全部技能组","skillGroupId":"","ruleState":1,"gmtCreate":1574140960532,"gmtUpdate":1574140960532,"ruleTypes":"null","ruleDetails":[{"ruleDetailId":403,"ruleType":1,"scoreRank":100,"continuity":5,"repeatTime":5,"sentenceOrder":1,"start":2,"end":15}]}</t>
+  </si>
+  <si>
+    <t>修改质检规则-应用范围字段空-请求失败</t>
+  </si>
+  <si>
+    <t>{"orderNo":"59","ruleId":59,"ruleName":"zghtest","standardScore":6,"fullScore":10,"skillGroupName":"全部技能组","skillGroupId":"","ruleState":1,"gmtCreate":1574140960532,"gmtUpdate":1574140960532,"ruleTypes":"null","ruleDetails":[{"ruleDetailId":403,"ruleType":1,"scoreRank":100,"continuity":5,"repeatTime":5,"sentenceOrder":1,"start":2,"end":15}]}</t>
+  </si>
+  <si>
+    <t>修改质检规则-规则名称内容空-请求失败</t>
+  </si>
+  <si>
+    <t>{"orderNo":"59","ruleId":59,"ruleName":"","appliedRange":1,"standardScore":6,"fullScore":10,"skillGroupName":"全部技能组","skillGroupId":"","ruleState":1,"gmtCreate":1574140960532,"gmtUpdate":1574140960532,"ruleTypes":"null","ruleDetails":[{"ruleDetailId":403,"ruleType":1,"scoreRank":100,"continuity":5,"repeatTime":5,"sentenceOrder":1,"start":2,"end":15}]}</t>
+  </si>
+  <si>
+    <t>修改质检规则-规则名称字段空-请求失败</t>
+  </si>
+  <si>
+    <t>{"orderNo":"59","ruleId":59,"appliedRange":1,"standardScore":6,"fullScore":10,"skillGroupName":"全部技能组","skillGroupId":"","ruleState":1,"gmtCreate":1574140960532,"gmtUpdate":1574140960532,"ruleTypes":"null","ruleDetails":[{"ruleDetailId":403,"ruleType":1,"scoreRank":100,"continuity":5,"repeatTime":5,"sentenceOrder":1,"start":2,"end":15}]}</t>
+  </si>
+  <si>
+    <t>修改质检规则-标准分值内容空-请求失败</t>
+  </si>
+  <si>
+    <t>{"orderNo":"59","ruleId":59,"ruleName":"zghtest","appliedRange":1,"standardScore":"","fullScore":10,"skillGroupName":"全部技能组","skillGroupId":"","ruleState":1,"gmtCreate":1574140960532,"gmtUpdate":1574140960532,"ruleTypes":"null","ruleDetails":[{"ruleDetailId":403,"ruleType":1,"scoreRank":100,"continuity":5,"repeatTime":5,"sentenceOrder":1,"start":2,"end":15}]}</t>
+  </si>
+  <si>
+    <t>修改质检规则-标准分值字段空-请求失败</t>
+  </si>
+  <si>
+    <t>{"orderNo":"59","ruleId":59,"ruleName":"zghtest","appliedRange":1,"fullScore":10,"skillGroupName":"全部技能组","skillGroupId":"","ruleState":1,"gmtCreate":1574140960532,"gmtUpdate":1574140960532,"ruleTypes":"null","ruleDetails":[{"ruleDetailId":403,"ruleType":1,"scoreRank":100,"continuity":5,"repeatTime":5,"sentenceOrder":1,"start":2,"end":15}]}</t>
+  </si>
+  <si>
+    <t>修改质检规则-满分值内容空-请求失败</t>
+  </si>
+  <si>
+    <t>{"orderNo":"59","ruleId":59,"ruleName":"zghtest","appliedRange":1,"standardScore":6,"fullScore":"","skillGroupName":"全部技能组","skillGroupId":"","ruleState":1,"gmtCreate":1574140960532,"gmtUpdate":1574140960532,"ruleTypes":"null","ruleDetails":[{"ruleDetailId":403,"ruleType":1,"scoreRank":100,"continuity":5,"repeatTime":5,"sentenceOrder":1,"start":2,"end":15}]}</t>
+  </si>
+  <si>
+    <t>修改质检规则-满分值字段空-请求失败</t>
+  </si>
+  <si>
+    <t>{"orderNo":"59","ruleId":59,"ruleName":"zghtest","appliedRange":1,"standardScore":6,"skillGroupName":"全部技能组","skillGroupId":"","ruleState":1,"gmtCreate":1574140960532,"gmtUpdate":1574140960532,"ruleTypes":"null","ruleDetails":[{"ruleDetailId":403,"ruleType":1,"scoreRank":100,"continuity":5,"repeatTime":5,"sentenceOrder":1,"start":2,"end":15}]}</t>
+  </si>
+  <si>
+    <t>修改质检规则-应用的技能组内容空-请求失败</t>
+  </si>
+  <si>
+    <t>修改质检规则-应用的技能组字段空-请求失败</t>
+  </si>
+  <si>
+    <t>{"orderNo":"59","ruleId":59,"ruleName":"zghtest","appliedRange":1,"standardScore":6,"fullScore":10,"skillGroupName":"全部技能组","ruleState":1,"gmtCreate":1574140960532,"gmtUpdate":1574140960532,"ruleTypes":"null","ruleDetails":[{"ruleDetailId":403,"ruleType":1,"scoreRank":100,"continuity":5,"repeatTime":5,"sentenceOrder":1,"start":2,"end":15}]}</t>
+  </si>
+  <si>
+    <t>修改质检规则-条件设置内容空-请求失败</t>
+  </si>
+  <si>
+    <t>{"orderNo":"59","ruleId":59,"ruleName":"zghtest","appliedRange":1,"standardScore":6,"fullScore":10,"skillGroupName":"全部技能组","skillGroupId":"","ruleState":1,"gmtCreate":1574140960532,"gmtUpdate":1574140960532,"ruleTypes":"null","ruleDetails":""}</t>
+  </si>
+  <si>
+    <t>修改质检规则-条件设置字段空-请求失败</t>
+  </si>
+  <si>
+    <t>{"orderNo":"59","ruleId":59,"ruleName":"zghtest","appliedRange":1,"standardScore":6,"fullScore":10,"skillGroupName":"全部技能组","skillGroupId":"","ruleState":1,"gmtCreate":1574140960532,"gmtUpdate":1574140960532,"ruleTypes":"null"}</t>
+  </si>
+  <si>
+    <t>修改质检规则-错误租户id-请求失败</t>
+  </si>
+  <si>
+    <t>/qis/v1/tenant/{tenantId}/update-rule</t>
+  </si>
+  <si>
+    <t>关闭规则-请求成功</t>
+  </si>
+  <si>
+    <t>/qis/v1/tenant/_1NTMWLA/close-rule/</t>
+  </si>
+  <si>
+    <t>{"my_sql": "select * from full_quality_check_rule where rule_name=%s ORDER BY rule_id DESC", "condition": "test_zgh","1": 2, "code": 1}</t>
+  </si>
+  <si>
+    <t>删除规则-请求成功</t>
+  </si>
+  <si>
+    <t>/qis/v1/tenant/_1NTMWLA/remove-rule/</t>
+  </si>
+  <si>
+    <t>{"1":3}</t>
+  </si>
+  <si>
+    <t>{"my_sql": "select * from full_quality_check_rule where rule_name=%s ORDER BY rule_id DESC", "condition": "test_zgh","code": 1}</t>
+  </si>
+  <si>
+    <t>删除规则-请求失败</t>
+  </si>
+  <si>
+    <t>{"my_sql": "select * from full_quality_check_rule where rule_name=%s ORDER BY rule_id DESC", "condition": "zghtest","code": 1}</t>
+  </si>
+  <si>
+    <t>开启规则-请求失败</t>
+  </si>
+  <si>
+    <t>/qis/v1/tenant/_1NTMWLA/open-rule/</t>
+  </si>
+  <si>
+    <t>{"my_sql": "select * from full_quality_check_rule where rule_name=%s ORDER BY rule_id DESC", "condition": "zghtest","1": 2, "code": 1}</t>
+  </si>
+  <si>
+    <t>查询质检规则列表-错误租户id-请求错误</t>
+  </si>
+  <si>
+    <t>/qis/v1/tenant/{tenantId}/rules</t>
+  </si>
+  <si>
+    <t>{"undefined":"","skillGroupId":"","ruleType":"","standardScore":"","fullScore":"","createTimeMin":"","createTimeMax":"","appliedRange":"","pageNumber":"1","pageSize":"10","keyword":""}</t>
+  </si>
+  <si>
+    <t>{'list': [], 'total': 0}</t>
+  </si>
+  <si>
+    <t>查询质检规则列表-请求成功</t>
+  </si>
+  <si>
+    <t>/qis/v1/tenant/_1NTMWLA/rules</t>
+  </si>
+  <si>
+    <t>{'list': [{'orderNo': '59', 'ruleId': 59, 'ruleName': 'zghtest', 'appliedRange': 1, 'standardScore': 6, 'fullScore': 10, 'skillGroupName': '全部技能组', 'skillGroupId': 'ALL', 'ruleState': 1, 'gmtCreate': 1574140960532, 'gmtUpdate': 1574670056450, 'ruleTypes': '', 'ruleDetails': None}, {'orderNo': '95', 'ruleId': 95, 'ruleName': '', 'appliedRange': 1, 'standardScore': 6, 'fullScore': 10, 'skillGroupName': 'zhang002', 'skillGroupId': 'e37d7488-7a6b-4863-8d8b-0115b21ca0f8', 'ruleState': 1, 'gmtCreate': 1574670042431, 'gmtUpdate': 1574670042431, 'ruleTypes': '重复话术,关键词匹配,静默时长', 'ruleDetails': None}, {'orderNo': '90', 'ruleId': 90, 'ruleName': '', 'appliedRange': 1, 'standardScore': 6, 'fullScore': 10, 'skillGroupName': 'zhang002', 'skillGroupId': 'e37d7488-7a6b-4863-8d8b-0115b21ca0f8', 'ruleState': 1, 'gmtCreate': 1574434985939, 'gmtUpdate': 1574434985939, 'ruleTypes': '重复话术,关键词匹配,静默时长', 'ruleDetails': None}, {'orderNo': '85', 'ruleId': 85, 'ruleName': '', 'appliedRange': 1, 'standardScore': 6, 'fullScore': 10, 'skillGroupName': 'zhang002', 'skillGroupId': 'e37d7488-7a6b-4863-8d8b-0115b21ca0f8', 'ruleState': 1, 'gmtCreate': 1574432587394, 'gmtUpdate': 1574432587394, 'ruleTypes': '重复话术,关键词匹配,静默时长', 'ruleDetails': None}, {'orderNo': '80', 'ruleId': 80, 'ruleName': '', 'appliedRange': 1, 'standardScore': 6, 'fullScore': 10, 'skillGroupName': 'zhang002', 'skillGroupId': 'e37d7488-7a6b-4863-8d8b-0115b21ca0f8', 'ruleState': 1, 'gmtCreate': 1574431343937, 'gmtUpdate': 1574431343937, 'ruleTypes': '重复话术,关键词匹配,静默时长', 'ruleDetails': None}, {'orderNo': '75', 'ruleId': 75, 'ruleName': '', 'appliedRange': 1, 'standardScore': 6, 'fullScore': 10, 'skillGroupName': 'zhang002', 'skillGroupId': 'e37d7488-7a6b-4863-8d8b-0115b21ca0f8', 'ruleState': 1, 'gmtCreate': 1574412948181, 'gmtUpdate': 1574412948181, 'ruleTypes': '重复话术,关键词匹配,静默时长', 'ruleDetails': None}, {'orderNo': '70', 'ruleId': 70, 'ruleName': '', 'appliedRange': 1, 'standardScore': 6, 'fullScore': 10, 'skillGroupName': 'zhang002', 'skillGroupId': 'e37d7488-7a6b-4863-8d8b-0115b21ca0f8', 'ruleState': 1, 'gmtCreate': 1574314712225, 'gmtUpdate': 1574314712225, 'ruleTypes': '重复话术,关键词匹配,静默时长', 'ruleDetails': None}, {'orderNo': '66', 'ruleId': 66, 'ruleName': '新增规则', 'appliedRange': 1, 'standardScore': 60, 'fullScore': 100, 'skillGroupName': 'zhang002', 'skillGroupId': 'e37d7488-7a6b-4863-8d8b-0115b21ca0f8', 'ruleState': 1, 'gmtCreate': 1574243953436, 'gmtUpdate': 1574243953436, 'ruleTypes': '重复话术', 'ruleDetails': None}, {'orderNo': '32', 'ruleId': 32, 'ruleName': 'dsf', 'appliedRange': 1, 'standardScore': 80, 'fullScore': 100, 'skillGroupName': '全部技能组', 'skillGroupId': 'ALL', 'ruleState': 1, 'gmtCreate': 1573814703406, 'gmtUpdate': 1573814703406, 'ruleTypes': '重复话术,关键词匹配,静默时长', 'ruleDetails': None}, {'orderNo': '23', 'ruleId': 23, 'ruleName': '规则33445555', 'appliedRange': 1, 'standardScore': 80, 'fullScore': 100, 'skillGroupName': '大额信贷', 'skillGroupId': '06d786f7-d7ef-4585-adfa-49b0ca23c974', 'ruleState': 1, 'gmtCreate': 1571303705995, 'gmtUpdate': 1573800473360, 'ruleTypes': '重复话术,关键词匹配,静默时长', 'ruleDetails': None}], 'total': 36}</t>
+  </si>
+  <si>
+    <t>查询质检规则列表-页码条数内容空-请求失败</t>
+  </si>
+  <si>
+    <t>{"undefined":"","skillGroupId":"","ruleType":"","standardScore":"","fullScore":"","createTimeMin":"","createTimeMax":"","appliedRange":"","pageNumber":"","pageSize":"","keyword":""}</t>
+  </si>
+  <si>
+    <t>查询质检规则列表-页码条数字段空-请求成功</t>
+  </si>
+  <si>
+    <t>{"undefined":"","skillGroupId":"","ruleType":"","standardScore":"","fullScore":"","createTimeMin":"","createTimeMax":"","appliedRange":"","keyword":""}</t>
+  </si>
+  <si>
+    <t>查看质检规则-请求成功</t>
+  </si>
+  <si>
+    <t>/qis/v1/tenant/_1NTMWLA/rule/59</t>
+  </si>
+  <si>
+    <t>{'rule': {'orderNo': '59', 'ruleId': 59, 'ruleName': 'zghtest', 'appliedRange': 1, 'standardScore': 6, 'fullScore': 10, 'skillGroupName': '全部技能组', 'skillGroupId': '', 'ruleState': 1, 'gmtCreate': 1574140960532, 'gmtUpdate': 1574670056450, 'ruleTypes': None, 'ruleDetails': []}}</t>
+  </si>
+  <si>
+    <t>查看质检规则-错误ID-请求请求失败</t>
+  </si>
+  <si>
+    <t>/qis/v1/tenant/_1NTMWLA/rule/60</t>
+  </si>
+  <si>
+    <t>技能组到客服联动-请求成功</t>
+  </si>
+  <si>
+    <t>/v1/tenants/_1NTMWLA/skill-groups-list</t>
+  </si>
+  <si>
+    <t>{'groupSkillList': [{'groupSkillId': '2709bd02-284b-4f9f-a61f-1b8362a4b84d', 'groupSkillName': '杭州客户技能组', 'staffList': []}, {'groupSkillId': 'd575c931-8334-42d3-b22e-c5e8bca3c825', 'groupSkillName': '贷记卡', 'staffList': []}, {'groupSkillId': '1a36c5c8-8d45-4dc0-a406-5b2ceda3776c', 'groupSkillName': '借记卡', 'staffList': [{'staffId': 's_ba4d29558af446068d5817c0a4f9966e', 'staffName': 'test'}, {'staffId': 's_da3f3c3fd48947cab0657aa1428b39ab', 'staffName': 'manyidu'}]}, {'groupSkillId': '1421cd8c-a6b2-4838-a698-c76ca0a31576', 'groupSkillName': '信用卡', 'staffList': []}, {'groupSkillId': 'a3df8ba4-bd01-4e83-bfdc-b4cf0b662886', 'groupSkillName': '外汇', 'staffList': []}, {'groupSkillId': 'f0842721-3229-4470-bddd-d47d6c00e8cb', 'groupSkillName': '其他业务', 'staffList': []}, {'groupSkillId': '06d786f7-d7ef-4585-adfa-49b0ca23c974', 'groupSkillName': '大额信贷', 'staffList': [{'staffId': 's_4d3464d78a374af18b85a2fe80a7874a', 'staffName': 'yangnk2'}, {'staffId': 's_7e2c63317ffd4df8ac63d384c096286f', 'staffName': '曾'}, {'staffId': 's_91999a546be64f6b81990735bc717910', 'staffName': 'yu'}, {'staffId': 's_bcea95997c5941ef89e9260b3a398037', 'staffName': '王琳'}]}, {'groupSkillId': '713b4b4f-97bb-49c5-847b-e2fb67a637ee', 'groupSkillName': 'yangnk5', 'staffList': [{'staffId': 's_4d3464d78a374af18b85a2fe80a7874a', 'staffName': 'yangnk2'}, {'staffId': 's_91999a546be64f6b81990735bc717910', 'staffName': 'yu'}, {'staffId': 's_eebb9de18d2e4d37bcecd64778b88601', 'staffName': 'yangnk3'}]}, {'groupSkillId': '66c6822a-5b07-484f-ae4a-720523ba8962', 'groupSkillName': 'yangnk4', 'staffList': [{'staffId': 's_6c219113bfa14694bcd47f7f444ec513', 'staffName': 'wzh1111'}]}, {'groupSkillId': '1d7868eb-ea22-4c63-9728-6caea8e5ca50', 'groupSkillName': 'yangnk3', 'staffList': [{'staffId': 's_4d3464d78a374af18b85a2fe80a7874a', 'staffName': 'yangnk2'}, {'staffId': 's_eebb9de18d2e4d37bcecd64778b88601', 'staffName': 'yangnk3'}]}, {'groupSkillId': '162babff-74c6-4cc5-b40b-3344de43b7c6', 'groupSkillName': 'yangnk2', 'staffList': [{'staffId': 's_279d441459b74627ae288bf9b3837f26', 'staffName': '王五'}, {'staffId': 's_4d3464d78a374af18b85a2fe80a7874a', 'staffName': 'yangnk2'}, {'staffId': 's_91999a546be64f6b81990735bc717910', 'staffName': 'yu'}]}, {'groupSkillId': '1fa50dc4-5520-4b58-8990-acad3baa5a89', 'groupSkillName': 'zhang003', 'staffList': [{'staffId': 's_279d441459b74627ae288bf9b3837f26', 'staffName': '王五'}, {'staffId': 's_27dc197e2b184befa8dc863f7b429bd2', 'staffName': '章广华3'}, {'staffId': 's_91999a546be64f6b81990735bc717910', 'staffName': 'yu'}]}, {'groupSkillId': 'e37d7488-7a6b-4863-8d8b-0115b21ca0f8', 'groupSkillName': 'zhang002', 'staffList': [{'staffId': 's_819aee8ed8554b9f82e8d6302c8d2411', 'staffName': '章广华'}, {'staffId': 's_b17fc5b87921489788024c30229f0528', 'staffName': 'zhang002'}, {'staffId': 's_27dc197e2b184befa8dc863f7b429bd2', 'staffName': '章广华3'}, {'staffId': 's_85755b2aad654b59bda7865ee8cd5caf', 'staffName': 'cyq'}, {'staffId': 's_ede14430991843dc8eca411432a2cb79', 'staffName': 'xujm'}, {'staffId': 's_91999a546be64f6b81990735bc717910', 'staffName': 'yu'}, {'staffId': 's_150eb33af40344e59742d092a8978348', 'staffName': 'zff'}, {'staffId': 's_279d441459b74627ae288bf9b3837f26', 'staffName': '王五'}, {'staffId': 's_da3f3c3fd48947cab0657aa1428b39ab', 'staffName': 'manyidu'}]}, {'groupSkillId': 'dc14c144-a9bb-4beb-ad0a-2df4be155623', 'groupSkillName': 'zhang001', 'staffList': [{'staffId': 's_279d441459b74627ae288bf9b3837f26', 'staffName': '王五'}, {'staffId': 's_27dc197e2b184befa8dc863f7b429bd2', 'staffName': '章广华3'}, {'staffId': 's_5218ea681e1e436cb03a3151b97bdf9f', 'staffName': '章广华'}, {'staffId': 's_819aee8ed8554b9f82e8d6302c8d2411', 'staffName': '章广华'}, {'staffId': 's_85755b2aad654b59bda7865ee8cd5caf', 'staffName': 'cyq'}, {'staffId': 's_91999a546be64f6b81990735bc717910', 'staffName': 'yu'}, {'staffId': 's_ede14430991843dc8eca411432a2cb79', 'staffName': 'xujm'}]}]}</t>
+  </si>
+  <si>
+    <t>技能组到客服联动-错误租户id-请求失败</t>
+  </si>
+  <si>
+    <t>/v1/tenants/{tenantId}/skill-groups-list</t>
+  </si>
+  <si>
+    <t>{'groupSkillList': []}</t>
+  </si>
+  <si>
+    <t>获取技能组-请求成功</t>
+  </si>
+  <si>
+    <t>/v1/tenants/_1NTMWLA//get-skill-groups</t>
+  </si>
+  <si>
+    <t>获取技能组-错误租户id-请求失败</t>
+  </si>
+  <si>
+    <t>/v1/tenants/{tenantId}//get-skill-groups</t>
+  </si>
+  <si>
+    <t>批量导出-请求成功</t>
+  </si>
+  <si>
+    <t>/qis/v1/tenant/_1NTMWLA/export-rule</t>
+  </si>
+  <si>
+    <t>{"ruleIds":[1,15,16]}</t>
+  </si>
+  <si>
+    <t>{'url': 'http://citydozhinengkefu.oss-cn-hangzhou.aliyuncs.com/file_test/qis_1574670064264.xlsx?Expires=1606206064&amp;OSSAccessKeyId=LTAIeeyxnykXoM0A&amp;Signature=j5sf5AjRBGhfVubI9slELv4wZ6c%3D'}</t>
+  </si>
+  <si>
+    <t>批量导出-错误租户id-请求失败</t>
+  </si>
+  <si>
+    <t>/qis/v1/tenant/{tenantId}/export-rule</t>
+  </si>
+  <si>
+    <t>批量导出-规则id内容空-请求失败</t>
+  </si>
+  <si>
+    <t>{"ruleIds":""}</t>
+  </si>
+  <si>
+    <t>批量导出-规则id字段空-请求失败</t>
+  </si>
+  <si>
+    <t>获取全量筛选结果-请求成功</t>
+  </si>
+  <si>
+    <t>/qis/v1/tenant/_1NTMWLA/quality-check-result/results</t>
+  </si>
+  <si>
+    <t>{"undefined":"","skillGroupId":"","staffId":"","qualityCheckResult":"","qualityCheckState":"","manualCheckStaffId":"","alert":"","appealState":"","pageNumber":"1","pageSize":"10","keyword":""}</t>
+  </si>
+  <si>
+    <t>{'list': [{'id': 1159, 'groupSessionId': '1555d305e688492d9dd08a910b44ccfd', 'skillGroupName': 'zhang002', 'staffName': 'zff', 'visitorName': '', 'alerts': '等候超时警报', 'onlineTime': 1574668078583, 'manualCheckStaffName': '', 'qualityCheckStateName': '未抽检', 'qualityCheckResultName': '不合格', 'appealStateName': ''}, {'id': 1158, 'groupSessionId': '0c64a4b33d8248fcb63e4919a59b8c44', 'skillGroupName': 'zhang002', 'staffName': 'zff', 'visitorName': '', 'alerts': '等候超时警报', 'onlineTime': 1574667896723, 'manualCheckStaffName': '', 'qualityCheckStateName': '未抽检', 'qualityCheckResultName': '不合格', 'appealStateName': ''}, {'id': 1157, 'groupSessionId': '4fba917000e84372b9f5791d94989d58', 'skillGroupName': 'zhang002', 'staffName': 'zff', 'visitorName': '', 'alerts': '等候超时警报', 'onlineTime': 1574667801595, 'manualCheckStaffName': '', 'qualityCheckStateName': '未抽检', 'qualityCheckResultName': '不合格', 'appealStateName': ''}, {'id': 1156, 'groupSessionId': 'a4a86306b1814a8986b3ad84fac7cf1d', 'skillGroupName': '借记卡', 'staffName': 'test', 'visitorName': '', 'alerts': '等候超时警报', 'onlineTime': 1574663075993, 'manualCheckStaffName': '', 'qualityCheckStateName': '未抽检', 'qualityCheckResultName': '不合格', 'appealStateName': ''}, {'id': 1155, 'groupSessionId': '54d4a5d8636a4374abbb0c96b3dc06ea', 'skillGroupName': 'yangnk3', 'staffName': 'yangnk3', 'visitorName': '曾涛', 'alerts': '等候超时警报', 'onlineTime': 1574649879682, 'manualCheckStaffName': '', 'qualityCheckStateName': '未抽检', 'qualityCheckResultName': '不合格', 'appealStateName': ''}, {'id': 1154, 'groupSessionId': '3ac65222eeb34fd281671479dabe9ced', 'skillGroupName': 'yangnk3', 'staffName': 'yangnk3', 'visitorName': '', 'alerts': '等候超时警报', 'onlineTime': 1574649037427, 'manualCheckStaffName': '', 'qualityCheckStateName': '未抽检', 'qualityCheckResultName': '不合格', 'appealStateName': ''}, {'id': 1153, 'groupSessionId': 'c9afed0d9fde4023bc4b2c0ece7ee925', 'skillGroupName': 'yangnk5', 'staffName': 'liuhq', 'visitorName': '柳红', 'alerts': '等候超时警报', 'onlineTime': 1574413212083, 'manualCheckStaffName': '', 'qualityCheckStateName': '未抽检', 'qualityCheckResultName': '不合格', 'appealStateName': ''}, {'id': 1152, 'groupSessionId': 'd3965389272a49caba9cb05af5a52caf', 'skillGroupName': '大额信贷', 'staffName': 'liuhq', 'visitorName': '', 'alerts': '等候超时警报', 'onlineTime': 1574412844225, 'manualCheckStaffName': '', 'qualityCheckStateName': '未抽检', 'qualityCheckResultName': '不合格', 'appealStateName': ''}, {'id': 1151, 'groupSessionId': '7ecb3f936c864e08aae68f5ecd027d30', 'skillGroupName': 'yangnk3', 'staffName': 'yangnk3', 'visitorName': '', 'alerts': '等候超时警报', 'onlineTime': 1574408792188, 'manualCheckStaffName': '', 'qualityCheckStateName': '未抽检', 'qualityCheckResultName': '合格', 'appealStateName': ''}, {'id': 1150, 'groupSessionId': '61883f8dc71d469b809fcd99dd46a1f8', 'skillGroupName': '借记卡', 'staffName': 'test', 'visitorName': '', 'alerts': '等候超时警报', 'onlineTime': 1574408491086, 'manualCheckStaffName': '', 'qualityCheckStateName': '未抽检', 'qualityCheckResultName': '合格', 'appealStateName': ''}], 'total': 220}</t>
+  </si>
+  <si>
+    <t>获取全量筛选结果-错误租户id-请求失败</t>
+  </si>
+  <si>
+    <t>/qis/v1/tenant/{tenantId}/quality-check-result/results</t>
+  </si>
+  <si>
+    <t>{'list': [{'id': 1159, 'groupSessionId': '1555d305e688492d9dd08a910b44ccfd', 'skillGroupName': '', 'staffName': 'zff', 'visitorName': '', 'alerts': '等候超时警报', 'onlineTime': 1574668078583, 'manualCheckStaffName': '', 'qualityCheckStateName': '未抽检', 'qualityCheckResultName': '不合格', 'appealStateName': ''}, {'id': 1158, 'groupSessionId': '0c64a4b33d8248fcb63e4919a59b8c44', 'skillGroupName': '', 'staffName': 'zff', 'visitorName': '', 'alerts': '等候超时警报', 'onlineTime': 1574667896723, 'manualCheckStaffName': '', 'qualityCheckStateName': '未抽检', 'qualityCheckResultName': '不合格', 'appealStateName': ''}, {'id': 1157, 'groupSessionId': '4fba917000e84372b9f5791d94989d58', 'skillGroupName': '', 'staffName': 'zff', 'visitorName': '', 'alerts': '等候超时警报', 'onlineTime': 1574667801595, 'manualCheckStaffName': '', 'qualityCheckStateName': '未抽检', 'qualityCheckResultName': '不合格', 'appealStateName': ''}, {'id': 1156, 'groupSessionId': 'a4a86306b1814a8986b3ad84fac7cf1d', 'skillGroupName': '', 'staffName': 'test', 'visitorName': '', 'alerts': '等候超时警报', 'onlineTime': 1574663075993, 'manualCheckStaffName': '', 'qualityCheckStateName': '未抽检', 'qualityCheckResultName': '不合格', 'appealStateName': ''}, {'id': 1155, 'groupSessionId': '54d4a5d8636a4374abbb0c96b3dc06ea', 'skillGroupName': '', 'staffName': 'yangnk3', 'visitorName': '曾涛', 'alerts': '等候超时警报', 'onlineTime': 1574649879682, 'manualCheckStaffName': '', 'qualityCheckStateName': '未抽检', 'qualityCheckResultName': '不合格', 'appealStateName': ''}, {'id': 1154, 'groupSessionId': '3ac65222eeb34fd281671479dabe9ced', 'skillGroupName': '', 'staffName': 'yangnk3', 'visitorName': '', 'alerts': '等候超时警报', 'onlineTime': 1574649037427, 'manualCheckStaffName': '', 'qualityCheckStateName': '未抽检', 'qualityCheckResultName': '不合格', 'appealStateName': ''}, {'id': 1153, 'groupSessionId': 'c9afed0d9fde4023bc4b2c0ece7ee925', 'skillGroupName': '', 'staffName': 'liuhq', 'visitorName': '柳红', 'alerts': '等候超时警报', 'onlineTime': 1574413212083, 'manualCheckStaffName': '', 'qualityCheckStateName': '未抽检', 'qualityCheckResultName': '不合格', 'appealStateName': ''}, {'id': 1152, 'groupSessionId': 'd3965389272a49caba9cb05af5a52caf', 'skillGroupName': '', 'staffName': 'liuhq', 'visitorName': '', 'alerts': '等候超时警报', 'onlineTime': 1574412844225, 'manualCheckStaffName': '', 'qualityCheckStateName': '未抽检', 'qualityCheckResultName': '不合格', 'appealStateName': ''}, {'id': 1151, 'groupSessionId': '7ecb3f936c864e08aae68f5ecd027d30', 'skillGroupName': '', 'staffName': 'yangnk3', 'visitorName': '', 'alerts': '等候超时警报', 'onlineTime': 1574408792188, 'manualCheckStaffName': '', 'qualityCheckStateName': '未抽检', 'qualityCheckResultName': '合格', 'appealStateName': ''}, {'id': 1150, 'groupSessionId': '61883f8dc71d469b809fcd99dd46a1f8', 'skillGroupName': '', 'staffName': 'test', 'visitorName': '', 'alerts': '等候超时警报', 'onlineTime': 1574408491086, 'manualCheckStaffName': '', 'qualityCheckStateName': '未抽检', 'qualityCheckResultName': '合格', 'appealStateName': ''}], 'total': 220}</t>
+  </si>
+  <si>
+    <t>获取全量筛选结果-页码大小内容空-请求失败</t>
+  </si>
+  <si>
+    <t>{"undefined":"","skillGroupId":"","staffId":"","qualityCheckResult":"","qualityCheckState":"","manualCheckStaffId":"","alert":"","appealState":"","pageNumber":"","pageSize":"","keyword":""}</t>
+  </si>
+  <si>
+    <t>获取全量筛选结果-页码大小字段空-请求失败</t>
+  </si>
+  <si>
+    <t>{"undefined":"","skillGroupId":"","staffId":"","qualityCheckResult":"","qualityCheckState":"","manualCheckStaffId":"","alert":"","appealState":"","keyword":""}</t>
+  </si>
+  <si>
+    <t>获取全量筛选结果-非必填字段空-请求成功</t>
+  </si>
+  <si>
+    <t>{"pageNumber":"1","pageSize":"10"}</t>
+  </si>
+  <si>
+    <t>导出全量质检结果-文档字段-请求成功</t>
+  </si>
+  <si>
+    <t>/qis/v1/tenant/_1NTMWLA/quality-check-result/export</t>
+  </si>
+  <si>
+    <t>{"ids":[1,2,3,]}</t>
+  </si>
+  <si>
+    <t>导出全量质检结果-实际字段-请求成功</t>
+  </si>
+  <si>
+    <t>{"ruleResultIds":[1,2,3,]}</t>
+  </si>
+  <si>
+    <t>{'url': 'http://citydozhinengkefu.oss-cn-hangzhou.aliyuncs.com/file_test/qis_result_1574670069596.xlsx?Expires=1606206069&amp;OSSAccessKeyId=LTAIeeyxnykXoM0A&amp;Signature=9Gb9ERZxxRAMLgjP2aLcxbFxF%2FA%3D'}</t>
+  </si>
+  <si>
+    <t>导出全量质检结果-错误租户id-请求失败</t>
+  </si>
+  <si>
+    <t>/qis/v1/tenant/{tenantId}/quality-check-result/export</t>
+  </si>
+  <si>
+    <t>{'url': 'http://citydozhinengkefu.oss-cn-hangzhou.aliyuncs.com/file_test/qis_result_1574670070295.xlsx?Expires=1606206070&amp;OSSAccessKeyId=LTAIeeyxnykXoM0A&amp;Signature=QbFc99ZtIvtr6dVuOdVq7IJKVVQ%3D'}</t>
+  </si>
+  <si>
+    <t>导出全量质检结果-结果id为空-请求失败</t>
+  </si>
+  <si>
+    <t>{"ruleResultIds":""}</t>
+  </si>
+  <si>
+    <t>导出全量质检结果-结果id字段空-请求失败</t>
+  </si>
+  <si>
+    <t>导出全量质检结果-文档请求方法GET-请求成功</t>
+  </si>
+  <si>
+    <t>获取全量筛选质检结果-请求成功</t>
+  </si>
+  <si>
+    <t>/qis/v1/tenant/_1NTMWLA/quality-check-result/result/%s</t>
+  </si>
+  <si>
+    <t>{"my_sql": "select * from quality_check_result where seat_work_name=%s ORDER BY id DESC", "condition": "zhang002","1":0, "code": 0}</t>
+  </si>
+  <si>
+    <t>{'result': {'id': 41, 'groupSessionId': '45ce4624fdbe44a7bfa96c676621d8c9', 'skillGroupName': 'zhang002', 'staffName': 'zhang002', 'staffId': 's_b17fc5b87921489788024c30229f0528', 'visitorName': '', 'callTime': 1223, 'telephone': '', 'qualityCheckState': 0}, 'alertResult': {'firstResponseTimeOut': 0, 'sessionTimeOut': 0, 'waitTimeOut': 8, 'staffSensitiveWords': [], 'visitorSensitiveWord': []}, 'rules': [], 'robot': {'robotStaffName': '机器人质检员', 'totalScore': 0, 'qualityCheckTime': 1571797572352}, 'manual': {'manualCheckStaffName': '', 'totalScore': 0, 'manualCheckTime': -1, 'manualEvaluate': ''}, 'mood': {'positivePercent': 66.7, 'negativePercent': 33.3, 'moodResult': '积极'}, 'messageContents': [{'role': 1, 'content': '"title""真实姓名""data""小c""title""电话""data""""title""问题描述""data"""', 'gmtCreate': 1571392223505, 'seat': False, 'customer': True}, {'role': 1, 'content': '您好', 'gmtCreate': 1571392243722, 'seat': False, 'customer': True}, {'role': 0, 'content': '我上次办的信用卡什么时候给我啊', 'gmtCreate': 1571392293652, 'seat': True, 'customer': False}, {'role': 0, 'content': '您好', 'gmtCreate': 1571392324701, 'seat': True, 'customer': False}, {'role': 1, 'content': '我上次办的信用卡什么时候给我啊', 'gmtCreate': 1571392345873, 'seat': False, 'customer': True}, {'role': 0, 'content': '您好请稍等下我这边帮您查询一下', 'gmtCreate': 1571392368750, 'seat': True, 'customer': False}, {'role': 1, 'content': '好的呢', 'gmtCreate': 1571392377286, 'seat': False, 'customer': True}], 'staffAvatar': 'http://citydozhinengkefu.oss-cn-hangzhou.aliyuncs.com/pic_test//avatar_3a1854c438a9403b941c340e1e9c7582.jpg?Expires=1603439974&amp;OSSAccessKeyId=LTAIeeyxnykXoM0A&amp;Signature=gL3ZYCuPJpyvx3oqWVCFlAlJtwQ%3D', 'visitorAvatar': ''}</t>
+  </si>
+  <si>
+    <t>获取全量筛选质检结果-错误id-请求失败</t>
+  </si>
+  <si>
+    <t>/qis/v1/tenant/_1NTMWLA/quality-check-result/result/0</t>
+  </si>
+  <si>
+    <t>获取全量筛选质检结果</t>
+  </si>
+  <si>
+    <t>/qis/v1/tenant/{tenantId}/quality-check-result/result/%s</t>
+  </si>
+  <si>
+    <t>{"my_sql": "select * from quality_check_result where seat_work_name=%s ORDER BY id DESC", "condition": "zhang002","1":3, "code": 0}</t>
+  </si>
+  <si>
+    <t>人工评分-接口文档路径-请求成功</t>
+  </si>
+  <si>
+    <t>/qis/v1/tenant/{tenantId}/quality-check-score/manual</t>
+  </si>
+  <si>
+    <t>{"scores":[{"id":1976,"score":"111"}],"manualEvaluate":"请求请求斯蒂芬"}</t>
+  </si>
+  <si>
+    <t>人工评分-实际接口路径-请求成功</t>
+  </si>
+  <si>
+    <t>/qis/v1/tenant/_1NTMWLA/manual-score/609</t>
+  </si>
+  <si>
+    <t>再分配质检员进行质检-实际接口地址-请求成功</t>
+  </si>
+  <si>
+    <t>/qis/v1/tenant/_1NTMWLA/reallocation/{}/{}</t>
+  </si>
+  <si>
+    <t>{"my_sql": "select * from full_quality_check_result where manual_check_staff_name=%s ORDER BY id DESC", "condition": "zhang002","1":3, "code": 0}</t>
+  </si>
+  <si>
+    <t>再分配质检员进行质检-文档接口地址-请求成功</t>
+  </si>
+  <si>
+    <t>/qis/v1/tenant/_1NTMWLA/quality-check-score/reallocation/{}/work-no/{}</t>
+  </si>
+  <si>
+    <t>再分配质检员进行质检-错误租户id-请求失败</t>
+  </si>
+  <si>
+    <t>/qis/v1/tenant/tenantId/reallocation/{}/{}</t>
+  </si>
+  <si>
+    <t>发送回拨信息-文档接口地址-请求成功</t>
+  </si>
+  <si>
+    <t>/qis/v1/tenant/_1NTMWLA/quality-check-score/callback/{}</t>
+  </si>
+  <si>
+    <t>{"staffId":"s_b17fc5b87921489788024c30229f0528","callbackRemark":"1","businessType":0}</t>
+  </si>
+  <si>
+    <t>发送回拨信息-实际接口地址-请求成功</t>
+  </si>
+  <si>
+    <t>/qis/v1/tenant/_1NTMWLA/pmc/callback/{}</t>
+  </si>
+  <si>
+    <t>发送回拨信息-错误租户id-请求失败</t>
+  </si>
+  <si>
+    <t>/qis/v1/tenant/tenantId/pmc/callback/{}</t>
+  </si>
+  <si>
+    <t>获取事后小结信息-文档接口-请求成功</t>
+  </si>
+  <si>
+    <t>/qis/v1/tenant/_1NTMWLA/quality-check-result/summary/%s</t>
+  </si>
+  <si>
+    <t>{"my_sql": "select * from full_quality_check_result where manual_check_staff_name=%s ORDER BY id DESC", "condition": "zhang002","1":0, "code": 0}</t>
+  </si>
+  <si>
+    <t>获取事后小结信息-错误租户id-请求失败</t>
+  </si>
+  <si>
+    <t>{'result': {'id': 313, 'groupSessionId': '8c1649e7e25445a9b7453579c70cfd85', 'skillGroupName': 'zhang002', 'staffName': 'zhang002', 'staffId': 's_b17fc5b87921489788024c30229f0528', 'visitorName': '章广华', 'callTime': 80, 'telephone': '13200000000', 'qualityCheckState': 0}, 'alertResult': {'firstResponseTimeOut': 0, 'sessionTimeOut': 0, 'waitTimeOut': 3, 'staffSensitiveWords': [], 'visitorSensitiveWord': ['111']}, 'rules': [{'id': 836, 'ruleId': 28, 'ruleName': '静默时长正序', 'ruleTypeNames': '静默时长', 'fullScore': 100, 'standardScore': 60, 'robotScore': 0.0, 'manualScore': 100.0, 'appealed': True, 'validQualityCheckResult': 0}, {'id': 837, 'ruleId': 29, 'ruleName': '静默时长倒序', 'ruleTypeNames': '静默时长', 'fullScore': 100, 'standardScore': 60, 'robotScore': 100.0, 'manualScore': 90.0, 'appealed': False, 'validQualityCheckResult': 1}, {'id': 838, 'ruleId': 27, 'ruleName': '我的客服规则', 'ruleTypeNames': '重复话术,关键词匹配,静默时长', 'fullScore': 10, 'standardScore': 6, 'robotScore': 0.0, 'manualScore': 5.0, 'appealed': False, 'validQualityCheckResult': 0}, {'id': 839, 'ruleId': 25, 'ruleName': 'zgh', 'ruleTypeNames': '重复话术,关键词匹配,静默时长', 'fullScore': 10, 'standardScore': 5, 'robotScore': 2.25, 'manualScore': 1.0, 'appealed': False, 'validQualityCheckResult': 0}, {'id': 840, 'ruleId': 30, 'ruleName': '规则3-重复话术', 'ruleTypeNames': '重复话术', 'fullScore': 100, 'standardScore': 80, 'robotScore': 0.0, 'manualScore': 90.0, 'appealed': False, 'validQualityCheckResult': 0}, {'id': 841, 'ruleId': 31, 'ruleName': '全部条件设置', 'ruleTypeNames': '重复话术,关键词匹配,静默时长', 'fullScore': 100, 'standardScore': 60, 'robotScore': 30.0, 'manualScore': 20.0, 'appealed': False, 'validQualityCheckResult': 0}], 'robot': {'robotStaffName': '机器人质检员', 'totalScore': 132.25, 'qualityCheckTime': 1572572735297}, 'manual': {'manualCheckStaffName': 'zhang002', 'totalScore': 306.0, 'manualCheckTime': 1572600466957, 'manualEvaluate': '23424发对司法'}, 'mood': {'positivePercent': 11.1, 'negativePercent': 88.9, 'moodResult': '消极'}, 'messageContents': [{'role': 1, 'content': '"title""真实姓名""data""章广华""title""电话""data""""title""问题描述""data"""', 'gmtCreate': 1572572644680, 'seat': False, 'customer': True}, {'role': 0, 'content': 'iha', 'gmtCreate': 1572572651869, 'seat': True, 'customer': False}, {'role': 0, 'content': '你好', 'gmtCreate': 1572572654567, 'seat': True, 'customer': False}, {'role': 0, 'content': '有神么需要帮助的', 'gmtCreate': 1572572661684, 'seat': True, 'customer': False}, {'role': 1, 'content': '没有', 'gmtCreate': 1572572668545, 'seat': False, 'customer': True}, {'role': 1, 'content': '开水奇偶', 'gmtCreate': 1572572673176, 'seat': False, 'customer': True}, {'role': 0, 'content': '咳咳咳', 'gmtCreate': 1572572676452, 'seat': True, 'customer': False}, {'role': 1, 'content': '好的', 'gmtCreate': 1572572681696, 'seat': False, 'customer': True}, {'role': 0, 'content': '在的', 'gmtCreate': 1572572687080, 'seat': True, 'customer': False}, {'role': 1, 'content': '你你你', 'gmtCreate': 1572572693848, 'seat': False, 'customer': True}, {'role': 1, 'content': '1111', 'gmtCreate': 1572572695888, 'seat': False, 'customer': True}, {'role': 0, 'content': '滚', 'gmtCreate': 1572572700366, 'seat': True, 'customer': False}, {'role': 0, 'content': '咳咳咳', 'gmtCreate': 1572572706133, 'seat': True, 'customer': False}, {'role': 0, 'content': '咳咳咳', 'gmtCreate': 1572572708305, 'seat': True, 'customer': False}, {'role': 1, 'content': '咳咳咳', 'gmtCreate': 1572572713797, 'seat': False, 'customer': True}, {'role': 0, 'content': '的', 'gmtCreate': 1572572717542, 'seat': True, 'customer': False}], 'staffAvatar': 'http://citydozhinengkefu.oss-cn-hangzhou.aliyuncs.com/pic_test//avatar_3a1854c438a9403b941c340e1e9c7582.jpg?Expires=1603439974&amp;OSSAccessKeyId=LTAIeeyxnykXoM0A&amp;Signature=gL3ZYCuPJpyvx3oqWVCFlAlJtwQ%3D', 'visitorAvatar': ''}</t>
+  </si>
+  <si>
+    <t>获取事后小结信息-实际接口-请求成功</t>
+  </si>
+  <si>
+    <t>获取质检员-请求成功</t>
+  </si>
+  <si>
+    <t>/qis/v1/tenant/_1NTMWLA/quality-check-result-list</t>
+  </si>
+  <si>
+    <t>{'list': [{'id': 32, 'staffId': 's_819aee8ed8554b9f82e8d6302c8d2411', 'username': 'zhang001', 'staffName': '章广华'}, {'id': 33, 'staffId': 's_b17fc5b87921489788024c30229f0528', 'username': 'zhang002', 'staffName': 'zhang002'}, {'id': 36, 'staffId': 's_eebb9de18d2e4d37bcecd64778b88601', 'username': 'yangnk3', 'staffName': 'yangnk3'}, {'id': 35, 'staffId': 's_4d3464d78a374af18b85a2fe80a7874a', 'username': 'yangnk2', 'staffName': 'yangnk2'}, {'id': 57, 'staffId': 's_bcea95997c5941ef89e9260b3a398037', 'username': '王琳', 'staffName': '王琳'}, {'id': 59, 'staffId': 's_6c219113bfa14694bcd47f7f444ec513', 'username': '111', 'staffName': 'wzh1111'}, {'id': 45, 'staffId': 's_014fc0c1753040a98c707182bf42f4d3', 'username': 'liuhq', 'staffName': 'liuhq'}]}</t>
+  </si>
+  <si>
+    <t>获取质检员-错误租户id-请求失败</t>
+  </si>
+  <si>
+    <t>/qis/v1/tenant/{tenantId}/quality-check-result-list</t>
+  </si>
+  <si>
+    <t>修改超时提醒配置-请求成功</t>
+  </si>
+  <si>
+    <t>修改超时提醒配置-错误租户id-请求失败</t>
+  </si>
+  <si>
+    <t>/v1/tenants//{tenantId}/global-config</t>
+  </si>
+  <si>
+    <t>{'code': 'MissingParameter', 'message': 'uid属性不存在!'}</t>
+  </si>
+  <si>
+    <t>获取超时提醒配置-请求成功</t>
+  </si>
+  <si>
+    <t>/v1/tenants/_1NTMWLA/global-config/VISITOR_TIMEOUT_REMINDER</t>
+  </si>
+  <si>
+    <t>{"configName":"visitorTimeoutReminder","configValue":"{\"reminder\":true,\"words\":\"请问您还有需要咨询的内容么？\",\"time\":5}","configState":"true"}</t>
+  </si>
+  <si>
+    <t>{'baseSuccess': True, 'globalConfig': {'configCode': 'VISITOR_TIMEOUT_REMINDER', 'configDescription': '', 'configName': 'visitorTimeoutReminder', 'configState': True, 'configType': 1, 'configValue': '{"reminder":true,"words":"请问您还有需要咨询的内容么？","time":5}', 'tenantId': '_1NTMWLA'}, 'httpStatusCode': 0}</t>
+  </si>
+  <si>
+    <t>获取超时提醒配置-文档接口请求put-请求成功</t>
+  </si>
+  <si>
+    <t>获取超时提醒配置-错误租户id-请求失败</t>
+  </si>
+  <si>
+    <t>/v1/tenants/{tenantId}/global-config/VISITOR_TIMEOUT_REMINDER</t>
+  </si>
+  <si>
+    <t>{'code': 'notLoginException', 'message': '加载超时, 请重新加载!'}</t>
+  </si>
+  <si>
+    <t>我的质检结果列表查询-请求成功</t>
+  </si>
+  <si>
+    <t>/v1/tenants/_1NTMWLA/myQualityCheckResults</t>
+  </si>
+  <si>
+    <t>{"staffId":"s_b17fc5b87921489788024c30229f0528","visitorName":"","page":1,"pageSize":10}</t>
+  </si>
+  <si>
+    <t>{'list': [{'id': 623, 'seq': '623', 'groupSessionId': '3f9f4acc5d26401c9927697c3a6723cc', 'visitorName': '郑涛', 'alertNames': '首次响应超时警报,等候超时警报', 'onlineTime': 1574066686624, 'qualityCheckStaff': '', 'qualityCheckState': '未抽检', 'qualityCheckResult': '合格', 'moodCheckResult': '消极', 'satisfactionCheckResult': '', 'appealState': ''}, {'id': 622, 'seq': '622', 'groupSessionId': '4a50c67bd074428f8a08aecbac21d5ed', 'visitorName': '', 'alertNames': '首次响应超时警报,等候超时警报', 'onlineTime': 1574066325543, 'qualityCheckStaff': '', 'qualityCheckState': '未抽检', 'qualityCheckResult': '合格', 'moodCheckResult': '消极', 'satisfactionCheckResult': '', 'appealState': ''}, {'id': 618, 'seq': '618', 'groupSessionId': '50ec38f8d4364e33a849bbc76e3de377', 'visitorName': '', 'alertNames': '会话超时警报,等候超时警报', 'onlineTime': 1574055788060, 'qualityCheckStaff': 'liuhq', 'qualityCheckState': '已抽检', 'qualityCheckResult': '不合格', 'moodCheckResult': '消极', 'satisfactionCheckResult': '', 'appealState': ''}, {'id': 614, 'seq': '614', 'groupSessionId': 'cd69cbc329b84421b8e5c70db9321003', 'visitorName': '凌霄', 'alertNames': '会话超时警报,等候超时警报', 'onlineTime': 1574052301601, 'qualityCheckStaff': '', 'qualityCheckState': '未抽检', 'qualityCheckResult': '不合格', 'moodCheckResult': '消极', 'satisfactionCheckResult': '', 'appealState': ''}, {'id': 613, 'seq': '613', 'groupSessionId': '186fd34e023a4097992b9fa112958235', 'visitorName': '', 'alertNames': '会话超时警报,等候超时警报', 'onlineTime': 1574050324867, 'qualityCheckStaff': '', 'qualityCheckState': '未抽检', 'qualityCheckResult': '不合格', 'moodCheckResult': '消极', 'satisfactionCheckResult': '', 'appealState': ''}, {'id': 609, 'seq': '609', 'groupSessionId': '49e43a06983a4ae9b3a922f545080c50', 'visitorName': '章广华', 'alertNames': '会话超时警报,等候超时警报', 'onlineTime': 1574049616859, 'qualityCheckStaff': '章广华', 'qualityCheckState': '已抽检', 'qualityCheckResult': '不合格', 'moodCheckResult': '消极', 'satisfactionCheckResult': '', 'appealState': '已处理'}, {'id': 323, 'seq': '323', 'groupSessionId': '82eade20567b466e8fc8b270e394f881', 'visitorName': '', 'alertNames': '等候超时警报,客户敏感词警报', 'onlineTime': 1572854346120, 'qualityCheckStaff': '', 'qualityCheckState': '未抽检', 'qualityCheckResult': '合格', 'moodCheckResult': '消极', 'satisfactionCheckResult': '', 'appealState': ''}, {'id': 322, 'seq': '322', 'groupSessionId': '25f50e908d0c49a084abac632420e864', 'visitorName': '章广华', 'alertNames': '会话超时警报,等候超时警报', 'onlineTime': 1572604037897, 'qualityCheckStaff': 'test', 'qualityCheckState': '已抽检', 'qualityCheckResult': '合格', 'moodCheckResult': '消极', 'satisfactionCheckResult': '', 'appealState': ''}, {'id': 321, 'seq': '321', 'groupSessionId': 'b12bc78d126e479c86daa3c2639e2ad2', 'visitorName': '章广华', 'alertNames': '首次响应超时警报,会话超时警报', 'onlineTime': 1572600744826, 'qualityCheckStaff': 'test', 'qualityCheckState': '已抽检', 'qualityCheckResult': '不合格', 'moodCheckResult': '消极', 'satisfactionCheckResult': '', 'appealState': '已处理'}, {'id': 320, 'seq': '320', 'groupSessionId': '17e0677684f04940a8a2ba899810f0cb', 'visitorName': '章广华', 'alertNames': '', 'onlineTime': 1572599437757, 'qualityCheckStaff': 'liuhq', 'qualityCheckState': '已抽检', 'qualityCheckResult': '不合格', 'moodCheckResult': '消极', 'satisfactionCheckResult': '3星', 'appealState': '已处理'}], 'total': 43}</t>
+  </si>
+  <si>
+    <t>我的质检结果列表查询-错误租户id-请求失败</t>
+  </si>
+  <si>
+    <t>/v1/tenants/{tenantId}/myQualityCheckResults</t>
+  </si>
+  <si>
+    <t>{"staffId":"s_b17fc5b87921489788024c30229f0528","visitorName":"","page":1,"pageSize":11}</t>
+  </si>
+  <si>
+    <t>我的质检结果列表查询-必填客服id内容为空-请求失败</t>
+  </si>
+  <si>
+    <t>{"staffId":"","visitorName":"","page":1,"pageSize":10}</t>
+  </si>
+  <si>
+    <t>我的质检结果列表查询-必填客服id字段为空-请求失败</t>
+  </si>
+  <si>
+    <t>{"visitorName":"","page":1,"pageSize":10}</t>
+  </si>
+  <si>
+    <t>我的质检结果列表查询-非必填页码大小字段为空-请求成功</t>
+  </si>
+  <si>
+    <t>{"staffId":"s_b17fc5b87921489788024c30229f0528","visitorName":""}</t>
+  </si>
+  <si>
+    <t>导出我的质检结果列表-请求成功</t>
+  </si>
+  <si>
+    <t>/v1/tenants/_1NTMWLA/myQualityCheckResults/%s/exports</t>
+  </si>
+  <si>
+    <t>{'url': 'http://citydozhinengkefu.oss-cn-hangzhou.aliyuncs.com/file_test/qis_result_1574670085695.xlsx?Expires=1606206085&amp;OSSAccessKeyId=LTAIeeyxnykXoM0A&amp;Signature=wyggr%2BDceOLQjQLZGm4aZQrC%2BE8%3D'}</t>
+  </si>
+  <si>
+    <t>导出我的质检结果列表-错误租户id-请求失败</t>
+  </si>
+  <si>
+    <t>/v1/tenants/{tenantId}/myQualityCheckResults/%s/exports</t>
+  </si>
+  <si>
+    <t>根据id查看质检记录详情-请求成功</t>
+  </si>
+  <si>
+    <t>/v1/tenants/_1NTMWLA/myQualityCheckResults/%s</t>
+  </si>
+  <si>
+    <t>{'result': {'id': 313, 'groupSessionId': '8c1649e7e25445a9b7453579c70cfd85', 'skillGroupName': 'zhang002', 'staffName': 'zhang002', 'staffId': 's_b17fc5b87921489788024c30229f0528', 'visitorName': '章广华', 'callTime': 80, 'telephone': '13200000000', 'qualityCheckState': 0}, 'alertResult': {'firstResponseTimeOut': 0, 'sessionTimeOut': 0, 'waitTimeOut': 3, 'staffSensitiveWords': [], 'visitorSensitiveWord': ['111']}, 'rules': [{'id': 836, 'ruleId': 28, 'ruleName': '静默时长正序', 'ruleTypeNames': '静默时长', 'fullScore': 100, 'standardScore': 60, 'robotScore': 0.0, 'manualScore': 100.0, 'appealed': True, 'validQualityCheckResult': 0}, {'id': 837, 'ruleId': 29, 'ruleName': '静默时长倒序', 'ruleTypeNames': '静默时长', 'fullScore': 100, 'standardScore': 60, 'robotScore': 100.0, 'manualScore': 90.0, 'appealed': False, 'validQualityCheckResult': 1}, {'id': 838, 'ruleId': 27, 'ruleName': '我的客服规则', 'ruleTypeNames': '重复话术,关键词匹配,静默时长', 'fullScore': 10, 'standardScore': 6, 'robotScore': 0.0, 'manualScore': 5.0, 'appealed': False, 'validQualityCheckResult': 0}, {'id': 839, 'ruleId': 25, 'ruleName': 'zgh', 'ruleTypeNames': '重复话术,关键词匹配,静默时长', 'fullScore': 10, 'standardScore': 5, 'robotScore': 2.25, 'manualScore': 1.0, 'appealed': False, 'validQualityCheckResult': 0}, {'id': 840, 'ruleId': 30, 'ruleName': '规则3-重复话术', 'ruleTypeNames': '重复话术', 'fullScore': 100, 'standardScore': 80, 'robotScore': 0.0, 'manualScore': 90.0, 'appealed': False, 'validQualityCheckResult': 0}, {'id': 841, 'ruleId': 31, 'ruleName': '全部条件设置', 'ruleTypeNames': '重复话术,关键词匹配,静默时长', 'fullScore': 100, 'standardScore': 60, 'robotScore': 30.0, 'manualScore': 20.0, 'appealed': False, 'validQualityCheckResult': 0}], 'robot': {'robotStaffName': '机器人质检员', 'totalScore': 132.25, 'qualityCheckTime': 1572572735297}, 'manual': {'manualCheckStaffName': 'zhang002', 'totalScore': 306.0, 'manualCheckTime': 1572600466957, 'manualEvaluate': '23424发对司法'}, 'mood': {'positivePercent': 11.1, 'negativePercent': 88.9, 'moodResult': '消极'}, 'messageContents': [{'role': 1, 'content': '"title""真实姓名""data""章广华""title""电话""data""""title""问题描述""data"""', 'gmtCreate': 1572572644680, 'seat': False, 'customer': True}, {'role': 0, 'content': 'iha', 'gmtCreate': 1572572651869, 'seat': True, 'customer': False}, {'role': 0, 'content': '你好', 'gmtCreate': 1572572654567, 'seat': True, 'customer': False}, {'role': 0, 'content': '有神么需要帮助的', 'gmtCreate': 1572572661684, 'seat': True, 'customer': False}, {'role': 1, 'content': '没有', 'gmtCreate': 1572572668545, 'seat': False, 'customer': True}, {'role': 1, 'content': '开水奇偶', 'gmtCreate': 1572572673176, 'seat': False, 'customer': True}, {'role': 0, 'content': '咳咳咳', 'gmtCreate': 1572572676452, 'seat': True, 'customer': False}, {'role': 1, 'content': '好的', 'gmtCreate': 1572572681696, 'seat': False, 'customer': True}, {'role': 0, 'content': '在的', 'gmtCreate': 1572572687080, 'seat': True, 'customer': False}, {'role': 1, 'content': '你你你', 'gmtCreate': 1572572693848, 'seat': False, 'customer': True}, {'role': 1, 'content': '1111', 'gmtCreate': 1572572695888, 'seat': False, 'customer': True}, {'role': 0, 'content': '滚', 'gmtCreate': 1572572700366, 'seat': True, 'customer': False}, {'role': 0, 'content': '咳咳咳', 'gmtCreate': 1572572706133, 'seat': True, 'customer': False}, {'role': 0, 'content': '咳咳咳', 'gmtCreate': 1572572708305, 'seat': True, 'customer': False}, {'role': 1, 'content': '咳咳咳', 'gmtCreate': 1572572713797, 'seat': False, 'customer': True}, {'role': 0, 'content': '的', 'gmtCreate': 1572572717542, 'seat': True, 'customer': False}], 'staffAvatar': 'http://citydozhinengkefu.oss-cn-hangzhou.aliyuncs.com/pic_test//avatar_3a1854c438a9403b941c340e1e9c7582.jpg?Expires=1603439974&amp;OSSAccessKeyId=LTAIeeyxnykXoM0A&amp;Signature=gL3ZYCuPJpyvx3oqWVCFlAlJtwQ%3D', 'visitorAvatar': '', 'satisfactionCheckResult': {'score': '3星', 'label': '没解决问题'}}</t>
+  </si>
+  <si>
+    <t>根据id查看质检记录详情-错误租户id-请求失败</t>
+  </si>
+  <si>
+    <t>/v1/tenants/{tenantId}/myQualityCheckResults/%s</t>
+  </si>
+  <si>
+    <t>{'result': {'id': 313, 'groupSessionId': '8c1649e7e25445a9b7453579c70cfd85', 'skillGroupName': 'zhang002', 'staffName': 'zhang002', 'staffId': 's_b17fc5b87921489788024c30229f0528', 'visitorName': '章广华', 'callTime': 80, 'telephone': '13200000000', 'qualityCheckState': 0}, 'alertResult': {'firstResponseTimeOut': 0, 'sessionTimeOut': 0, 'waitTimeOut': 3, 'staffSensitiveWords': [], 'visitorSensitiveWord': ['111']}, 'rules': [{'id': 836, 'ruleId': 28, 'ruleName': '静默时长正序', 'ruleTypeNames': '静默时长', 'fullScore': 100, 'standardScore': 60, 'robotScore': 0.0, 'manualScore': 100.0, 'appealed': False, 'validQualityCheckResult': 0}, {'id': 837, 'ruleId': 29, 'ruleName': '静默时长倒序', 'ruleTypeNames': '静默时长', 'fullScore': 100, 'standardScore': 60, 'robotScore': 100.0, 'manualScore': 90.0, 'appealed': False, 'validQualityCheckResult': 1}, {'id': 838, 'ruleId': 27, 'ruleName': '我的客服规则', 'ruleTypeNames': '重复话术,关键词匹配,静默时长', 'fullScore': 10, 'standardScore': 6, 'robotScore': 0.0, 'manualScore': 5.0, 'appealed': False, 'validQualityCheckResult': 0}, {'id': 839, 'ruleId': 25, 'ruleName': 'zgh', 'ruleTypeNames': '重复话术,关键词匹配,静默时长', 'fullScore': 10, 'standardScore': 5, 'robotScore': 2.25, 'manualScore': 1.0, 'appealed': False, 'validQualityCheckResult': 0}, {'id': 840, 'ruleId': 30, 'ruleName': '规则3-重复话术', 'ruleTypeNames': '重复话术', 'fullScore': 100, 'standardScore': 80, 'robotScore': 0.0, 'manualScore': 90.0, 'appealed': False, 'validQualityCheckResult': 0}, {'id': 841, 'ruleId': 31, 'ruleName': '全部条件设置', 'ruleTypeNames': '重复话术,关键词匹配,静默时长', 'fullScore': 100, 'standardScore': 60, 'robotScore': 30.0, 'manualScore': 20.0, 'appealed': False, 'validQualityCheckResult': 0}], 'robot': {'robotStaffName': '机器人质检员', 'totalScore': 132.25, 'qualityCheckTime': 1572572735297}, 'manual': {'manualCheckStaffName': 'zhang002', 'totalScore': 306.0, 'manualCheckTime': 1572600466957, 'manualEvaluate': '23424发对司法'}, 'mood': {'positivePercent': 11.1, 'negativePercent': 88.9, 'moodResult': '消极'}, 'messageContents': [{'role': 1, 'content': '"title""真实姓名""data""章广华""title""电话""data""""title""问题描述""data"""', 'gmtCreate': 1572572644680, 'seat': False, 'customer': True}, {'role': 0, 'content': 'iha', 'gmtCreate': 1572572651869, 'seat': True, 'customer': False}, {'role': 0, 'content': '你好', 'gmtCreate': 1572572654567, 'seat': True, 'customer': False}, {'role': 0, 'content': '有神么需要帮助的', 'gmtCreate': 1572572661684, 'seat': True, 'customer': False}, {'role': 1, 'content': '没有', 'gmtCreate': 1572572668545, 'seat': False, 'customer': True}, {'role': 1, 'content': '开水奇偶', 'gmtCreate': 1572572673176, 'seat': False, 'customer': True}, {'role': 0, 'content': '咳咳咳', 'gmtCreate': 1572572676452, 'seat': True, 'customer': False}, {'role': 1, 'content': '好的', 'gmtCreate': 1572572681696, 'seat': False, 'customer': True}, {'role': 0, 'content': '在的', 'gmtCreate': 1572572687080, 'seat': True, 'customer': False}, {'role': 1, 'content': '你你你', 'gmtCreate': 1572572693848, 'seat': False, 'customer': True}, {'role': 1, 'content': '1111', 'gmtCreate': 1572572695888, 'seat': False, 'customer': True}, {'role': 0, 'content': '滚', 'gmtCreate': 1572572700366, 'seat': True, 'customer': False}, {'role': 0, 'content': '咳咳咳', 'gmtCreate': 1572572706133, 'seat': True, 'customer': False}, {'role': 0, 'content': '咳咳咳', 'gmtCreate': 1572572708305, 'seat': True, 'customer': False}, {'role': 1, 'content': '咳咳咳', 'gmtCreate': 1572572713797, 'seat': False, 'customer': True}, {'role': 0, 'content': '的', 'gmtCreate': 1572572717542, 'seat': True, 'customer': False}], 'staffAvatar': 'http://citydozhinengkefu.oss-cn-hangzhou.aliyuncs.com/pic_test//avatar_3a1854c438a9403b941c340e1e9c7582.jpg?Expires=1603439974&amp;OSSAccessKeyId=LTAIeeyxnykXoM0A&amp;Signature=gL3ZYCuPJpyvx3oqWVCFlAlJtwQ%3D', 'visitorAvatar': '', 'satisfactionCheckResult': {'score': None, 'label': None}}</t>
+  </si>
+  <si>
+    <t>质检结果申诉-请求成功</t>
+  </si>
+  <si>
+    <t>/v1/tenants/_1NTMWLA/myQualityCheckResults/appeals</t>
+  </si>
+  <si>
+    <t>{"appealDesc":"点点滴滴","resultId":609,"ruleId":28}</t>
+  </si>
+  <si>
+    <t>质检结果申诉-错误租户id-请求失败</t>
+  </si>
+  <si>
+    <t>/v1/tenants/{tenantId}/myQualityCheckResults/appeals</t>
+  </si>
+  <si>
+    <t>质检结果申诉-申诉内容空-请求失败</t>
+  </si>
+  <si>
+    <t>{"appealDesc":"","resultId":609,"ruleId":28}</t>
+  </si>
+  <si>
+    <t>{'code': '申诉说明不能为空', 'message': '参数不合法'}</t>
+  </si>
+  <si>
+    <t>质检结果申诉-申诉字段空-请求失败</t>
+  </si>
+  <si>
+    <t>{"resultId":609,"ruleId":28}</t>
+  </si>
+  <si>
+    <t>质检结果申诉-质检结果id空-请求失败</t>
+  </si>
+  <si>
+    <t>{"appealDesc":"点点滴滴","resultId":"","ruleId":28}</t>
+  </si>
+  <si>
+    <t>{'code': '质检结果id不能为空', 'message': '参数不合法'}</t>
+  </si>
+  <si>
+    <t>质检结果申诉-质检结果字段空-请求失败</t>
+  </si>
+  <si>
+    <t>{"appealDesc":"点点滴滴","ruleId":28}</t>
+  </si>
+  <si>
+    <t>质检结果申诉-质检规则id空-请求失败</t>
+  </si>
+  <si>
+    <t>{"appealDesc":"点点滴滴","resultId":609,"ruleId":""}</t>
+  </si>
+  <si>
+    <t>{'code': '质检规则id不能为空', 'message': '参数不合法'}</t>
+  </si>
+  <si>
+    <t>质检结果申诉-质检规则id字段空-请求失败</t>
+  </si>
+  <si>
+    <t>{"appealDesc":"点点滴滴","resultId":609}</t>
+  </si>
+  <si>
+    <t>质检结果取消申诉-请求成功</t>
+  </si>
+  <si>
+    <t>质检结果取消申诉-错误租户id-请求失败</t>
+  </si>
+  <si>
+    <t>质检结果取消申诉-质检结果id空-请求失败</t>
+  </si>
+  <si>
+    <t>{"resultId":"","ruleId":28}</t>
+  </si>
+  <si>
+    <t>质检结果取消申诉-质检结果字段空-请求失败</t>
+  </si>
+  <si>
+    <t>{"ruleId":28}</t>
+  </si>
+  <si>
+    <t>质检结果取消申诉-质检规则id空-请求失败</t>
+  </si>
+  <si>
+    <t>{"resultId":609,"ruleId":""}</t>
+  </si>
+  <si>
+    <t>质检结果取消申诉-质检规则id字段空-请求失败</t>
+  </si>
+  <si>
+    <t>{"resultId":609}</t>
+  </si>
+  <si>
+    <t>查看申诉详情-错误租户id-请求失败</t>
+  </si>
+  <si>
+    <t>查看申诉详情-请求成功</t>
+  </si>
+  <si>
+    <t>查询所有技能组和相关联质检员-请求成功</t>
+  </si>
+  <si>
+    <t>/v1/tenants/_1NTMWLA/qualityCheckStaffSkillGroupRelations</t>
+  </si>
+  <si>
+    <t>[{'skillGroupId': '2709bd02-284b-4f9f-a61f-1b8362a4b84d', 'skillGroupName': '杭州客户技能组', 'staffs': [{'staffId': 's_bcea95997c5941ef89e9260b3a398037', 'staffName': '王琳'}, {'staffId': 's_b17fc5b87921489788024c30229f0528', 'staffName': 'zhang002'}]}, {'skillGroupId': 'd575c931-8334-42d3-b22e-c5e8bca3c825', 'skillGroupName': '贷记卡', 'staffs': [{'staffId': 's_bcea95997c5941ef89e9260b3a398037', 'staffName': '王琳'}]}, {'skillGroupId': '1a36c5c8-8d45-4dc0-a406-5b2ceda3776c', 'skillGroupName': '借记卡', 'staffs': [{'staffId': 's_bcea95997c5941ef89e9260b3a398037', 'staffName': '王琳'}, {'staffId': 's_eebb9de18d2e4d37bcecd64778b88601', 'staffName': 'yangnk3'}]}, {'skillGroupId': '1421cd8c-a6b2-4838-a698-c76ca0a31576', 'skillGroupName': '信用卡', 'staffs': [{'staffId': 's_bcea95997c5941ef89e9260b3a398037', 'staffName': '王琳'}, {'staffId': 's_014fc0c1753040a98c707182bf42f4d3', 'staffName': 'liuhq'}]}, {'skillGroupId': 'a3df8ba4-bd01-4e83-bfdc-b4cf0b662886', 'skillGroupName': '外汇', 'staffs': [{'staffId': 's_bcea95997c5941ef89e9260b3a398037', 'staffName': '王琳'}, {'staffId': 's_014fc0c1753040a98c707182bf42f4d3', 'staffName': 'liuhq'}]}, {'skillGroupId': 'f0842721-3229-4470-bddd-d47d6c00e8cb', 'skillGroupName': '其他业务', 'staffs': [{'staffId': 's_eebb9de18d2e4d37bcecd64778b88601', 'staffName': 'yangnk3'}]}, {'skillGroupId': '06d786f7-d7ef-4585-adfa-49b0ca23c974', 'skillGroupName': '大额信贷', 'staffs': [{'staffId': 's_014fc0c1753040a98c707182bf42f4d3', 'staffName': 'liuhq'}, {'staffId': 's_eebb9de18d2e4d37bcecd64778b88601', 'staffName': 'yangnk3'}]}, {'skillGroupId': '713b4b4f-97bb-49c5-847b-e2fb67a637ee', 'skillGroupName': 'yangnk5', 'staffs': [{'staffId': 's_b17fc5b87921489788024c30229f0528', 'staffName': 'zhang002'}]}, {'skillGroupId': '66c6822a-5b07-484f-ae4a-720523ba8962', 'skillGroupName': 'yangnk4', 'staffs': [{'staffId': 's_eebb9de18d2e4d37bcecd64778b88601', 'staffName': 'yangnk3'}]}, {'skillGroupId': '1d7868eb-ea22-4c63-9728-6caea8e5ca50', 'skillGroupName': 'yangnk3', 'staffs': [{'staffId': 's_4d3464d78a374af18b85a2fe80a7874a', 'staffName': 'yangnk2'}]}, {'skillGroupId': '162babff-74c6-4cc5-b40b-3344de43b7c6', 'skillGroupName': 'yangnk2', 'staffs': [{'staffId': 's_b17fc5b87921489788024c30229f0528', 'staffName': 'zhang002'}]}, {'skillGroupId': '1fa50dc4-5520-4b58-8990-acad3baa5a89', 'skillGroupName': 'zhang003', 'staffs': [{'staffId': 's_819aee8ed8554b9f82e8d6302c8d2411', 'staffName': '章广华'}]}, {'skillGroupId': 'e37d7488-7a6b-4863-8d8b-0115b21ca0f8', 'skillGroupName': 'zhang002', 'staffs': [{'staffId': 's_b17fc5b87921489788024c30229f0528', 'staffName': 'zhang002'}]}, {'skillGroupId': 'dc14c144-a9bb-4beb-ad0a-2df4be155623', 'skillGroupName': 'zhang001', 'staffs': [{'staffId': 's_819aee8ed8554b9f82e8d6302c8d2411', 'staffName': '章广华'}]}]</t>
+  </si>
+  <si>
+    <t>查询所有技能组和相关联质检员-错误租户id-请求失败</t>
+  </si>
+  <si>
+    <t>/v1/tenants/{tenantId}/qualityCheckStaffSkillGroupRelations</t>
+  </si>
+  <si>
+    <t>保存质检员和技能组关联关系-请求成功</t>
+  </si>
+  <si>
+    <t>[{"skillGroupId":"2709bd02-284b-4f9f-a61f-1b8362a4b84d","staffIds":["s_bcea95997c5941ef89e9260b3a398037","s_b17fc5b87921489788024c30229f0528"]},{"skillGroupId":"d575c931-8334-42d3-b22e-c5e8bca3c825","staffIds":["s_bcea95997c5941ef89e9260b3a398037"]},{"skillGroupId":"1a36c5c8-8d45-4dc0-a406-5b2ceda3776c","staffIds":["s_bcea95997c5941ef89e9260b3a398037","s_eebb9de18d2e4d37bcecd64778b88601"]},{"skillGroupId":"1421cd8c-a6b2-4838-a698-c76ca0a31576","staffIds":["s_bcea95997c5941ef89e9260b3a398037","s_014fc0c1753040a98c707182bf42f4d3"]},{"skillGroupId":"a3df8ba4-bd01-4e83-bfdc-b4cf0b662886","staffIds":["s_bcea95997c5941ef89e9260b3a398037","s_014fc0c1753040a98c707182bf42f4d3"]},{"skillGroupId":"f0842721-3229-4470-bddd-d47d6c00e8cb","staffIds":["s_eebb9de18d2e4d37bcecd64778b88601"]},{"skillGroupId":"06d786f7-d7ef-4585-adfa-49b0ca23c974","staffIds":["s_014fc0c1753040a98c707182bf42f4d3","s_eebb9de18d2e4d37bcecd64778b88601"]},{"skillGroupId":"713b4b4f-97bb-49c5-847b-e2fb67a637ee","staffIds":["s_b17fc5b87921489788024c30229f0528"]},{"skillGroupId":"66c6822a-5b07-484f-ae4a-720523ba8962","staffIds":["s_eebb9de18d2e4d37bcecd64778b88601"]},{"skillGroupId":"1d7868eb-ea22-4c63-9728-6caea8e5ca50","staffIds":["s_4d3464d78a374af18b85a2fe80a7874a"]},{"skillGroupId":"162babff-74c6-4cc5-b40b-3344de43b7c6","staffIds":["s_b17fc5b87921489788024c30229f0528"]},{"skillGroupId":"1fa50dc4-5520-4b58-8990-acad3baa5a89","staffIds":["s_819aee8ed8554b9f82e8d6302c8d2411"]},{"skillGroupId":"e37d7488-7a6b-4863-8d8b-0115b21ca0f8","staffIds":["s_b17fc5b87921489788024c30229f0528"]},{"skillGroupId":"dc14c144-a9bb-4beb-ad0a-2df4be155623","staffIds":["s_819aee8ed8554b9f82e8d6302c8d2411"]}]</t>
+  </si>
+  <si>
+    <t>保存质检员和技能组关联关系-错误租户id-请求失败</t>
+  </si>
+  <si>
+    <t>查询所有的质检员-请求成功</t>
+  </si>
+  <si>
+    <t>/v1/tenants/_1NTMWLA/qualityCheckStaffs</t>
+  </si>
+  <si>
+    <t>查询所有的质检员-错误租户id-请求失败</t>
+  </si>
+  <si>
+    <t>/v1/tenants/{tenantId}/qualityCheckStaffs</t>
+  </si>
+  <si>
+    <t>{'list': []}</t>
+  </si>
+  <si>
+    <t>多条件查询消息公告列表-请求成功</t>
+  </si>
+  <si>
+    <t>/v1/tenants/_1NTMWLA/messageNotices</t>
+  </si>
+  <si>
+    <t>{"title":"1","receiverId":"s_b17fc5b87921489788024c30229f0528","dateFrom":"1574481373177","dateTo":"1574654178547","page":1,"pageSize":10}</t>
+  </si>
+  <si>
+    <t>多条件查询消息公告列表-错误租户id-请求失败</t>
+  </si>
+  <si>
+    <t>/v1/tenants/{tenantId}/messageNotices</t>
+  </si>
+  <si>
+    <t>根据消息公告id查询消息公告详情-请求成功</t>
+  </si>
+  <si>
+    <t>/v1/tenants/_1NTMWLA/messageNotices/%s</t>
+  </si>
+  <si>
+    <t>{"my_sql": "select * from message_notice where receiver_id=%s ORDER BY message_notice_id DESC", "condition": "s_b17fc5b87921489788024c30229f0528","1":0, "code": 0}</t>
+  </si>
+  <si>
+    <t>{'title': '回拨提示', 'gmtCreate': '2019-11-25T08:21:17.000+0000', 'content': '1', 'receiverName': 'zhang002', 'senderName': '章广华', 'businessId': '313'}</t>
+  </si>
+  <si>
+    <t>根据消息公告id查询消息公告详情-错误租户id-请求失败</t>
+  </si>
+  <si>
+    <t>/v1/tenants/{tenantId}/messageNotices/%s</t>
+  </si>
+  <si>
+    <t>导出消息列表-请求成功</t>
+  </si>
+  <si>
+    <t>/v1/tenants/_1NTMWLA/messageNotices/%s/exports</t>
+  </si>
+  <si>
+    <t>{'url': 'http://citydozhinengkefu.oss-cn-hangzhou.aliyuncs.com/file_test/qis_result_1574670101570.xlsx?Expires=1606206101&amp;OSSAccessKeyId=LTAIeeyxnykXoM0A&amp;Signature=lK06lzOTf5u%2B5Y6kI4E27Z0mnLU%3D'}</t>
+  </si>
+  <si>
+    <t>导出消息列表-错误租户id-请求失败</t>
+  </si>
+  <si>
+    <t>/v1/tenants/{tenantId}/messageNotices/%s/exports</t>
+  </si>
+  <si>
+    <t>查询公告列表-请求成功</t>
+  </si>
+  <si>
+    <t>/v1/tenant/_1NTMWLA/announcement</t>
+  </si>
+  <si>
+    <t>{'list': [], 'total': 30}</t>
+  </si>
+  <si>
+    <t>查询公告列表-错误租户id-请求失败</t>
+  </si>
+  <si>
+    <t>/v1/tenant/{tenantId}/announcement</t>
+  </si>
+  <si>
+    <t>发布公告消息-请求成功</t>
+  </si>
+  <si>
+    <t>{"title":"test","content":"test","skillGroupId":"e37d7488-7a6b-4863-8d8b-0115b21ca0f8"}</t>
+  </si>
+  <si>
+    <t>发布公告消息-错误租户id-请求失败</t>
+  </si>
+  <si>
+    <t>删除公告消息-请求成功</t>
+  </si>
+  <si>
+    <t>/v1/tenant/_1NTMWLA/announcement/</t>
+  </si>
+  <si>
+    <t>{"my_sql": "select * from announcement where title=%s ORDER BY id DESC", "condition": "test","1":0, "code": 1}</t>
+  </si>
+  <si>
+    <t>删除公告消息-错误租户id-请求失败</t>
+  </si>
+  <si>
+    <t>/v1/tenant/{tenantId}/announcement/</t>
+  </si>
+  <si>
+    <t>查询情绪质检结果列表-请求成功</t>
+  </si>
+  <si>
+    <t>/qis/v1/tenant/_1NTMWLA/mood-check-result/result</t>
+  </si>
+  <si>
+    <t>{"keyword":"test","skillGroupId":"e37d7488-7a6b-4863-8d8b-0115b21ca0f8","staffId":"s_819aee8ed8554b9f82e8d6302c8d2411","moodCheckResult":"0","pageNumber":1,"pageSize":10}</t>
+  </si>
+  <si>
+    <t>查询情绪质检结果列表-错误租户id-请求失败</t>
+  </si>
+  <si>
+    <t>/qis/v1/tenant/{tenantId}/mood-check-result/result</t>
+  </si>
+  <si>
+    <t>查看情绪质检结果信息-请求成功</t>
+  </si>
+  <si>
+    <t>/qis/v1/tenant/_1NTMWLA/mood-check-result/%s</t>
+  </si>
+  <si>
+    <t>{"my_sql": "select * from mood_check_result where staff_name=%s ORDER BY id DESC", "condition": "zhang002","1":0, "code": 0}</t>
+  </si>
+  <si>
+    <t>{'id': 623, 'baseInfo': {'id': 623, 'groupSessionId': '3f9f4acc5d26401c9927697c3a6723cc', 'skillGroupName': 'zhang002', 'staffName': 'zhang002', 'staffId': 's_b17fc5b87921489788024c30229f0528', 'visitorName': '郑涛', 'callTime': 271, 'telephone': '13200000001', 'qualityCheckState': 0}, 'messageContents': [{'role': 1, 'content': '"title""真实姓名""data""dd""title""电话""data""dd""title""问题描述""data""dd"', 'gmtCreate': 1574066686773, 'seat': False, 'customer': True}, {'role': 1, 'content': 'dfdfdf', 'gmtCreate': 1574066692659, 'seat': False, 'customer': True}, {'role': 1, 'content': 'dfdf', 'gmtCreate': 1574066694294, 'seat': False, 'customer': True}, {'role': 1, 'content': '哈哈', 'gmtCreate': 1574066700878, 'seat': False, 'customer': True}, {'role': 1, 'content': 'dfdf', 'gmtCreate': 1574066733252, 'seat': False, 'customer': True}, {'role': 1, 'content': 'dfdf', 'gmtCreate': 1574066736185, 'seat': False, 'customer': True}, {'role': 1, 'content': 'dfdf', 'gmtCreate': 1574066825812, 'seat': False, 'customer': True}, {'role': 1, 'content': 'dfdf', 'gmtCreate': 1574066924535, 'seat': False, 'customer': True}, {'role': 1, 'content': 'dfdf', 'gmtCreate': 1574066956950, 'seat': False, 'customer': True}, {'role': 1, 'content': 'dfdf', 'gmtCreate': 1574066958215, 'seat': False, 'customer': True}], 'positivePercent': 50.0, 'negativePercent': 50.0, 'moodCheckResult': 0, 'moodCheckResultName': '消极', 'staffAvatar': 'http://citydozhinengkefu.oss-cn-hangzhou.aliyuncs.com/pic_test//avatar_3a1854c438a9403b941c340e1e9c7582.jpg?Expires=1603439974&amp;OSSAccessKeyId=LTAIeeyxnykXoM0A&amp;Signature=gL3ZYCuPJpyvx3oqWVCFlAlJtwQ%3D', 'robotScore': 525.0, 'manualScore': 0, 'visitorAvatar': ''}</t>
+  </si>
+  <si>
+    <t>查看情绪质检结果信息-错误租户id-请求失败</t>
+  </si>
+  <si>
+    <t>/qis/v1/tenant/{tenantId}/mood-check-result/%s</t>
+  </si>
+  <si>
+    <t>{'code': 'NotExistException', 'message': '客服账号不存在'}</t>
+  </si>
+  <si>
+    <t>删除情绪质检结果-请求成功</t>
+  </si>
+  <si>
+    <t>/qis/v1/tenant/_1NTMWLA/mood-check-result/</t>
+  </si>
+  <si>
+    <t>{"my_sql": "select * from mood_check_result where staff_name=%s ", "condition": "zhang002","1":0, "code": 0}</t>
+  </si>
+  <si>
+    <t>删除情绪质检结果-错误租户id-请求失败</t>
+  </si>
+  <si>
+    <t>/qis/v1/tenant/{tenantId}/mood-check-result/</t>
+  </si>
+  <si>
+    <t>导出情绪质检结果信息-请求成功</t>
+  </si>
+  <si>
+    <t>/qis/v1/tenant/_1NTMWLA/mood-check-result/export</t>
+  </si>
+  <si>
+    <t>[623]</t>
+  </si>
+  <si>
+    <t>{'url': 'http://citydozhinengkefu.oss-cn-hangzhou.aliyuncs.com/file_test/mood_result_1574670110155.xlsx?Expires=1606206110&amp;OSSAccessKeyId=LTAIeeyxnykXoM0A&amp;Signature=4kLw9VR7r0cOGBgCmjy8BhkdTTY%3D'}</t>
+  </si>
+  <si>
+    <t>导出情绪质检结果信息-错误租户id-请求失败</t>
+  </si>
+  <si>
+    <t>/qis/v1/tenant/{tenantId}/mood-check-result/export</t>
+  </si>
+  <si>
+    <t>{'url': 'http://citydozhinengkefu.oss-cn-hangzhou.aliyuncs.com/file_test/mood_result_1574670110785.xlsx?Expires=1606206110&amp;OSSAccessKeyId=LTAIeeyxnykXoM0A&amp;Signature=TCzm6mC%2Fyr6qQTTAp%2BcxHP%2FqvuM%3D'}</t>
+  </si>
+  <si>
+    <t>查询满意度信息列表-请求成功</t>
+  </si>
+  <si>
+    <t>/qis/v1/tenant/_1NTMWLA/satisfaction/results</t>
+  </si>
+  <si>
+    <t>{"keyword":"test","skillGroupId":"e37d7488-7a6b-4863-8d8b-0115b21ca0f8","staffId":"s_b17fc5b87921489788024c30229f0528","score":"5","callbackState":1,"PageNumber":1,"PageSize":10}</t>
+  </si>
+  <si>
+    <t>查询满意度信息列表-错误租户id-请求失败</t>
+  </si>
+  <si>
+    <t>/qis/v1/tenant/{tenantId}/satisfaction/results</t>
+  </si>
+  <si>
+    <t>查看满意度详情-请求成功(文档接口实际无)</t>
+  </si>
+  <si>
+    <t>/v1/tenant/_1NTMWLA/announcement/%s</t>
+  </si>
+  <si>
+    <t>{"my_sql": "select * from evaluate where staff_name=%s ORDER BY id DESC", "condition": "test","1":0, "code": 0}</t>
+  </si>
+  <si>
+    <t>查看满意度详情-错误租户id-请求失败(文档接口实际无)</t>
+  </si>
+  <si>
+    <t>/v1/tenant/{tenantId}/announcement/%s</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 删除满意度-请求成功</t>
+  </si>
+  <si>
+    <t>/qis/v1/tenant/_1NTMWLA/satisfaction/</t>
+  </si>
+  <si>
+    <t>{"my_sql": "select * from evaluate where staff_name=%s ", "condition": "test","1":0, "code": 0}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 删除满意度-错误租户id-请求失败</t>
+  </si>
+  <si>
+    <t>/qis/v1/tenant/{tenantId}/satisfaction/</t>
+  </si>
+  <si>
+    <t>更新回访信息-请求成功</t>
+  </si>
+  <si>
+    <t>/qis/v1/tenant/_1NTMWLA/satisfaction/callback/{}</t>
+  </si>
+  <si>
+    <t>{"callbackState": 1,"callbackRemark": "test"}</t>
+  </si>
+  <si>
+    <t>{"my_sql": "select * from evaluate where callback_state=%s ORDER BY id DESC", "condition": 0,"1":4, "code": 0}</t>
+  </si>
+  <si>
+    <t>导出满意度调研结果信息-请求成功</t>
+  </si>
+  <si>
+    <t>/qis/v1/tenant/_1NTMWLA/satisfaction/export</t>
+  </si>
+  <si>
+    <t>[1,2,3]</t>
+  </si>
+  <si>
+    <t>导出满意度调研结果信息-错误租户id-请求失败</t>
+  </si>
+  <si>
+    <t>/qis/v1/tenant/{tenantId}/satisfaction/export</t>
+  </si>
+  <si>
     <t>restult</t>
   </si>
   <si>
     <t>sum</t>
   </si>
   <si>
-    <t>fail</t>
-  </si>
-  <si>
     <t>error_1</t>
   </si>
   <si>
-    <t>{'testname': '质量保障部—章广华', 'time': '2019-08-05 16:22:34', 'sumtime': '0:02:03.037916', 'testresult': '共 105 条接口用例，通过 105 条', 'tonggl': '100.00%'}</t>
+    <t>{'testname': '质量保障部—章广华', 'time': '2019-10-10 13:41:02', 'sumtime': '0:03:47.520591', 'testresult': '共 105 条接口用例，通过 103 条，失败 2 条', 'tonggl': '98.10%'}</t>
   </si>
 </sst>
 </file>
@@ -1117,180 +2119,210 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ " numFmtId="164"/>
-    <numFmt formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ " numFmtId="165"/>
-    <numFmt formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ " numFmtId="166"/>
-    <numFmt formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ " numFmtId="167"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <color theme="1"/>
-      <sz val="11"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1302,37 +2334,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1344,7 +2346,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1362,19 +2364,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1386,13 +2442,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1404,19 +2454,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1429,42 +2467,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1483,6 +2485,30 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1532,35 +2558,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1577,111 +2579,117 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="164"/>
-    <xf borderId="0" fillId="16" fontId="3" numFmtId="0"/>
-    <xf borderId="2" fillId="13" fontId="8" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="165"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="166"/>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="23" fontId="12" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="167"/>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0"/>
-    <xf borderId="5" fillId="19" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="22" fontId="1" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="1" fillId="0" fontId="7" numFmtId="0"/>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="0"/>
-    <xf borderId="6" fillId="0" fontId="5" numFmtId="0"/>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="0"/>
-    <xf borderId="4" fillId="6" fontId="9" numFmtId="0"/>
-    <xf borderId="2" fillId="6" fontId="4" numFmtId="0"/>
-    <xf borderId="3" fillId="12" fontId="6" numFmtId="0"/>
-    <xf borderId="0" fillId="21" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="26" fontId="1" numFmtId="0"/>
-    <xf borderId="7" fillId="0" fontId="17" numFmtId="0"/>
-    <xf borderId="8" fillId="0" fontId="19" numFmtId="0"/>
-    <xf borderId="0" fillId="29" fontId="16" numFmtId="0"/>
-    <xf borderId="0" fillId="30" fontId="18" numFmtId="0"/>
-    <xf borderId="0" fillId="28" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="31" fontId="1" numFmtId="0"/>
-    <xf borderId="0" fillId="32" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="25" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="11" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="15" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0"/>
-    <xf borderId="0" fillId="27" fontId="1" numFmtId="0"/>
-    <xf borderId="0" fillId="20" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="18" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="17" fontId="1" numFmtId="0"/>
-    <xf borderId="0" fillId="24" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="10" fontId="1" numFmtId="0"/>
-    <xf borderId="0" fillId="9" fontId="1" numFmtId="0"/>
-    <xf borderId="0" fillId="5" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="14" fontId="1" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="4"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3"/>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="6"/>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="4"/>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="5"/>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8"/>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle builtinId="0" name="常规" xfId="0"/>
-    <cellStyle builtinId="7" name="货币[0]" xfId="1"/>
-    <cellStyle builtinId="38" name="20% - 强调文字颜色 3" xfId="2"/>
-    <cellStyle builtinId="20" name="输入" xfId="3"/>
-    <cellStyle builtinId="4" name="货币" xfId="4"/>
-    <cellStyle builtinId="6" name="千位分隔[0]" xfId="5"/>
-    <cellStyle builtinId="39" name="40% - 强调文字颜色 3" xfId="6"/>
-    <cellStyle builtinId="27" name="差" xfId="7"/>
-    <cellStyle builtinId="3" name="千位分隔" xfId="8"/>
-    <cellStyle builtinId="40" name="60% - 强调文字颜色 3" xfId="9"/>
-    <cellStyle builtinId="8" name="超链接" xfId="10"/>
-    <cellStyle builtinId="5" name="百分比" xfId="11"/>
-    <cellStyle builtinId="9" name="已访问的超链接" xfId="12"/>
-    <cellStyle builtinId="10" name="注释" xfId="13"/>
-    <cellStyle builtinId="36" name="60% - 强调文字颜色 2" xfId="14"/>
-    <cellStyle builtinId="19" name="标题 4" xfId="15"/>
-    <cellStyle builtinId="11" name="警告文本" xfId="16"/>
-    <cellStyle builtinId="15" name="标题" xfId="17"/>
-    <cellStyle builtinId="53" name="解释性文本" xfId="18"/>
-    <cellStyle builtinId="16" name="标题 1" xfId="19"/>
-    <cellStyle builtinId="17" name="标题 2" xfId="20"/>
-    <cellStyle builtinId="32" name="60% - 强调文字颜色 1" xfId="21"/>
-    <cellStyle builtinId="18" name="标题 3" xfId="22"/>
-    <cellStyle builtinId="44" name="60% - 强调文字颜色 4" xfId="23"/>
-    <cellStyle builtinId="21" name="输出" xfId="24"/>
-    <cellStyle builtinId="22" name="计算" xfId="25"/>
-    <cellStyle builtinId="23" name="检查单元格" xfId="26"/>
-    <cellStyle builtinId="50" name="20% - 强调文字颜色 6" xfId="27"/>
-    <cellStyle builtinId="33" name="强调文字颜色 2" xfId="28"/>
-    <cellStyle builtinId="24" name="链接单元格" xfId="29"/>
-    <cellStyle builtinId="25" name="汇总" xfId="30"/>
-    <cellStyle builtinId="26" name="好" xfId="31"/>
-    <cellStyle builtinId="28" name="适中" xfId="32"/>
-    <cellStyle builtinId="46" name="20% - 强调文字颜色 5" xfId="33"/>
-    <cellStyle builtinId="29" name="强调文字颜色 1" xfId="34"/>
-    <cellStyle builtinId="30" name="20% - 强调文字颜色 1" xfId="35"/>
-    <cellStyle builtinId="31" name="40% - 强调文字颜色 1" xfId="36"/>
-    <cellStyle builtinId="34" name="20% - 强调文字颜色 2" xfId="37"/>
-    <cellStyle builtinId="35" name="40% - 强调文字颜色 2" xfId="38"/>
-    <cellStyle builtinId="37" name="强调文字颜色 3" xfId="39"/>
-    <cellStyle builtinId="41" name="强调文字颜色 4" xfId="40"/>
-    <cellStyle builtinId="42" name="20% - 强调文字颜色 4" xfId="41"/>
-    <cellStyle builtinId="43" name="40% - 强调文字颜色 4" xfId="42"/>
-    <cellStyle builtinId="45" name="强调文字颜色 5" xfId="43"/>
-    <cellStyle builtinId="47" name="40% - 强调文字颜色 5" xfId="44"/>
-    <cellStyle builtinId="48" name="60% - 强调文字颜色 5" xfId="45"/>
-    <cellStyle builtinId="49" name="强调文字颜色 6" xfId="46"/>
-    <cellStyle builtinId="51" name="40% - 强调文字颜色 6" xfId="47"/>
-    <cellStyle builtinId="52" name="60% - 强调文字颜色 6" xfId="48"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1941,33 +2949,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:K106"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K246"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A87" ySplit="1"/>
-      <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="C110" pane="bottomLeft" sqref="C110"/>
+      <pane ySplit="1" topLeftCell="A215" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="D175" sqref="D175"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="4.375"/>
-    <col customWidth="1" max="2" min="2" width="9"/>
-    <col customWidth="1" max="3" min="3" width="54.25"/>
-    <col customWidth="1" max="4" min="4" width="76.25"/>
-    <col customWidth="1" max="5" min="5" width="56"/>
-    <col customWidth="1" max="6" min="6" width="37.5"/>
-    <col customWidth="1" max="7" min="7" width="14"/>
-    <col customWidth="1" max="8" min="8" width="8.775"/>
-    <col customWidth="1" max="9" min="9" width="10.775"/>
-    <col customWidth="1" max="10" min="10" width="9"/>
-    <col customWidth="1" max="11" min="11" width="39.3333333333333"/>
-    <col customWidth="1" max="12" min="12" width="9.133333333333329"/>
+    <col min="1" max="1" width="4.375" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="41.625" customWidth="1"/>
+    <col min="4" max="4" width="34.5" customWidth="1"/>
+    <col min="5" max="5" width="30.875" customWidth="1"/>
+    <col min="6" max="6" width="13.375" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="7" customWidth="1"/>
+    <col min="9" max="9" width="10.775" customWidth="1"/>
+    <col min="10" max="10" width="9" customWidth="1"/>
+    <col min="11" max="11" width="32.75" customWidth="1"/>
+    <col min="12" max="12" width="9.13333333333333" customWidth="1"/>
+    <col min="13" max="16384" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -2005,8 +3011,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
-      <c r="A2" t="n">
+    <row r="2" spans="1:10">
+      <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -2035,7 +3041,7 @@
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" t="n">
+      <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -2067,7 +3073,7 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" t="n">
+      <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -2099,7 +3105,7 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" t="n">
+      <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
@@ -2131,7 +3137,7 @@
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" t="n">
+      <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
@@ -2163,7 +3169,7 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" t="n">
+      <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
@@ -2195,7 +3201,7 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" t="n">
+      <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
@@ -2227,7 +3233,7 @@
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" t="n">
+      <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
@@ -2259,7 +3265,7 @@
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" t="n">
+      <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
@@ -2291,7 +3297,7 @@
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" t="n">
+      <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
@@ -2323,7 +3329,7 @@
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" t="n">
+      <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
@@ -2355,7 +3361,7 @@
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" t="n">
+      <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
@@ -2387,7 +3393,7 @@
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" t="n">
+      <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
@@ -2419,7 +3425,7 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" t="n">
+      <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
@@ -2451,7 +3457,7 @@
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" t="n">
+      <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
@@ -2483,7 +3489,7 @@
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" t="n">
+      <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
@@ -2515,7 +3521,7 @@
       </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" t="n">
+      <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
@@ -2547,7 +3553,7 @@
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" t="n">
+      <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
@@ -2579,7 +3585,7 @@
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" t="n">
+      <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
@@ -2611,7 +3617,7 @@
       </c>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" t="n">
+      <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
@@ -2643,7 +3649,7 @@
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" t="n">
+      <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
@@ -2675,7 +3681,7 @@
       </c>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" t="n">
+      <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
@@ -2707,7 +3713,7 @@
       </c>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" t="n">
+      <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
@@ -2739,7 +3745,7 @@
       </c>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" t="n">
+      <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
@@ -2771,7 +3777,7 @@
       </c>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" t="n">
+      <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
@@ -2803,7 +3809,7 @@
       </c>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" t="n">
+      <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
@@ -2835,7 +3841,7 @@
       </c>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" t="n">
+      <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
@@ -2867,7 +3873,7 @@
       </c>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" t="n">
+      <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
@@ -2899,7 +3905,7 @@
       </c>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" t="n">
+      <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
@@ -2931,7 +3937,7 @@
       </c>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" t="n">
+      <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
@@ -2963,7 +3969,7 @@
       </c>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" t="n">
+      <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
@@ -2995,7 +4001,7 @@
       </c>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" t="n">
+      <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
@@ -3027,7 +4033,7 @@
       </c>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" t="n">
+      <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
@@ -3059,7 +4065,7 @@
       </c>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" t="n">
+      <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
@@ -3091,7 +4097,7 @@
       </c>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" t="n">
+      <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
@@ -3123,7 +4129,7 @@
       </c>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" t="n">
+      <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
@@ -3155,7 +4161,7 @@
       </c>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" t="n">
+      <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
@@ -3187,7 +4193,7 @@
       </c>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" t="n">
+      <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
@@ -3219,7 +4225,7 @@
       </c>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" t="n">
+      <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
@@ -3251,7 +4257,7 @@
       </c>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" t="n">
+      <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
@@ -3283,7 +4289,7 @@
       </c>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" t="n">
+      <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
@@ -3315,7 +4321,7 @@
       </c>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" t="n">
+      <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
@@ -3347,7 +4353,7 @@
       </c>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" t="n">
+      <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
@@ -3379,7 +4385,7 @@
       </c>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" t="n">
+      <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
@@ -3411,7 +4417,7 @@
       </c>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" t="n">
+      <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
@@ -3443,7 +4449,7 @@
       </c>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" t="n">
+      <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
@@ -3475,7 +4481,7 @@
       </c>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" t="n">
+      <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
@@ -3507,7 +4513,7 @@
       </c>
     </row>
     <row r="49" spans="1:11">
-      <c r="A49" t="n">
+      <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
@@ -3539,7 +4545,7 @@
       </c>
     </row>
     <row r="50" spans="1:11">
-      <c r="A50" t="n">
+      <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
@@ -3571,7 +4577,7 @@
       </c>
     </row>
     <row r="51" spans="1:11">
-      <c r="A51" t="n">
+      <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
@@ -3592,31 +4598,31 @@
       <c r="G51" t="s">
         <v>16</v>
       </c>
-      <c r="H51" t="s">
-        <v>16</v>
+      <c r="H51">
+        <v>1000</v>
       </c>
       <c r="J51" t="s">
-        <v>17</v>
+        <v>186</v>
       </c>
       <c r="K51" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="52" spans="1:11">
-      <c r="A52" t="n">
+      <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
         <v>18</v>
       </c>
       <c r="C52" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D52" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E52" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F52" t="s">
         <v>15</v>
@@ -3631,24 +4637,24 @@
         <v>17</v>
       </c>
       <c r="K52" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="53" spans="1:11">
-      <c r="A53" t="n">
+      <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
         <v>18</v>
       </c>
       <c r="C53" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D53" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E53" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F53" t="s">
         <v>15</v>
@@ -3663,24 +4669,24 @@
         <v>17</v>
       </c>
       <c r="K53" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="54" spans="1:11">
-      <c r="A54" t="n">
+      <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
         <v>18</v>
       </c>
       <c r="C54" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D54" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E54" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F54" t="s">
         <v>15</v>
@@ -3695,123 +4701,123 @@
         <v>17</v>
       </c>
       <c r="K54" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="55" spans="1:11">
-      <c r="A55" t="n">
+      <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
         <v>18</v>
       </c>
       <c r="C55" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D55" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E55" t="s">
+        <v>200</v>
+      </c>
+      <c r="F55" t="s">
+        <v>15</v>
+      </c>
+      <c r="G55" t="s">
+        <v>16</v>
+      </c>
+      <c r="H55" t="s">
+        <v>16</v>
+      </c>
+      <c r="J55" t="s">
+        <v>17</v>
+      </c>
+      <c r="K55" t="s">
         <v>198</v>
       </c>
-      <c r="F55" t="s">
-        <v>15</v>
-      </c>
-      <c r="G55" t="s">
-        <v>16</v>
-      </c>
-      <c r="H55" t="s">
-        <v>16</v>
-      </c>
-      <c r="J55" t="s">
-        <v>17</v>
-      </c>
-      <c r="K55" t="s">
-        <v>196</v>
-      </c>
     </row>
     <row r="56" spans="1:11">
-      <c r="A56" t="n">
+      <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C56" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D56" t="s">
+        <v>203</v>
+      </c>
+      <c r="E56" t="s">
+        <v>204</v>
+      </c>
+      <c r="F56" t="s">
+        <v>205</v>
+      </c>
+      <c r="G56">
+        <v>1000</v>
+      </c>
+      <c r="H56">
+        <v>1000</v>
+      </c>
+      <c r="J56" t="s">
+        <v>17</v>
+      </c>
+      <c r="K56" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
         <v>201</v>
       </c>
-      <c r="E56" t="s">
-        <v>202</v>
-      </c>
-      <c r="F56" t="s">
+      <c r="C57" t="s">
+        <v>207</v>
+      </c>
+      <c r="D57" t="s">
         <v>203</v>
       </c>
-      <c r="G56" t="n">
+      <c r="E57" t="s">
+        <v>208</v>
+      </c>
+      <c r="F57" t="s">
+        <v>205</v>
+      </c>
+      <c r="G57">
         <v>1000</v>
       </c>
-      <c r="H56" t="n">
+      <c r="H57">
         <v>1000</v>
       </c>
-      <c r="J56" t="s">
-        <v>17</v>
-      </c>
-      <c r="K56" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11">
-      <c r="A57" t="n">
-        <v>56</v>
-      </c>
-      <c r="B57" t="s">
-        <v>199</v>
-      </c>
-      <c r="C57" t="s">
-        <v>205</v>
-      </c>
-      <c r="D57" t="s">
-        <v>201</v>
-      </c>
-      <c r="E57" t="s">
+      <c r="J57" t="s">
+        <v>17</v>
+      </c>
+      <c r="K57" t="s">
         <v>206</v>
       </c>
-      <c r="F57" t="s">
-        <v>203</v>
-      </c>
-      <c r="G57" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H57" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J57" t="s">
-        <v>17</v>
-      </c>
-      <c r="K57" t="s">
-        <v>204</v>
-      </c>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58" t="n">
+      <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
         <v>36</v>
       </c>
       <c r="C58" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D58" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E58" t="s">
         <v>69</v>
       </c>
       <c r="F58" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G58" t="s">
         <v>16</v>
@@ -3823,114 +4829,114 @@
         <v>17</v>
       </c>
       <c r="K58" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="59" spans="1:11">
-      <c r="A59" t="n">
+      <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
         <v>36</v>
       </c>
       <c r="C59" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D59" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E59" t="s">
         <v>69</v>
       </c>
       <c r="F59" t="s">
+        <v>214</v>
+      </c>
+      <c r="G59" t="s">
+        <v>16</v>
+      </c>
+      <c r="H59" t="s">
+        <v>16</v>
+      </c>
+      <c r="J59" t="s">
+        <v>17</v>
+      </c>
+      <c r="K59" t="s">
         <v>212</v>
       </c>
-      <c r="G59" t="s">
-        <v>16</v>
-      </c>
-      <c r="H59" t="s">
-        <v>16</v>
-      </c>
-      <c r="J59" t="s">
-        <v>17</v>
-      </c>
-      <c r="K59" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11">
-      <c r="A60" t="n">
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C60" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D60" t="s">
+        <v>217</v>
+      </c>
+      <c r="E60" t="s">
+        <v>218</v>
+      </c>
+      <c r="F60" t="s">
+        <v>15</v>
+      </c>
+      <c r="G60" t="s">
+        <v>219</v>
+      </c>
+      <c r="H60" t="s">
+        <v>219</v>
+      </c>
+      <c r="J60" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
         <v>215</v>
       </c>
-      <c r="E60" t="s">
-        <v>216</v>
-      </c>
-      <c r="F60" t="s">
-        <v>15</v>
-      </c>
-      <c r="G60" t="s">
+      <c r="C61" t="s">
+        <v>220</v>
+      </c>
+      <c r="D61" t="s">
         <v>217</v>
       </c>
-      <c r="H60" t="s">
-        <v>217</v>
-      </c>
-      <c r="J60" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11">
-      <c r="A61" t="n">
-        <v>60</v>
-      </c>
-      <c r="B61" t="s">
-        <v>213</v>
-      </c>
-      <c r="C61" t="s">
-        <v>218</v>
-      </c>
-      <c r="D61" t="s">
-        <v>215</v>
-      </c>
       <c r="E61" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F61" t="s">
         <v>15</v>
       </c>
       <c r="G61" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="H61" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="J61" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="62" spans="1:11">
-      <c r="A62" t="n">
+      <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
         <v>18</v>
       </c>
       <c r="C62" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D62" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E62" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F62" t="s">
         <v>15</v>
@@ -3945,27 +4951,27 @@
         <v>17</v>
       </c>
       <c r="K62" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="63" spans="1:11">
-      <c r="A63" t="n">
+      <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
         <v>125</v>
       </c>
       <c r="C63" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D63" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E63" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F63" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G63" t="s">
         <v>16</v>
@@ -3977,24 +4983,24 @@
         <v>17</v>
       </c>
       <c r="K63" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="64" spans="1:11">
-      <c r="A64" t="n">
+      <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
         <v>23</v>
       </c>
       <c r="C64" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D64" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E64" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F64" t="s">
         <v>15</v>
@@ -4009,21 +5015,21 @@
         <v>17</v>
       </c>
       <c r="K64" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="65" spans="1:11">
-      <c r="A65" t="n">
+      <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C65" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D65" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E65" t="s">
         <v>15</v>
@@ -4045,20 +5051,20 @@
       </c>
     </row>
     <row r="66" spans="1:11">
-      <c r="A66" t="n">
+      <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
         <v>23</v>
       </c>
       <c r="C66" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D66" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E66" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F66" t="s">
         <v>15</v>
@@ -4073,24 +5079,24 @@
         <v>17</v>
       </c>
       <c r="K66" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="67" spans="1:11">
-      <c r="A67" t="n">
+      <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
         <v>23</v>
       </c>
       <c r="C67" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D67" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E67" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F67" t="s">
         <v>15</v>
@@ -4105,27 +5111,27 @@
         <v>17</v>
       </c>
       <c r="K67" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="68" spans="1:11">
-      <c r="A68" t="n">
+      <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C68" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D68" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E68" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F68" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="G68" t="s">
         <v>16</v>
@@ -4137,24 +5143,24 @@
         <v>17</v>
       </c>
       <c r="K68" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="69" spans="1:11">
-      <c r="A69" t="n">
+      <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
         <v>18</v>
       </c>
       <c r="C69" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D69" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E69" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F69" t="s">
         <v>15</v>
@@ -4173,20 +5179,20 @@
       </c>
     </row>
     <row r="70" spans="1:11">
-      <c r="A70" t="n">
+      <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
         <v>65</v>
       </c>
       <c r="C70" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D70" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E70" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F70" t="s">
         <v>69</v>
@@ -4205,17 +5211,17 @@
       </c>
     </row>
     <row r="71" spans="1:11">
-      <c r="A71" t="n">
+      <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C71" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D71" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E71" t="s">
         <v>15</v>
@@ -4233,21 +5239,21 @@
         <v>17</v>
       </c>
       <c r="K71" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="72" spans="1:11">
-      <c r="A72" t="n">
+      <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
         <v>23</v>
       </c>
       <c r="C72" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D72" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E72" t="s">
         <v>15</v>
@@ -4265,21 +5271,21 @@
         <v>17</v>
       </c>
       <c r="K72" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="73" spans="1:11">
-      <c r="A73" t="n">
+      <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
         <v>23</v>
       </c>
       <c r="C73" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D73" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E73" t="s">
         <v>15</v>
@@ -4297,21 +5303,21 @@
         <v>17</v>
       </c>
       <c r="K73" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="74" spans="1:11">
-      <c r="A74" t="n">
+      <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
         <v>23</v>
       </c>
       <c r="C74" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D74" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E74" t="s">
         <v>15</v>
@@ -4329,21 +5335,21 @@
         <v>17</v>
       </c>
       <c r="K74" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="75" spans="1:11">
-      <c r="A75" t="n">
+      <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
         <v>23</v>
       </c>
       <c r="C75" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D75" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E75" t="s">
         <v>15</v>
@@ -4361,24 +5367,24 @@
         <v>17</v>
       </c>
       <c r="K75" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="76" spans="1:11">
-      <c r="A76" t="n">
+      <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
         <v>23</v>
       </c>
       <c r="C76" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D76" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E76" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="F76" t="s">
         <v>15</v>
@@ -4393,25 +5399,25 @@
         <v>17</v>
       </c>
       <c r="K76" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="77" spans="1:11">
-      <c r="A77" t="n">
+      <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
         <v>23</v>
       </c>
       <c r="C77" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D77" t="s">
+        <v>276</v>
+      </c>
+      <c r="E77" t="s">
         <v>274</v>
       </c>
-      <c r="E77" t="s">
-        <v>272</v>
-      </c>
       <c r="F77" t="s">
         <v>15</v>
       </c>
@@ -4425,24 +5431,24 @@
         <v>17</v>
       </c>
       <c r="K77" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="78" spans="1:11">
-      <c r="A78" t="n">
+      <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
         <v>65</v>
       </c>
       <c r="C78" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D78" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E78" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F78" t="s">
         <v>69</v>
@@ -4457,24 +5463,24 @@
         <v>17</v>
       </c>
       <c r="K78" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="79" spans="1:11">
-      <c r="A79" t="n">
+      <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
         <v>18</v>
       </c>
       <c r="C79" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D79" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="E79" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F79" t="s">
         <v>15</v>
@@ -4493,23 +5499,23 @@
       </c>
     </row>
     <row r="80" spans="1:11">
-      <c r="A80" t="n">
+      <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
         <v>65</v>
       </c>
       <c r="C80" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D80" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E80" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F80" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G80" t="s">
         <v>16</v>
@@ -4521,27 +5527,27 @@
         <v>17</v>
       </c>
       <c r="K80" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="81" spans="1:11">
-      <c r="A81" t="n">
+      <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
         <v>65</v>
       </c>
       <c r="C81" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D81" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E81" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F81" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G81" t="s">
         <v>16</v>
@@ -4553,21 +5559,21 @@
         <v>17</v>
       </c>
       <c r="K81" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="82" spans="1:11">
-      <c r="A82" t="n">
+      <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
         <v>23</v>
       </c>
       <c r="C82" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D82" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E82" t="s">
         <v>15</v>
@@ -4585,21 +5591,21 @@
         <v>17</v>
       </c>
       <c r="K82" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="83" spans="1:11">
-      <c r="A83" t="n">
+      <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
         <v>23</v>
       </c>
       <c r="C83" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D83" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="E83" t="s">
         <v>15</v>
@@ -4617,21 +5623,21 @@
         <v>17</v>
       </c>
       <c r="K83" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="84" spans="1:11">
-      <c r="A84" t="n">
+      <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
         <v>23</v>
       </c>
       <c r="C84" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D84" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E84" t="s">
         <v>15</v>
@@ -4649,24 +5655,24 @@
         <v>17</v>
       </c>
       <c r="K84" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="85" spans="1:11">
-      <c r="A85" t="n">
+      <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C85" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D85" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E85" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F85" t="s">
         <v>15</v>
@@ -4681,24 +5687,24 @@
         <v>17</v>
       </c>
       <c r="K85" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="86" spans="1:11">
-      <c r="A86" t="n">
+      <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
         <v>65</v>
       </c>
       <c r="C86" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D86" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="E86" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F86" t="s">
         <v>69</v>
@@ -4713,24 +5719,24 @@
         <v>17</v>
       </c>
       <c r="K86" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="87" spans="1:11">
-      <c r="A87" t="n">
+      <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
         <v>65</v>
       </c>
       <c r="C87" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D87" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="E87" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F87" t="s">
         <v>69</v>
@@ -4745,21 +5751,21 @@
         <v>17</v>
       </c>
       <c r="K87" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="88" spans="1:11">
-      <c r="A88" t="n">
+      <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" t="s">
         <v>23</v>
       </c>
       <c r="C88" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D88" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="E88" t="s">
         <v>15</v>
@@ -4777,24 +5783,24 @@
         <v>17</v>
       </c>
       <c r="K88" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11">
-      <c r="A89" t="n">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
+      <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="s">
         <v>18</v>
       </c>
       <c r="C89" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D89" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="E89" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F89" t="s">
         <v>15</v>
@@ -4810,17 +5816,17 @@
       </c>
     </row>
     <row r="90" spans="1:11">
-      <c r="A90" t="n">
+      <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" t="s">
         <v>23</v>
       </c>
       <c r="C90" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D90" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E90" t="s">
         <v>15</v>
@@ -4838,21 +5844,21 @@
         <v>17</v>
       </c>
       <c r="K90" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11">
-      <c r="A91" t="n">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
+      <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" t="s">
         <v>18</v>
       </c>
       <c r="C91" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D91" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="E91" t="s">
         <v>15</v>
@@ -4871,20 +5877,20 @@
       </c>
     </row>
     <row r="92" spans="1:11">
-      <c r="A92" t="n">
+      <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" t="s">
         <v>65</v>
       </c>
       <c r="C92" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D92" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E92" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F92" t="s">
         <v>69</v>
@@ -4899,24 +5905,24 @@
         <v>17</v>
       </c>
       <c r="K92" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="93" spans="1:11">
-      <c r="A93" t="n">
+      <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" t="s">
         <v>18</v>
       </c>
       <c r="C93" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D93" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="E93" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="F93" t="s">
         <v>15</v>
@@ -4931,24 +5937,24 @@
         <v>17</v>
       </c>
       <c r="K93" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="94" spans="1:11">
-      <c r="A94" t="n">
+      <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C94" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D94" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="E94" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F94" t="s">
         <v>15</v>
@@ -4967,23 +5973,23 @@
       </c>
     </row>
     <row r="95" spans="1:11">
-      <c r="A95" t="n">
+      <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C95" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D95" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="E95" t="s">
-        <v>328</v>
+        <v>69</v>
       </c>
       <c r="F95" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G95" t="s">
         <v>16</v>
@@ -4995,60 +6001,60 @@
         <v>17</v>
       </c>
       <c r="K95" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>325</v>
+      </c>
+      <c r="C96" t="s">
+        <v>332</v>
+      </c>
+      <c r="D96" t="s">
+        <v>333</v>
+      </c>
+      <c r="E96" t="s">
+        <v>229</v>
+      </c>
+      <c r="F96" t="s">
+        <v>15</v>
+      </c>
+      <c r="G96" t="s">
+        <v>16</v>
+      </c>
+      <c r="H96" t="s">
+        <v>16</v>
+      </c>
+      <c r="J96" t="s">
+        <v>17</v>
+      </c>
+      <c r="K96" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>325</v>
+      </c>
+      <c r="C97" t="s">
+        <v>335</v>
+      </c>
+      <c r="D97" t="s">
+        <v>336</v>
+      </c>
+      <c r="E97" t="s">
+        <v>69</v>
+      </c>
+      <c r="F97" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="96" spans="1:11">
-      <c r="A96" t="n">
-        <v>95</v>
-      </c>
-      <c r="B96" t="s">
-        <v>323</v>
-      </c>
-      <c r="C96" t="s">
-        <v>331</v>
-      </c>
-      <c r="D96" t="s">
-        <v>332</v>
-      </c>
-      <c r="E96" t="s">
-        <v>227</v>
-      </c>
-      <c r="F96" t="s">
-        <v>15</v>
-      </c>
-      <c r="G96" t="s">
-        <v>16</v>
-      </c>
-      <c r="H96" t="s">
-        <v>16</v>
-      </c>
-      <c r="J96" t="s">
-        <v>17</v>
-      </c>
-      <c r="K96" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11">
-      <c r="A97" t="n">
-        <v>96</v>
-      </c>
-      <c r="B97" t="s">
-        <v>323</v>
-      </c>
-      <c r="C97" t="s">
-        <v>334</v>
-      </c>
-      <c r="D97" t="s">
-        <v>335</v>
-      </c>
-      <c r="E97" t="s">
-        <v>328</v>
-      </c>
-      <c r="F97" t="s">
-        <v>329</v>
-      </c>
       <c r="G97" t="s">
         <v>16</v>
       </c>
@@ -5059,15 +6065,15 @@
         <v>17</v>
       </c>
       <c r="K97" t="s">
-        <v>336</v>
+        <v>268</v>
       </c>
     </row>
     <row r="98" spans="1:11">
-      <c r="A98" t="n">
+      <c r="A98">
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C98" t="s">
         <v>337</v>
@@ -5076,7 +6082,7 @@
         <v>338</v>
       </c>
       <c r="E98" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F98" t="s">
         <v>15</v>
@@ -5095,7 +6101,7 @@
       </c>
     </row>
     <row r="99" spans="1:11">
-      <c r="A99" t="n">
+      <c r="A99">
         <v>98</v>
       </c>
       <c r="B99" t="s">
@@ -5127,7 +6133,7 @@
       </c>
     </row>
     <row r="100" spans="1:11">
-      <c r="A100" t="n">
+      <c r="A100">
         <v>99</v>
       </c>
       <c r="B100" t="s">
@@ -5159,7 +6165,7 @@
       </c>
     </row>
     <row r="101" spans="1:11">
-      <c r="A101" t="n">
+      <c r="A101">
         <v>100</v>
       </c>
       <c r="B101" t="s">
@@ -5191,7 +6197,7 @@
       </c>
     </row>
     <row r="102" spans="1:11">
-      <c r="A102" t="n">
+      <c r="A102">
         <v>101</v>
       </c>
       <c r="B102" t="s">
@@ -5223,11 +6229,11 @@
       </c>
     </row>
     <row r="103" spans="1:11">
-      <c r="A103" t="n">
+      <c r="A103">
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C103" t="s">
         <v>352</v>
@@ -5236,7 +6242,7 @@
         <v>353</v>
       </c>
       <c r="E103" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F103" t="s">
         <v>15</v>
@@ -5255,7 +6261,7 @@
       </c>
     </row>
     <row r="104" spans="1:11">
-      <c r="A104" t="n">
+      <c r="A104">
         <v>103</v>
       </c>
       <c r="B104" t="s">
@@ -5268,42 +6274,42 @@
         <v>356</v>
       </c>
       <c r="E104" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F104" t="s">
-        <v>329</v>
+        <v>357</v>
       </c>
       <c r="G104" t="s">
         <v>16</v>
       </c>
       <c r="H104" t="s">
-        <v>16</v>
+        <v>131</v>
       </c>
       <c r="J104" t="s">
-        <v>17</v>
+        <v>186</v>
       </c>
       <c r="K104" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="105" spans="1:11">
-      <c r="A105" t="n">
+      <c r="A105">
         <v>104</v>
       </c>
       <c r="B105" t="s">
         <v>65</v>
       </c>
       <c r="C105" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D105" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E105" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F105" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G105" t="s">
         <v>16</v>
@@ -5315,190 +6321,4725 @@
         <v>17</v>
       </c>
       <c r="K105" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="106" spans="1:11">
-      <c r="A106" t="n">
+      <c r="A106">
         <v>105</v>
       </c>
       <c r="B106" t="s">
         <v>65</v>
       </c>
       <c r="C106" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D106" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E106" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F106" t="s">
+        <v>229</v>
+      </c>
+      <c r="G106" t="s">
+        <v>16</v>
+      </c>
+      <c r="H106" t="s">
+        <v>16</v>
+      </c>
+      <c r="J106" t="s">
+        <v>17</v>
+      </c>
+      <c r="K106" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>18</v>
+      </c>
+      <c r="C107" t="s">
+        <v>361</v>
+      </c>
+      <c r="D107" t="s">
+        <v>362</v>
+      </c>
+      <c r="E107" t="s">
+        <v>363</v>
+      </c>
+      <c r="F107" t="s">
+        <v>15</v>
+      </c>
+      <c r="G107" t="s">
+        <v>16</v>
+      </c>
+      <c r="H107" t="s">
+        <v>16</v>
+      </c>
+      <c r="J107" t="s">
+        <v>17</v>
+      </c>
+      <c r="K107" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>18</v>
+      </c>
+      <c r="C108" t="s">
+        <v>365</v>
+      </c>
+      <c r="D108" t="s">
+        <v>362</v>
+      </c>
+      <c r="E108" t="s">
+        <v>366</v>
+      </c>
+      <c r="F108" t="s">
+        <v>15</v>
+      </c>
+      <c r="G108" t="s">
+        <v>16</v>
+      </c>
+      <c r="H108" t="s">
+        <v>16</v>
+      </c>
+      <c r="J108" t="s">
+        <v>17</v>
+      </c>
+      <c r="K108" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>18</v>
+      </c>
+      <c r="C109" t="s">
+        <v>367</v>
+      </c>
+      <c r="D109" t="s">
+        <v>362</v>
+      </c>
+      <c r="E109" t="s">
+        <v>368</v>
+      </c>
+      <c r="F109" t="s">
+        <v>15</v>
+      </c>
+      <c r="G109" t="s">
+        <v>131</v>
+      </c>
+      <c r="H109" t="s">
+        <v>131</v>
+      </c>
+      <c r="J109" t="s">
+        <v>17</v>
+      </c>
+      <c r="K109" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>18</v>
+      </c>
+      <c r="C110" t="s">
+        <v>369</v>
+      </c>
+      <c r="D110" t="s">
+        <v>362</v>
+      </c>
+      <c r="E110" t="s">
+        <v>370</v>
+      </c>
+      <c r="F110" t="s">
+        <v>15</v>
+      </c>
+      <c r="G110" t="s">
+        <v>131</v>
+      </c>
+      <c r="H110" t="s">
+        <v>131</v>
+      </c>
+      <c r="J110" t="s">
+        <v>17</v>
+      </c>
+      <c r="K110" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>18</v>
+      </c>
+      <c r="C111" t="s">
+        <v>371</v>
+      </c>
+      <c r="D111" t="s">
+        <v>362</v>
+      </c>
+      <c r="E111" t="s">
+        <v>372</v>
+      </c>
+      <c r="F111" t="s">
+        <v>15</v>
+      </c>
+      <c r="G111" t="s">
+        <v>131</v>
+      </c>
+      <c r="H111" t="s">
+        <v>16</v>
+      </c>
+      <c r="J111" t="s">
+        <v>186</v>
+      </c>
+      <c r="K111" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>18</v>
+      </c>
+      <c r="C112" t="s">
+        <v>373</v>
+      </c>
+      <c r="D112" t="s">
+        <v>362</v>
+      </c>
+      <c r="E112" t="s">
+        <v>374</v>
+      </c>
+      <c r="F112" t="s">
+        <v>15</v>
+      </c>
+      <c r="G112" t="s">
+        <v>131</v>
+      </c>
+      <c r="H112" t="s">
+        <v>131</v>
+      </c>
+      <c r="J112" t="s">
+        <v>17</v>
+      </c>
+      <c r="K112" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>18</v>
+      </c>
+      <c r="C113" t="s">
+        <v>375</v>
+      </c>
+      <c r="D113" t="s">
+        <v>362</v>
+      </c>
+      <c r="E113" t="s">
+        <v>376</v>
+      </c>
+      <c r="F113" t="s">
+        <v>15</v>
+      </c>
+      <c r="G113" t="s">
+        <v>131</v>
+      </c>
+      <c r="H113" t="s">
+        <v>131</v>
+      </c>
+      <c r="J113" t="s">
+        <v>17</v>
+      </c>
+      <c r="K113" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>18</v>
+      </c>
+      <c r="C114" t="s">
+        <v>377</v>
+      </c>
+      <c r="D114" t="s">
+        <v>362</v>
+      </c>
+      <c r="E114" t="s">
+        <v>378</v>
+      </c>
+      <c r="F114" t="s">
+        <v>15</v>
+      </c>
+      <c r="G114" t="s">
+        <v>131</v>
+      </c>
+      <c r="H114" t="s">
+        <v>131</v>
+      </c>
+      <c r="J114" t="s">
+        <v>17</v>
+      </c>
+      <c r="K114" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>18</v>
+      </c>
+      <c r="C115" t="s">
+        <v>379</v>
+      </c>
+      <c r="D115" t="s">
+        <v>362</v>
+      </c>
+      <c r="E115" t="s">
+        <v>380</v>
+      </c>
+      <c r="F115" t="s">
+        <v>15</v>
+      </c>
+      <c r="G115" t="s">
+        <v>131</v>
+      </c>
+      <c r="H115" t="s">
+        <v>131</v>
+      </c>
+      <c r="J115" t="s">
+        <v>17</v>
+      </c>
+      <c r="K115" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>18</v>
+      </c>
+      <c r="C116" t="s">
+        <v>381</v>
+      </c>
+      <c r="D116" t="s">
+        <v>362</v>
+      </c>
+      <c r="E116" t="s">
+        <v>382</v>
+      </c>
+      <c r="F116" t="s">
+        <v>15</v>
+      </c>
+      <c r="G116" t="s">
+        <v>131</v>
+      </c>
+      <c r="H116" t="s">
+        <v>131</v>
+      </c>
+      <c r="J116" t="s">
+        <v>17</v>
+      </c>
+      <c r="K116" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>18</v>
+      </c>
+      <c r="C117" t="s">
+        <v>383</v>
+      </c>
+      <c r="D117" t="s">
+        <v>362</v>
+      </c>
+      <c r="E117" t="s">
+        <v>384</v>
+      </c>
+      <c r="F117" t="s">
+        <v>15</v>
+      </c>
+      <c r="G117" t="s">
+        <v>131</v>
+      </c>
+      <c r="H117" t="s">
+        <v>16</v>
+      </c>
+      <c r="J117" t="s">
+        <v>186</v>
+      </c>
+      <c r="K117" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>18</v>
+      </c>
+      <c r="C118" t="s">
+        <v>385</v>
+      </c>
+      <c r="D118" t="s">
+        <v>362</v>
+      </c>
+      <c r="E118" t="s">
+        <v>386</v>
+      </c>
+      <c r="F118" t="s">
+        <v>15</v>
+      </c>
+      <c r="G118" t="s">
+        <v>131</v>
+      </c>
+      <c r="H118" t="s">
+        <v>16</v>
+      </c>
+      <c r="J118" t="s">
+        <v>186</v>
+      </c>
+      <c r="K118" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>18</v>
+      </c>
+      <c r="C119" t="s">
+        <v>387</v>
+      </c>
+      <c r="D119" t="s">
+        <v>362</v>
+      </c>
+      <c r="E119" t="s">
+        <v>388</v>
+      </c>
+      <c r="F119" t="s">
+        <v>15</v>
+      </c>
+      <c r="G119" t="s">
+        <v>131</v>
+      </c>
+      <c r="H119" t="s">
+        <v>131</v>
+      </c>
+      <c r="J119" t="s">
+        <v>17</v>
+      </c>
+      <c r="K119" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>18</v>
+      </c>
+      <c r="C120" t="s">
+        <v>389</v>
+      </c>
+      <c r="D120" t="s">
+        <v>362</v>
+      </c>
+      <c r="E120" t="s">
+        <v>390</v>
+      </c>
+      <c r="F120" t="s">
+        <v>15</v>
+      </c>
+      <c r="G120" t="s">
+        <v>131</v>
+      </c>
+      <c r="H120" t="s">
+        <v>16</v>
+      </c>
+      <c r="J120" t="s">
+        <v>186</v>
+      </c>
+      <c r="K120" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>18</v>
+      </c>
+      <c r="C121" t="s">
+        <v>391</v>
+      </c>
+      <c r="D121" t="s">
+        <v>392</v>
+      </c>
+      <c r="E121" t="s">
+        <v>363</v>
+      </c>
+      <c r="F121" t="s">
+        <v>15</v>
+      </c>
+      <c r="G121" t="s">
+        <v>131</v>
+      </c>
+      <c r="H121" t="s">
+        <v>131</v>
+      </c>
+      <c r="J121" t="s">
+        <v>17</v>
+      </c>
+      <c r="K121" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>65</v>
+      </c>
+      <c r="C122" t="s">
+        <v>394</v>
+      </c>
+      <c r="D122" t="s">
+        <v>395</v>
+      </c>
+      <c r="E122" t="s">
+        <v>396</v>
+      </c>
+      <c r="F122" t="s">
+        <v>397</v>
+      </c>
+      <c r="G122" t="s">
+        <v>16</v>
+      </c>
+      <c r="H122" t="s">
+        <v>16</v>
+      </c>
+      <c r="J122" t="s">
+        <v>17</v>
+      </c>
+      <c r="K122" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>65</v>
+      </c>
+      <c r="C123" t="s">
+        <v>398</v>
+      </c>
+      <c r="D123" t="s">
+        <v>395</v>
+      </c>
+      <c r="E123" t="s">
+        <v>399</v>
+      </c>
+      <c r="F123" t="s">
+        <v>397</v>
+      </c>
+      <c r="G123" t="s">
+        <v>16</v>
+      </c>
+      <c r="H123" t="s">
+        <v>131</v>
+      </c>
+      <c r="J123" t="s">
+        <v>186</v>
+      </c>
+      <c r="K123" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>65</v>
+      </c>
+      <c r="C124" t="s">
+        <v>400</v>
+      </c>
+      <c r="D124" t="s">
+        <v>395</v>
+      </c>
+      <c r="E124" t="s">
+        <v>401</v>
+      </c>
+      <c r="F124" t="s">
+        <v>397</v>
+      </c>
+      <c r="G124" t="s">
+        <v>131</v>
+      </c>
+      <c r="H124" t="s">
+        <v>131</v>
+      </c>
+      <c r="J124" t="s">
+        <v>17</v>
+      </c>
+      <c r="K124" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>65</v>
+      </c>
+      <c r="C125" t="s">
+        <v>402</v>
+      </c>
+      <c r="D125" t="s">
+        <v>395</v>
+      </c>
+      <c r="E125" t="s">
+        <v>403</v>
+      </c>
+      <c r="F125" t="s">
+        <v>397</v>
+      </c>
+      <c r="G125" t="s">
+        <v>131</v>
+      </c>
+      <c r="H125" t="s">
+        <v>131</v>
+      </c>
+      <c r="J125" t="s">
+        <v>17</v>
+      </c>
+      <c r="K125" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>65</v>
+      </c>
+      <c r="C126" t="s">
+        <v>404</v>
+      </c>
+      <c r="D126" t="s">
+        <v>395</v>
+      </c>
+      <c r="E126" t="s">
+        <v>405</v>
+      </c>
+      <c r="F126" t="s">
+        <v>397</v>
+      </c>
+      <c r="G126" t="s">
+        <v>131</v>
+      </c>
+      <c r="H126" t="s">
+        <v>16</v>
+      </c>
+      <c r="J126" t="s">
+        <v>186</v>
+      </c>
+      <c r="K126" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>65</v>
+      </c>
+      <c r="C127" t="s">
+        <v>406</v>
+      </c>
+      <c r="D127" t="s">
+        <v>395</v>
+      </c>
+      <c r="E127" t="s">
+        <v>407</v>
+      </c>
+      <c r="F127" t="s">
+        <v>397</v>
+      </c>
+      <c r="G127" t="s">
+        <v>131</v>
+      </c>
+      <c r="H127" t="s">
+        <v>131</v>
+      </c>
+      <c r="J127" t="s">
+        <v>17</v>
+      </c>
+      <c r="K127" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>65</v>
+      </c>
+      <c r="C128" t="s">
+        <v>408</v>
+      </c>
+      <c r="D128" t="s">
+        <v>395</v>
+      </c>
+      <c r="E128" t="s">
+        <v>409</v>
+      </c>
+      <c r="F128" t="s">
+        <v>397</v>
+      </c>
+      <c r="G128" t="s">
+        <v>131</v>
+      </c>
+      <c r="H128" t="s">
+        <v>131</v>
+      </c>
+      <c r="J128" t="s">
+        <v>17</v>
+      </c>
+      <c r="K128" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>65</v>
+      </c>
+      <c r="C129" t="s">
+        <v>410</v>
+      </c>
+      <c r="D129" t="s">
+        <v>395</v>
+      </c>
+      <c r="E129" t="s">
+        <v>411</v>
+      </c>
+      <c r="F129" t="s">
+        <v>397</v>
+      </c>
+      <c r="G129" t="s">
+        <v>131</v>
+      </c>
+      <c r="H129" t="s">
+        <v>131</v>
+      </c>
+      <c r="J129" t="s">
+        <v>17</v>
+      </c>
+      <c r="K129" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>65</v>
+      </c>
+      <c r="C130" t="s">
+        <v>412</v>
+      </c>
+      <c r="D130" t="s">
+        <v>395</v>
+      </c>
+      <c r="E130" t="s">
+        <v>413</v>
+      </c>
+      <c r="F130" t="s">
+        <v>397</v>
+      </c>
+      <c r="G130" t="s">
+        <v>131</v>
+      </c>
+      <c r="H130" t="s">
+        <v>16</v>
+      </c>
+      <c r="J130" t="s">
+        <v>186</v>
+      </c>
+      <c r="K130" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>65</v>
+      </c>
+      <c r="C131" t="s">
+        <v>414</v>
+      </c>
+      <c r="D131" t="s">
+        <v>395</v>
+      </c>
+      <c r="E131" t="s">
+        <v>415</v>
+      </c>
+      <c r="F131" t="s">
+        <v>397</v>
+      </c>
+      <c r="G131" t="s">
+        <v>131</v>
+      </c>
+      <c r="H131" t="s">
+        <v>131</v>
+      </c>
+      <c r="J131" t="s">
+        <v>17</v>
+      </c>
+      <c r="K131" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>65</v>
+      </c>
+      <c r="C132" t="s">
+        <v>416</v>
+      </c>
+      <c r="D132" t="s">
+        <v>395</v>
+      </c>
+      <c r="E132" t="s">
+        <v>396</v>
+      </c>
+      <c r="F132" t="s">
+        <v>397</v>
+      </c>
+      <c r="G132" t="s">
+        <v>131</v>
+      </c>
+      <c r="H132" t="s">
+        <v>131</v>
+      </c>
+      <c r="J132" t="s">
+        <v>17</v>
+      </c>
+      <c r="K132" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>65</v>
+      </c>
+      <c r="C133" t="s">
+        <v>417</v>
+      </c>
+      <c r="D133" t="s">
+        <v>395</v>
+      </c>
+      <c r="E133" t="s">
+        <v>418</v>
+      </c>
+      <c r="F133" t="s">
+        <v>397</v>
+      </c>
+      <c r="G133" t="s">
+        <v>131</v>
+      </c>
+      <c r="H133" t="s">
+        <v>131</v>
+      </c>
+      <c r="J133" t="s">
+        <v>17</v>
+      </c>
+      <c r="K133" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>65</v>
+      </c>
+      <c r="C134" t="s">
+        <v>419</v>
+      </c>
+      <c r="D134" t="s">
+        <v>395</v>
+      </c>
+      <c r="E134" t="s">
+        <v>420</v>
+      </c>
+      <c r="F134" t="s">
+        <v>397</v>
+      </c>
+      <c r="G134" t="s">
+        <v>131</v>
+      </c>
+      <c r="H134" t="s">
+        <v>131</v>
+      </c>
+      <c r="J134" t="s">
+        <v>17</v>
+      </c>
+      <c r="K134" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>65</v>
+      </c>
+      <c r="C135" t="s">
+        <v>421</v>
+      </c>
+      <c r="D135" t="s">
+        <v>395</v>
+      </c>
+      <c r="E135" t="s">
+        <v>422</v>
+      </c>
+      <c r="F135" t="s">
+        <v>397</v>
+      </c>
+      <c r="G135" t="s">
+        <v>131</v>
+      </c>
+      <c r="H135" t="s">
+        <v>16</v>
+      </c>
+      <c r="J135" t="s">
+        <v>186</v>
+      </c>
+      <c r="K135" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136" t="s">
+        <v>65</v>
+      </c>
+      <c r="C136" t="s">
+        <v>423</v>
+      </c>
+      <c r="D136" t="s">
+        <v>424</v>
+      </c>
+      <c r="E136" t="s">
+        <v>396</v>
+      </c>
+      <c r="F136" t="s">
+        <v>397</v>
+      </c>
+      <c r="G136" t="s">
+        <v>131</v>
+      </c>
+      <c r="H136" t="s">
+        <v>131</v>
+      </c>
+      <c r="J136" t="s">
+        <v>17</v>
+      </c>
+      <c r="K136" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137" t="s">
+        <v>65</v>
+      </c>
+      <c r="C137" t="s">
+        <v>425</v>
+      </c>
+      <c r="D137" t="s">
+        <v>426</v>
+      </c>
+      <c r="E137" t="s">
+        <v>15</v>
+      </c>
+      <c r="F137" t="s">
+        <v>427</v>
+      </c>
+      <c r="G137" t="s">
+        <v>16</v>
+      </c>
+      <c r="H137" t="s">
+        <v>131</v>
+      </c>
+      <c r="J137" t="s">
+        <v>186</v>
+      </c>
+      <c r="K137" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138" t="s">
+        <v>125</v>
+      </c>
+      <c r="C138" t="s">
+        <v>428</v>
+      </c>
+      <c r="D138" t="s">
+        <v>429</v>
+      </c>
+      <c r="E138" t="s">
+        <v>430</v>
+      </c>
+      <c r="F138" t="s">
+        <v>431</v>
+      </c>
+      <c r="G138" t="s">
+        <v>16</v>
+      </c>
+      <c r="H138" t="s">
+        <v>131</v>
+      </c>
+      <c r="J138" t="s">
+        <v>186</v>
+      </c>
+      <c r="K138" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139" t="s">
+        <v>125</v>
+      </c>
+      <c r="C139" t="s">
+        <v>432</v>
+      </c>
+      <c r="D139" t="s">
+        <v>429</v>
+      </c>
+      <c r="E139" t="s">
+        <v>430</v>
+      </c>
+      <c r="F139" t="s">
+        <v>433</v>
+      </c>
+      <c r="G139" t="s">
+        <v>131</v>
+      </c>
+      <c r="H139" t="s">
+        <v>131</v>
+      </c>
+      <c r="J139" t="s">
+        <v>17</v>
+      </c>
+      <c r="K139" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140" t="s">
+        <v>65</v>
+      </c>
+      <c r="C140" t="s">
+        <v>434</v>
+      </c>
+      <c r="D140" t="s">
+        <v>435</v>
+      </c>
+      <c r="E140" t="s">
+        <v>15</v>
+      </c>
+      <c r="F140" t="s">
+        <v>436</v>
+      </c>
+      <c r="G140" t="s">
+        <v>131</v>
+      </c>
+      <c r="H140" t="s">
+        <v>131</v>
+      </c>
+      <c r="J140" t="s">
+        <v>17</v>
+      </c>
+      <c r="K140" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141" t="s">
+        <v>23</v>
+      </c>
+      <c r="C141" t="s">
+        <v>437</v>
+      </c>
+      <c r="D141" t="s">
+        <v>438</v>
+      </c>
+      <c r="E141" t="s">
+        <v>439</v>
+      </c>
+      <c r="F141" t="s">
+        <v>15</v>
+      </c>
+      <c r="G141" t="s">
+        <v>131</v>
+      </c>
+      <c r="H141" t="s">
+        <v>16</v>
+      </c>
+      <c r="J141" t="s">
+        <v>186</v>
+      </c>
+      <c r="K141" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142" t="s">
+        <v>23</v>
+      </c>
+      <c r="C142" t="s">
+        <v>441</v>
+      </c>
+      <c r="D142" t="s">
+        <v>442</v>
+      </c>
+      <c r="E142" t="s">
+        <v>439</v>
+      </c>
+      <c r="F142" t="s">
+        <v>15</v>
+      </c>
+      <c r="G142" t="s">
+        <v>16</v>
+      </c>
+      <c r="H142" t="s">
+        <v>16</v>
+      </c>
+      <c r="J142" t="s">
+        <v>17</v>
+      </c>
+      <c r="K142" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143" t="s">
+        <v>23</v>
+      </c>
+      <c r="C143" t="s">
+        <v>444</v>
+      </c>
+      <c r="D143" t="s">
+        <v>442</v>
+      </c>
+      <c r="E143" t="s">
+        <v>445</v>
+      </c>
+      <c r="F143" t="s">
+        <v>15</v>
+      </c>
+      <c r="G143" t="s">
+        <v>131</v>
+      </c>
+      <c r="H143" t="s">
+        <v>131</v>
+      </c>
+      <c r="J143" t="s">
+        <v>17</v>
+      </c>
+      <c r="K143" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144" t="s">
+        <v>23</v>
+      </c>
+      <c r="C144" t="s">
+        <v>446</v>
+      </c>
+      <c r="D144" t="s">
+        <v>442</v>
+      </c>
+      <c r="E144" t="s">
+        <v>447</v>
+      </c>
+      <c r="F144" t="s">
+        <v>15</v>
+      </c>
+      <c r="G144" t="s">
+        <v>131</v>
+      </c>
+      <c r="H144" t="s">
+        <v>131</v>
+      </c>
+      <c r="J144" t="s">
+        <v>17</v>
+      </c>
+      <c r="K144" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145" t="s">
+        <v>23</v>
+      </c>
+      <c r="C145" t="s">
+        <v>448</v>
+      </c>
+      <c r="D145" t="s">
+        <v>449</v>
+      </c>
+      <c r="E145" t="s">
+        <v>15</v>
+      </c>
+      <c r="F145" t="s">
+        <v>15</v>
+      </c>
+      <c r="G145" t="s">
+        <v>16</v>
+      </c>
+      <c r="H145" t="s">
+        <v>16</v>
+      </c>
+      <c r="J145" t="s">
+        <v>17</v>
+      </c>
+      <c r="K145" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146" t="s">
+        <v>23</v>
+      </c>
+      <c r="C146" t="s">
+        <v>451</v>
+      </c>
+      <c r="D146" t="s">
+        <v>452</v>
+      </c>
+      <c r="E146" t="s">
+        <v>15</v>
+      </c>
+      <c r="F146" t="s">
+        <v>15</v>
+      </c>
+      <c r="G146" t="s">
+        <v>131</v>
+      </c>
+      <c r="H146" t="s">
+        <v>131</v>
+      </c>
+      <c r="J146" t="s">
+        <v>17</v>
+      </c>
+      <c r="K146" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147" t="s">
+        <v>23</v>
+      </c>
+      <c r="C147" t="s">
+        <v>453</v>
+      </c>
+      <c r="D147" t="s">
+        <v>454</v>
+      </c>
+      <c r="E147" t="s">
+        <v>15</v>
+      </c>
+      <c r="F147" t="s">
+        <v>15</v>
+      </c>
+      <c r="G147" t="s">
+        <v>16</v>
+      </c>
+      <c r="H147" t="s">
+        <v>16</v>
+      </c>
+      <c r="J147" t="s">
+        <v>17</v>
+      </c>
+      <c r="K147" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148" t="s">
+        <v>23</v>
+      </c>
+      <c r="C148" t="s">
+        <v>456</v>
+      </c>
+      <c r="D148" t="s">
+        <v>457</v>
+      </c>
+      <c r="E148" t="s">
+        <v>15</v>
+      </c>
+      <c r="F148" t="s">
+        <v>15</v>
+      </c>
+      <c r="G148" t="s">
+        <v>131</v>
+      </c>
+      <c r="H148" t="s">
+        <v>16</v>
+      </c>
+      <c r="J148" t="s">
+        <v>186</v>
+      </c>
+      <c r="K148" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149" t="s">
+        <v>23</v>
+      </c>
+      <c r="C149" t="s">
+        <v>459</v>
+      </c>
+      <c r="D149" t="s">
+        <v>460</v>
+      </c>
+      <c r="E149" t="s">
+        <v>15</v>
+      </c>
+      <c r="F149" t="s">
+        <v>15</v>
+      </c>
+      <c r="G149" t="s">
+        <v>16</v>
+      </c>
+      <c r="H149" t="s">
+        <v>16</v>
+      </c>
+      <c r="J149" t="s">
+        <v>17</v>
+      </c>
+      <c r="K149" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150" t="s">
+        <v>23</v>
+      </c>
+      <c r="C150" t="s">
+        <v>461</v>
+      </c>
+      <c r="D150" t="s">
+        <v>462</v>
+      </c>
+      <c r="E150" t="s">
+        <v>15</v>
+      </c>
+      <c r="F150" t="s">
+        <v>15</v>
+      </c>
+      <c r="G150" t="s">
+        <v>131</v>
+      </c>
+      <c r="H150" t="s">
+        <v>16</v>
+      </c>
+      <c r="J150" t="s">
+        <v>186</v>
+      </c>
+      <c r="K150" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151" t="s">
+        <v>18</v>
+      </c>
+      <c r="C151" t="s">
+        <v>463</v>
+      </c>
+      <c r="D151" t="s">
+        <v>464</v>
+      </c>
+      <c r="E151" t="s">
+        <v>465</v>
+      </c>
+      <c r="F151" t="s">
+        <v>15</v>
+      </c>
+      <c r="G151" t="s">
+        <v>16</v>
+      </c>
+      <c r="H151" t="s">
+        <v>16</v>
+      </c>
+      <c r="J151" t="s">
+        <v>17</v>
+      </c>
+      <c r="K151" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152" t="s">
+        <v>18</v>
+      </c>
+      <c r="C152" t="s">
+        <v>467</v>
+      </c>
+      <c r="D152" t="s">
+        <v>468</v>
+      </c>
+      <c r="E152" t="s">
+        <v>465</v>
+      </c>
+      <c r="F152" t="s">
+        <v>15</v>
+      </c>
+      <c r="G152" t="s">
+        <v>131</v>
+      </c>
+      <c r="H152" t="s">
+        <v>131</v>
+      </c>
+      <c r="J152" t="s">
+        <v>17</v>
+      </c>
+      <c r="K152" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153" t="s">
+        <v>18</v>
+      </c>
+      <c r="C153" t="s">
+        <v>469</v>
+      </c>
+      <c r="D153" t="s">
+        <v>464</v>
+      </c>
+      <c r="E153" t="s">
+        <v>470</v>
+      </c>
+      <c r="F153" t="s">
+        <v>15</v>
+      </c>
+      <c r="G153" t="s">
+        <v>131</v>
+      </c>
+      <c r="H153" t="s">
+        <v>131</v>
+      </c>
+      <c r="J153" t="s">
+        <v>17</v>
+      </c>
+      <c r="K153" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154" t="s">
+        <v>18</v>
+      </c>
+      <c r="C154" t="s">
+        <v>471</v>
+      </c>
+      <c r="D154" t="s">
+        <v>464</v>
+      </c>
+      <c r="E154" t="s">
+        <v>15</v>
+      </c>
+      <c r="F154" t="s">
+        <v>15</v>
+      </c>
+      <c r="G154" t="s">
+        <v>131</v>
+      </c>
+      <c r="H154" t="s">
+        <v>131</v>
+      </c>
+      <c r="J154" t="s">
+        <v>17</v>
+      </c>
+      <c r="K154" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155" t="s">
+        <v>23</v>
+      </c>
+      <c r="C155" t="s">
+        <v>472</v>
+      </c>
+      <c r="D155" t="s">
+        <v>473</v>
+      </c>
+      <c r="E155" t="s">
+        <v>474</v>
+      </c>
+      <c r="F155" t="s">
+        <v>15</v>
+      </c>
+      <c r="G155" t="s">
+        <v>16</v>
+      </c>
+      <c r="H155" t="s">
+        <v>16</v>
+      </c>
+      <c r="J155" t="s">
+        <v>17</v>
+      </c>
+      <c r="K155" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156" t="s">
+        <v>23</v>
+      </c>
+      <c r="C156" t="s">
+        <v>476</v>
+      </c>
+      <c r="D156" t="s">
+        <v>477</v>
+      </c>
+      <c r="E156" t="s">
+        <v>474</v>
+      </c>
+      <c r="F156" t="s">
+        <v>15</v>
+      </c>
+      <c r="G156" t="s">
+        <v>131</v>
+      </c>
+      <c r="H156" t="s">
+        <v>16</v>
+      </c>
+      <c r="J156" t="s">
+        <v>186</v>
+      </c>
+      <c r="K156" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157" t="s">
+        <v>23</v>
+      </c>
+      <c r="C157" t="s">
+        <v>479</v>
+      </c>
+      <c r="D157" t="s">
+        <v>473</v>
+      </c>
+      <c r="E157" t="s">
+        <v>480</v>
+      </c>
+      <c r="F157" t="s">
+        <v>15</v>
+      </c>
+      <c r="G157" t="s">
+        <v>131</v>
+      </c>
+      <c r="H157" t="s">
+        <v>131</v>
+      </c>
+      <c r="J157" t="s">
+        <v>17</v>
+      </c>
+      <c r="K157" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158" t="s">
+        <v>23</v>
+      </c>
+      <c r="C158" t="s">
+        <v>481</v>
+      </c>
+      <c r="D158" t="s">
+        <v>473</v>
+      </c>
+      <c r="E158" t="s">
+        <v>482</v>
+      </c>
+      <c r="F158" t="s">
+        <v>15</v>
+      </c>
+      <c r="G158" t="s">
+        <v>131</v>
+      </c>
+      <c r="H158" t="s">
+        <v>131</v>
+      </c>
+      <c r="J158" t="s">
+        <v>17</v>
+      </c>
+      <c r="K158" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159" t="s">
+        <v>23</v>
+      </c>
+      <c r="C159" t="s">
+        <v>483</v>
+      </c>
+      <c r="D159" t="s">
+        <v>473</v>
+      </c>
+      <c r="E159" t="s">
+        <v>484</v>
+      </c>
+      <c r="F159" t="s">
+        <v>15</v>
+      </c>
+      <c r="G159" t="s">
+        <v>16</v>
+      </c>
+      <c r="H159" t="s">
+        <v>16</v>
+      </c>
+      <c r="J159" t="s">
+        <v>17</v>
+      </c>
+      <c r="K159" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160" t="s">
+        <v>18</v>
+      </c>
+      <c r="C160" t="s">
+        <v>485</v>
+      </c>
+      <c r="D160" t="s">
+        <v>486</v>
+      </c>
+      <c r="E160" t="s">
+        <v>487</v>
+      </c>
+      <c r="F160" t="s">
+        <v>15</v>
+      </c>
+      <c r="G160" t="s">
+        <v>16</v>
+      </c>
+      <c r="H160" t="s">
+        <v>131</v>
+      </c>
+      <c r="J160" t="s">
+        <v>186</v>
+      </c>
+      <c r="K160" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161" t="s">
+        <v>18</v>
+      </c>
+      <c r="C161" t="s">
+        <v>488</v>
+      </c>
+      <c r="D161" t="s">
+        <v>486</v>
+      </c>
+      <c r="E161" t="s">
+        <v>489</v>
+      </c>
+      <c r="F161" t="s">
+        <v>15</v>
+      </c>
+      <c r="G161" t="s">
+        <v>16</v>
+      </c>
+      <c r="H161" t="s">
+        <v>16</v>
+      </c>
+      <c r="J161" t="s">
+        <v>17</v>
+      </c>
+      <c r="K161" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11">
+      <c r="A162">
+        <v>161</v>
+      </c>
+      <c r="B162" t="s">
+        <v>18</v>
+      </c>
+      <c r="C162" t="s">
+        <v>491</v>
+      </c>
+      <c r="D162" t="s">
+        <v>492</v>
+      </c>
+      <c r="E162" t="s">
+        <v>489</v>
+      </c>
+      <c r="F162" t="s">
+        <v>15</v>
+      </c>
+      <c r="G162" t="s">
+        <v>131</v>
+      </c>
+      <c r="H162" t="s">
+        <v>16</v>
+      </c>
+      <c r="J162" t="s">
+        <v>186</v>
+      </c>
+      <c r="K162" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11">
+      <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="B163" t="s">
+        <v>18</v>
+      </c>
+      <c r="C163" t="s">
+        <v>494</v>
+      </c>
+      <c r="D163" t="s">
+        <v>486</v>
+      </c>
+      <c r="E163" t="s">
+        <v>495</v>
+      </c>
+      <c r="F163" t="s">
+        <v>15</v>
+      </c>
+      <c r="G163" t="s">
+        <v>131</v>
+      </c>
+      <c r="H163" t="s">
+        <v>131</v>
+      </c>
+      <c r="J163" t="s">
+        <v>17</v>
+      </c>
+      <c r="K163" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="B164" t="s">
+        <v>18</v>
+      </c>
+      <c r="C164" t="s">
+        <v>496</v>
+      </c>
+      <c r="D164" t="s">
+        <v>486</v>
+      </c>
+      <c r="E164" t="s">
+        <v>15</v>
+      </c>
+      <c r="F164" t="s">
+        <v>15</v>
+      </c>
+      <c r="G164" t="s">
+        <v>131</v>
+      </c>
+      <c r="H164" t="s">
+        <v>131</v>
+      </c>
+      <c r="J164" t="s">
+        <v>17</v>
+      </c>
+      <c r="K164" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="B165" t="s">
+        <v>23</v>
+      </c>
+      <c r="C165" t="s">
+        <v>497</v>
+      </c>
+      <c r="D165" t="s">
+        <v>486</v>
+      </c>
+      <c r="E165" t="s">
+        <v>489</v>
+      </c>
+      <c r="F165" t="s">
+        <v>15</v>
+      </c>
+      <c r="G165" t="s">
+        <v>16</v>
+      </c>
+      <c r="H165" t="s">
+        <v>131</v>
+      </c>
+      <c r="J165" t="s">
+        <v>186</v>
+      </c>
+      <c r="K165" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11">
+      <c r="A166">
+        <v>165</v>
+      </c>
+      <c r="B166" t="s">
+        <v>325</v>
+      </c>
+      <c r="C166" t="s">
+        <v>498</v>
+      </c>
+      <c r="D166" t="s">
+        <v>499</v>
+      </c>
+      <c r="E166" t="s">
+        <v>69</v>
+      </c>
+      <c r="F166" t="s">
+        <v>500</v>
+      </c>
+      <c r="G166" t="s">
+        <v>16</v>
+      </c>
+      <c r="H166" t="s">
+        <v>16</v>
+      </c>
+      <c r="J166" t="s">
+        <v>17</v>
+      </c>
+      <c r="K166" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11">
+      <c r="A167">
+        <v>166</v>
+      </c>
+      <c r="B167" t="s">
+        <v>23</v>
+      </c>
+      <c r="C167" t="s">
+        <v>502</v>
+      </c>
+      <c r="D167" t="s">
+        <v>503</v>
+      </c>
+      <c r="E167" t="s">
+        <v>15</v>
+      </c>
+      <c r="F167" t="s">
+        <v>15</v>
+      </c>
+      <c r="G167" t="s">
+        <v>131</v>
+      </c>
+      <c r="H167" t="s">
+        <v>131</v>
+      </c>
+      <c r="J167" t="s">
+        <v>17</v>
+      </c>
+      <c r="K167" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11">
+      <c r="A168">
+        <v>167</v>
+      </c>
+      <c r="B168" t="s">
+        <v>325</v>
+      </c>
+      <c r="C168" t="s">
+        <v>504</v>
+      </c>
+      <c r="D168" t="s">
+        <v>505</v>
+      </c>
+      <c r="E168" t="s">
+        <v>69</v>
+      </c>
+      <c r="F168" t="s">
+        <v>506</v>
+      </c>
+      <c r="G168" t="s">
+        <v>131</v>
+      </c>
+      <c r="H168" t="s">
+        <v>131</v>
+      </c>
+      <c r="J168" t="s">
+        <v>17</v>
+      </c>
+      <c r="K168" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169">
+        <v>168</v>
+      </c>
+      <c r="B169" t="s">
+        <v>65</v>
+      </c>
+      <c r="C169" t="s">
+        <v>507</v>
+      </c>
+      <c r="D169" t="s">
+        <v>508</v>
+      </c>
+      <c r="E169" t="s">
+        <v>509</v>
+      </c>
+      <c r="F169" t="s">
+        <v>69</v>
+      </c>
+      <c r="G169" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11">
+      <c r="A170">
+        <v>169</v>
+      </c>
+      <c r="B170" t="s">
+        <v>65</v>
+      </c>
+      <c r="C170" t="s">
+        <v>510</v>
+      </c>
+      <c r="D170" t="s">
+        <v>511</v>
+      </c>
+      <c r="E170" t="s">
+        <v>509</v>
+      </c>
+      <c r="F170" t="s">
+        <v>69</v>
+      </c>
+      <c r="G170" t="s">
+        <v>16</v>
+      </c>
+      <c r="H170" t="s">
+        <v>16</v>
+      </c>
+      <c r="J170" t="s">
+        <v>17</v>
+      </c>
+      <c r="K170" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11">
+      <c r="A171">
+        <v>170</v>
+      </c>
+      <c r="B171" t="s">
+        <v>65</v>
+      </c>
+      <c r="C171" t="s">
+        <v>512</v>
+      </c>
+      <c r="D171" t="s">
+        <v>513</v>
+      </c>
+      <c r="E171" t="s">
+        <v>15</v>
+      </c>
+      <c r="F171" t="s">
+        <v>514</v>
+      </c>
+      <c r="G171" t="s">
+        <v>16</v>
+      </c>
+      <c r="H171" t="s">
+        <v>16</v>
+      </c>
+      <c r="J171" t="s">
+        <v>17</v>
+      </c>
+      <c r="K171" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172">
+        <v>171</v>
+      </c>
+      <c r="B172" t="s">
+        <v>65</v>
+      </c>
+      <c r="C172" t="s">
+        <v>515</v>
+      </c>
+      <c r="D172" t="s">
+        <v>516</v>
+      </c>
+      <c r="E172" t="s">
+        <v>15</v>
+      </c>
+      <c r="F172" t="s">
+        <v>514</v>
+      </c>
+      <c r="G172" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11">
+      <c r="A173">
+        <v>172</v>
+      </c>
+      <c r="B173" t="s">
+        <v>65</v>
+      </c>
+      <c r="C173" t="s">
+        <v>517</v>
+      </c>
+      <c r="D173" t="s">
+        <v>518</v>
+      </c>
+      <c r="E173" t="s">
+        <v>15</v>
+      </c>
+      <c r="F173" t="s">
+        <v>514</v>
+      </c>
+      <c r="G173" t="s">
+        <v>131</v>
+      </c>
+      <c r="H173" t="s">
+        <v>131</v>
+      </c>
+      <c r="J173" t="s">
+        <v>17</v>
+      </c>
+      <c r="K173" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174">
+        <v>173</v>
+      </c>
+      <c r="B174" t="s">
+        <v>65</v>
+      </c>
+      <c r="C174" t="s">
+        <v>519</v>
+      </c>
+      <c r="D174" t="s">
+        <v>520</v>
+      </c>
+      <c r="E174" t="s">
+        <v>521</v>
+      </c>
+      <c r="F174" t="s">
+        <v>514</v>
+      </c>
+      <c r="G174" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11">
+      <c r="A175">
+        <v>174</v>
+      </c>
+      <c r="B175" t="s">
+        <v>65</v>
+      </c>
+      <c r="C175" t="s">
+        <v>522</v>
+      </c>
+      <c r="D175" t="s">
+        <v>523</v>
+      </c>
+      <c r="E175" t="s">
+        <v>521</v>
+      </c>
+      <c r="F175" t="s">
+        <v>514</v>
+      </c>
+      <c r="G175" t="s">
+        <v>16</v>
+      </c>
+      <c r="H175" t="s">
+        <v>16</v>
+      </c>
+      <c r="J175" t="s">
+        <v>17</v>
+      </c>
+      <c r="K175" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11">
+      <c r="A176">
+        <v>175</v>
+      </c>
+      <c r="B176" t="s">
+        <v>65</v>
+      </c>
+      <c r="C176" t="s">
+        <v>524</v>
+      </c>
+      <c r="D176" t="s">
+        <v>525</v>
+      </c>
+      <c r="E176" t="s">
+        <v>521</v>
+      </c>
+      <c r="F176" t="s">
+        <v>514</v>
+      </c>
+      <c r="G176" t="s">
+        <v>131</v>
+      </c>
+      <c r="H176" t="s">
+        <v>131</v>
+      </c>
+      <c r="J176" t="s">
+        <v>17</v>
+      </c>
+      <c r="K176" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177">
+        <v>176</v>
+      </c>
+      <c r="B177" t="s">
+        <v>325</v>
+      </c>
+      <c r="C177" t="s">
+        <v>526</v>
+      </c>
+      <c r="D177" t="s">
+        <v>527</v>
+      </c>
+      <c r="E177" t="s">
+        <v>69</v>
+      </c>
+      <c r="F177" t="s">
+        <v>528</v>
+      </c>
+      <c r="G177" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11">
+      <c r="A178">
+        <v>177</v>
+      </c>
+      <c r="B178" t="s">
+        <v>325</v>
+      </c>
+      <c r="C178" t="s">
+        <v>529</v>
+      </c>
+      <c r="D178" t="s">
+        <v>505</v>
+      </c>
+      <c r="E178" t="s">
+        <v>69</v>
+      </c>
+      <c r="F178" t="s">
+        <v>528</v>
+      </c>
+      <c r="G178" t="s">
+        <v>131</v>
+      </c>
+      <c r="H178" t="s">
+        <v>16</v>
+      </c>
+      <c r="J178" t="s">
+        <v>186</v>
+      </c>
+      <c r="K178" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11">
+      <c r="A179">
+        <v>178</v>
+      </c>
+      <c r="B179" t="s">
+        <v>325</v>
+      </c>
+      <c r="C179" t="s">
+        <v>531</v>
+      </c>
+      <c r="D179" t="s">
+        <v>499</v>
+      </c>
+      <c r="E179" t="s">
+        <v>69</v>
+      </c>
+      <c r="F179" t="s">
+        <v>528</v>
+      </c>
+      <c r="G179" t="s">
+        <v>16</v>
+      </c>
+      <c r="H179" t="s">
+        <v>16</v>
+      </c>
+      <c r="J179" t="s">
+        <v>17</v>
+      </c>
+      <c r="K179" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11">
+      <c r="A180">
+        <v>179</v>
+      </c>
+      <c r="B180" t="s">
+        <v>23</v>
+      </c>
+      <c r="C180" t="s">
+        <v>532</v>
+      </c>
+      <c r="D180" t="s">
+        <v>533</v>
+      </c>
+      <c r="E180" t="s">
+        <v>15</v>
+      </c>
+      <c r="F180" t="s">
+        <v>15</v>
+      </c>
+      <c r="G180" t="s">
+        <v>16</v>
+      </c>
+      <c r="H180" t="s">
+        <v>16</v>
+      </c>
+      <c r="J180" t="s">
+        <v>17</v>
+      </c>
+      <c r="K180" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11">
+      <c r="A181">
+        <v>180</v>
+      </c>
+      <c r="B181" t="s">
+        <v>23</v>
+      </c>
+      <c r="C181" t="s">
+        <v>535</v>
+      </c>
+      <c r="D181" t="s">
+        <v>536</v>
+      </c>
+      <c r="E181" t="s">
+        <v>15</v>
+      </c>
+      <c r="F181" t="s">
+        <v>15</v>
+      </c>
+      <c r="G181" t="s">
+        <v>131</v>
+      </c>
+      <c r="H181" t="s">
+        <v>131</v>
+      </c>
+      <c r="J181" t="s">
+        <v>17</v>
+      </c>
+      <c r="K181" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11">
+      <c r="A182">
+        <v>181</v>
+      </c>
+      <c r="B182" t="s">
+        <v>23</v>
+      </c>
+      <c r="C182" t="s">
+        <v>537</v>
+      </c>
+      <c r="D182" t="s">
+        <v>233</v>
+      </c>
+      <c r="E182" t="s">
+        <v>234</v>
+      </c>
+      <c r="F182" t="s">
+        <v>15</v>
+      </c>
+      <c r="G182" t="s">
+        <v>16</v>
+      </c>
+      <c r="H182" t="s">
+        <v>16</v>
+      </c>
+      <c r="J182" t="s">
+        <v>17</v>
+      </c>
+      <c r="K182" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11">
+      <c r="A183">
+        <v>182</v>
+      </c>
+      <c r="B183" t="s">
+        <v>23</v>
+      </c>
+      <c r="C183" t="s">
+        <v>538</v>
+      </c>
+      <c r="D183" t="s">
+        <v>539</v>
+      </c>
+      <c r="E183" t="s">
+        <v>234</v>
+      </c>
+      <c r="F183" t="s">
+        <v>15</v>
+      </c>
+      <c r="G183" t="s">
+        <v>131</v>
+      </c>
+      <c r="H183" t="s">
+        <v>131</v>
+      </c>
+      <c r="J183" t="s">
+        <v>17</v>
+      </c>
+      <c r="K183" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11">
+      <c r="A184">
+        <v>183</v>
+      </c>
+      <c r="B184" t="s">
+        <v>23</v>
+      </c>
+      <c r="C184" t="s">
+        <v>541</v>
+      </c>
+      <c r="D184" t="s">
+        <v>542</v>
+      </c>
+      <c r="E184" t="s">
+        <v>543</v>
+      </c>
+      <c r="F184" t="s">
+        <v>15</v>
+      </c>
+      <c r="G184" t="s">
+        <v>16</v>
+      </c>
+      <c r="H184" t="s">
+        <v>16</v>
+      </c>
+      <c r="J184" t="s">
+        <v>17</v>
+      </c>
+      <c r="K184" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
+      <c r="A185">
+        <v>184</v>
+      </c>
+      <c r="B185" t="s">
+        <v>65</v>
+      </c>
+      <c r="C185" t="s">
+        <v>545</v>
+      </c>
+      <c r="D185" t="s">
+        <v>542</v>
+      </c>
+      <c r="E185" t="s">
+        <v>543</v>
+      </c>
+      <c r="F185" t="s">
+        <v>15</v>
+      </c>
+      <c r="G185" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11">
+      <c r="A186">
+        <v>185</v>
+      </c>
+      <c r="B186" t="s">
+        <v>23</v>
+      </c>
+      <c r="C186" t="s">
+        <v>546</v>
+      </c>
+      <c r="D186" t="s">
+        <v>547</v>
+      </c>
+      <c r="E186" t="s">
+        <v>543</v>
+      </c>
+      <c r="F186" t="s">
+        <v>15</v>
+      </c>
+      <c r="G186" t="s">
+        <v>131</v>
+      </c>
+      <c r="H186" t="s">
+        <v>131</v>
+      </c>
+      <c r="J186" t="s">
+        <v>17</v>
+      </c>
+      <c r="K186" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11">
+      <c r="A187">
+        <v>186</v>
+      </c>
+      <c r="B187" t="s">
+        <v>23</v>
+      </c>
+      <c r="C187" t="s">
+        <v>549</v>
+      </c>
+      <c r="D187" t="s">
+        <v>550</v>
+      </c>
+      <c r="E187" t="s">
+        <v>551</v>
+      </c>
+      <c r="F187" t="s">
+        <v>15</v>
+      </c>
+      <c r="G187" t="s">
+        <v>16</v>
+      </c>
+      <c r="H187" t="s">
+        <v>16</v>
+      </c>
+      <c r="J187" t="s">
+        <v>17</v>
+      </c>
+      <c r="K187" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11">
+      <c r="A188">
+        <v>187</v>
+      </c>
+      <c r="B188" t="s">
+        <v>23</v>
+      </c>
+      <c r="C188" t="s">
+        <v>553</v>
+      </c>
+      <c r="D188" t="s">
+        <v>554</v>
+      </c>
+      <c r="E188" t="s">
+        <v>555</v>
+      </c>
+      <c r="F188" t="s">
+        <v>15</v>
+      </c>
+      <c r="G188" t="s">
+        <v>131</v>
+      </c>
+      <c r="H188" t="s">
+        <v>16</v>
+      </c>
+      <c r="J188" t="s">
+        <v>186</v>
+      </c>
+      <c r="K188" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11">
+      <c r="A189">
+        <v>188</v>
+      </c>
+      <c r="B189" t="s">
+        <v>23</v>
+      </c>
+      <c r="C189" t="s">
+        <v>556</v>
+      </c>
+      <c r="D189" t="s">
+        <v>550</v>
+      </c>
+      <c r="E189" t="s">
+        <v>557</v>
+      </c>
+      <c r="F189" t="s">
+        <v>15</v>
+      </c>
+      <c r="G189" t="s">
+        <v>131</v>
+      </c>
+      <c r="H189" t="s">
+        <v>131</v>
+      </c>
+      <c r="J189" t="s">
+        <v>17</v>
+      </c>
+      <c r="K189" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11">
+      <c r="A190">
+        <v>189</v>
+      </c>
+      <c r="B190" t="s">
+        <v>23</v>
+      </c>
+      <c r="C190" t="s">
+        <v>558</v>
+      </c>
+      <c r="D190" t="s">
+        <v>550</v>
+      </c>
+      <c r="E190" t="s">
+        <v>559</v>
+      </c>
+      <c r="F190" t="s">
+        <v>15</v>
+      </c>
+      <c r="G190" t="s">
+        <v>131</v>
+      </c>
+      <c r="H190" t="s">
+        <v>131</v>
+      </c>
+      <c r="J190" t="s">
+        <v>17</v>
+      </c>
+      <c r="K190" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11">
+      <c r="A191">
+        <v>190</v>
+      </c>
+      <c r="B191" t="s">
+        <v>23</v>
+      </c>
+      <c r="C191" t="s">
+        <v>560</v>
+      </c>
+      <c r="D191" t="s">
+        <v>550</v>
+      </c>
+      <c r="E191" t="s">
+        <v>561</v>
+      </c>
+      <c r="F191" t="s">
+        <v>15</v>
+      </c>
+      <c r="G191" t="s">
+        <v>16</v>
+      </c>
+      <c r="H191" t="s">
+        <v>131</v>
+      </c>
+      <c r="J191" t="s">
+        <v>186</v>
+      </c>
+      <c r="K191" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11">
+      <c r="A192">
+        <v>191</v>
+      </c>
+      <c r="B192" t="s">
+        <v>325</v>
+      </c>
+      <c r="C192" t="s">
+        <v>562</v>
+      </c>
+      <c r="D192" t="s">
+        <v>563</v>
+      </c>
+      <c r="E192" t="s">
+        <v>69</v>
+      </c>
+      <c r="F192" t="s">
+        <v>528</v>
+      </c>
+      <c r="G192" t="s">
+        <v>16</v>
+      </c>
+      <c r="H192" t="s">
+        <v>16</v>
+      </c>
+      <c r="J192" t="s">
+        <v>17</v>
+      </c>
+      <c r="K192" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11">
+      <c r="A193">
+        <v>192</v>
+      </c>
+      <c r="B193" t="s">
+        <v>325</v>
+      </c>
+      <c r="C193" t="s">
+        <v>565</v>
+      </c>
+      <c r="D193" t="s">
+        <v>566</v>
+      </c>
+      <c r="E193" t="s">
+        <v>69</v>
+      </c>
+      <c r="F193" t="s">
+        <v>528</v>
+      </c>
+      <c r="G193" t="s">
+        <v>131</v>
+      </c>
+      <c r="H193" t="s">
+        <v>131</v>
+      </c>
+      <c r="J193" t="s">
+        <v>17</v>
+      </c>
+      <c r="K193" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11">
+      <c r="A194">
+        <v>193</v>
+      </c>
+      <c r="B194" t="s">
+        <v>325</v>
+      </c>
+      <c r="C194" t="s">
+        <v>567</v>
+      </c>
+      <c r="D194" t="s">
+        <v>568</v>
+      </c>
+      <c r="E194" t="s">
+        <v>69</v>
+      </c>
+      <c r="F194" t="s">
+        <v>528</v>
+      </c>
+      <c r="G194" t="s">
+        <v>16</v>
+      </c>
+      <c r="H194" t="s">
+        <v>16</v>
+      </c>
+      <c r="J194" t="s">
+        <v>17</v>
+      </c>
+      <c r="K194" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11">
+      <c r="A195">
+        <v>194</v>
+      </c>
+      <c r="B195" t="s">
+        <v>325</v>
+      </c>
+      <c r="C195" t="s">
+        <v>570</v>
+      </c>
+      <c r="D195" t="s">
+        <v>571</v>
+      </c>
+      <c r="E195" t="s">
+        <v>69</v>
+      </c>
+      <c r="F195" t="s">
+        <v>528</v>
+      </c>
+      <c r="G195" t="s">
+        <v>131</v>
+      </c>
+      <c r="H195" t="s">
+        <v>16</v>
+      </c>
+      <c r="J195" t="s">
+        <v>186</v>
+      </c>
+      <c r="K195" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11">
+      <c r="A196">
+        <v>195</v>
+      </c>
+      <c r="B196" t="s">
+        <v>18</v>
+      </c>
+      <c r="C196" t="s">
+        <v>573</v>
+      </c>
+      <c r="D196" t="s">
+        <v>574</v>
+      </c>
+      <c r="E196" t="s">
+        <v>575</v>
+      </c>
+      <c r="F196" t="s">
+        <v>15</v>
+      </c>
+      <c r="G196" t="s">
+        <v>16</v>
+      </c>
+      <c r="H196" t="s">
+        <v>16</v>
+      </c>
+      <c r="J196" t="s">
+        <v>17</v>
+      </c>
+      <c r="K196" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11">
+      <c r="A197">
+        <v>196</v>
+      </c>
+      <c r="B197" t="s">
+        <v>18</v>
+      </c>
+      <c r="C197" t="s">
+        <v>576</v>
+      </c>
+      <c r="D197" t="s">
+        <v>577</v>
+      </c>
+      <c r="E197" t="s">
+        <v>575</v>
+      </c>
+      <c r="F197" t="s">
+        <v>15</v>
+      </c>
+      <c r="G197" t="s">
+        <v>131</v>
+      </c>
+      <c r="H197" t="s">
+        <v>16</v>
+      </c>
+      <c r="J197" t="s">
+        <v>186</v>
+      </c>
+      <c r="K197" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11">
+      <c r="A198">
+        <v>197</v>
+      </c>
+      <c r="B198" t="s">
+        <v>18</v>
+      </c>
+      <c r="C198" t="s">
+        <v>578</v>
+      </c>
+      <c r="D198" t="s">
+        <v>574</v>
+      </c>
+      <c r="E198" t="s">
+        <v>579</v>
+      </c>
+      <c r="F198" t="s">
+        <v>15</v>
+      </c>
+      <c r="G198" t="s">
+        <v>131</v>
+      </c>
+      <c r="H198" t="s">
+        <v>131</v>
+      </c>
+      <c r="J198" t="s">
+        <v>17</v>
+      </c>
+      <c r="K198" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11">
+      <c r="A199">
+        <v>198</v>
+      </c>
+      <c r="B199" t="s">
+        <v>18</v>
+      </c>
+      <c r="C199" t="s">
+        <v>581</v>
+      </c>
+      <c r="D199" t="s">
+        <v>574</v>
+      </c>
+      <c r="E199" t="s">
+        <v>582</v>
+      </c>
+      <c r="F199" t="s">
+        <v>15</v>
+      </c>
+      <c r="G199" t="s">
+        <v>131</v>
+      </c>
+      <c r="H199" t="s">
+        <v>131</v>
+      </c>
+      <c r="J199" t="s">
+        <v>17</v>
+      </c>
+      <c r="K199" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11">
+      <c r="A200">
+        <v>199</v>
+      </c>
+      <c r="B200" t="s">
+        <v>18</v>
+      </c>
+      <c r="C200" t="s">
+        <v>583</v>
+      </c>
+      <c r="D200" t="s">
+        <v>574</v>
+      </c>
+      <c r="E200" t="s">
+        <v>584</v>
+      </c>
+      <c r="F200" t="s">
+        <v>15</v>
+      </c>
+      <c r="G200" t="s">
+        <v>131</v>
+      </c>
+      <c r="H200" t="s">
+        <v>131</v>
+      </c>
+      <c r="J200" t="s">
+        <v>17</v>
+      </c>
+      <c r="K200" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11">
+      <c r="A201">
+        <v>200</v>
+      </c>
+      <c r="B201" t="s">
+        <v>18</v>
+      </c>
+      <c r="C201" t="s">
+        <v>586</v>
+      </c>
+      <c r="D201" t="s">
+        <v>574</v>
+      </c>
+      <c r="E201" t="s">
+        <v>587</v>
+      </c>
+      <c r="F201" t="s">
+        <v>15</v>
+      </c>
+      <c r="G201" t="s">
+        <v>131</v>
+      </c>
+      <c r="H201" t="s">
+        <v>131</v>
+      </c>
+      <c r="J201" t="s">
+        <v>17</v>
+      </c>
+      <c r="K201" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11">
+      <c r="A202">
+        <v>201</v>
+      </c>
+      <c r="B202" t="s">
+        <v>18</v>
+      </c>
+      <c r="C202" t="s">
+        <v>588</v>
+      </c>
+      <c r="D202" t="s">
+        <v>574</v>
+      </c>
+      <c r="E202" t="s">
+        <v>589</v>
+      </c>
+      <c r="F202" t="s">
+        <v>15</v>
+      </c>
+      <c r="G202" t="s">
+        <v>131</v>
+      </c>
+      <c r="H202" t="s">
+        <v>131</v>
+      </c>
+      <c r="J202" t="s">
+        <v>17</v>
+      </c>
+      <c r="K202" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11">
+      <c r="A203">
+        <v>202</v>
+      </c>
+      <c r="B203" t="s">
+        <v>18</v>
+      </c>
+      <c r="C203" t="s">
+        <v>591</v>
+      </c>
+      <c r="D203" t="s">
+        <v>574</v>
+      </c>
+      <c r="E203" t="s">
+        <v>592</v>
+      </c>
+      <c r="F203" t="s">
+        <v>15</v>
+      </c>
+      <c r="G203" t="s">
+        <v>131</v>
+      </c>
+      <c r="H203" t="s">
+        <v>131</v>
+      </c>
+      <c r="J203" t="s">
+        <v>17</v>
+      </c>
+      <c r="K203" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11">
+      <c r="A204">
+        <v>203</v>
+      </c>
+      <c r="B204" t="s">
+        <v>125</v>
+      </c>
+      <c r="C204" t="s">
+        <v>593</v>
+      </c>
+      <c r="D204" t="s">
+        <v>574</v>
+      </c>
+      <c r="E204" t="s">
+        <v>582</v>
+      </c>
+      <c r="F204" t="s">
+        <v>528</v>
+      </c>
+      <c r="G204" t="s">
+        <v>16</v>
+      </c>
+      <c r="H204" t="s">
+        <v>16</v>
+      </c>
+      <c r="J204" t="s">
+        <v>17</v>
+      </c>
+      <c r="K204" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11">
+      <c r="A205">
+        <v>204</v>
+      </c>
+      <c r="B205" t="s">
+        <v>125</v>
+      </c>
+      <c r="C205" t="s">
+        <v>594</v>
+      </c>
+      <c r="D205" t="s">
+        <v>577</v>
+      </c>
+      <c r="E205" t="s">
+        <v>582</v>
+      </c>
+      <c r="F205" t="s">
+        <v>528</v>
+      </c>
+      <c r="G205" t="s">
+        <v>131</v>
+      </c>
+      <c r="H205" t="s">
+        <v>16</v>
+      </c>
+      <c r="J205" t="s">
+        <v>186</v>
+      </c>
+      <c r="K205" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11">
+      <c r="A206">
+        <v>205</v>
+      </c>
+      <c r="B206" t="s">
+        <v>125</v>
+      </c>
+      <c r="C206" t="s">
+        <v>595</v>
+      </c>
+      <c r="D206" t="s">
+        <v>574</v>
+      </c>
+      <c r="E206" t="s">
+        <v>596</v>
+      </c>
+      <c r="F206" t="s">
+        <v>528</v>
+      </c>
+      <c r="G206" t="s">
+        <v>131</v>
+      </c>
+      <c r="H206" t="s">
+        <v>131</v>
+      </c>
+      <c r="J206" t="s">
+        <v>17</v>
+      </c>
+      <c r="K206" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11">
+      <c r="A207">
+        <v>206</v>
+      </c>
+      <c r="B207" t="s">
+        <v>125</v>
+      </c>
+      <c r="C207" t="s">
+        <v>597</v>
+      </c>
+      <c r="D207" t="s">
+        <v>574</v>
+      </c>
+      <c r="E207" t="s">
+        <v>598</v>
+      </c>
+      <c r="F207" t="s">
+        <v>528</v>
+      </c>
+      <c r="G207" t="s">
+        <v>131</v>
+      </c>
+      <c r="H207" t="s">
+        <v>131</v>
+      </c>
+      <c r="J207" t="s">
+        <v>17</v>
+      </c>
+      <c r="K207" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11">
+      <c r="A208">
+        <v>207</v>
+      </c>
+      <c r="B208" t="s">
+        <v>125</v>
+      </c>
+      <c r="C208" t="s">
+        <v>599</v>
+      </c>
+      <c r="D208" t="s">
+        <v>574</v>
+      </c>
+      <c r="E208" t="s">
+        <v>600</v>
+      </c>
+      <c r="F208" t="s">
+        <v>528</v>
+      </c>
+      <c r="G208" t="s">
+        <v>131</v>
+      </c>
+      <c r="H208" t="s">
+        <v>131</v>
+      </c>
+      <c r="J208" t="s">
+        <v>17</v>
+      </c>
+      <c r="K208" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11">
+      <c r="A209">
+        <v>208</v>
+      </c>
+      <c r="B209" t="s">
+        <v>125</v>
+      </c>
+      <c r="C209" t="s">
+        <v>601</v>
+      </c>
+      <c r="D209" t="s">
+        <v>574</v>
+      </c>
+      <c r="E209" t="s">
+        <v>602</v>
+      </c>
+      <c r="F209" t="s">
+        <v>528</v>
+      </c>
+      <c r="G209" t="s">
+        <v>131</v>
+      </c>
+      <c r="H209" t="s">
+        <v>131</v>
+      </c>
+      <c r="J209" t="s">
+        <v>17</v>
+      </c>
+      <c r="K209" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11">
+      <c r="A210">
+        <v>209</v>
+      </c>
+      <c r="B210" t="s">
+        <v>23</v>
+      </c>
+      <c r="C210" t="s">
+        <v>603</v>
+      </c>
+      <c r="D210" t="s">
+        <v>577</v>
+      </c>
+      <c r="E210" t="s">
+        <v>582</v>
+      </c>
+      <c r="F210" t="s">
+        <v>15</v>
+      </c>
+      <c r="G210" t="s">
+        <v>131</v>
+      </c>
+      <c r="H210" t="s">
+        <v>131</v>
+      </c>
+      <c r="J210" t="s">
+        <v>17</v>
+      </c>
+      <c r="K210" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11">
+      <c r="A211">
+        <v>210</v>
+      </c>
+      <c r="B211" t="s">
+        <v>23</v>
+      </c>
+      <c r="C211" t="s">
+        <v>604</v>
+      </c>
+      <c r="D211" t="s">
+        <v>574</v>
+      </c>
+      <c r="E211" t="s">
+        <v>582</v>
+      </c>
+      <c r="F211" t="s">
+        <v>15</v>
+      </c>
+      <c r="G211" t="s">
+        <v>16</v>
+      </c>
+      <c r="H211" t="s">
+        <v>131</v>
+      </c>
+      <c r="J211" t="s">
+        <v>186</v>
+      </c>
+      <c r="K211" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11">
+      <c r="A212">
+        <v>211</v>
+      </c>
+      <c r="B212" t="s">
+        <v>23</v>
+      </c>
+      <c r="C212" t="s">
+        <v>605</v>
+      </c>
+      <c r="D212" t="s">
+        <v>606</v>
+      </c>
+      <c r="E212" t="s">
+        <v>15</v>
+      </c>
+      <c r="F212" t="s">
+        <v>15</v>
+      </c>
+      <c r="G212" t="s">
+        <v>16</v>
+      </c>
+      <c r="H212" t="s">
+        <v>16</v>
+      </c>
+      <c r="J212" t="s">
+        <v>17</v>
+      </c>
+      <c r="K212" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11">
+      <c r="A213">
+        <v>212</v>
+      </c>
+      <c r="B213" t="s">
+        <v>23</v>
+      </c>
+      <c r="C213" t="s">
+        <v>608</v>
+      </c>
+      <c r="D213" t="s">
+        <v>609</v>
+      </c>
+      <c r="E213" t="s">
+        <v>15</v>
+      </c>
+      <c r="F213" t="s">
+        <v>15</v>
+      </c>
+      <c r="G213" t="s">
+        <v>131</v>
+      </c>
+      <c r="H213" t="s">
+        <v>16</v>
+      </c>
+      <c r="J213" t="s">
+        <v>186</v>
+      </c>
+      <c r="K213" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11">
+      <c r="A214">
+        <v>213</v>
+      </c>
+      <c r="B214" t="s">
+        <v>18</v>
+      </c>
+      <c r="C214" t="s">
+        <v>610</v>
+      </c>
+      <c r="D214" t="s">
+        <v>606</v>
+      </c>
+      <c r="E214" t="s">
+        <v>611</v>
+      </c>
+      <c r="F214" t="s">
+        <v>15</v>
+      </c>
+      <c r="G214" t="s">
+        <v>16</v>
+      </c>
+      <c r="H214" t="s">
+        <v>16</v>
+      </c>
+      <c r="J214" t="s">
+        <v>17</v>
+      </c>
+      <c r="K214" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11">
+      <c r="A215">
+        <v>214</v>
+      </c>
+      <c r="B215" t="s">
+        <v>18</v>
+      </c>
+      <c r="C215" t="s">
+        <v>612</v>
+      </c>
+      <c r="D215" t="s">
+        <v>609</v>
+      </c>
+      <c r="E215" t="s">
+        <v>611</v>
+      </c>
+      <c r="F215" t="s">
+        <v>15</v>
+      </c>
+      <c r="G215" t="s">
+        <v>131</v>
+      </c>
+      <c r="H215" t="s">
+        <v>16</v>
+      </c>
+      <c r="J215" t="s">
+        <v>186</v>
+      </c>
+      <c r="K215" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11">
+      <c r="A216">
+        <v>215</v>
+      </c>
+      <c r="B216" t="s">
+        <v>23</v>
+      </c>
+      <c r="C216" t="s">
+        <v>613</v>
+      </c>
+      <c r="D216" t="s">
+        <v>614</v>
+      </c>
+      <c r="E216" t="s">
+        <v>15</v>
+      </c>
+      <c r="F216" t="s">
+        <v>15</v>
+      </c>
+      <c r="G216" t="s">
+        <v>16</v>
+      </c>
+      <c r="H216" t="s">
+        <v>16</v>
+      </c>
+      <c r="J216" t="s">
+        <v>17</v>
+      </c>
+      <c r="K216" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11">
+      <c r="A217">
+        <v>216</v>
+      </c>
+      <c r="B217" t="s">
+        <v>23</v>
+      </c>
+      <c r="C217" t="s">
+        <v>615</v>
+      </c>
+      <c r="D217" t="s">
+        <v>616</v>
+      </c>
+      <c r="E217" t="s">
+        <v>15</v>
+      </c>
+      <c r="F217" t="s">
+        <v>15</v>
+      </c>
+      <c r="G217" t="s">
+        <v>131</v>
+      </c>
+      <c r="H217" t="s">
+        <v>16</v>
+      </c>
+      <c r="J217" t="s">
+        <v>186</v>
+      </c>
+      <c r="K217" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11">
+      <c r="A218">
+        <v>217</v>
+      </c>
+      <c r="B218" t="s">
+        <v>23</v>
+      </c>
+      <c r="C218" t="s">
+        <v>618</v>
+      </c>
+      <c r="D218" t="s">
+        <v>619</v>
+      </c>
+      <c r="E218" t="s">
+        <v>620</v>
+      </c>
+      <c r="F218" t="s">
+        <v>15</v>
+      </c>
+      <c r="G218" t="s">
+        <v>16</v>
+      </c>
+      <c r="H218" t="s">
+        <v>16</v>
+      </c>
+      <c r="J218" t="s">
+        <v>17</v>
+      </c>
+      <c r="K218" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11">
+      <c r="A219">
+        <v>218</v>
+      </c>
+      <c r="B219" t="s">
+        <v>23</v>
+      </c>
+      <c r="C219" t="s">
+        <v>621</v>
+      </c>
+      <c r="D219" t="s">
+        <v>622</v>
+      </c>
+      <c r="E219" t="s">
+        <v>620</v>
+      </c>
+      <c r="F219" t="s">
+        <v>15</v>
+      </c>
+      <c r="G219" t="s">
+        <v>131</v>
+      </c>
+      <c r="H219" t="s">
+        <v>16</v>
+      </c>
+      <c r="J219" t="s">
+        <v>186</v>
+      </c>
+      <c r="K219" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11">
+      <c r="A220">
+        <v>219</v>
+      </c>
+      <c r="B220" t="s">
+        <v>325</v>
+      </c>
+      <c r="C220" t="s">
+        <v>623</v>
+      </c>
+      <c r="D220" t="s">
+        <v>624</v>
+      </c>
+      <c r="E220" t="s">
+        <v>69</v>
+      </c>
+      <c r="F220" t="s">
+        <v>625</v>
+      </c>
+      <c r="G220" t="s">
+        <v>16</v>
+      </c>
+      <c r="H220" t="s">
+        <v>16</v>
+      </c>
+      <c r="J220" t="s">
+        <v>17</v>
+      </c>
+      <c r="K220" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11">
+      <c r="A221">
+        <v>220</v>
+      </c>
+      <c r="B221" t="s">
+        <v>325</v>
+      </c>
+      <c r="C221" t="s">
+        <v>627</v>
+      </c>
+      <c r="D221" t="s">
+        <v>628</v>
+      </c>
+      <c r="E221" t="s">
+        <v>69</v>
+      </c>
+      <c r="F221" t="s">
+        <v>625</v>
+      </c>
+      <c r="G221" t="s">
+        <v>131</v>
+      </c>
+      <c r="H221" t="s">
+        <v>131</v>
+      </c>
+      <c r="J221" t="s">
+        <v>17</v>
+      </c>
+      <c r="K221" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11">
+      <c r="A222">
+        <v>221</v>
+      </c>
+      <c r="B222" t="s">
+        <v>325</v>
+      </c>
+      <c r="C222" t="s">
+        <v>629</v>
+      </c>
+      <c r="D222" t="s">
+        <v>630</v>
+      </c>
+      <c r="E222" t="s">
+        <v>69</v>
+      </c>
+      <c r="F222" t="s">
+        <v>625</v>
+      </c>
+      <c r="G222" t="s">
+        <v>16</v>
+      </c>
+      <c r="H222" t="s">
+        <v>16</v>
+      </c>
+      <c r="J222" t="s">
+        <v>17</v>
+      </c>
+      <c r="K222" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11">
+      <c r="A223">
+        <v>222</v>
+      </c>
+      <c r="B223" t="s">
+        <v>325</v>
+      </c>
+      <c r="C223" t="s">
+        <v>632</v>
+      </c>
+      <c r="D223" t="s">
+        <v>633</v>
+      </c>
+      <c r="E223" t="s">
+        <v>69</v>
+      </c>
+      <c r="F223" t="s">
+        <v>625</v>
+      </c>
+      <c r="G223" t="s">
+        <v>131</v>
+      </c>
+      <c r="H223" t="s">
+        <v>131</v>
+      </c>
+      <c r="J223" t="s">
+        <v>17</v>
+      </c>
+      <c r="K223" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11">
+      <c r="A224">
+        <v>223</v>
+      </c>
+      <c r="B224" t="s">
+        <v>23</v>
+      </c>
+      <c r="C224" t="s">
+        <v>634</v>
+      </c>
+      <c r="D224" t="s">
+        <v>635</v>
+      </c>
+      <c r="E224" t="s">
+        <v>15</v>
+      </c>
+      <c r="F224" t="s">
+        <v>15</v>
+      </c>
+      <c r="G224" t="s">
+        <v>16</v>
+      </c>
+      <c r="H224" t="s">
+        <v>16</v>
+      </c>
+      <c r="J224" t="s">
+        <v>17</v>
+      </c>
+      <c r="K224" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11">
+      <c r="A225">
+        <v>224</v>
+      </c>
+      <c r="B225" t="s">
+        <v>23</v>
+      </c>
+      <c r="C225" t="s">
+        <v>637</v>
+      </c>
+      <c r="D225" t="s">
+        <v>638</v>
+      </c>
+      <c r="E225" t="s">
+        <v>15</v>
+      </c>
+      <c r="F225" t="s">
+        <v>15</v>
+      </c>
+      <c r="G225" t="s">
+        <v>131</v>
+      </c>
+      <c r="H225" t="s">
+        <v>16</v>
+      </c>
+      <c r="J225" t="s">
+        <v>186</v>
+      </c>
+      <c r="K225" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11">
+      <c r="A226">
+        <v>225</v>
+      </c>
+      <c r="B226" t="s">
+        <v>11</v>
+      </c>
+      <c r="C226" t="s">
+        <v>639</v>
+      </c>
+      <c r="D226" t="s">
+        <v>635</v>
+      </c>
+      <c r="E226" t="s">
+        <v>640</v>
+      </c>
+      <c r="F226" t="s">
+        <v>15</v>
+      </c>
+      <c r="G226" t="s">
+        <v>16</v>
+      </c>
+      <c r="H226" t="s">
+        <v>16</v>
+      </c>
+      <c r="J226" t="s">
+        <v>17</v>
+      </c>
+      <c r="K226" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11">
+      <c r="A227">
+        <v>226</v>
+      </c>
+      <c r="B227" t="s">
+        <v>11</v>
+      </c>
+      <c r="C227" t="s">
+        <v>641</v>
+      </c>
+      <c r="D227" t="s">
+        <v>638</v>
+      </c>
+      <c r="E227" t="s">
+        <v>640</v>
+      </c>
+      <c r="F227" t="s">
+        <v>15</v>
+      </c>
+      <c r="G227" t="s">
+        <v>131</v>
+      </c>
+      <c r="H227" t="s">
+        <v>131</v>
+      </c>
+      <c r="J227" t="s">
+        <v>17</v>
+      </c>
+      <c r="K227" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11">
+      <c r="A228">
         <v>227</v>
       </c>
-      <c r="G106" t="s">
-        <v>16</v>
-      </c>
-      <c r="H106" t="s">
-        <v>16</v>
-      </c>
-      <c r="J106" t="s">
-        <v>17</v>
-      </c>
-      <c r="K106" t="s">
-        <v>288</v>
+      <c r="B228" t="s">
+        <v>125</v>
+      </c>
+      <c r="C228" t="s">
+        <v>642</v>
+      </c>
+      <c r="D228" t="s">
+        <v>643</v>
+      </c>
+      <c r="E228" t="s">
+        <v>430</v>
+      </c>
+      <c r="F228" t="s">
+        <v>644</v>
+      </c>
+      <c r="G228" t="s">
+        <v>16</v>
+      </c>
+      <c r="H228" t="s">
+        <v>16</v>
+      </c>
+      <c r="J228" t="s">
+        <v>17</v>
+      </c>
+      <c r="K228" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11">
+      <c r="A229">
+        <v>228</v>
+      </c>
+      <c r="B229" t="s">
+        <v>125</v>
+      </c>
+      <c r="C229" t="s">
+        <v>645</v>
+      </c>
+      <c r="D229" t="s">
+        <v>646</v>
+      </c>
+      <c r="E229" t="s">
+        <v>430</v>
+      </c>
+      <c r="F229" t="s">
+        <v>644</v>
+      </c>
+      <c r="G229" t="s">
+        <v>131</v>
+      </c>
+      <c r="H229" t="s">
+        <v>16</v>
+      </c>
+      <c r="J229" t="s">
+        <v>186</v>
+      </c>
+      <c r="K229" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11">
+      <c r="A230">
+        <v>229</v>
+      </c>
+      <c r="B230" t="s">
+        <v>23</v>
+      </c>
+      <c r="C230" t="s">
+        <v>647</v>
+      </c>
+      <c r="D230" t="s">
+        <v>648</v>
+      </c>
+      <c r="E230" t="s">
+        <v>649</v>
+      </c>
+      <c r="F230" t="s">
+        <v>15</v>
+      </c>
+      <c r="G230" t="s">
+        <v>16</v>
+      </c>
+      <c r="H230" t="s">
+        <v>16</v>
+      </c>
+      <c r="J230" t="s">
+        <v>17</v>
+      </c>
+      <c r="K230" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11">
+      <c r="A231">
+        <v>230</v>
+      </c>
+      <c r="B231" t="s">
+        <v>23</v>
+      </c>
+      <c r="C231" t="s">
+        <v>650</v>
+      </c>
+      <c r="D231" t="s">
+        <v>651</v>
+      </c>
+      <c r="E231" t="s">
+        <v>649</v>
+      </c>
+      <c r="F231" t="s">
+        <v>15</v>
+      </c>
+      <c r="G231" t="s">
+        <v>131</v>
+      </c>
+      <c r="H231" t="s">
+        <v>16</v>
+      </c>
+      <c r="J231" t="s">
+        <v>186</v>
+      </c>
+      <c r="K231" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11">
+      <c r="A232">
+        <v>231</v>
+      </c>
+      <c r="B232" t="s">
+        <v>325</v>
+      </c>
+      <c r="C232" t="s">
+        <v>652</v>
+      </c>
+      <c r="D232" t="s">
+        <v>653</v>
+      </c>
+      <c r="E232" t="s">
+        <v>69</v>
+      </c>
+      <c r="F232" t="s">
+        <v>654</v>
+      </c>
+      <c r="G232" t="s">
+        <v>16</v>
+      </c>
+      <c r="H232" t="s">
+        <v>16</v>
+      </c>
+      <c r="J232" t="s">
+        <v>17</v>
+      </c>
+      <c r="K232" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11">
+      <c r="A233">
+        <v>232</v>
+      </c>
+      <c r="B233" t="s">
+        <v>325</v>
+      </c>
+      <c r="C233" t="s">
+        <v>656</v>
+      </c>
+      <c r="D233" t="s">
+        <v>657</v>
+      </c>
+      <c r="E233" t="s">
+        <v>69</v>
+      </c>
+      <c r="F233" t="s">
+        <v>654</v>
+      </c>
+      <c r="G233" t="s">
+        <v>131</v>
+      </c>
+      <c r="H233" t="s">
+        <v>131</v>
+      </c>
+      <c r="J233" t="s">
+        <v>17</v>
+      </c>
+      <c r="K233" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11">
+      <c r="A234">
+        <v>233</v>
+      </c>
+      <c r="B234" t="s">
+        <v>125</v>
+      </c>
+      <c r="C234" t="s">
+        <v>659</v>
+      </c>
+      <c r="D234" t="s">
+        <v>660</v>
+      </c>
+      <c r="E234" t="s">
+        <v>69</v>
+      </c>
+      <c r="F234" t="s">
+        <v>661</v>
+      </c>
+      <c r="G234" t="s">
+        <v>16</v>
+      </c>
+      <c r="H234" t="s">
+        <v>16</v>
+      </c>
+      <c r="J234" t="s">
+        <v>17</v>
+      </c>
+      <c r="K234" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11">
+      <c r="A235">
+        <v>234</v>
+      </c>
+      <c r="B235" t="s">
+        <v>125</v>
+      </c>
+      <c r="C235" t="s">
+        <v>662</v>
+      </c>
+      <c r="D235" t="s">
+        <v>663</v>
+      </c>
+      <c r="E235" t="s">
+        <v>69</v>
+      </c>
+      <c r="F235" t="s">
+        <v>661</v>
+      </c>
+      <c r="G235" t="s">
+        <v>131</v>
+      </c>
+      <c r="H235" t="s">
+        <v>16</v>
+      </c>
+      <c r="J235" t="s">
+        <v>186</v>
+      </c>
+      <c r="K235" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11">
+      <c r="A236">
+        <v>235</v>
+      </c>
+      <c r="B236" t="s">
+        <v>18</v>
+      </c>
+      <c r="C236" t="s">
+        <v>664</v>
+      </c>
+      <c r="D236" t="s">
+        <v>665</v>
+      </c>
+      <c r="E236" t="s">
+        <v>666</v>
+      </c>
+      <c r="F236" t="s">
+        <v>15</v>
+      </c>
+      <c r="G236" t="s">
+        <v>16</v>
+      </c>
+      <c r="H236" t="s">
+        <v>16</v>
+      </c>
+      <c r="J236" t="s">
+        <v>17</v>
+      </c>
+      <c r="K236" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11">
+      <c r="A237">
+        <v>236</v>
+      </c>
+      <c r="B237" t="s">
+        <v>18</v>
+      </c>
+      <c r="C237" t="s">
+        <v>668</v>
+      </c>
+      <c r="D237" t="s">
+        <v>669</v>
+      </c>
+      <c r="E237" t="s">
+        <v>666</v>
+      </c>
+      <c r="F237" t="s">
+        <v>15</v>
+      </c>
+      <c r="G237" t="s">
+        <v>131</v>
+      </c>
+      <c r="H237" t="s">
+        <v>16</v>
+      </c>
+      <c r="J237" t="s">
+        <v>186</v>
+      </c>
+      <c r="K237" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11">
+      <c r="A238">
+        <v>237</v>
+      </c>
+      <c r="B238" t="s">
+        <v>23</v>
+      </c>
+      <c r="C238" t="s">
+        <v>671</v>
+      </c>
+      <c r="D238" t="s">
+        <v>672</v>
+      </c>
+      <c r="E238" t="s">
+        <v>673</v>
+      </c>
+      <c r="F238" t="s">
+        <v>15</v>
+      </c>
+      <c r="G238" t="s">
+        <v>16</v>
+      </c>
+      <c r="H238" t="s">
+        <v>16</v>
+      </c>
+      <c r="J238" t="s">
+        <v>17</v>
+      </c>
+      <c r="K238" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11">
+      <c r="A239">
+        <v>238</v>
+      </c>
+      <c r="B239" t="s">
+        <v>23</v>
+      </c>
+      <c r="C239" t="s">
+        <v>674</v>
+      </c>
+      <c r="D239" t="s">
+        <v>675</v>
+      </c>
+      <c r="E239" t="s">
+        <v>673</v>
+      </c>
+      <c r="F239" t="s">
+        <v>15</v>
+      </c>
+      <c r="G239" t="s">
+        <v>131</v>
+      </c>
+      <c r="H239" t="s">
+        <v>16</v>
+      </c>
+      <c r="J239" t="s">
+        <v>186</v>
+      </c>
+      <c r="K239" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11">
+      <c r="A240">
+        <v>239</v>
+      </c>
+      <c r="B240" t="s">
+        <v>325</v>
+      </c>
+      <c r="C240" t="s">
+        <v>676</v>
+      </c>
+      <c r="D240" t="s">
+        <v>677</v>
+      </c>
+      <c r="E240" t="s">
+        <v>397</v>
+      </c>
+      <c r="F240" t="s">
+        <v>678</v>
+      </c>
+      <c r="G240" t="s">
+        <v>16</v>
+      </c>
+      <c r="H240" t="s">
+        <v>131</v>
+      </c>
+      <c r="J240" t="s">
+        <v>186</v>
+      </c>
+      <c r="K240" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11">
+      <c r="A241">
+        <v>240</v>
+      </c>
+      <c r="B241" t="s">
+        <v>325</v>
+      </c>
+      <c r="C241" t="s">
+        <v>679</v>
+      </c>
+      <c r="D241" t="s">
+        <v>680</v>
+      </c>
+      <c r="E241" t="s">
+        <v>397</v>
+      </c>
+      <c r="F241" t="s">
+        <v>678</v>
+      </c>
+      <c r="G241" t="s">
+        <v>131</v>
+      </c>
+      <c r="H241" t="s">
+        <v>131</v>
+      </c>
+      <c r="J241" t="s">
+        <v>17</v>
+      </c>
+      <c r="K241" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11">
+      <c r="A242">
+        <v>241</v>
+      </c>
+      <c r="B242" t="s">
+        <v>125</v>
+      </c>
+      <c r="C242" t="s">
+        <v>681</v>
+      </c>
+      <c r="D242" t="s">
+        <v>682</v>
+      </c>
+      <c r="E242" t="s">
+        <v>397</v>
+      </c>
+      <c r="F242" t="s">
+        <v>683</v>
+      </c>
+      <c r="G242" t="s">
+        <v>16</v>
+      </c>
+      <c r="H242" t="s">
+        <v>16</v>
+      </c>
+      <c r="J242" t="s">
+        <v>17</v>
+      </c>
+      <c r="K242" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11">
+      <c r="A243">
+        <v>242</v>
+      </c>
+      <c r="B243" t="s">
+        <v>125</v>
+      </c>
+      <c r="C243" t="s">
+        <v>684</v>
+      </c>
+      <c r="D243" t="s">
+        <v>685</v>
+      </c>
+      <c r="E243" t="s">
+        <v>397</v>
+      </c>
+      <c r="F243" t="s">
+        <v>683</v>
+      </c>
+      <c r="G243" t="s">
+        <v>131</v>
+      </c>
+      <c r="H243" t="s">
+        <v>16</v>
+      </c>
+      <c r="J243" t="s">
+        <v>186</v>
+      </c>
+      <c r="K243" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11">
+      <c r="A244">
+        <v>243</v>
+      </c>
+      <c r="B244" t="s">
+        <v>65</v>
+      </c>
+      <c r="C244" t="s">
+        <v>686</v>
+      </c>
+      <c r="D244" t="s">
+        <v>687</v>
+      </c>
+      <c r="E244" t="s">
+        <v>688</v>
+      </c>
+      <c r="F244" t="s">
+        <v>689</v>
+      </c>
+      <c r="G244" t="s">
+        <v>16</v>
+      </c>
+      <c r="H244" t="s">
+        <v>16</v>
+      </c>
+      <c r="J244" t="s">
+        <v>17</v>
+      </c>
+      <c r="K244" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7">
+      <c r="A245">
+        <v>244</v>
+      </c>
+      <c r="B245" t="s">
+        <v>18</v>
+      </c>
+      <c r="C245" t="s">
+        <v>690</v>
+      </c>
+      <c r="D245" t="s">
+        <v>691</v>
+      </c>
+      <c r="E245" t="s">
+        <v>692</v>
+      </c>
+      <c r="F245" t="s">
+        <v>15</v>
+      </c>
+      <c r="G245" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7">
+      <c r="A246">
+        <v>245</v>
+      </c>
+      <c r="B246" t="s">
+        <v>18</v>
+      </c>
+      <c r="C246" t="s">
+        <v>693</v>
+      </c>
+      <c r="D246" t="s">
+        <v>694</v>
+      </c>
+      <c r="E246" t="s">
+        <v>692</v>
+      </c>
+      <c r="F246" t="s">
+        <v>15</v>
+      </c>
+      <c r="G246" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:F8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="23.125"/>
+    <col min="1" max="1" width="23.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>360</v>
+        <v>695</v>
       </c>
       <c r="B1" t="s">
-        <v>361</v>
+        <v>696</v>
       </c>
       <c r="C1" t="s">
         <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>362</v>
+        <v>186</v>
       </c>
       <c r="E1" t="s">
         <v>131</v>
       </c>
       <c r="F1" t="s">
-        <v>363</v>
+        <v>697</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>364</v>
-      </c>
-      <c r="B2" t="n">
+        <v>698</v>
+      </c>
+      <c r="B2">
         <v>90</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>90</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="B3" t="n">
+    <row r="3" spans="2:6">
+      <c r="B3">
         <v>90</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>90</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>0</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="B4" t="n">
+    <row r="4" spans="2:6">
+      <c r="B4">
         <v>90</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>89</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>0</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="B5" t="n">
+    <row r="5" spans="2:6">
+      <c r="B5">
         <v>90</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>90</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>0</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>0</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="B6" t="n">
+    <row r="6" spans="2:6">
+      <c r="B6">
         <v>90</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>89</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>1</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>0</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="B7" t="n">
+    <row r="7" spans="2:6">
+      <c r="B7">
         <v>105</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>105</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>0</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>0</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="19" r="14" spans="1:6"/>
+    <row r="8" spans="2:6">
+      <c r="B8">
+        <v>105</v>
+      </c>
+      <c r="C8">
+        <v>105</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9">
+        <v>105</v>
+      </c>
+      <c r="C9">
+        <v>101</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10">
+        <v>105</v>
+      </c>
+      <c r="C10">
+        <v>105</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11">
+        <v>105</v>
+      </c>
+      <c r="C11">
+        <v>98</v>
+      </c>
+      <c r="D11">
+        <v>6</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.0095</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12">
+        <v>105</v>
+      </c>
+      <c r="C12">
+        <v>98</v>
+      </c>
+      <c r="D12">
+        <v>7</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13">
+        <v>105</v>
+      </c>
+      <c r="C13">
+        <v>102</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14">
+        <v>105</v>
+      </c>
+      <c r="C14">
+        <v>103</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" ht="19" customHeight="1"/>
   </sheetData>
-  <pageMargins bottom="1" footer="0.511805555555556" header="0.511805555555556" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>